--- a/RedChannel.xlsx
+++ b/RedChannel.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I302"/>
+  <dimension ref="A1:I602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9196,6 +9196,8706 @@
         <v>0.8085263267147845</v>
       </c>
     </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>129.1439666748047</v>
+      </c>
+      <c r="B303" t="n">
+        <v>46.8255352088534</v>
+      </c>
+      <c r="C303" t="n">
+        <v>-0.471316296379561</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0.04504233634307875</v>
+      </c>
+      <c r="E303" t="n">
+        <v>7.462802773240141</v>
+      </c>
+      <c r="F303" t="n">
+        <v>840.6794424019608</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.01067454457889383</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0.06640493393896678</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0.8085263267147845</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>142.8321228027344</v>
+      </c>
+      <c r="B304" t="n">
+        <v>35.86916163240343</v>
+      </c>
+      <c r="C304" t="n">
+        <v>-1.394636372066214</v>
+      </c>
+      <c r="D304" t="n">
+        <v>3.09419367660252</v>
+      </c>
+      <c r="E304" t="n">
+        <v>6.92582097268021</v>
+      </c>
+      <c r="F304" t="n">
+        <v>844.8405330882355</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.01302910276622968</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0.05854030413322417</v>
+      </c>
+      <c r="I304" t="n">
+        <v>0.6723772500089913</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>129.5636901855469</v>
+      </c>
+      <c r="B305" t="n">
+        <v>42.77420557193629</v>
+      </c>
+      <c r="C305" t="n">
+        <v>-0.6844910852995457</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0.2820484267667411</v>
+      </c>
+      <c r="E305" t="n">
+        <v>7.344414849514326</v>
+      </c>
+      <c r="F305" t="n">
+        <v>1102.942922794118</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.009797983802379727</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0.04487487840909713</v>
+      </c>
+      <c r="I305" t="n">
+        <v>0.6992516412613111</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>138.0785217285156</v>
+      </c>
+      <c r="B306" t="n">
+        <v>42.29866609516129</v>
+      </c>
+      <c r="C306" t="n">
+        <v>-1.141965882796733</v>
+      </c>
+      <c r="D306" t="n">
+        <v>1.258940063003962</v>
+      </c>
+      <c r="E306" t="n">
+        <v>7.085798648790948</v>
+      </c>
+      <c r="F306" t="n">
+        <v>572.447181372549</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.01455316369217761</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0.1018801717794824</v>
+      </c>
+      <c r="I306" t="n">
+        <v>0.8399378214567922</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>151.0762786865234</v>
+      </c>
+      <c r="B307" t="n">
+        <v>46.08057936881114</v>
+      </c>
+      <c r="C307" t="n">
+        <v>-1.024812827810947</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0.6102556432233741</v>
+      </c>
+      <c r="E307" t="n">
+        <v>7.303880325533995</v>
+      </c>
+      <c r="F307" t="n">
+        <v>604.2432444852943</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.01787763237100648</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0.1514950901678952</v>
+      </c>
+      <c r="I307" t="n">
+        <v>0.8580817701735522</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>140.4519805908203</v>
+      </c>
+      <c r="B308" t="n">
+        <v>45.91125467364846</v>
+      </c>
+      <c r="C308" t="n">
+        <v>-0.8218064538134181</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0.3637624938604485</v>
+      </c>
+      <c r="E308" t="n">
+        <v>7.349011056583155</v>
+      </c>
+      <c r="F308" t="n">
+        <v>592.7416207107844</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.01242966684538854</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0.09201926266356074</v>
+      </c>
+      <c r="I308" t="n">
+        <v>0.859669169597819</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>126.7587890625</v>
+      </c>
+      <c r="B309" t="n">
+        <v>42.04830206664625</v>
+      </c>
+      <c r="C309" t="n">
+        <v>-1.034161948946674</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0.5712596686889877</v>
+      </c>
+      <c r="E309" t="n">
+        <v>7.15307515556945</v>
+      </c>
+      <c r="F309" t="n">
+        <v>500.5631587009804</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.01691163982530619</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0.145438855165017</v>
+      </c>
+      <c r="I309" t="n">
+        <v>0.858692914624816</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>124.0037841796875</v>
+      </c>
+      <c r="B310" t="n">
+        <v>22.9677531742941</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0.3641192548369109</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0.1658065987664763</v>
+      </c>
+      <c r="E310" t="n">
+        <v>6.505617722748265</v>
+      </c>
+      <c r="F310" t="n">
+        <v>114.5015318627451</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.02343713955893546</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0.1871223186613831</v>
+      </c>
+      <c r="I310" t="n">
+        <v>0.8916523340773271</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>103.551513671875</v>
+      </c>
+      <c r="B311" t="n">
+        <v>40.56958135779426</v>
+      </c>
+      <c r="C311" t="n">
+        <v>-0.1483174910190533</v>
+      </c>
+      <c r="D311" t="n">
+        <v>-0.4369833702812094</v>
+      </c>
+      <c r="E311" t="n">
+        <v>7.349154521770386</v>
+      </c>
+      <c r="F311" t="n">
+        <v>638.7619025735295</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.01054413520186367</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0.0656294324691785</v>
+      </c>
+      <c r="I311" t="n">
+        <v>0.8062022214853349</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>123.1365203857422</v>
+      </c>
+      <c r="B312" t="n">
+        <v>40.09932461064869</v>
+      </c>
+      <c r="C312" t="n">
+        <v>-0.2689630639334594</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0.5611935204998244</v>
+      </c>
+      <c r="E312" t="n">
+        <v>7.306792452685015</v>
+      </c>
+      <c r="F312" t="n">
+        <v>1380.870450367647</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.009799037539586729</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0.04317859480120035</v>
+      </c>
+      <c r="I312" t="n">
+        <v>0.5708238662215863</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>101.8009185791016</v>
+      </c>
+      <c r="B313" t="n">
+        <v>51.05840466585715</v>
+      </c>
+      <c r="C313" t="n">
+        <v>-0.08091392590243691</v>
+      </c>
+      <c r="D313" t="n">
+        <v>-1.252459032075533</v>
+      </c>
+      <c r="E313" t="n">
+        <v>7.508225819747867</v>
+      </c>
+      <c r="F313" t="n">
+        <v>587.9059283088236</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.01034212715626943</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0.077414949048284</v>
+      </c>
+      <c r="I313" t="n">
+        <v>0.8872168180194873</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>123.5727844238281</v>
+      </c>
+      <c r="B314" t="n">
+        <v>44.63416643957601</v>
+      </c>
+      <c r="C314" t="n">
+        <v>-0.2788810518021962</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0.01054344625835091</v>
+      </c>
+      <c r="E314" t="n">
+        <v>7.445325916820694</v>
+      </c>
+      <c r="F314" t="n">
+        <v>2210.957628676471</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.009221661046876295</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0.04164393173968998</v>
+      </c>
+      <c r="I314" t="n">
+        <v>0.445719036133878</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>135.7341156005859</v>
+      </c>
+      <c r="B315" t="n">
+        <v>54.46728036907599</v>
+      </c>
+      <c r="C315" t="n">
+        <v>-0.3924608034067638</v>
+      </c>
+      <c r="D315" t="n">
+        <v>-0.7376780137890382</v>
+      </c>
+      <c r="E315" t="n">
+        <v>7.662302093172466</v>
+      </c>
+      <c r="F315" t="n">
+        <v>1146.307674632353</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.0088750791945392</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0.0563004242029845</v>
+      </c>
+      <c r="I315" t="n">
+        <v>0.8070273922917492</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>131.6432952880859</v>
+      </c>
+      <c r="B316" t="n">
+        <v>40.14724263528284</v>
+      </c>
+      <c r="C316" t="n">
+        <v>-0.4695929563347707</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0.06525588746624855</v>
+      </c>
+      <c r="E316" t="n">
+        <v>7.326241123333133</v>
+      </c>
+      <c r="F316" t="n">
+        <v>1262.316299019608</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.009148953260808279</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0.0391331610278059</v>
+      </c>
+      <c r="I316" t="n">
+        <v>0.6091626102111605</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>144.7758636474609</v>
+      </c>
+      <c r="B317" t="n">
+        <v>55.88669931855539</v>
+      </c>
+      <c r="C317" t="n">
+        <v>-0.215045520333925</v>
+      </c>
+      <c r="D317" t="n">
+        <v>-0.9744198664665804</v>
+      </c>
+      <c r="E317" t="n">
+        <v>7.681282607037258</v>
+      </c>
+      <c r="F317" t="n">
+        <v>893.8368106617647</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.01174042633529166</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0.09942096285708103</v>
+      </c>
+      <c r="I317" t="n">
+        <v>0.8568176576500592</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>112.4647979736328</v>
+      </c>
+      <c r="B318" t="n">
+        <v>31.69044033490343</v>
+      </c>
+      <c r="C318" t="n">
+        <v>-0.06330814206546596</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0.1283119992031634</v>
+      </c>
+      <c r="E318" t="n">
+        <v>6.880019659817431</v>
+      </c>
+      <c r="F318" t="n">
+        <v>48.22601102941177</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.02859817487475554</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0.2869251337580236</v>
+      </c>
+      <c r="I318" t="n">
+        <v>0.9760174732418367</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>118.349853515625</v>
+      </c>
+      <c r="B319" t="n">
+        <v>47.02533291762748</v>
+      </c>
+      <c r="C319" t="n">
+        <v>-0.3645846700251617</v>
+      </c>
+      <c r="D319" t="n">
+        <v>-0.1958985011217327</v>
+      </c>
+      <c r="E319" t="n">
+        <v>7.49467969324481</v>
+      </c>
+      <c r="F319" t="n">
+        <v>1678.48821997549</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.009868620767150218</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0.049588005525792</v>
+      </c>
+      <c r="I319" t="n">
+        <v>0.6207876557684456</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>126.4881439208984</v>
+      </c>
+      <c r="B320" t="n">
+        <v>35.47566286997676</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0.1010163294175087</v>
+      </c>
+      <c r="D320" t="n">
+        <v>-0.6367932538497789</v>
+      </c>
+      <c r="E320" t="n">
+        <v>7.080246469416725</v>
+      </c>
+      <c r="F320" t="n">
+        <v>32.53429840686275</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.03020993351268312</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0.3626572277920176</v>
+      </c>
+      <c r="I320" t="n">
+        <v>0.9870953713613636</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>220.3784942626953</v>
+      </c>
+      <c r="B321" t="n">
+        <v>54.97403318377293</v>
+      </c>
+      <c r="C321" t="n">
+        <v>-1.748436939742359</v>
+      </c>
+      <c r="D321" t="n">
+        <v>1.890289194516359</v>
+      </c>
+      <c r="E321" t="n">
+        <v>5.584147174811942</v>
+      </c>
+      <c r="F321" t="n">
+        <v>1524.916927083333</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.1529803778655958</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0.2240801586408526</v>
+      </c>
+      <c r="I321" t="n">
+        <v>0.7483373568360809</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>100.1164398193359</v>
+      </c>
+      <c r="B322" t="n">
+        <v>27.61433873206623</v>
+      </c>
+      <c r="C322" t="n">
+        <v>-0.7686822495287118</v>
+      </c>
+      <c r="D322" t="n">
+        <v>0.03742554346453053</v>
+      </c>
+      <c r="E322" t="n">
+        <v>6.651727575414883</v>
+      </c>
+      <c r="F322" t="n">
+        <v>90.76323529411765</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.02760040901172262</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0.2426459685422485</v>
+      </c>
+      <c r="I322" t="n">
+        <v>0.9406414533783584</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>127.5047760009766</v>
+      </c>
+      <c r="B323" t="n">
+        <v>50.01049030961578</v>
+      </c>
+      <c r="C323" t="n">
+        <v>-0.7509572885438878</v>
+      </c>
+      <c r="D323" t="n">
+        <v>-0.1921994268554803</v>
+      </c>
+      <c r="E323" t="n">
+        <v>7.439202896153786</v>
+      </c>
+      <c r="F323" t="n">
+        <v>746.4041207107845</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.01280182746064717</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0.1074607074873142</v>
+      </c>
+      <c r="I323" t="n">
+        <v>0.8510247420865938</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>117.3607788085938</v>
+      </c>
+      <c r="B324" t="n">
+        <v>46.59746579100045</v>
+      </c>
+      <c r="C324" t="n">
+        <v>-0.2055445101133949</v>
+      </c>
+      <c r="D324" t="n">
+        <v>-0.5360130591198362</v>
+      </c>
+      <c r="E324" t="n">
+        <v>7.519742400750207</v>
+      </c>
+      <c r="F324" t="n">
+        <v>1778.238189338235</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.008526794430939054</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0.04193327667581377</v>
+      </c>
+      <c r="I324" t="n">
+        <v>0.5911562631116936</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>126.1203765869141</v>
+      </c>
+      <c r="B325" t="n">
+        <v>45.31985482961224</v>
+      </c>
+      <c r="C325" t="n">
+        <v>-0.8366589613879698</v>
+      </c>
+      <c r="D325" t="n">
+        <v>0.6953538904322611</v>
+      </c>
+      <c r="E325" t="n">
+        <v>7.204871178979123</v>
+      </c>
+      <c r="F325" t="n">
+        <v>582.6936427696079</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.02613254579540414</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0.1306424246411883</v>
+      </c>
+      <c r="I325" t="n">
+        <v>0.8582279205475914</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>87.6082763671875</v>
+      </c>
+      <c r="B326" t="n">
+        <v>52.63482728960392</v>
+      </c>
+      <c r="C326" t="n">
+        <v>-0.2046290096183393</v>
+      </c>
+      <c r="D326" t="n">
+        <v>-0.9583210512858376</v>
+      </c>
+      <c r="E326" t="n">
+        <v>6.974275371803686</v>
+      </c>
+      <c r="F326" t="n">
+        <v>555.1374693627453</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.1202804931911382</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0.1823147400448426</v>
+      </c>
+      <c r="I326" t="n">
+        <v>0.8994216436466359</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>131.9781036376953</v>
+      </c>
+      <c r="B327" t="n">
+        <v>42.81327760376735</v>
+      </c>
+      <c r="C327" t="n">
+        <v>-1.12066663491781</v>
+      </c>
+      <c r="D327" t="n">
+        <v>0.086347031437493</v>
+      </c>
+      <c r="E327" t="n">
+        <v>6.852355226646263</v>
+      </c>
+      <c r="F327" t="n">
+        <v>332.1441329656863</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.02950466270010883</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0.2044905106152743</v>
+      </c>
+      <c r="I327" t="n">
+        <v>0.9095889939832086</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>115.4158172607422</v>
+      </c>
+      <c r="B328" t="n">
+        <v>36.86644944475798</v>
+      </c>
+      <c r="C328" t="n">
+        <v>-0.4016964137217162</v>
+      </c>
+      <c r="D328" t="n">
+        <v>0.01228216490337353</v>
+      </c>
+      <c r="E328" t="n">
+        <v>7.213972516185647</v>
+      </c>
+      <c r="F328" t="n">
+        <v>507.0899356617649</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.01203114116586734</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0.07645810055220192</v>
+      </c>
+      <c r="I328" t="n">
+        <v>0.8136984480749836</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>94.47294616699219</v>
+      </c>
+      <c r="B329" t="n">
+        <v>50.02802895309705</v>
+      </c>
+      <c r="C329" t="n">
+        <v>-0.1210198896039366</v>
+      </c>
+      <c r="D329" t="n">
+        <v>-1.577654460707287</v>
+      </c>
+      <c r="E329" t="n">
+        <v>7.104566422822408</v>
+      </c>
+      <c r="F329" t="n">
+        <v>109.7150428921569</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.02016637814640927</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0.1785769405850973</v>
+      </c>
+      <c r="I329" t="n">
+        <v>0.9781133573377349</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>129.3142395019531</v>
+      </c>
+      <c r="B330" t="n">
+        <v>43.1389870871414</v>
+      </c>
+      <c r="C330" t="n">
+        <v>-0.8519877114248273</v>
+      </c>
+      <c r="D330" t="n">
+        <v>0.4706161792015875</v>
+      </c>
+      <c r="E330" t="n">
+        <v>7.299577349824515</v>
+      </c>
+      <c r="F330" t="n">
+        <v>954.9958486519607</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.01127459305702425</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0.05995339653324164</v>
+      </c>
+      <c r="I330" t="n">
+        <v>0.7439724232998985</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>121.6123962402344</v>
+      </c>
+      <c r="B331" t="n">
+        <v>49.37403302203064</v>
+      </c>
+      <c r="C331" t="n">
+        <v>-0.4588397635454532</v>
+      </c>
+      <c r="D331" t="n">
+        <v>-0.4258784587737989</v>
+      </c>
+      <c r="E331" t="n">
+        <v>7.507501643708114</v>
+      </c>
+      <c r="F331" t="n">
+        <v>928.5470894607845</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.01052765357720549</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0.06799768364695065</v>
+      </c>
+      <c r="I331" t="n">
+        <v>0.8097107817226971</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>109.7732696533203</v>
+      </c>
+      <c r="B332" t="n">
+        <v>50.04172971975501</v>
+      </c>
+      <c r="C332" t="n">
+        <v>-0.04766912203782352</v>
+      </c>
+      <c r="D332" t="n">
+        <v>-0.6774942687896748</v>
+      </c>
+      <c r="E332" t="n">
+        <v>7.589048907601282</v>
+      </c>
+      <c r="F332" t="n">
+        <v>2182.907735906863</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.008883958715714207</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0.04959181928249794</v>
+      </c>
+      <c r="I332" t="n">
+        <v>0.5646134187727062</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>124.5575714111328</v>
+      </c>
+      <c r="B333" t="n">
+        <v>52.72123603435006</v>
+      </c>
+      <c r="C333" t="n">
+        <v>-0.2431197092068479</v>
+      </c>
+      <c r="D333" t="n">
+        <v>-1.2639447483008</v>
+      </c>
+      <c r="E333" t="n">
+        <v>7.453896622543446</v>
+      </c>
+      <c r="F333" t="n">
+        <v>581.5872702205884</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.01489476395266935</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0.1326648156087498</v>
+      </c>
+      <c r="I333" t="n">
+        <v>0.8954890187774449</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>135.2522125244141</v>
+      </c>
+      <c r="B334" t="n">
+        <v>20.52626631746022</v>
+      </c>
+      <c r="C334" t="n">
+        <v>0.6847863563740547</v>
+      </c>
+      <c r="D334" t="n">
+        <v>2.729629860439715</v>
+      </c>
+      <c r="E334" t="n">
+        <v>6.126149068477151</v>
+      </c>
+      <c r="F334" t="n">
+        <v>12.17227328431372</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.052197880813438</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0.4242798664758488</v>
+      </c>
+      <c r="I334" t="n">
+        <v>0.9855990099493849</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>117.7625732421875</v>
+      </c>
+      <c r="B335" t="n">
+        <v>50.10902414877081</v>
+      </c>
+      <c r="C335" t="n">
+        <v>-0.216917739332687</v>
+      </c>
+      <c r="D335" t="n">
+        <v>-0.7072969991891234</v>
+      </c>
+      <c r="E335" t="n">
+        <v>7.565923681613983</v>
+      </c>
+      <c r="F335" t="n">
+        <v>1815.810294117647</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.01031133670171451</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0.05328581781748082</v>
+      </c>
+      <c r="I335" t="n">
+        <v>0.6388575044740455</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>129.2060394287109</v>
+      </c>
+      <c r="B336" t="n">
+        <v>37.57303858215101</v>
+      </c>
+      <c r="C336" t="n">
+        <v>-0.7688884837205596</v>
+      </c>
+      <c r="D336" t="n">
+        <v>1.33718045209566</v>
+      </c>
+      <c r="E336" t="n">
+        <v>7.138211776720811</v>
+      </c>
+      <c r="F336" t="n">
+        <v>623.9564338235296</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.01643181119425532</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0.1369072737153904</v>
+      </c>
+      <c r="I336" t="n">
+        <v>0.7792290180632931</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>109.0341491699219</v>
+      </c>
+      <c r="B337" t="n">
+        <v>23.46083655065307</v>
+      </c>
+      <c r="C337" t="n">
+        <v>0.2713798189515417</v>
+      </c>
+      <c r="D337" t="n">
+        <v>-0.7015392116886248</v>
+      </c>
+      <c r="E337" t="n">
+        <v>6.502880935338198</v>
+      </c>
+      <c r="F337" t="n">
+        <v>182.0547334558823</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.01887498591664423</v>
+      </c>
+      <c r="H337" t="n">
+        <v>0.1149915420409289</v>
+      </c>
+      <c r="I337" t="n">
+        <v>0.8346580115008005</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>133.0325012207031</v>
+      </c>
+      <c r="B338" t="n">
+        <v>31.23335513074744</v>
+      </c>
+      <c r="C338" t="n">
+        <v>-1.159591304251218</v>
+      </c>
+      <c r="D338" t="n">
+        <v>2.211254121163797</v>
+      </c>
+      <c r="E338" t="n">
+        <v>6.806612725761921</v>
+      </c>
+      <c r="F338" t="n">
+        <v>732.0547181372551</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.01453874137437327</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0.05738978661756112</v>
+      </c>
+      <c r="I338" t="n">
+        <v>0.6256768414040769</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>111.3174591064453</v>
+      </c>
+      <c r="B339" t="n">
+        <v>65.40006072053691</v>
+      </c>
+      <c r="C339" t="n">
+        <v>-0.1615125185129625</v>
+      </c>
+      <c r="D339" t="n">
+        <v>-1.258817603779604</v>
+      </c>
+      <c r="E339" t="n">
+        <v>7.458263901133502</v>
+      </c>
+      <c r="F339" t="n">
+        <v>632.5669424019607</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.04898845804861313</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0.1945603125276568</v>
+      </c>
+      <c r="I339" t="n">
+        <v>0.9261082671963679</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>208.7980804443359</v>
+      </c>
+      <c r="B340" t="n">
+        <v>62.98579428211956</v>
+      </c>
+      <c r="C340" t="n">
+        <v>-1.383522767074412</v>
+      </c>
+      <c r="D340" t="n">
+        <v>0.8029944584536342</v>
+      </c>
+      <c r="E340" t="n">
+        <v>5.890181758593283</v>
+      </c>
+      <c r="F340" t="n">
+        <v>1433.274540441176</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.2287413377455107</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0.2983847690118349</v>
+      </c>
+      <c r="I340" t="n">
+        <v>0.8197116818025175</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>125.9695587158203</v>
+      </c>
+      <c r="B341" t="n">
+        <v>38.28461486121261</v>
+      </c>
+      <c r="C341" t="n">
+        <v>-1.102555585422026</v>
+      </c>
+      <c r="D341" t="n">
+        <v>0.7284534335979744</v>
+      </c>
+      <c r="E341" t="n">
+        <v>6.981723930640576</v>
+      </c>
+      <c r="F341" t="n">
+        <v>468.1470281862745</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.01785218936177439</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0.1068964104415309</v>
+      </c>
+      <c r="I341" t="n">
+        <v>0.8406089091170892</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>157.2730407714844</v>
+      </c>
+      <c r="B342" t="n">
+        <v>40.89340835252457</v>
+      </c>
+      <c r="C342" t="n">
+        <v>-1.13379014127267</v>
+      </c>
+      <c r="D342" t="n">
+        <v>1.419781422960141</v>
+      </c>
+      <c r="E342" t="n">
+        <v>7.197148603518945</v>
+      </c>
+      <c r="F342" t="n">
+        <v>820.0983455882352</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.01149830094990026</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0.05855573232703321</v>
+      </c>
+      <c r="I342" t="n">
+        <v>0.7551923001499935</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>119.6426086425781</v>
+      </c>
+      <c r="B343" t="n">
+        <v>52.78252014903111</v>
+      </c>
+      <c r="C343" t="n">
+        <v>-0.05849149645311248</v>
+      </c>
+      <c r="D343" t="n">
+        <v>-0.7716105013148846</v>
+      </c>
+      <c r="E343" t="n">
+        <v>7.670342283090692</v>
+      </c>
+      <c r="F343" t="n">
+        <v>934.0068780637257</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.009355531135151553</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0.06971919644440094</v>
+      </c>
+      <c r="I343" t="n">
+        <v>0.8324656491134316</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>92.27583312988281</v>
+      </c>
+      <c r="B344" t="n">
+        <v>45.39482734629883</v>
+      </c>
+      <c r="C344" t="n">
+        <v>-0.9098592141273139</v>
+      </c>
+      <c r="D344" t="n">
+        <v>0.1214971463180179</v>
+      </c>
+      <c r="E344" t="n">
+        <v>6.409191124236294</v>
+      </c>
+      <c r="F344" t="n">
+        <v>623.3837162990197</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.1290072396557513</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0.1836121030650613</v>
+      </c>
+      <c r="I344" t="n">
+        <v>0.8478058862050077</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>102.9644165039062</v>
+      </c>
+      <c r="B345" t="n">
+        <v>63.40691961070125</v>
+      </c>
+      <c r="C345" t="n">
+        <v>-0.5186516276569951</v>
+      </c>
+      <c r="D345" t="n">
+        <v>-1.219972195359877</v>
+      </c>
+      <c r="E345" t="n">
+        <v>6.917035651805635</v>
+      </c>
+      <c r="F345" t="n">
+        <v>685.9255055147058</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.1230914447060475</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0.2344472908935633</v>
+      </c>
+      <c r="I345" t="n">
+        <v>0.9144360472172527</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>91.64501953125</v>
+      </c>
+      <c r="B346" t="n">
+        <v>42.01524216948137</v>
+      </c>
+      <c r="C346" t="n">
+        <v>0.1142723680397991</v>
+      </c>
+      <c r="D346" t="n">
+        <v>-1.178054708859432</v>
+      </c>
+      <c r="E346" t="n">
+        <v>7.258038215869201</v>
+      </c>
+      <c r="F346" t="n">
+        <v>192.8698529411765</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.01440164447568897</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0.1251978781714799</v>
+      </c>
+      <c r="I346" t="n">
+        <v>0.9453557731469913</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>166.0337982177734</v>
+      </c>
+      <c r="B347" t="n">
+        <v>41.24632702503887</v>
+      </c>
+      <c r="C347" t="n">
+        <v>-0.7973534274407263</v>
+      </c>
+      <c r="D347" t="n">
+        <v>0.4048806419651791</v>
+      </c>
+      <c r="E347" t="n">
+        <v>7.277979115322649</v>
+      </c>
+      <c r="F347" t="n">
+        <v>960.4020680147062</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.01042918437608082</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0.04503115384495635</v>
+      </c>
+      <c r="I347" t="n">
+        <v>0.718139920211562</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>116.9037933349609</v>
+      </c>
+      <c r="B348" t="n">
+        <v>32.60084321434633</v>
+      </c>
+      <c r="C348" t="n">
+        <v>-0.2994598791979585</v>
+      </c>
+      <c r="D348" t="n">
+        <v>-0.7571057906190584</v>
+      </c>
+      <c r="E348" t="n">
+        <v>6.845168656309895</v>
+      </c>
+      <c r="F348" t="n">
+        <v>160.692662377451</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.0205379780940027</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0.1631895560228855</v>
+      </c>
+      <c r="I348" t="n">
+        <v>0.9243844951007673</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>126.4569091796875</v>
+      </c>
+      <c r="B349" t="n">
+        <v>43.54960983426098</v>
+      </c>
+      <c r="C349" t="n">
+        <v>-0.6606029305255346</v>
+      </c>
+      <c r="D349" t="n">
+        <v>0.0715893811229904</v>
+      </c>
+      <c r="E349" t="n">
+        <v>7.345538367857447</v>
+      </c>
+      <c r="F349" t="n">
+        <v>1356.472242647059</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.00973766000274975</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0.04882969111638875</v>
+      </c>
+      <c r="I349" t="n">
+        <v>0.6431763131763909</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>102.8190612792969</v>
+      </c>
+      <c r="B350" t="n">
+        <v>24.2117310987968</v>
+      </c>
+      <c r="C350" t="n">
+        <v>-0.3102397889952139</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0.1118897001785379</v>
+      </c>
+      <c r="E350" t="n">
+        <v>6.597688182928196</v>
+      </c>
+      <c r="F350" t="n">
+        <v>482.5099877450982</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.01534493757741797</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0.07255355123315198</v>
+      </c>
+      <c r="I350" t="n">
+        <v>0.5885439375280297</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>146.685546875</v>
+      </c>
+      <c r="B351" t="n">
+        <v>50.5688589881078</v>
+      </c>
+      <c r="C351" t="n">
+        <v>-0.6730361963633084</v>
+      </c>
+      <c r="D351" t="n">
+        <v>0.0548073863737657</v>
+      </c>
+      <c r="E351" t="n">
+        <v>7.512059734620986</v>
+      </c>
+      <c r="F351" t="n">
+        <v>878.1009497549019</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.01051391403304049</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0.06123879526515918</v>
+      </c>
+      <c r="I351" t="n">
+        <v>0.828580091784834</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>100.4255523681641</v>
+      </c>
+      <c r="B352" t="n">
+        <v>50.43137928786289</v>
+      </c>
+      <c r="C352" t="n">
+        <v>0.01992135127549035</v>
+      </c>
+      <c r="D352" t="n">
+        <v>-1.213522817574208</v>
+      </c>
+      <c r="E352" t="n">
+        <v>7.405584061650921</v>
+      </c>
+      <c r="F352" t="n">
+        <v>218.1109834558824</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.0182550997773264</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0.1959999002852358</v>
+      </c>
+      <c r="I352" t="n">
+        <v>0.9571079109820505</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>113.7342071533203</v>
+      </c>
+      <c r="B353" t="n">
+        <v>52.66698894144007</v>
+      </c>
+      <c r="C353" t="n">
+        <v>-0.1884620550159101</v>
+      </c>
+      <c r="D353" t="n">
+        <v>-0.9043977943933479</v>
+      </c>
+      <c r="E353" t="n">
+        <v>7.537561421038987</v>
+      </c>
+      <c r="F353" t="n">
+        <v>1688.805300245098</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.01482949161154527</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0.07910466642734472</v>
+      </c>
+      <c r="I353" t="n">
+        <v>0.6959464247325262</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>113.9782104492188</v>
+      </c>
+      <c r="B354" t="n">
+        <v>19.98567483362322</v>
+      </c>
+      <c r="C354" t="n">
+        <v>0.225359446994082</v>
+      </c>
+      <c r="D354" t="n">
+        <v>0.3622739610679071</v>
+      </c>
+      <c r="E354" t="n">
+        <v>6.343402178947642</v>
+      </c>
+      <c r="F354" t="n">
+        <v>166.4614583333333</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.02221690066167676</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0.1603159866420621</v>
+      </c>
+      <c r="I354" t="n">
+        <v>0.7918013333373128</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>122.7744903564453</v>
+      </c>
+      <c r="B355" t="n">
+        <v>50.23473011407608</v>
+      </c>
+      <c r="C355" t="n">
+        <v>-0.2305876022239354</v>
+      </c>
+      <c r="D355" t="n">
+        <v>-0.7550301708551079</v>
+      </c>
+      <c r="E355" t="n">
+        <v>7.611857933250015</v>
+      </c>
+      <c r="F355" t="n">
+        <v>489.4614889705883</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.01143736366947614</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0.1146922563908766</v>
+      </c>
+      <c r="I355" t="n">
+        <v>0.9028336617807371</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>127.29443359375</v>
+      </c>
+      <c r="B356" t="n">
+        <v>52.40163669059405</v>
+      </c>
+      <c r="C356" t="n">
+        <v>-0.593097486735255</v>
+      </c>
+      <c r="D356" t="n">
+        <v>-0.4737778569330304</v>
+      </c>
+      <c r="E356" t="n">
+        <v>7.48667413868112</v>
+      </c>
+      <c r="F356" t="n">
+        <v>707.5693014705881</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.01493089258949642</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0.1183452471914581</v>
+      </c>
+      <c r="I356" t="n">
+        <v>0.8714126687457967</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>107.0819854736328</v>
+      </c>
+      <c r="B357" t="n">
+        <v>59.66026155881234</v>
+      </c>
+      <c r="C357" t="n">
+        <v>0.0005970277736406834</v>
+      </c>
+      <c r="D357" t="n">
+        <v>-1.260648779450513</v>
+      </c>
+      <c r="E357" t="n">
+        <v>7.682783494732294</v>
+      </c>
+      <c r="F357" t="n">
+        <v>726.6095435049019</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.01151064132680387</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0.1109178846560969</v>
+      </c>
+      <c r="I357" t="n">
+        <v>0.8978669266220802</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>130.2566070556641</v>
+      </c>
+      <c r="B358" t="n">
+        <v>47.30346877932197</v>
+      </c>
+      <c r="C358" t="n">
+        <v>-0.8802598908035264</v>
+      </c>
+      <c r="D358" t="n">
+        <v>0.1791717090900615</v>
+      </c>
+      <c r="E358" t="n">
+        <v>7.364357326142725</v>
+      </c>
+      <c r="F358" t="n">
+        <v>695.9612898284313</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.01136078407181068</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0.06627682876959061</v>
+      </c>
+      <c r="I358" t="n">
+        <v>0.8447005852389633</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>124.3483123779297</v>
+      </c>
+      <c r="B359" t="n">
+        <v>34.2809598060028</v>
+      </c>
+      <c r="C359" t="n">
+        <v>0.05585376307178107</v>
+      </c>
+      <c r="D359" t="n">
+        <v>-0.5996066819442651</v>
+      </c>
+      <c r="E359" t="n">
+        <v>7.003888332473053</v>
+      </c>
+      <c r="F359" t="n">
+        <v>53.00765931372549</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.02362991510102016</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0.240260622808965</v>
+      </c>
+      <c r="I359" t="n">
+        <v>0.9774775386613802</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>133.5459289550781</v>
+      </c>
+      <c r="B360" t="n">
+        <v>26.24444049021367</v>
+      </c>
+      <c r="C360" t="n">
+        <v>-0.2826370069400098</v>
+      </c>
+      <c r="D360" t="n">
+        <v>2.497664893410271</v>
+      </c>
+      <c r="E360" t="n">
+        <v>6.600780393612045</v>
+      </c>
+      <c r="F360" t="n">
+        <v>54.10107230392157</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.03203515084765539</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0.2729115256333077</v>
+      </c>
+      <c r="I360" t="n">
+        <v>0.9608438398870265</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>107.9943084716797</v>
+      </c>
+      <c r="B361" t="n">
+        <v>45.11405712845946</v>
+      </c>
+      <c r="C361" t="n">
+        <v>-0.2770381858428577</v>
+      </c>
+      <c r="D361" t="n">
+        <v>0.06523036168790552</v>
+      </c>
+      <c r="E361" t="n">
+        <v>7.379733033627733</v>
+      </c>
+      <c r="F361" t="n">
+        <v>1420.379350490196</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.01390820021240377</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0.0661595707997908</v>
+      </c>
+      <c r="I361" t="n">
+        <v>0.6510966136533963</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>116.244140625</v>
+      </c>
+      <c r="B362" t="n">
+        <v>40.9338809211793</v>
+      </c>
+      <c r="C362" t="n">
+        <v>-0.5469377666731462</v>
+      </c>
+      <c r="D362" t="n">
+        <v>-0.2057759158052925</v>
+      </c>
+      <c r="E362" t="n">
+        <v>7.303511987437812</v>
+      </c>
+      <c r="F362" t="n">
+        <v>315.0442708333334</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.01405462154888737</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0.1206744333622655</v>
+      </c>
+      <c r="I362" t="n">
+        <v>0.9061609523642529</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>121.2342224121094</v>
+      </c>
+      <c r="B363" t="n">
+        <v>31.7766253198343</v>
+      </c>
+      <c r="C363" t="n">
+        <v>-0.4062699713764737</v>
+      </c>
+      <c r="D363" t="n">
+        <v>1.096101059734443</v>
+      </c>
+      <c r="E363" t="n">
+        <v>6.815644257793173</v>
+      </c>
+      <c r="F363" t="n">
+        <v>43.5563725490196</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.03770888543711875</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0.3527432096259836</v>
+      </c>
+      <c r="I363" t="n">
+        <v>0.9784921781953746</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>113.1397094726562</v>
+      </c>
+      <c r="B364" t="n">
+        <v>25.44838466953533</v>
+      </c>
+      <c r="C364" t="n">
+        <v>-0.6261100425326102</v>
+      </c>
+      <c r="D364" t="n">
+        <v>0.3386828518930369</v>
+      </c>
+      <c r="E364" t="n">
+        <v>6.618113424174725</v>
+      </c>
+      <c r="F364" t="n">
+        <v>324.5632965686275</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.01833605792149562</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0.114882858297876</v>
+      </c>
+      <c r="I364" t="n">
+        <v>0.7495752909146409</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>102.3589172363281</v>
+      </c>
+      <c r="B365" t="n">
+        <v>51.5709506493569</v>
+      </c>
+      <c r="C365" t="n">
+        <v>-0.1535248343860142</v>
+      </c>
+      <c r="D365" t="n">
+        <v>-1.184986654690005</v>
+      </c>
+      <c r="E365" t="n">
+        <v>7.498310490848885</v>
+      </c>
+      <c r="F365" t="n">
+        <v>855.4787071078433</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.0109488864976533</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0.080465376367095</v>
+      </c>
+      <c r="I365" t="n">
+        <v>0.839189971532244</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>121.8058319091797</v>
+      </c>
+      <c r="B366" t="n">
+        <v>50.48805869315132</v>
+      </c>
+      <c r="C366" t="n">
+        <v>-0.3989735033610131</v>
+      </c>
+      <c r="D366" t="n">
+        <v>-0.7591332286742429</v>
+      </c>
+      <c r="E366" t="n">
+        <v>7.529844085119417</v>
+      </c>
+      <c r="F366" t="n">
+        <v>1156.493765318628</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.009415088141584867</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0.05858303487888059</v>
+      </c>
+      <c r="I366" t="n">
+        <v>0.7734419785068609</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>136.0865173339844</v>
+      </c>
+      <c r="B367" t="n">
+        <v>28.19369579399547</v>
+      </c>
+      <c r="C367" t="n">
+        <v>-0.1849506965817166</v>
+      </c>
+      <c r="D367" t="n">
+        <v>0.0001952053288678535</v>
+      </c>
+      <c r="E367" t="n">
+        <v>6.786672576807046</v>
+      </c>
+      <c r="F367" t="n">
+        <v>29.25580575980392</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.03211298060558103</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0.3369370693534636</v>
+      </c>
+      <c r="I367" t="n">
+        <v>0.9816028013193419</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>115.6952209472656</v>
+      </c>
+      <c r="B368" t="n">
+        <v>51.24991460180109</v>
+      </c>
+      <c r="C368" t="n">
+        <v>-0.5599917616888566</v>
+      </c>
+      <c r="D368" t="n">
+        <v>-0.7005266535788568</v>
+      </c>
+      <c r="E368" t="n">
+        <v>7.465936673650299</v>
+      </c>
+      <c r="F368" t="n">
+        <v>1166.135110294118</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.01138871700174933</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0.06402897490583501</v>
+      </c>
+      <c r="I368" t="n">
+        <v>0.7783752232299541</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>139.8591461181641</v>
+      </c>
+      <c r="B369" t="n">
+        <v>38.84710630302522</v>
+      </c>
+      <c r="C369" t="n">
+        <v>-0.4975169647427421</v>
+      </c>
+      <c r="D369" t="n">
+        <v>0.4562026998598436</v>
+      </c>
+      <c r="E369" t="n">
+        <v>7.259960357615014</v>
+      </c>
+      <c r="F369" t="n">
+        <v>1060.077144607843</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.01012991078205638</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0.04831639683951518</v>
+      </c>
+      <c r="I369" t="n">
+        <v>0.6492555128012663</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>112.3527221679688</v>
+      </c>
+      <c r="B370" t="n">
+        <v>44.51777319274824</v>
+      </c>
+      <c r="C370" t="n">
+        <v>-0.3952766790306091</v>
+      </c>
+      <c r="D370" t="n">
+        <v>-0.8213078691308549</v>
+      </c>
+      <c r="E370" t="n">
+        <v>7.375811598902226</v>
+      </c>
+      <c r="F370" t="n">
+        <v>416.3416513480391</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.01157376794778101</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0.08148018211473451</v>
+      </c>
+      <c r="I370" t="n">
+        <v>0.8950530588017431</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>116.827880859375</v>
+      </c>
+      <c r="B371" t="n">
+        <v>30.66323607965132</v>
+      </c>
+      <c r="C371" t="n">
+        <v>-0.4900915715309537</v>
+      </c>
+      <c r="D371" t="n">
+        <v>-0.1531869311252549</v>
+      </c>
+      <c r="E371" t="n">
+        <v>6.921248450180333</v>
+      </c>
+      <c r="F371" t="n">
+        <v>199.0786305147059</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.01655129315162017</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0.1314034975800031</v>
+      </c>
+      <c r="I371" t="n">
+        <v>0.8943743112853733</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>115.6762084960938</v>
+      </c>
+      <c r="B372" t="n">
+        <v>42.97220070382219</v>
+      </c>
+      <c r="C372" t="n">
+        <v>-0.9225019048881609</v>
+      </c>
+      <c r="D372" t="n">
+        <v>-0.1525131717172354</v>
+      </c>
+      <c r="E372" t="n">
+        <v>7.0659452852052</v>
+      </c>
+      <c r="F372" t="n">
+        <v>437.6449295343137</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.017610333027131</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0.09985841271303701</v>
+      </c>
+      <c r="I372" t="n">
+        <v>0.8817207361762919</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>83.9984130859375</v>
+      </c>
+      <c r="B373" t="n">
+        <v>48.739039958091</v>
+      </c>
+      <c r="C373" t="n">
+        <v>-0.2978003003332501</v>
+      </c>
+      <c r="D373" t="n">
+        <v>-0.6450697960345724</v>
+      </c>
+      <c r="E373" t="n">
+        <v>6.871876570387771</v>
+      </c>
+      <c r="F373" t="n">
+        <v>1057.300520833333</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.1228786429455699</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0.1651710857980976</v>
+      </c>
+      <c r="I373" t="n">
+        <v>0.7764059166583408</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>98.20474243164062</v>
+      </c>
+      <c r="B374" t="n">
+        <v>39.95333672789966</v>
+      </c>
+      <c r="C374" t="n">
+        <v>0.35993048276276</v>
+      </c>
+      <c r="D374" t="n">
+        <v>-1.050959500567351</v>
+      </c>
+      <c r="E374" t="n">
+        <v>7.129452147028134</v>
+      </c>
+      <c r="F374" t="n">
+        <v>19.68241421568628</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.02989619219961921</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0.3619843712129906</v>
+      </c>
+      <c r="I374" t="n">
+        <v>0.9938481803444955</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>220.1932067871094</v>
+      </c>
+      <c r="B375" t="n">
+        <v>66.47518545292444</v>
+      </c>
+      <c r="C375" t="n">
+        <v>-1.961664589543977</v>
+      </c>
+      <c r="D375" t="n">
+        <v>2.530861653649561</v>
+      </c>
+      <c r="E375" t="n">
+        <v>4.576131055516579</v>
+      </c>
+      <c r="F375" t="n">
+        <v>1145.222625612745</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.3547371090621472</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0.4476157812223498</v>
+      </c>
+      <c r="I375" t="n">
+        <v>0.8707961511271125</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>104.6942443847656</v>
+      </c>
+      <c r="B376" t="n">
+        <v>22.83825108721118</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0.052671598692349</v>
+      </c>
+      <c r="D376" t="n">
+        <v>-0.3983923940226162</v>
+      </c>
+      <c r="E376" t="n">
+        <v>6.486600033994317</v>
+      </c>
+      <c r="F376" t="n">
+        <v>35.07480085784314</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.03000154652826435</v>
+      </c>
+      <c r="H376" t="n">
+        <v>0.2753794641780645</v>
+      </c>
+      <c r="I376" t="n">
+        <v>0.966414380641167</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>102.1612243652344</v>
+      </c>
+      <c r="B377" t="n">
+        <v>59.00995131843819</v>
+      </c>
+      <c r="C377" t="n">
+        <v>-0.4590807912103817</v>
+      </c>
+      <c r="D377" t="n">
+        <v>-0.8774734221485394</v>
+      </c>
+      <c r="E377" t="n">
+        <v>7.056134508065771</v>
+      </c>
+      <c r="F377" t="n">
+        <v>983.2580269607843</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.12039358299606</v>
+      </c>
+      <c r="H377" t="n">
+        <v>0.1704913540899619</v>
+      </c>
+      <c r="I377" t="n">
+        <v>0.8582473469241548</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>112.0736846923828</v>
+      </c>
+      <c r="B378" t="n">
+        <v>22.05001319543024</v>
+      </c>
+      <c r="C378" t="n">
+        <v>-0.329886472878449</v>
+      </c>
+      <c r="D378" t="n">
+        <v>2.530786377728291</v>
+      </c>
+      <c r="E378" t="n">
+        <v>6.31684498474968</v>
+      </c>
+      <c r="F378" t="n">
+        <v>23.31300551470588</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.05461290275963882</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0.4089822051996488</v>
+      </c>
+      <c r="I378" t="n">
+        <v>0.9761009307913119</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>121.8524780273438</v>
+      </c>
+      <c r="B379" t="n">
+        <v>41.38035705692024</v>
+      </c>
+      <c r="C379" t="n">
+        <v>-0.447090302391476</v>
+      </c>
+      <c r="D379" t="n">
+        <v>0.4044518931031851</v>
+      </c>
+      <c r="E379" t="n">
+        <v>7.244678335961161</v>
+      </c>
+      <c r="F379" t="n">
+        <v>45.65018382352942</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.0295714745672824</v>
+      </c>
+      <c r="H379" t="n">
+        <v>0.2771532685937273</v>
+      </c>
+      <c r="I379" t="n">
+        <v>0.9867160277369534</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>195.8793029785156</v>
+      </c>
+      <c r="B380" t="n">
+        <v>53.11012189505425</v>
+      </c>
+      <c r="C380" t="n">
+        <v>-1.213317103321943</v>
+      </c>
+      <c r="D380" t="n">
+        <v>1.239933680268711</v>
+      </c>
+      <c r="E380" t="n">
+        <v>7.088362968986501</v>
+      </c>
+      <c r="F380" t="n">
+        <v>1809.79446997549</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.03342561015957796</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0.06791981780998227</v>
+      </c>
+      <c r="I380" t="n">
+        <v>0.6799057284996137</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>98.1715087890625</v>
+      </c>
+      <c r="B381" t="n">
+        <v>49.12293753392438</v>
+      </c>
+      <c r="C381" t="n">
+        <v>-0.3005134343130714</v>
+      </c>
+      <c r="D381" t="n">
+        <v>-1.335354134458142</v>
+      </c>
+      <c r="E381" t="n">
+        <v>7.252462471670838</v>
+      </c>
+      <c r="F381" t="n">
+        <v>184.4081341911765</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.0218933789230775</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0.2241183313751696</v>
+      </c>
+      <c r="I381" t="n">
+        <v>0.9617976102966782</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>132.2242736816406</v>
+      </c>
+      <c r="B382" t="n">
+        <v>49.19349234511301</v>
+      </c>
+      <c r="C382" t="n">
+        <v>-0.9787109201096253</v>
+      </c>
+      <c r="D382" t="n">
+        <v>0.2444069869472147</v>
+      </c>
+      <c r="E382" t="n">
+        <v>7.306590000527565</v>
+      </c>
+      <c r="F382" t="n">
+        <v>665.7001225490196</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.01574664000866915</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0.1211310901504361</v>
+      </c>
+      <c r="I382" t="n">
+        <v>0.8628021723809502</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>118.9954986572266</v>
+      </c>
+      <c r="B383" t="n">
+        <v>17.82215578823341</v>
+      </c>
+      <c r="C383" t="n">
+        <v>0.02602423701861677</v>
+      </c>
+      <c r="D383" t="n">
+        <v>-0.2374089551464857</v>
+      </c>
+      <c r="E383" t="n">
+        <v>6.155338098749416</v>
+      </c>
+      <c r="F383" t="n">
+        <v>98.37798713235294</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.02665384831498217</v>
+      </c>
+      <c r="H383" t="n">
+        <v>0.1790093419376631</v>
+      </c>
+      <c r="I383" t="n">
+        <v>0.8451338184707499</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>115.0517425537109</v>
+      </c>
+      <c r="B384" t="n">
+        <v>45.80815714545421</v>
+      </c>
+      <c r="C384" t="n">
+        <v>-0.5106627009247924</v>
+      </c>
+      <c r="D384" t="n">
+        <v>-0.1480833109452573</v>
+      </c>
+      <c r="E384" t="n">
+        <v>7.317072255764607</v>
+      </c>
+      <c r="F384" t="n">
+        <v>711.2608915441178</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.01685585086298854</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0.127134427746065</v>
+      </c>
+      <c r="I384" t="n">
+        <v>0.8304873178486244</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>170.125732421875</v>
+      </c>
+      <c r="B385" t="n">
+        <v>30.67286447239765</v>
+      </c>
+      <c r="C385" t="n">
+        <v>0.08679860114586983</v>
+      </c>
+      <c r="D385" t="n">
+        <v>-0.745426538038048</v>
+      </c>
+      <c r="E385" t="n">
+        <v>6.920294367460366</v>
+      </c>
+      <c r="F385" t="n">
+        <v>98.0509344362745</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.01950911255041001</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0.1880096844403317</v>
+      </c>
+      <c r="I385" t="n">
+        <v>0.9479249504309935</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>102.4308166503906</v>
+      </c>
+      <c r="B386" t="n">
+        <v>30.33852386512118</v>
+      </c>
+      <c r="C386" t="n">
+        <v>0.001861682252157162</v>
+      </c>
+      <c r="D386" t="n">
+        <v>-0.08345313708550606</v>
+      </c>
+      <c r="E386" t="n">
+        <v>6.881944203030218</v>
+      </c>
+      <c r="F386" t="n">
+        <v>24.69920343137256</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.0287243177481903</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0.3141577243317804</v>
+      </c>
+      <c r="I386" t="n">
+        <v>0.9865873663145373</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>116.2507629394531</v>
+      </c>
+      <c r="B387" t="n">
+        <v>33.72035938045478</v>
+      </c>
+      <c r="C387" t="n">
+        <v>-0.2478315799611037</v>
+      </c>
+      <c r="D387" t="n">
+        <v>-1.038109870511432</v>
+      </c>
+      <c r="E387" t="n">
+        <v>6.911505409184135</v>
+      </c>
+      <c r="F387" t="n">
+        <v>62.97515318627453</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.02505506576394582</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0.2435773509234795</v>
+      </c>
+      <c r="I387" t="n">
+        <v>0.9723322543870379</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>105.89990234375</v>
+      </c>
+      <c r="B388" t="n">
+        <v>29.25322825802058</v>
+      </c>
+      <c r="C388" t="n">
+        <v>0.3415258959960867</v>
+      </c>
+      <c r="D388" t="n">
+        <v>-0.07377337095229919</v>
+      </c>
+      <c r="E388" t="n">
+        <v>6.893331525156202</v>
+      </c>
+      <c r="F388" t="n">
+        <v>586.8868566176471</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.01292291251142784</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0.06956729491223046</v>
+      </c>
+      <c r="I388" t="n">
+        <v>0.6569289283863274</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>106.3912200927734</v>
+      </c>
+      <c r="B389" t="n">
+        <v>26.54816895919718</v>
+      </c>
+      <c r="C389" t="n">
+        <v>0.3985808961596169</v>
+      </c>
+      <c r="D389" t="n">
+        <v>0.1252685161957459</v>
+      </c>
+      <c r="E389" t="n">
+        <v>6.745068155624485</v>
+      </c>
+      <c r="F389" t="n">
+        <v>536.3412990196078</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.01383746125581393</v>
+      </c>
+      <c r="H389" t="n">
+        <v>0.06694071557962988</v>
+      </c>
+      <c r="I389" t="n">
+        <v>0.618921684370193</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>120.0692596435547</v>
+      </c>
+      <c r="B390" t="n">
+        <v>23.42410640432272</v>
+      </c>
+      <c r="C390" t="n">
+        <v>-0.7374593413075267</v>
+      </c>
+      <c r="D390" t="n">
+        <v>2.545569589448299</v>
+      </c>
+      <c r="E390" t="n">
+        <v>6.494359776476991</v>
+      </c>
+      <c r="F390" t="n">
+        <v>354.5296875000001</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.02023964630327066</v>
+      </c>
+      <c r="H390" t="n">
+        <v>0.1200676493877048</v>
+      </c>
+      <c r="I390" t="n">
+        <v>0.6777289730052094</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>108.8179931640625</v>
+      </c>
+      <c r="B391" t="n">
+        <v>29.16630409239589</v>
+      </c>
+      <c r="C391" t="n">
+        <v>0.1116251161326203</v>
+      </c>
+      <c r="D391" t="n">
+        <v>-0.6208055136621784</v>
+      </c>
+      <c r="E391" t="n">
+        <v>6.77469095820361</v>
+      </c>
+      <c r="F391" t="n">
+        <v>30.74889705882354</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.03606786366628847</v>
+      </c>
+      <c r="H391" t="n">
+        <v>0.3680546095976793</v>
+      </c>
+      <c r="I391" t="n">
+        <v>0.9819622628884348</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>95.13081359863281</v>
+      </c>
+      <c r="B392" t="n">
+        <v>48.77990361625576</v>
+      </c>
+      <c r="C392" t="n">
+        <v>0.1370076598377546</v>
+      </c>
+      <c r="D392" t="n">
+        <v>-1.452483133359399</v>
+      </c>
+      <c r="E392" t="n">
+        <v>7.195318610939845</v>
+      </c>
+      <c r="F392" t="n">
+        <v>127.0969515931373</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.01937730686152712</v>
+      </c>
+      <c r="H392" t="n">
+        <v>0.1815584226249514</v>
+      </c>
+      <c r="I392" t="n">
+        <v>0.9732750901125315</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>103.2991180419922</v>
+      </c>
+      <c r="B393" t="n">
+        <v>36.87175348795928</v>
+      </c>
+      <c r="C393" t="n">
+        <v>-0.03898475939340221</v>
+      </c>
+      <c r="D393" t="n">
+        <v>-0.8278781366729535</v>
+      </c>
+      <c r="E393" t="n">
+        <v>7.005745040014387</v>
+      </c>
+      <c r="F393" t="n">
+        <v>21.27530637254902</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.03718799294910405</v>
+      </c>
+      <c r="H393" t="n">
+        <v>0.3829312885837305</v>
+      </c>
+      <c r="I393" t="n">
+        <v>0.9921898115161758</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>113.2013549804688</v>
+      </c>
+      <c r="B394" t="n">
+        <v>43.40511574539411</v>
+      </c>
+      <c r="C394" t="n">
+        <v>-0.4280200858606514</v>
+      </c>
+      <c r="D394" t="n">
+        <v>-0.9979290610211997</v>
+      </c>
+      <c r="E394" t="n">
+        <v>7.213543367130986</v>
+      </c>
+      <c r="F394" t="n">
+        <v>134.0587775735294</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.02174186560655698</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0.2084616568764905</v>
+      </c>
+      <c r="I394" t="n">
+        <v>0.9644517842598895</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>138.0802459716797</v>
+      </c>
+      <c r="B395" t="n">
+        <v>42.29527628366054</v>
+      </c>
+      <c r="C395" t="n">
+        <v>-1.14185108583675</v>
+      </c>
+      <c r="D395" t="n">
+        <v>1.258711935072741</v>
+      </c>
+      <c r="E395" t="n">
+        <v>7.085816621128526</v>
+      </c>
+      <c r="F395" t="n">
+        <v>572.4288602941176</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.01455413112119561</v>
+      </c>
+      <c r="H395" t="n">
+        <v>0.1018754294631963</v>
+      </c>
+      <c r="I395" t="n">
+        <v>0.8399171581791223</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>141.7884826660156</v>
+      </c>
+      <c r="B396" t="n">
+        <v>37.76045010595787</v>
+      </c>
+      <c r="C396" t="n">
+        <v>-0.4000983125536727</v>
+      </c>
+      <c r="D396" t="n">
+        <v>-0.7012744772932806</v>
+      </c>
+      <c r="E396" t="n">
+        <v>7.081072958859446</v>
+      </c>
+      <c r="F396" t="n">
+        <v>31.60992647058823</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.0401382475416093</v>
+      </c>
+      <c r="H396" t="n">
+        <v>0.4698971264826889</v>
+      </c>
+      <c r="I396" t="n">
+        <v>0.9889352227224198</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>130.5202484130859</v>
+      </c>
+      <c r="B397" t="n">
+        <v>63.08857375615455</v>
+      </c>
+      <c r="C397" t="n">
+        <v>-0.5180400216695563</v>
+      </c>
+      <c r="D397" t="n">
+        <v>-0.936883100094283</v>
+      </c>
+      <c r="E397" t="n">
+        <v>7.596055163336107</v>
+      </c>
+      <c r="F397" t="n">
+        <v>487.3919270833334</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.01737339020541677</v>
+      </c>
+      <c r="H397" t="n">
+        <v>0.1754720416061409</v>
+      </c>
+      <c r="I397" t="n">
+        <v>0.9387952900383882</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>91.07853698730469</v>
+      </c>
+      <c r="B398" t="n">
+        <v>44.42451586013566</v>
+      </c>
+      <c r="C398" t="n">
+        <v>-0.9465041387814508</v>
+      </c>
+      <c r="D398" t="n">
+        <v>0.2274459404236233</v>
+      </c>
+      <c r="E398" t="n">
+        <v>6.309268221371443</v>
+      </c>
+      <c r="F398" t="n">
+        <v>525.5344515931373</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1312392364707382</v>
+      </c>
+      <c r="H398" t="n">
+        <v>0.1993422570357907</v>
+      </c>
+      <c r="I398" t="n">
+        <v>0.8660022164926983</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>167.6863098144531</v>
+      </c>
+      <c r="B399" t="n">
+        <v>32.53579270532048</v>
+      </c>
+      <c r="C399" t="n">
+        <v>-0.256619646270307</v>
+      </c>
+      <c r="D399" t="n">
+        <v>-0.6197661668284904</v>
+      </c>
+      <c r="E399" t="n">
+        <v>7.017438925580067</v>
+      </c>
+      <c r="F399" t="n">
+        <v>261.3588388480393</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.01358751029254865</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0.08765805483660613</v>
+      </c>
+      <c r="I399" t="n">
+        <v>0.8766473701933931</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>123.9774475097656</v>
+      </c>
+      <c r="B400" t="n">
+        <v>49.0486278450763</v>
+      </c>
+      <c r="C400" t="n">
+        <v>-0.3597550438046418</v>
+      </c>
+      <c r="D400" t="n">
+        <v>-0.5297703735601798</v>
+      </c>
+      <c r="E400" t="n">
+        <v>7.545117253537473</v>
+      </c>
+      <c r="F400" t="n">
+        <v>735.6553768382355</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.01164183436085823</v>
+      </c>
+      <c r="H400" t="n">
+        <v>0.1002147488397939</v>
+      </c>
+      <c r="I400" t="n">
+        <v>0.8474023816361154</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>98.58662414550781</v>
+      </c>
+      <c r="B401" t="n">
+        <v>44.41795247276319</v>
+      </c>
+      <c r="C401" t="n">
+        <v>-0.2035485558080768</v>
+      </c>
+      <c r="D401" t="n">
+        <v>-0.5203348012238602</v>
+      </c>
+      <c r="E401" t="n">
+        <v>7.422608407768862</v>
+      </c>
+      <c r="F401" t="n">
+        <v>1883.592938112745</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.008586825156399783</v>
+      </c>
+      <c r="H401" t="n">
+        <v>0.03706355621780852</v>
+      </c>
+      <c r="I401" t="n">
+        <v>0.5234980522035733</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>140.4510650634766</v>
+      </c>
+      <c r="B402" t="n">
+        <v>45.91259639750162</v>
+      </c>
+      <c r="C402" t="n">
+        <v>-0.8218708489699635</v>
+      </c>
+      <c r="D402" t="n">
+        <v>0.3639291870568355</v>
+      </c>
+      <c r="E402" t="n">
+        <v>7.349041643854842</v>
+      </c>
+      <c r="F402" t="n">
+        <v>592.6962162990196</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.0124208094133145</v>
+      </c>
+      <c r="H402" t="n">
+        <v>0.09203399007388634</v>
+      </c>
+      <c r="I402" t="n">
+        <v>0.8596882966792763</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>111.3467712402344</v>
+      </c>
+      <c r="B403" t="n">
+        <v>26.48230232394586</v>
+      </c>
+      <c r="C403" t="n">
+        <v>-0.2015332206643463</v>
+      </c>
+      <c r="D403" t="n">
+        <v>-0.1171614000291266</v>
+      </c>
+      <c r="E403" t="n">
+        <v>6.758857860962499</v>
+      </c>
+      <c r="F403" t="n">
+        <v>216.9891084558824</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.01693407577825598</v>
+      </c>
+      <c r="H403" t="n">
+        <v>0.1206617981515909</v>
+      </c>
+      <c r="I403" t="n">
+        <v>0.8453636653055561</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>101.0385894775391</v>
+      </c>
+      <c r="B404" t="n">
+        <v>61.37522368004107</v>
+      </c>
+      <c r="C404" t="n">
+        <v>-0.3831783427034167</v>
+      </c>
+      <c r="D404" t="n">
+        <v>-1.083874277276945</v>
+      </c>
+      <c r="E404" t="n">
+        <v>7.070434594401112</v>
+      </c>
+      <c r="F404" t="n">
+        <v>899.5956648284315</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1269777467861417</v>
+      </c>
+      <c r="H404" t="n">
+        <v>0.1820631482927695</v>
+      </c>
+      <c r="I404" t="n">
+        <v>0.8801838056521475</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>105.9582366943359</v>
+      </c>
+      <c r="B405" t="n">
+        <v>32.40649548019263</v>
+      </c>
+      <c r="C405" t="n">
+        <v>-0.6039938637673533</v>
+      </c>
+      <c r="D405" t="n">
+        <v>-0.2693264956905304</v>
+      </c>
+      <c r="E405" t="n">
+        <v>6.934870128651609</v>
+      </c>
+      <c r="F405" t="n">
+        <v>249.9834252450981</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.01621394042195271</v>
+      </c>
+      <c r="H405" t="n">
+        <v>0.1267081262484716</v>
+      </c>
+      <c r="I405" t="n">
+        <v>0.881207471148329</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>89.17205810546875</v>
+      </c>
+      <c r="B406" t="n">
+        <v>52.38624351890498</v>
+      </c>
+      <c r="C406" t="n">
+        <v>-0.322420627464116</v>
+      </c>
+      <c r="D406" t="n">
+        <v>-0.768656680421536</v>
+      </c>
+      <c r="E406" t="n">
+        <v>6.968534796968603</v>
+      </c>
+      <c r="F406" t="n">
+        <v>854.5664675245099</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1226253802385397</v>
+      </c>
+      <c r="H406" t="n">
+        <v>0.1730319012195387</v>
+      </c>
+      <c r="I406" t="n">
+        <v>0.8436400456082918</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>94.6419677734375</v>
+      </c>
+      <c r="B407" t="n">
+        <v>48.02687038003741</v>
+      </c>
+      <c r="C407" t="n">
+        <v>-0.1377202301816988</v>
+      </c>
+      <c r="D407" t="n">
+        <v>-1.424583062499811</v>
+      </c>
+      <c r="E407" t="n">
+        <v>7.22236492443376</v>
+      </c>
+      <c r="F407" t="n">
+        <v>132.712974877451</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.02167583077840755</v>
+      </c>
+      <c r="H407" t="n">
+        <v>0.2180606167564709</v>
+      </c>
+      <c r="I407" t="n">
+        <v>0.9712468423058589</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>110.6662292480469</v>
+      </c>
+      <c r="B408" t="n">
+        <v>60.76355219863367</v>
+      </c>
+      <c r="C408" t="n">
+        <v>0.3984278076529921</v>
+      </c>
+      <c r="D408" t="n">
+        <v>-0.7788614893912942</v>
+      </c>
+      <c r="E408" t="n">
+        <v>7.668138743339613</v>
+      </c>
+      <c r="F408" t="n">
+        <v>591.5044117647059</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.01493969119853884</v>
+      </c>
+      <c r="H408" t="n">
+        <v>0.1561725986230427</v>
+      </c>
+      <c r="I408" t="n">
+        <v>0.9197428473430539</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>109.1371612548828</v>
+      </c>
+      <c r="B409" t="n">
+        <v>21.45079480011779</v>
+      </c>
+      <c r="C409" t="n">
+        <v>0.43669222510128</v>
+      </c>
+      <c r="D409" t="n">
+        <v>0.1196252217692328</v>
+      </c>
+      <c r="E409" t="n">
+        <v>6.430315424091156</v>
+      </c>
+      <c r="F409" t="n">
+        <v>287.9685508578431</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.01765640443490587</v>
+      </c>
+      <c r="H409" t="n">
+        <v>0.09012211780283826</v>
+      </c>
+      <c r="I409" t="n">
+        <v>0.6872099321079154</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>101.8777313232422</v>
+      </c>
+      <c r="B410" t="n">
+        <v>39.5902484911425</v>
+      </c>
+      <c r="C410" t="n">
+        <v>0.6055297730148341</v>
+      </c>
+      <c r="D410" t="n">
+        <v>-0.2916235818484725</v>
+      </c>
+      <c r="E410" t="n">
+        <v>7.208087624079744</v>
+      </c>
+      <c r="F410" t="n">
+        <v>245.1641390931373</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.01683607059054703</v>
+      </c>
+      <c r="H410" t="n">
+        <v>0.1748736555263244</v>
+      </c>
+      <c r="I410" t="n">
+        <v>0.9215559915082702</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>133.2641448974609</v>
+      </c>
+      <c r="B411" t="n">
+        <v>66.90723412552366</v>
+      </c>
+      <c r="C411" t="n">
+        <v>-0.3901795739664332</v>
+      </c>
+      <c r="D411" t="n">
+        <v>-1.136931014309522</v>
+      </c>
+      <c r="E411" t="n">
+        <v>7.734492241792729</v>
+      </c>
+      <c r="F411" t="n">
+        <v>440.7057904411766</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.01779694904686694</v>
+      </c>
+      <c r="H411" t="n">
+        <v>0.2069610579940427</v>
+      </c>
+      <c r="I411" t="n">
+        <v>0.9507631077120522</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>114.6777191162109</v>
+      </c>
+      <c r="B412" t="n">
+        <v>24.38355972797102</v>
+      </c>
+      <c r="C412" t="n">
+        <v>0.2733635681562834</v>
+      </c>
+      <c r="D412" t="n">
+        <v>0.5830578743154278</v>
+      </c>
+      <c r="E412" t="n">
+        <v>6.635844249104101</v>
+      </c>
+      <c r="F412" t="n">
+        <v>588.5113817401959</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.01426951319991212</v>
+      </c>
+      <c r="H412" t="n">
+        <v>0.06121476324323141</v>
+      </c>
+      <c r="I412" t="n">
+        <v>0.5049273285314759</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>132.2039947509766</v>
+      </c>
+      <c r="B413" t="n">
+        <v>35.96095994505561</v>
+      </c>
+      <c r="C413" t="n">
+        <v>-1.150647829090763</v>
+      </c>
+      <c r="D413" t="n">
+        <v>1.338573326214507</v>
+      </c>
+      <c r="E413" t="n">
+        <v>6.963321010576816</v>
+      </c>
+      <c r="F413" t="n">
+        <v>296.1594975490196</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.01979540111902366</v>
+      </c>
+      <c r="H413" t="n">
+        <v>0.1658869499424613</v>
+      </c>
+      <c r="I413" t="n">
+        <v>0.8857663149764384</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>136.16552734375</v>
+      </c>
+      <c r="B414" t="n">
+        <v>65.44383479974357</v>
+      </c>
+      <c r="C414" t="n">
+        <v>-0.3885514584772206</v>
+      </c>
+      <c r="D414" t="n">
+        <v>-1.277337683001813</v>
+      </c>
+      <c r="E414" t="n">
+        <v>7.609332534725211</v>
+      </c>
+      <c r="F414" t="n">
+        <v>391.0861825980393</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.0153781014589399</v>
+      </c>
+      <c r="H414" t="n">
+        <v>0.1564782491438007</v>
+      </c>
+      <c r="I414" t="n">
+        <v>0.9543175257623567</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>118.937744140625</v>
+      </c>
+      <c r="B415" t="n">
+        <v>36.59662453268729</v>
+      </c>
+      <c r="C415" t="n">
+        <v>-0.6455868719900479</v>
+      </c>
+      <c r="D415" t="n">
+        <v>0.1533637832084178</v>
+      </c>
+      <c r="E415" t="n">
+        <v>7.142377687727216</v>
+      </c>
+      <c r="F415" t="n">
+        <v>571.8706954656864</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.01170178711116638</v>
+      </c>
+      <c r="H415" t="n">
+        <v>0.05767230076331962</v>
+      </c>
+      <c r="I415" t="n">
+        <v>0.7868892131827329</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>108.3446807861328</v>
+      </c>
+      <c r="B416" t="n">
+        <v>47.88444676924734</v>
+      </c>
+      <c r="C416" t="n">
+        <v>-0.3228578804660027</v>
+      </c>
+      <c r="D416" t="n">
+        <v>-0.897467067013161</v>
+      </c>
+      <c r="E416" t="n">
+        <v>7.460000138357115</v>
+      </c>
+      <c r="F416" t="n">
+        <v>544.104718137255</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.01263113494160419</v>
+      </c>
+      <c r="H416" t="n">
+        <v>0.1013868782061109</v>
+      </c>
+      <c r="I416" t="n">
+        <v>0.881461434924163</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>128.2145538330078</v>
+      </c>
+      <c r="B417" t="n">
+        <v>40.38875232877592</v>
+      </c>
+      <c r="C417" t="n">
+        <v>-1.047902180500202</v>
+      </c>
+      <c r="D417" t="n">
+        <v>0.7764115006845418</v>
+      </c>
+      <c r="E417" t="n">
+        <v>7.115776612138371</v>
+      </c>
+      <c r="F417" t="n">
+        <v>432.9838082107843</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.0176482289576653</v>
+      </c>
+      <c r="H417" t="n">
+        <v>0.1321124974228548</v>
+      </c>
+      <c r="I417" t="n">
+        <v>0.8673873127724371</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>120.7558898925781</v>
+      </c>
+      <c r="B418" t="n">
+        <v>27.61030863944861</v>
+      </c>
+      <c r="C418" t="n">
+        <v>-0.2311514362640472</v>
+      </c>
+      <c r="D418" t="n">
+        <v>0.3427663190028243</v>
+      </c>
+      <c r="E418" t="n">
+        <v>6.741502510527691</v>
+      </c>
+      <c r="F418" t="n">
+        <v>19.03072916666667</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.04071692905434945</v>
+      </c>
+      <c r="H418" t="n">
+        <v>0.3997876009049308</v>
+      </c>
+      <c r="I418" t="n">
+        <v>0.9875601277748174</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>226.4340057373047</v>
+      </c>
+      <c r="B419" t="n">
+        <v>46.17674244892976</v>
+      </c>
+      <c r="C419" t="n">
+        <v>-2.116111107616641</v>
+      </c>
+      <c r="D419" t="n">
+        <v>4.233406974821671</v>
+      </c>
+      <c r="E419" t="n">
+        <v>5.264874986876511</v>
+      </c>
+      <c r="F419" t="n">
+        <v>971.3123468137254</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.2076480346333553</v>
+      </c>
+      <c r="H419" t="n">
+        <v>0.2731129437504314</v>
+      </c>
+      <c r="I419" t="n">
+        <v>0.7728266584966035</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>121.9555816650391</v>
+      </c>
+      <c r="B420" t="n">
+        <v>23.39539437190968</v>
+      </c>
+      <c r="C420" t="n">
+        <v>1.236736197377535</v>
+      </c>
+      <c r="D420" t="n">
+        <v>3.299028777372148</v>
+      </c>
+      <c r="E420" t="n">
+        <v>6.409576018875323</v>
+      </c>
+      <c r="F420" t="n">
+        <v>38.86591605392158</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.03677568897424261</v>
+      </c>
+      <c r="H420" t="n">
+        <v>0.3074304511052459</v>
+      </c>
+      <c r="I420" t="n">
+        <v>0.964569922146053</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>128.3351135253906</v>
+      </c>
+      <c r="B421" t="n">
+        <v>51.658276967938</v>
+      </c>
+      <c r="C421" t="n">
+        <v>-0.8873126902874048</v>
+      </c>
+      <c r="D421" t="n">
+        <v>-0.004337747533389891</v>
+      </c>
+      <c r="E421" t="n">
+        <v>7.376102498813735</v>
+      </c>
+      <c r="F421" t="n">
+        <v>561.2736060049019</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.01698539469419618</v>
+      </c>
+      <c r="H421" t="n">
+        <v>0.1489825309526954</v>
+      </c>
+      <c r="I421" t="n">
+        <v>0.8950577192950027</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>160.0970458984375</v>
+      </c>
+      <c r="B422" t="n">
+        <v>55.03803821406584</v>
+      </c>
+      <c r="C422" t="n">
+        <v>-0.3692122701344188</v>
+      </c>
+      <c r="D422" t="n">
+        <v>-0.8426761515673689</v>
+      </c>
+      <c r="E422" t="n">
+        <v>7.569660700209584</v>
+      </c>
+      <c r="F422" t="n">
+        <v>509.5295955882353</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.01853234861536348</v>
+      </c>
+      <c r="H422" t="n">
+        <v>0.1640192632698842</v>
+      </c>
+      <c r="I422" t="n">
+        <v>0.9159116120793153</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>115.7464294433594</v>
+      </c>
+      <c r="B423" t="n">
+        <v>35.90378092128332</v>
+      </c>
+      <c r="C423" t="n">
+        <v>-0.465217003061385</v>
+      </c>
+      <c r="D423" t="n">
+        <v>-0.6955978312159354</v>
+      </c>
+      <c r="E423" t="n">
+        <v>7.067012702854133</v>
+      </c>
+      <c r="F423" t="n">
+        <v>215.4353400735295</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.01561237956293244</v>
+      </c>
+      <c r="H423" t="n">
+        <v>0.1179491894130314</v>
+      </c>
+      <c r="I423" t="n">
+        <v>0.9165073598734768</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>119.9598083496094</v>
+      </c>
+      <c r="B424" t="n">
+        <v>26.74377772189767</v>
+      </c>
+      <c r="C424" t="n">
+        <v>0.623747551946413</v>
+      </c>
+      <c r="D424" t="n">
+        <v>0.4125715098428917</v>
+      </c>
+      <c r="E424" t="n">
+        <v>6.66784361497201</v>
+      </c>
+      <c r="F424" t="n">
+        <v>179.9214307598039</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.02299150947440425</v>
+      </c>
+      <c r="H424" t="n">
+        <v>0.192836145889788</v>
+      </c>
+      <c r="I424" t="n">
+        <v>0.8744157343456619</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>119.8134002685547</v>
+      </c>
+      <c r="B425" t="n">
+        <v>52.502291249278</v>
+      </c>
+      <c r="C425" t="n">
+        <v>-0.4829433344926963</v>
+      </c>
+      <c r="D425" t="n">
+        <v>-0.8604360780795632</v>
+      </c>
+      <c r="E425" t="n">
+        <v>7.536392053421734</v>
+      </c>
+      <c r="F425" t="n">
+        <v>938.9636182598039</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.009608162595666934</v>
+      </c>
+      <c r="H425" t="n">
+        <v>0.06488164795649101</v>
+      </c>
+      <c r="I425" t="n">
+        <v>0.8299711867068517</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>109.8677978515625</v>
+      </c>
+      <c r="B426" t="n">
+        <v>51.38487317342507</v>
+      </c>
+      <c r="C426" t="n">
+        <v>-0.3709698057661027</v>
+      </c>
+      <c r="D426" t="n">
+        <v>-0.9471685486679955</v>
+      </c>
+      <c r="E426" t="n">
+        <v>7.335871594750523</v>
+      </c>
+      <c r="F426" t="n">
+        <v>1086.773667279411</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.01727808083978795</v>
+      </c>
+      <c r="H426" t="n">
+        <v>0.1048034635198288</v>
+      </c>
+      <c r="I426" t="n">
+        <v>0.7943498425868261</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>220.9768829345703</v>
+      </c>
+      <c r="B427" t="n">
+        <v>65.94523868539818</v>
+      </c>
+      <c r="C427" t="n">
+        <v>-1.982119597582422</v>
+      </c>
+      <c r="D427" t="n">
+        <v>2.609159753104771</v>
+      </c>
+      <c r="E427" t="n">
+        <v>4.149079986952669</v>
+      </c>
+      <c r="F427" t="n">
+        <v>815.8816482843135</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.4925161781572437</v>
+      </c>
+      <c r="H427" t="n">
+        <v>0.5728352514156713</v>
+      </c>
+      <c r="I427" t="n">
+        <v>0.9064652072772563</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>118.9337158203125</v>
+      </c>
+      <c r="B428" t="n">
+        <v>53.04277530145798</v>
+      </c>
+      <c r="C428" t="n">
+        <v>-0.211757716044606</v>
+      </c>
+      <c r="D428" t="n">
+        <v>-0.9990214272566704</v>
+      </c>
+      <c r="E428" t="n">
+        <v>7.63621129619804</v>
+      </c>
+      <c r="F428" t="n">
+        <v>791.615318627451</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.00955860258511621</v>
+      </c>
+      <c r="H428" t="n">
+        <v>0.07052387982851478</v>
+      </c>
+      <c r="I428" t="n">
+        <v>0.8594427705343055</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>122.6451110839844</v>
+      </c>
+      <c r="B429" t="n">
+        <v>44.02604077983749</v>
+      </c>
+      <c r="C429" t="n">
+        <v>-0.9218632418786711</v>
+      </c>
+      <c r="D429" t="n">
+        <v>0.5928751450999341</v>
+      </c>
+      <c r="E429" t="n">
+        <v>7.203788817562488</v>
+      </c>
+      <c r="F429" t="n">
+        <v>713.6696078431372</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.01655032903551103</v>
+      </c>
+      <c r="H429" t="n">
+        <v>0.1241409233133923</v>
+      </c>
+      <c r="I429" t="n">
+        <v>0.8162529821935369</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>122.0368804931641</v>
+      </c>
+      <c r="B430" t="n">
+        <v>63.19984152325522</v>
+      </c>
+      <c r="C430" t="n">
+        <v>-0.4574636451790323</v>
+      </c>
+      <c r="D430" t="n">
+        <v>-0.9762051734443782</v>
+      </c>
+      <c r="E430" t="n">
+        <v>7.608993612542664</v>
+      </c>
+      <c r="F430" t="n">
+        <v>560.7547487745099</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.02036851021108797</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0.200505329568426</v>
+      </c>
+      <c r="I430" t="n">
+        <v>0.9298175714916211</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>125.6588897705078</v>
+      </c>
+      <c r="B431" t="n">
+        <v>54.9623130659223</v>
+      </c>
+      <c r="C431" t="n">
+        <v>-0.2767431160156676</v>
+      </c>
+      <c r="D431" t="n">
+        <v>-0.9694409066316405</v>
+      </c>
+      <c r="E431" t="n">
+        <v>7.658065167901592</v>
+      </c>
+      <c r="F431" t="n">
+        <v>485.2370098039216</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.01250769449117323</v>
+      </c>
+      <c r="H431" t="n">
+        <v>0.1317609768550984</v>
+      </c>
+      <c r="I431" t="n">
+        <v>0.9196562043687418</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>120.5548095703125</v>
+      </c>
+      <c r="B432" t="n">
+        <v>38.65509482930504</v>
+      </c>
+      <c r="C432" t="n">
+        <v>-1.045509613522721</v>
+      </c>
+      <c r="D432" t="n">
+        <v>0.4841444957091672</v>
+      </c>
+      <c r="E432" t="n">
+        <v>7.034892167831973</v>
+      </c>
+      <c r="F432" t="n">
+        <v>486.2882659313726</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.01355849976308751</v>
+      </c>
+      <c r="H432" t="n">
+        <v>0.06684634471440175</v>
+      </c>
+      <c r="I432" t="n">
+        <v>0.8376238262865011</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>117.8211364746094</v>
+      </c>
+      <c r="B433" t="n">
+        <v>50.5822988800205</v>
+      </c>
+      <c r="C433" t="n">
+        <v>-0.4548736017831207</v>
+      </c>
+      <c r="D433" t="n">
+        <v>-0.7508877201831128</v>
+      </c>
+      <c r="E433" t="n">
+        <v>7.432285526268302</v>
+      </c>
+      <c r="F433" t="n">
+        <v>1035.659451593137</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.01219637910498601</v>
+      </c>
+      <c r="H433" t="n">
+        <v>0.08376666445861197</v>
+      </c>
+      <c r="I433" t="n">
+        <v>0.7978873064926527</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>179.8139495849609</v>
+      </c>
+      <c r="B434" t="n">
+        <v>33.36025926614761</v>
+      </c>
+      <c r="C434" t="n">
+        <v>-0.988075985021409</v>
+      </c>
+      <c r="D434" t="n">
+        <v>0.6333832586283146</v>
+      </c>
+      <c r="E434" t="n">
+        <v>6.887747194894779</v>
+      </c>
+      <c r="F434" t="n">
+        <v>295.6232383578431</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.02221735483356769</v>
+      </c>
+      <c r="H434" t="n">
+        <v>0.1497437937999166</v>
+      </c>
+      <c r="I434" t="n">
+        <v>0.8674261565336333</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>122.0315551757812</v>
+      </c>
+      <c r="B435" t="n">
+        <v>63.21145900031588</v>
+      </c>
+      <c r="C435" t="n">
+        <v>-0.457801730515104</v>
+      </c>
+      <c r="D435" t="n">
+        <v>-0.9760209837536387</v>
+      </c>
+      <c r="E435" t="n">
+        <v>7.608580082918652</v>
+      </c>
+      <c r="F435" t="n">
+        <v>560.7069240196079</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.02047264497684398</v>
+      </c>
+      <c r="H435" t="n">
+        <v>0.200673483545724</v>
+      </c>
+      <c r="I435" t="n">
+        <v>0.9298497607070828</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>132.1800384521484</v>
+      </c>
+      <c r="B436" t="n">
+        <v>19.27670406672924</v>
+      </c>
+      <c r="C436" t="n">
+        <v>0.132859667088802</v>
+      </c>
+      <c r="D436" t="n">
+        <v>0.5152558204878761</v>
+      </c>
+      <c r="E436" t="n">
+        <v>6.263594739041171</v>
+      </c>
+      <c r="F436" t="n">
+        <v>24.44512867647059</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.03646958885617149</v>
+      </c>
+      <c r="H436" t="n">
+        <v>0.3163840755326968</v>
+      </c>
+      <c r="I436" t="n">
+        <v>0.9671780354285461</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>112.9278106689453</v>
+      </c>
+      <c r="B437" t="n">
+        <v>39.97107670739837</v>
+      </c>
+      <c r="C437" t="n">
+        <v>-0.8965353546881897</v>
+      </c>
+      <c r="D437" t="n">
+        <v>0.6798171037353566</v>
+      </c>
+      <c r="E437" t="n">
+        <v>7.133233400011652</v>
+      </c>
+      <c r="F437" t="n">
+        <v>509.5058976715687</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.01451255428606549</v>
+      </c>
+      <c r="H437" t="n">
+        <v>0.110842476628088</v>
+      </c>
+      <c r="I437" t="n">
+        <v>0.8409357928238133</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>102.0725708007812</v>
+      </c>
+      <c r="B438" t="n">
+        <v>41.93266654724067</v>
+      </c>
+      <c r="C438" t="n">
+        <v>-0.03500824434617356</v>
+      </c>
+      <c r="D438" t="n">
+        <v>-0.5382926306884044</v>
+      </c>
+      <c r="E438" t="n">
+        <v>7.331729721667595</v>
+      </c>
+      <c r="F438" t="n">
+        <v>410.0366115196078</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.01214248376292554</v>
+      </c>
+      <c r="H438" t="n">
+        <v>0.09126166140915636</v>
+      </c>
+      <c r="I438" t="n">
+        <v>0.8834598726848203</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>131.0560607910156</v>
+      </c>
+      <c r="B439" t="n">
+        <v>45.32297562648422</v>
+      </c>
+      <c r="C439" t="n">
+        <v>-0.5489088477171932</v>
+      </c>
+      <c r="D439" t="n">
+        <v>-0.284470400571772</v>
+      </c>
+      <c r="E439" t="n">
+        <v>7.405644821498243</v>
+      </c>
+      <c r="F439" t="n">
+        <v>865.0781403186276</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.01040753907335394</v>
+      </c>
+      <c r="H439" t="n">
+        <v>0.06439925261306299</v>
+      </c>
+      <c r="I439" t="n">
+        <v>0.7897593197110095</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>137.7793884277344</v>
+      </c>
+      <c r="B440" t="n">
+        <v>41.50358113804433</v>
+      </c>
+      <c r="C440" t="n">
+        <v>-0.543864774015005</v>
+      </c>
+      <c r="D440" t="n">
+        <v>0.1335145380667102</v>
+      </c>
+      <c r="E440" t="n">
+        <v>7.347895605424588</v>
+      </c>
+      <c r="F440" t="n">
+        <v>811.8657322303923</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.01053467255591013</v>
+      </c>
+      <c r="H440" t="n">
+        <v>0.06286042942185048</v>
+      </c>
+      <c r="I440" t="n">
+        <v>0.7647186348404231</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>139.6682434082031</v>
+      </c>
+      <c r="B441" t="n">
+        <v>46.23819445047959</v>
+      </c>
+      <c r="C441" t="n">
+        <v>-0.5800720728110837</v>
+      </c>
+      <c r="D441" t="n">
+        <v>-0.03916002010918129</v>
+      </c>
+      <c r="E441" t="n">
+        <v>7.471664242864919</v>
+      </c>
+      <c r="F441" t="n">
+        <v>1110.657306985294</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.009066246540924777</v>
+      </c>
+      <c r="H441" t="n">
+        <v>0.05042554688356625</v>
+      </c>
+      <c r="I441" t="n">
+        <v>0.7407292840887751</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>135.0919189453125</v>
+      </c>
+      <c r="B442" t="n">
+        <v>39.28523651123193</v>
+      </c>
+      <c r="C442" t="n">
+        <v>-1.054529667158585</v>
+      </c>
+      <c r="D442" t="n">
+        <v>1.330694512641992</v>
+      </c>
+      <c r="E442" t="n">
+        <v>7.111542240747097</v>
+      </c>
+      <c r="F442" t="n">
+        <v>595.4539062499999</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.01562593110451424</v>
+      </c>
+      <c r="H442" t="n">
+        <v>0.1096426950679171</v>
+      </c>
+      <c r="I442" t="n">
+        <v>0.8073907173831564</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>107.3444213867188</v>
+      </c>
+      <c r="B443" t="n">
+        <v>51.76426370769111</v>
+      </c>
+      <c r="C443" t="n">
+        <v>-0.3748175771502336</v>
+      </c>
+      <c r="D443" t="n">
+        <v>-0.8732337741381024</v>
+      </c>
+      <c r="E443" t="n">
+        <v>7.521048864050381</v>
+      </c>
+      <c r="F443" t="n">
+        <v>920.0414828431371</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.01078896923520984</v>
+      </c>
+      <c r="H443" t="n">
+        <v>0.07808889526846391</v>
+      </c>
+      <c r="I443" t="n">
+        <v>0.8283888832958887</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>138.0796203613281</v>
+      </c>
+      <c r="B444" t="n">
+        <v>42.29454744533714</v>
+      </c>
+      <c r="C444" t="n">
+        <v>-1.141751195711883</v>
+      </c>
+      <c r="D444" t="n">
+        <v>1.258365740226954</v>
+      </c>
+      <c r="E444" t="n">
+        <v>7.085199914572652</v>
+      </c>
+      <c r="F444" t="n">
+        <v>572.3835171568627</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.01461054999122182</v>
+      </c>
+      <c r="H444" t="n">
+        <v>0.1028278994637902</v>
+      </c>
+      <c r="I444" t="n">
+        <v>0.8399263102230625</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>133.8574371337891</v>
+      </c>
+      <c r="B445" t="n">
+        <v>43.60367323689687</v>
+      </c>
+      <c r="C445" t="n">
+        <v>-1.238933677398252</v>
+      </c>
+      <c r="D445" t="n">
+        <v>1.041818722570407</v>
+      </c>
+      <c r="E445" t="n">
+        <v>7.118639928730492</v>
+      </c>
+      <c r="F445" t="n">
+        <v>556.0788449754903</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.01386531273455554</v>
+      </c>
+      <c r="H445" t="n">
+        <v>0.07581320032330335</v>
+      </c>
+      <c r="I445" t="n">
+        <v>0.8541166704296844</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>175.8133239746094</v>
+      </c>
+      <c r="B446" t="n">
+        <v>43.52682338192968</v>
+      </c>
+      <c r="C446" t="n">
+        <v>-0.01446901651492189</v>
+      </c>
+      <c r="D446" t="n">
+        <v>-0.7510562103363392</v>
+      </c>
+      <c r="E446" t="n">
+        <v>7.279757873013196</v>
+      </c>
+      <c r="F446" t="n">
+        <v>903.922993259804</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.01330704752214886</v>
+      </c>
+      <c r="H446" t="n">
+        <v>0.06530731626342473</v>
+      </c>
+      <c r="I446" t="n">
+        <v>0.7613842556952373</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>124.4934234619141</v>
+      </c>
+      <c r="B447" t="n">
+        <v>58.95150874044308</v>
+      </c>
+      <c r="C447" t="n">
+        <v>-0.533553174295773</v>
+      </c>
+      <c r="D447" t="n">
+        <v>-1.159414524764108</v>
+      </c>
+      <c r="E447" t="n">
+        <v>7.441681237474759</v>
+      </c>
+      <c r="F447" t="n">
+        <v>524.9141084558825</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.01426357536496181</v>
+      </c>
+      <c r="H447" t="n">
+        <v>0.1123341708732587</v>
+      </c>
+      <c r="I447" t="n">
+        <v>0.9245527685630123</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>118.0326690673828</v>
+      </c>
+      <c r="B448" t="n">
+        <v>66.78893810845392</v>
+      </c>
+      <c r="C448" t="n">
+        <v>-0.1826149983551341</v>
+      </c>
+      <c r="D448" t="n">
+        <v>-1.303242955148738</v>
+      </c>
+      <c r="E448" t="n">
+        <v>7.705217348573179</v>
+      </c>
+      <c r="F448" t="n">
+        <v>518.8636029411764</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.01736006731050957</v>
+      </c>
+      <c r="H448" t="n">
+        <v>0.1919638109106752</v>
+      </c>
+      <c r="I448" t="n">
+        <v>0.9417705487883581</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>90.47770690917969</v>
+      </c>
+      <c r="B449" t="n">
+        <v>36.87128793008959</v>
+      </c>
+      <c r="C449" t="n">
+        <v>0.1863580725171387</v>
+      </c>
+      <c r="D449" t="n">
+        <v>-1.345005786698368</v>
+      </c>
+      <c r="E449" t="n">
+        <v>6.89989498007502</v>
+      </c>
+      <c r="F449" t="n">
+        <v>84.10963541666668</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.02220613512576343</v>
+      </c>
+      <c r="H449" t="n">
+        <v>0.2139327167047535</v>
+      </c>
+      <c r="I449" t="n">
+        <v>0.9690186071599444</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>96.24334716796875</v>
+      </c>
+      <c r="B450" t="n">
+        <v>22.44249619965361</v>
+      </c>
+      <c r="C450" t="n">
+        <v>0.06295826541457827</v>
+      </c>
+      <c r="D450" t="n">
+        <v>0.1630097348171082</v>
+      </c>
+      <c r="E450" t="n">
+        <v>6.525295615444387</v>
+      </c>
+      <c r="F450" t="n">
+        <v>372.5906709558824</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.01613241305655323</v>
+      </c>
+      <c r="H450" t="n">
+        <v>0.08032081317573636</v>
+      </c>
+      <c r="I450" t="n">
+        <v>0.6304159389638194</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>134.5716705322266</v>
+      </c>
+      <c r="B451" t="n">
+        <v>58.23646478051089</v>
+      </c>
+      <c r="C451" t="n">
+        <v>0.2969273774556899</v>
+      </c>
+      <c r="D451" t="n">
+        <v>-1.033464081901018</v>
+      </c>
+      <c r="E451" t="n">
+        <v>7.63499644285004</v>
+      </c>
+      <c r="F451" t="n">
+        <v>331.7589460784314</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.01387446574547873</v>
+      </c>
+      <c r="H451" t="n">
+        <v>0.1439093742419658</v>
+      </c>
+      <c r="I451" t="n">
+        <v>0.9510095397806511</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>142.4189605712891</v>
+      </c>
+      <c r="B452" t="n">
+        <v>32.06249657336815</v>
+      </c>
+      <c r="C452" t="n">
+        <v>-0.4191047889596213</v>
+      </c>
+      <c r="D452" t="n">
+        <v>-0.3749897906842703</v>
+      </c>
+      <c r="E452" t="n">
+        <v>6.869328079311481</v>
+      </c>
+      <c r="F452" t="n">
+        <v>46.83089767156864</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.03741723312848439</v>
+      </c>
+      <c r="H452" t="n">
+        <v>0.3053006528990654</v>
+      </c>
+      <c r="I452" t="n">
+        <v>0.977268060678941</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>154.7189331054688</v>
+      </c>
+      <c r="B453" t="n">
+        <v>59.3541113476691</v>
+      </c>
+      <c r="C453" t="n">
+        <v>-0.6299063473240316</v>
+      </c>
+      <c r="D453" t="n">
+        <v>-0.5896805744296052</v>
+      </c>
+      <c r="E453" t="n">
+        <v>7.575360158197838</v>
+      </c>
+      <c r="F453" t="n">
+        <v>246.115456495098</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.02233159576487981</v>
+      </c>
+      <c r="H453" t="n">
+        <v>0.2091647257023344</v>
+      </c>
+      <c r="I453" t="n">
+        <v>0.9651142401078189</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>148.9905090332031</v>
+      </c>
+      <c r="B454" t="n">
+        <v>37.28159095558238</v>
+      </c>
+      <c r="C454" t="n">
+        <v>-1.140063691790568</v>
+      </c>
+      <c r="D454" t="n">
+        <v>1.739365864164311</v>
+      </c>
+      <c r="E454" t="n">
+        <v>7.037941052995605</v>
+      </c>
+      <c r="F454" t="n">
+        <v>430.4356311274511</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.01472790235087505</v>
+      </c>
+      <c r="H454" t="n">
+        <v>0.1057477067121154</v>
+      </c>
+      <c r="I454" t="n">
+        <v>0.8455245962892918</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>137.7925415039062</v>
+      </c>
+      <c r="B455" t="n">
+        <v>43.46468092683999</v>
+      </c>
+      <c r="C455" t="n">
+        <v>-1.0141236360706</v>
+      </c>
+      <c r="D455" t="n">
+        <v>0.9196981072709378</v>
+      </c>
+      <c r="E455" t="n">
+        <v>7.276676185030808</v>
+      </c>
+      <c r="F455" t="n">
+        <v>452.0801930147059</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.01300785108289569</v>
+      </c>
+      <c r="H455" t="n">
+        <v>0.09234812890044893</v>
+      </c>
+      <c r="I455" t="n">
+        <v>0.8805132327353161</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>77.57638549804688</v>
+      </c>
+      <c r="B456" t="n">
+        <v>28.64195785005284</v>
+      </c>
+      <c r="C456" t="n">
+        <v>0.02448260525379226</v>
+      </c>
+      <c r="D456" t="n">
+        <v>-0.667808407536175</v>
+      </c>
+      <c r="E456" t="n">
+        <v>6.851559209762529</v>
+      </c>
+      <c r="F456" t="n">
+        <v>100.6106464460785</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.02061482056738946</v>
+      </c>
+      <c r="H456" t="n">
+        <v>0.1935772856806583</v>
+      </c>
+      <c r="I456" t="n">
+        <v>0.9385539522512257</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>128.3379821777344</v>
+      </c>
+      <c r="B457" t="n">
+        <v>68.29455561850861</v>
+      </c>
+      <c r="C457" t="n">
+        <v>-0.4412047541838953</v>
+      </c>
+      <c r="D457" t="n">
+        <v>-1.204642311022655</v>
+      </c>
+      <c r="E457" t="n">
+        <v>7.649600595083644</v>
+      </c>
+      <c r="F457" t="n">
+        <v>698.9792279411764</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.01497281233077663</v>
+      </c>
+      <c r="H457" t="n">
+        <v>0.1535340477801987</v>
+      </c>
+      <c r="I457" t="n">
+        <v>0.9251171556108848</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>121.6170959472656</v>
+      </c>
+      <c r="B458" t="n">
+        <v>30.04864307093364</v>
+      </c>
+      <c r="C458" t="n">
+        <v>-1.167267427732817</v>
+      </c>
+      <c r="D458" t="n">
+        <v>0.9856240398437301</v>
+      </c>
+      <c r="E458" t="n">
+        <v>6.641074957987986</v>
+      </c>
+      <c r="F458" t="n">
+        <v>188.3300245098039</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.02322196809961943</v>
+      </c>
+      <c r="H458" t="n">
+        <v>0.1446555939602913</v>
+      </c>
+      <c r="I458" t="n">
+        <v>0.895909912651321</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>125.7086334228516</v>
+      </c>
+      <c r="B459" t="n">
+        <v>40.08557080780374</v>
+      </c>
+      <c r="C459" t="n">
+        <v>-1.015705482569884</v>
+      </c>
+      <c r="D459" t="n">
+        <v>1.065049438146837</v>
+      </c>
+      <c r="E459" t="n">
+        <v>7.130900958765953</v>
+      </c>
+      <c r="F459" t="n">
+        <v>674.4280790441179</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.01467682804410498</v>
+      </c>
+      <c r="H459" t="n">
+        <v>0.1021893682363893</v>
+      </c>
+      <c r="I459" t="n">
+        <v>0.7903923360008809</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>117.3896636962891</v>
+      </c>
+      <c r="B460" t="n">
+        <v>39.70713830343028</v>
+      </c>
+      <c r="C460" t="n">
+        <v>-0.4041078460473885</v>
+      </c>
+      <c r="D460" t="n">
+        <v>-0.7807545622214773</v>
+      </c>
+      <c r="E460" t="n">
+        <v>7.234010564847281</v>
+      </c>
+      <c r="F460" t="n">
+        <v>780.2761642156862</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.01031092705839941</v>
+      </c>
+      <c r="H460" t="n">
+        <v>0.04866705824073547</v>
+      </c>
+      <c r="I460" t="n">
+        <v>0.7527807753481809</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>103.5484466552734</v>
+      </c>
+      <c r="B461" t="n">
+        <v>43.23966515725841</v>
+      </c>
+      <c r="C461" t="n">
+        <v>-0.0225888438395882</v>
+      </c>
+      <c r="D461" t="n">
+        <v>-1.18020856048788</v>
+      </c>
+      <c r="E461" t="n">
+        <v>7.22812948456719</v>
+      </c>
+      <c r="F461" t="n">
+        <v>260.9872549019608</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.01430943484451754</v>
+      </c>
+      <c r="H461" t="n">
+        <v>0.1111856914539021</v>
+      </c>
+      <c r="I461" t="n">
+        <v>0.9301615873187888</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>135.7333984375</v>
+      </c>
+      <c r="B462" t="n">
+        <v>54.46696295900816</v>
+      </c>
+      <c r="C462" t="n">
+        <v>-0.3924348680889754</v>
+      </c>
+      <c r="D462" t="n">
+        <v>-0.7376328477699361</v>
+      </c>
+      <c r="E462" t="n">
+        <v>7.662235720271758</v>
+      </c>
+      <c r="F462" t="n">
+        <v>1146.398177083334</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.008875555108376823</v>
+      </c>
+      <c r="H462" t="n">
+        <v>0.05631030846789282</v>
+      </c>
+      <c r="I462" t="n">
+        <v>0.8070104251645169</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>130.1034698486328</v>
+      </c>
+      <c r="B463" t="n">
+        <v>50.35780928978156</v>
+      </c>
+      <c r="C463" t="n">
+        <v>-0.7763690737108283</v>
+      </c>
+      <c r="D463" t="n">
+        <v>-0.4095146526724807</v>
+      </c>
+      <c r="E463" t="n">
+        <v>7.361634494838963</v>
+      </c>
+      <c r="F463" t="n">
+        <v>819.3445925245099</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.01428581720066719</v>
+      </c>
+      <c r="H463" t="n">
+        <v>0.1156902788471994</v>
+      </c>
+      <c r="I463" t="n">
+        <v>0.8386316049873398</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>117.5079193115234</v>
+      </c>
+      <c r="B464" t="n">
+        <v>45.13803899415248</v>
+      </c>
+      <c r="C464" t="n">
+        <v>-0.5604978202385528</v>
+      </c>
+      <c r="D464" t="n">
+        <v>-0.3963672825125166</v>
+      </c>
+      <c r="E464" t="n">
+        <v>7.345186109723318</v>
+      </c>
+      <c r="F464" t="n">
+        <v>832.5077971813726</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.01339748625854366</v>
+      </c>
+      <c r="H464" t="n">
+        <v>0.08525776503655634</v>
+      </c>
+      <c r="I464" t="n">
+        <v>0.7960596944699758</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>104.8334197998047</v>
+      </c>
+      <c r="B465" t="n">
+        <v>53.62028378733522</v>
+      </c>
+      <c r="C465" t="n">
+        <v>-0.07658298371753432</v>
+      </c>
+      <c r="D465" t="n">
+        <v>-1.0304518682763</v>
+      </c>
+      <c r="E465" t="n">
+        <v>7.623664575141993</v>
+      </c>
+      <c r="F465" t="n">
+        <v>753.2526654411764</v>
+      </c>
+      <c r="G465" t="n">
+        <v>0.0111961876867244</v>
+      </c>
+      <c r="H465" t="n">
+        <v>0.09094613565469988</v>
+      </c>
+      <c r="I465" t="n">
+        <v>0.8686805331084819</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>106.2456207275391</v>
+      </c>
+      <c r="B466" t="n">
+        <v>64.61835936946835</v>
+      </c>
+      <c r="C466" t="n">
+        <v>-0.07788745006336141</v>
+      </c>
+      <c r="D466" t="n">
+        <v>-1.42126047195059</v>
+      </c>
+      <c r="E466" t="n">
+        <v>7.544716615695542</v>
+      </c>
+      <c r="F466" t="n">
+        <v>446.7437806372549</v>
+      </c>
+      <c r="G466" t="n">
+        <v>0.0297197717232963</v>
+      </c>
+      <c r="H466" t="n">
+        <v>0.1801177699227145</v>
+      </c>
+      <c r="I466" t="n">
+        <v>0.9464986142752507</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>108.4017028808594</v>
+      </c>
+      <c r="B467" t="n">
+        <v>28.43387381637728</v>
+      </c>
+      <c r="C467" t="n">
+        <v>-0.6127820009642529</v>
+      </c>
+      <c r="D467" t="n">
+        <v>-0.006669972288706028</v>
+      </c>
+      <c r="E467" t="n">
+        <v>6.718997290798393</v>
+      </c>
+      <c r="F467" t="n">
+        <v>30.92415747549019</v>
+      </c>
+      <c r="G467" t="n">
+        <v>0.0327598580971575</v>
+      </c>
+      <c r="H467" t="n">
+        <v>0.3404822170806402</v>
+      </c>
+      <c r="I467" t="n">
+        <v>0.9808880749675</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>116.2437133789062</v>
+      </c>
+      <c r="B468" t="n">
+        <v>49.88231869645833</v>
+      </c>
+      <c r="C468" t="n">
+        <v>-0.2573460808988861</v>
+      </c>
+      <c r="D468" t="n">
+        <v>-0.8479745627861606</v>
+      </c>
+      <c r="E468" t="n">
+        <v>7.563052375853884</v>
+      </c>
+      <c r="F468" t="n">
+        <v>699.1124846813725</v>
+      </c>
+      <c r="G468" t="n">
+        <v>0.009977566651389509</v>
+      </c>
+      <c r="H468" t="n">
+        <v>0.0816272153838071</v>
+      </c>
+      <c r="I468" t="n">
+        <v>0.8595363394076055</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>108.7491149902344</v>
+      </c>
+      <c r="B469" t="n">
+        <v>56.30135906044961</v>
+      </c>
+      <c r="C469" t="n">
+        <v>-0.269400985997773</v>
+      </c>
+      <c r="D469" t="n">
+        <v>-1.252770756925088</v>
+      </c>
+      <c r="E469" t="n">
+        <v>7.463796708203131</v>
+      </c>
+      <c r="F469" t="n">
+        <v>200.3458026960784</v>
+      </c>
+      <c r="G469" t="n">
+        <v>0.01799674704249075</v>
+      </c>
+      <c r="H469" t="n">
+        <v>0.1905835057202186</v>
+      </c>
+      <c r="I469" t="n">
+        <v>0.968426983021671</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>132.2042388916016</v>
+      </c>
+      <c r="B470" t="n">
+        <v>35.96147876623345</v>
+      </c>
+      <c r="C470" t="n">
+        <v>-1.150799245067483</v>
+      </c>
+      <c r="D470" t="n">
+        <v>1.338908185353236</v>
+      </c>
+      <c r="E470" t="n">
+        <v>6.963129400478936</v>
+      </c>
+      <c r="F470" t="n">
+        <v>296.1713388480393</v>
+      </c>
+      <c r="G470" t="n">
+        <v>0.01978864302238745</v>
+      </c>
+      <c r="H470" t="n">
+        <v>0.1660826628552354</v>
+      </c>
+      <c r="I470" t="n">
+        <v>0.8857646078701272</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>95.12582397460938</v>
+      </c>
+      <c r="B471" t="n">
+        <v>32.70474271660679</v>
+      </c>
+      <c r="C471" t="n">
+        <v>0.09818963315539744</v>
+      </c>
+      <c r="D471" t="n">
+        <v>-0.3693181070676754</v>
+      </c>
+      <c r="E471" t="n">
+        <v>6.95335194103424</v>
+      </c>
+      <c r="F471" t="n">
+        <v>28.89587928921569</v>
+      </c>
+      <c r="G471" t="n">
+        <v>0.03972951517702501</v>
+      </c>
+      <c r="H471" t="n">
+        <v>0.3827567208741733</v>
+      </c>
+      <c r="I471" t="n">
+        <v>0.9865270197940014</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>133.2543792724609</v>
+      </c>
+      <c r="B472" t="n">
+        <v>36.8966402841374</v>
+      </c>
+      <c r="C472" t="n">
+        <v>-0.5716246542332398</v>
+      </c>
+      <c r="D472" t="n">
+        <v>-0.7747147339739828</v>
+      </c>
+      <c r="E472" t="n">
+        <v>6.917803324408471</v>
+      </c>
+      <c r="F472" t="n">
+        <v>163.565762867647</v>
+      </c>
+      <c r="G472" t="n">
+        <v>0.02401655955547305</v>
+      </c>
+      <c r="H472" t="n">
+        <v>0.1840640405941524</v>
+      </c>
+      <c r="I472" t="n">
+        <v>0.9399546549353691</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>158.5552062988281</v>
+      </c>
+      <c r="B473" t="n">
+        <v>63.60885688286071</v>
+      </c>
+      <c r="C473" t="n">
+        <v>-0.4483756225054471</v>
+      </c>
+      <c r="D473" t="n">
+        <v>-0.9701569503942995</v>
+      </c>
+      <c r="E473" t="n">
+        <v>7.666351489246367</v>
+      </c>
+      <c r="F473" t="n">
+        <v>469.7505208333333</v>
+      </c>
+      <c r="G473" t="n">
+        <v>0.01883619443386675</v>
+      </c>
+      <c r="H473" t="n">
+        <v>0.1767205242216232</v>
+      </c>
+      <c r="I473" t="n">
+        <v>0.9419826219930351</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>122.8860626220703</v>
+      </c>
+      <c r="B474" t="n">
+        <v>22.60480360094702</v>
+      </c>
+      <c r="C474" t="n">
+        <v>-0.3275127419394537</v>
+      </c>
+      <c r="D474" t="n">
+        <v>0.5668990687133348</v>
+      </c>
+      <c r="E474" t="n">
+        <v>6.432800074844334</v>
+      </c>
+      <c r="F474" t="n">
+        <v>109.2846354166667</v>
+      </c>
+      <c r="G474" t="n">
+        <v>0.03364155439088854</v>
+      </c>
+      <c r="H474" t="n">
+        <v>0.2706982114023304</v>
+      </c>
+      <c r="I474" t="n">
+        <v>0.8931939007163684</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>92.32801818847656</v>
+      </c>
+      <c r="B475" t="n">
+        <v>37.50726605895773</v>
+      </c>
+      <c r="C475" t="n">
+        <v>-0.4820428367089151</v>
+      </c>
+      <c r="D475" t="n">
+        <v>-1.031379934780157</v>
+      </c>
+      <c r="E475" t="n">
+        <v>6.926665635869591</v>
+      </c>
+      <c r="F475" t="n">
+        <v>133.7870863970589</v>
+      </c>
+      <c r="G475" t="n">
+        <v>0.01957769731884951</v>
+      </c>
+      <c r="H475" t="n">
+        <v>0.1624225131638515</v>
+      </c>
+      <c r="I475" t="n">
+        <v>0.9524962706002934</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>114.7153625488281</v>
+      </c>
+      <c r="B476" t="n">
+        <v>34.32944788398784</v>
+      </c>
+      <c r="C476" t="n">
+        <v>0.2263218134934591</v>
+      </c>
+      <c r="D476" t="n">
+        <v>-1.156773174359933</v>
+      </c>
+      <c r="E476" t="n">
+        <v>6.858261814776906</v>
+      </c>
+      <c r="F476" t="n">
+        <v>81.31704963235293</v>
+      </c>
+      <c r="G476" t="n">
+        <v>0.02558849133694489</v>
+      </c>
+      <c r="H476" t="n">
+        <v>0.2426196039466898</v>
+      </c>
+      <c r="I476" t="n">
+        <v>0.9654818603826966</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>233.4015502929688</v>
+      </c>
+      <c r="B477" t="n">
+        <v>47.65777674336088</v>
+      </c>
+      <c r="C477" t="n">
+        <v>-2.903568219360297</v>
+      </c>
+      <c r="D477" t="n">
+        <v>8.217264190349361</v>
+      </c>
+      <c r="E477" t="n">
+        <v>4.062956719328918</v>
+      </c>
+      <c r="F477" t="n">
+        <v>845.0518382352943</v>
+      </c>
+      <c r="G477" t="n">
+        <v>0.4628527768616031</v>
+      </c>
+      <c r="H477" t="n">
+        <v>0.5405601194649852</v>
+      </c>
+      <c r="I477" t="n">
+        <v>0.8145434026626244</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>124.8999633789062</v>
+      </c>
+      <c r="B478" t="n">
+        <v>43.00059369762548</v>
+      </c>
+      <c r="C478" t="n">
+        <v>-0.5317144333607934</v>
+      </c>
+      <c r="D478" t="n">
+        <v>0.6509867485687764</v>
+      </c>
+      <c r="E478" t="n">
+        <v>7.306616252238032</v>
+      </c>
+      <c r="F478" t="n">
+        <v>696.6485906862747</v>
+      </c>
+      <c r="G478" t="n">
+        <v>0.01301730055881124</v>
+      </c>
+      <c r="H478" t="n">
+        <v>0.0940736132819428</v>
+      </c>
+      <c r="I478" t="n">
+        <v>0.812089703281196</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>119.2275848388672</v>
+      </c>
+      <c r="B479" t="n">
+        <v>39.72737573146862</v>
+      </c>
+      <c r="C479" t="n">
+        <v>-0.8715409499669419</v>
+      </c>
+      <c r="D479" t="n">
+        <v>0.6522755293934459</v>
+      </c>
+      <c r="E479" t="n">
+        <v>7.153126653408791</v>
+      </c>
+      <c r="F479" t="n">
+        <v>669.0923713235293</v>
+      </c>
+      <c r="G479" t="n">
+        <v>0.01581121317343521</v>
+      </c>
+      <c r="H479" t="n">
+        <v>0.1209784475406113</v>
+      </c>
+      <c r="I479" t="n">
+        <v>0.7883370762377734</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>211.5799560546875</v>
+      </c>
+      <c r="B480" t="n">
+        <v>67.31617051344888</v>
+      </c>
+      <c r="C480" t="n">
+        <v>-1.518547129511024</v>
+      </c>
+      <c r="D480" t="n">
+        <v>0.8896459395225302</v>
+      </c>
+      <c r="E480" t="n">
+        <v>5.513450322009463</v>
+      </c>
+      <c r="F480" t="n">
+        <v>1697.069914215686</v>
+      </c>
+      <c r="G480" t="n">
+        <v>0.2724985965811175</v>
+      </c>
+      <c r="H480" t="n">
+        <v>0.3483694099764665</v>
+      </c>
+      <c r="I480" t="n">
+        <v>0.813196703183088</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>108.1464385986328</v>
+      </c>
+      <c r="B481" t="n">
+        <v>39.46734846271358</v>
+      </c>
+      <c r="C481" t="n">
+        <v>-0.2073344238031593</v>
+      </c>
+      <c r="D481" t="n">
+        <v>-0.1403364784775309</v>
+      </c>
+      <c r="E481" t="n">
+        <v>7.321504011979839</v>
+      </c>
+      <c r="F481" t="n">
+        <v>1004.713480392157</v>
+      </c>
+      <c r="G481" t="n">
+        <v>0.009651391784393851</v>
+      </c>
+      <c r="H481" t="n">
+        <v>0.04738941922713573</v>
+      </c>
+      <c r="I481" t="n">
+        <v>0.6775401681911242</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>75.87503051757812</v>
+      </c>
+      <c r="B482" t="n">
+        <v>51.82455786273074</v>
+      </c>
+      <c r="C482" t="n">
+        <v>-0.05778387717204655</v>
+      </c>
+      <c r="D482" t="n">
+        <v>-1.309600394055771</v>
+      </c>
+      <c r="E482" t="n">
+        <v>6.951553959516382</v>
+      </c>
+      <c r="F482" t="n">
+        <v>522.8442708333334</v>
+      </c>
+      <c r="G482" t="n">
+        <v>0.12111507308605</v>
+      </c>
+      <c r="H482" t="n">
+        <v>0.1970923392540105</v>
+      </c>
+      <c r="I482" t="n">
+        <v>0.902429459303293</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>119.1020660400391</v>
+      </c>
+      <c r="B483" t="n">
+        <v>54.63252318651976</v>
+      </c>
+      <c r="C483" t="n">
+        <v>-0.648959649694654</v>
+      </c>
+      <c r="D483" t="n">
+        <v>-0.9219176414278558</v>
+      </c>
+      <c r="E483" t="n">
+        <v>7.335407358728144</v>
+      </c>
+      <c r="F483" t="n">
+        <v>425.7490502450981</v>
+      </c>
+      <c r="G483" t="n">
+        <v>0.01646083282872337</v>
+      </c>
+      <c r="H483" t="n">
+        <v>0.1003596713606179</v>
+      </c>
+      <c r="I483" t="n">
+        <v>0.9287691683828966</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>124.4173431396484</v>
+      </c>
+      <c r="B484" t="n">
+        <v>25.72958253363539</v>
+      </c>
+      <c r="C484" t="n">
+        <v>0.2048265781389823</v>
+      </c>
+      <c r="D484" t="n">
+        <v>1.435734652868122</v>
+      </c>
+      <c r="E484" t="n">
+        <v>6.60744099113243</v>
+      </c>
+      <c r="F484" t="n">
+        <v>140.0996629901961</v>
+      </c>
+      <c r="G484" t="n">
+        <v>0.02786174936946277</v>
+      </c>
+      <c r="H484" t="n">
+        <v>0.2051279249461846</v>
+      </c>
+      <c r="I484" t="n">
+        <v>0.8943980863534839</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>134.6586608886719</v>
+      </c>
+      <c r="B485" t="n">
+        <v>50.5371232629932</v>
+      </c>
+      <c r="C485" t="n">
+        <v>-0.6769558713765764</v>
+      </c>
+      <c r="D485" t="n">
+        <v>-0.8002381417142326</v>
+      </c>
+      <c r="E485" t="n">
+        <v>7.280312593573536</v>
+      </c>
+      <c r="F485" t="n">
+        <v>411.2165287990196</v>
+      </c>
+      <c r="G485" t="n">
+        <v>0.01712073018135507</v>
+      </c>
+      <c r="H485" t="n">
+        <v>0.1350649383800544</v>
+      </c>
+      <c r="I485" t="n">
+        <v>0.9196574094604529</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>114.9010925292969</v>
+      </c>
+      <c r="B486" t="n">
+        <v>66.70084641610434</v>
+      </c>
+      <c r="C486" t="n">
+        <v>-0.001933035519877553</v>
+      </c>
+      <c r="D486" t="n">
+        <v>-1.394983380538268</v>
+      </c>
+      <c r="E486" t="n">
+        <v>7.56128710895122</v>
+      </c>
+      <c r="F486" t="n">
+        <v>462.7738511029411</v>
+      </c>
+      <c r="G486" t="n">
+        <v>0.01974811717147463</v>
+      </c>
+      <c r="H486" t="n">
+        <v>0.1782046425727103</v>
+      </c>
+      <c r="I486" t="n">
+        <v>0.9479976902637631</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>105.7556915283203</v>
+      </c>
+      <c r="B487" t="n">
+        <v>53.43024144568231</v>
+      </c>
+      <c r="C487" t="n">
+        <v>-0.1011656564922896</v>
+      </c>
+      <c r="D487" t="n">
+        <v>-1.190210539394073</v>
+      </c>
+      <c r="E487" t="n">
+        <v>7.572776663760791</v>
+      </c>
+      <c r="F487" t="n">
+        <v>998.5887408088238</v>
+      </c>
+      <c r="G487" t="n">
+        <v>0.01091552981673702</v>
+      </c>
+      <c r="H487" t="n">
+        <v>0.08612633541824574</v>
+      </c>
+      <c r="I487" t="n">
+        <v>0.825108514437532</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>130.1602783203125</v>
+      </c>
+      <c r="B488" t="n">
+        <v>51.97552889182223</v>
+      </c>
+      <c r="C488" t="n">
+        <v>-0.8642579189841345</v>
+      </c>
+      <c r="D488" t="n">
+        <v>-0.03207102299096398</v>
+      </c>
+      <c r="E488" t="n">
+        <v>7.363583759757019</v>
+      </c>
+      <c r="F488" t="n">
+        <v>450.2015931372549</v>
+      </c>
+      <c r="G488" t="n">
+        <v>0.01959595562982546</v>
+      </c>
+      <c r="H488" t="n">
+        <v>0.1842972036714057</v>
+      </c>
+      <c r="I488" t="n">
+        <v>0.9167808020266087</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>120.7330932617188</v>
+      </c>
+      <c r="B489" t="n">
+        <v>47.57733143890846</v>
+      </c>
+      <c r="C489" t="n">
+        <v>-0.3335419982313471</v>
+      </c>
+      <c r="D489" t="n">
+        <v>-0.1838513574545653</v>
+      </c>
+      <c r="E489" t="n">
+        <v>7.478625861682786</v>
+      </c>
+      <c r="F489" t="n">
+        <v>1235.010753676471</v>
+      </c>
+      <c r="G489" t="n">
+        <v>0.009871830333809109</v>
+      </c>
+      <c r="H489" t="n">
+        <v>0.05912748918988695</v>
+      </c>
+      <c r="I489" t="n">
+        <v>0.7276017128007446</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>125.9396209716797</v>
+      </c>
+      <c r="B490" t="n">
+        <v>43.57486256391131</v>
+      </c>
+      <c r="C490" t="n">
+        <v>-0.6049541010535093</v>
+      </c>
+      <c r="D490" t="n">
+        <v>0.00463185946910194</v>
+      </c>
+      <c r="E490" t="n">
+        <v>7.391968391094344</v>
+      </c>
+      <c r="F490" t="n">
+        <v>1047.659819240196</v>
+      </c>
+      <c r="G490" t="n">
+        <v>0.009754899074107861</v>
+      </c>
+      <c r="H490" t="n">
+        <v>0.05452994010596936</v>
+      </c>
+      <c r="I490" t="n">
+        <v>0.7242567573887182</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>71.33538818359375</v>
+      </c>
+      <c r="B491" t="n">
+        <v>19.93657246129803</v>
+      </c>
+      <c r="C491" t="n">
+        <v>0.5366750000752547</v>
+      </c>
+      <c r="D491" t="n">
+        <v>0.4145621132842767</v>
+      </c>
+      <c r="E491" t="n">
+        <v>6.313965311896052</v>
+      </c>
+      <c r="F491" t="n">
+        <v>236.2074295343137</v>
+      </c>
+      <c r="G491" t="n">
+        <v>0.02068788435504827</v>
+      </c>
+      <c r="H491" t="n">
+        <v>0.1216036555468198</v>
+      </c>
+      <c r="I491" t="n">
+        <v>0.7028769621716872</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>136.1651153564453</v>
+      </c>
+      <c r="B492" t="n">
+        <v>65.44273730481775</v>
+      </c>
+      <c r="C492" t="n">
+        <v>-0.388580071109753</v>
+      </c>
+      <c r="D492" t="n">
+        <v>-1.277304073636049</v>
+      </c>
+      <c r="E492" t="n">
+        <v>7.608956973556233</v>
+      </c>
+      <c r="F492" t="n">
+        <v>390.9519914215687</v>
+      </c>
+      <c r="G492" t="n">
+        <v>0.01538489038603341</v>
+      </c>
+      <c r="H492" t="n">
+        <v>0.1563453417009643</v>
+      </c>
+      <c r="I492" t="n">
+        <v>0.9543315967907474</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>91.35343933105469</v>
+      </c>
+      <c r="B493" t="n">
+        <v>43.53842119962844</v>
+      </c>
+      <c r="C493" t="n">
+        <v>-0.1949823533946681</v>
+      </c>
+      <c r="D493" t="n">
+        <v>-1.388395037582403</v>
+      </c>
+      <c r="E493" t="n">
+        <v>7.121671114566769</v>
+      </c>
+      <c r="F493" t="n">
+        <v>132.7767156862745</v>
+      </c>
+      <c r="G493" t="n">
+        <v>0.01888161119405335</v>
+      </c>
+      <c r="H493" t="n">
+        <v>0.1917523035508069</v>
+      </c>
+      <c r="I493" t="n">
+        <v>0.9650010042283858</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>104.1369476318359</v>
+      </c>
+      <c r="B494" t="n">
+        <v>51.91627686078223</v>
+      </c>
+      <c r="C494" t="n">
+        <v>-0.1899566606766222</v>
+      </c>
+      <c r="D494" t="n">
+        <v>-1.533804908829773</v>
+      </c>
+      <c r="E494" t="n">
+        <v>7.174347899188123</v>
+      </c>
+      <c r="F494" t="n">
+        <v>122.4080422794118</v>
+      </c>
+      <c r="G494" t="n">
+        <v>0.02204005022221088</v>
+      </c>
+      <c r="H494" t="n">
+        <v>0.2088803250389855</v>
+      </c>
+      <c r="I494" t="n">
+        <v>0.9773077377261363</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>120.2759857177734</v>
+      </c>
+      <c r="B495" t="n">
+        <v>65.54509030439667</v>
+      </c>
+      <c r="C495" t="n">
+        <v>-0.2082562198667495</v>
+      </c>
+      <c r="D495" t="n">
+        <v>-1.30270932867836</v>
+      </c>
+      <c r="E495" t="n">
+        <v>7.709670153258598</v>
+      </c>
+      <c r="F495" t="n">
+        <v>685.757781862745</v>
+      </c>
+      <c r="G495" t="n">
+        <v>0.01490309578083846</v>
+      </c>
+      <c r="H495" t="n">
+        <v>0.1594441494163149</v>
+      </c>
+      <c r="I495" t="n">
+        <v>0.9202126576026221</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>112.9579620361328</v>
+      </c>
+      <c r="B496" t="n">
+        <v>49.15689987622724</v>
+      </c>
+      <c r="C496" t="n">
+        <v>-0.3227957006532843</v>
+      </c>
+      <c r="D496" t="n">
+        <v>-0.9939224734123742</v>
+      </c>
+      <c r="E496" t="n">
+        <v>7.464709748283745</v>
+      </c>
+      <c r="F496" t="n">
+        <v>809.1167892156864</v>
+      </c>
+      <c r="G496" t="n">
+        <v>0.01090156878846767</v>
+      </c>
+      <c r="H496" t="n">
+        <v>0.07578777905787723</v>
+      </c>
+      <c r="I496" t="n">
+        <v>0.8327505729371469</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>111.6039733886719</v>
+      </c>
+      <c r="B497" t="n">
+        <v>36.57453509633395</v>
+      </c>
+      <c r="C497" t="n">
+        <v>-0.1197083075139805</v>
+      </c>
+      <c r="D497" t="n">
+        <v>-0.7772290361842664</v>
+      </c>
+      <c r="E497" t="n">
+        <v>6.88088905387426</v>
+      </c>
+      <c r="F497" t="n">
+        <v>35.16482843137255</v>
+      </c>
+      <c r="G497" t="n">
+        <v>0.04328481964492655</v>
+      </c>
+      <c r="H497" t="n">
+        <v>0.387958176636121</v>
+      </c>
+      <c r="I497" t="n">
+        <v>0.986876481183682</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>243.5422973632812</v>
+      </c>
+      <c r="B498" t="n">
+        <v>31.63632270897395</v>
+      </c>
+      <c r="C498" t="n">
+        <v>-4.170113747591951</v>
+      </c>
+      <c r="D498" t="n">
+        <v>19.97620465697817</v>
+      </c>
+      <c r="E498" t="n">
+        <v>3.224029165928246</v>
+      </c>
+      <c r="F498" t="n">
+        <v>448.5307904411765</v>
+      </c>
+      <c r="G498" t="n">
+        <v>0.5276534106291233</v>
+      </c>
+      <c r="H498" t="n">
+        <v>0.6256962443128015</v>
+      </c>
+      <c r="I498" t="n">
+        <v>0.7766960740776753</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>120.0046844482422</v>
+      </c>
+      <c r="B499" t="n">
+        <v>33.06041563837214</v>
+      </c>
+      <c r="C499" t="n">
+        <v>-0.08294731703474113</v>
+      </c>
+      <c r="D499" t="n">
+        <v>0.5662052239093369</v>
+      </c>
+      <c r="E499" t="n">
+        <v>6.997886824655557</v>
+      </c>
+      <c r="F499" t="n">
+        <v>37.11049325980392</v>
+      </c>
+      <c r="G499" t="n">
+        <v>0.02962361154496419</v>
+      </c>
+      <c r="H499" t="n">
+        <v>0.3004928721422793</v>
+      </c>
+      <c r="I499" t="n">
+        <v>0.9830749777447442</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>121.7923278808594</v>
+      </c>
+      <c r="B500" t="n">
+        <v>25.37438350209211</v>
+      </c>
+      <c r="C500" t="n">
+        <v>1.023588030921009</v>
+      </c>
+      <c r="D500" t="n">
+        <v>3.051939288253338</v>
+      </c>
+      <c r="E500" t="n">
+        <v>6.49744225812914</v>
+      </c>
+      <c r="F500" t="n">
+        <v>118.9059129901961</v>
+      </c>
+      <c r="G500" t="n">
+        <v>0.0274876027020474</v>
+      </c>
+      <c r="H500" t="n">
+        <v>0.1922919253148559</v>
+      </c>
+      <c r="I500" t="n">
+        <v>0.907932196242598</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>117.3742828369141</v>
+      </c>
+      <c r="B501" t="n">
+        <v>55.53507151647</v>
+      </c>
+      <c r="C501" t="n">
+        <v>-0.3374403195833284</v>
+      </c>
+      <c r="D501" t="n">
+        <v>-1.204796506736163</v>
+      </c>
+      <c r="E501" t="n">
+        <v>7.426389976642226</v>
+      </c>
+      <c r="F501" t="n">
+        <v>442.2369791666667</v>
+      </c>
+      <c r="G501" t="n">
+        <v>0.02030808646192215</v>
+      </c>
+      <c r="H501" t="n">
+        <v>0.1573553838822128</v>
+      </c>
+      <c r="I501" t="n">
+        <v>0.9284293960928095</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>131.6409912109375</v>
+      </c>
+      <c r="B502" t="n">
+        <v>69.35483998953882</v>
+      </c>
+      <c r="C502" t="n">
+        <v>-0.1646929675112599</v>
+      </c>
+      <c r="D502" t="n">
+        <v>-1.322472844220428</v>
+      </c>
+      <c r="E502" t="n">
+        <v>7.753030534497388</v>
+      </c>
+      <c r="F502" t="n">
+        <v>436.516605392157</v>
+      </c>
+      <c r="G502" t="n">
+        <v>0.02070211478469713</v>
+      </c>
+      <c r="H502" t="n">
+        <v>0.2246404947797301</v>
+      </c>
+      <c r="I502" t="n">
+        <v>0.9546318914459706</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>111.7645111083984</v>
+      </c>
+      <c r="B503" t="n">
+        <v>20.10919391396949</v>
+      </c>
+      <c r="C503" t="n">
+        <v>0.3651148117233342</v>
+      </c>
+      <c r="D503" t="n">
+        <v>0.3546231285802022</v>
+      </c>
+      <c r="E503" t="n">
+        <v>6.330333175787285</v>
+      </c>
+      <c r="F503" t="n">
+        <v>240.2806525735294</v>
+      </c>
+      <c r="G503" t="n">
+        <v>0.02158417982485212</v>
+      </c>
+      <c r="H503" t="n">
+        <v>0.1178808810063154</v>
+      </c>
+      <c r="I503" t="n">
+        <v>0.7024685280463625</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>118.9954681396484</v>
+      </c>
+      <c r="B504" t="n">
+        <v>29.50249241894683</v>
+      </c>
+      <c r="C504" t="n">
+        <v>-1.119587642245583</v>
+      </c>
+      <c r="D504" t="n">
+        <v>2.038074567237159</v>
+      </c>
+      <c r="E504" t="n">
+        <v>6.749814781167132</v>
+      </c>
+      <c r="F504" t="n">
+        <v>698.0038296568629</v>
+      </c>
+      <c r="G504" t="n">
+        <v>0.01468881451842521</v>
+      </c>
+      <c r="H504" t="n">
+        <v>0.05997040605689333</v>
+      </c>
+      <c r="I504" t="n">
+        <v>0.5999555165404992</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>95.02598571777344</v>
+      </c>
+      <c r="B505" t="n">
+        <v>53.23820411466541</v>
+      </c>
+      <c r="C505" t="n">
+        <v>-0.5137199709721112</v>
+      </c>
+      <c r="D505" t="n">
+        <v>-0.7005510641448369</v>
+      </c>
+      <c r="E505" t="n">
+        <v>6.913515051030357</v>
+      </c>
+      <c r="F505" t="n">
+        <v>603.1396446078431</v>
+      </c>
+      <c r="G505" t="n">
+        <v>0.1235852843846304</v>
+      </c>
+      <c r="H505" t="n">
+        <v>0.18480653687118</v>
+      </c>
+      <c r="I505" t="n">
+        <v>0.8931607304908182</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>117.0988006591797</v>
+      </c>
+      <c r="B506" t="n">
+        <v>53.39024792975806</v>
+      </c>
+      <c r="C506" t="n">
+        <v>-0.421587461102145</v>
+      </c>
+      <c r="D506" t="n">
+        <v>-0.8344539450984567</v>
+      </c>
+      <c r="E506" t="n">
+        <v>7.591743384587281</v>
+      </c>
+      <c r="F506" t="n">
+        <v>1437.864031862745</v>
+      </c>
+      <c r="G506" t="n">
+        <v>0.008608087307130315</v>
+      </c>
+      <c r="H506" t="n">
+        <v>0.04851026390388549</v>
+      </c>
+      <c r="I506" t="n">
+        <v>0.7480027478008094</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>113.3928985595703</v>
+      </c>
+      <c r="B507" t="n">
+        <v>46.18212995765775</v>
+      </c>
+      <c r="C507" t="n">
+        <v>-0.3433794163629861</v>
+      </c>
+      <c r="D507" t="n">
+        <v>-0.9761932452869866</v>
+      </c>
+      <c r="E507" t="n">
+        <v>7.399189608370039</v>
+      </c>
+      <c r="F507" t="n">
+        <v>812.6973039215687</v>
+      </c>
+      <c r="G507" t="n">
+        <v>0.01010323580118586</v>
+      </c>
+      <c r="H507" t="n">
+        <v>0.05366420847039713</v>
+      </c>
+      <c r="I507" t="n">
+        <v>0.8095417610230896</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>153.2262573242188</v>
+      </c>
+      <c r="B508" t="n">
+        <v>61.54176748971387</v>
+      </c>
+      <c r="C508" t="n">
+        <v>-0.463665888767409</v>
+      </c>
+      <c r="D508" t="n">
+        <v>-0.8489427055399101</v>
+      </c>
+      <c r="E508" t="n">
+        <v>7.727675673269916</v>
+      </c>
+      <c r="F508" t="n">
+        <v>720.6655790441177</v>
+      </c>
+      <c r="G508" t="n">
+        <v>0.01334912694580817</v>
+      </c>
+      <c r="H508" t="n">
+        <v>0.1297134524279642</v>
+      </c>
+      <c r="I508" t="n">
+        <v>0.9048762279116433</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>220.1634674072266</v>
+      </c>
+      <c r="B509" t="n">
+        <v>36.56352699831061</v>
+      </c>
+      <c r="C509" t="n">
+        <v>-1.297737852406978</v>
+      </c>
+      <c r="D509" t="n">
+        <v>1.314459155011827</v>
+      </c>
+      <c r="E509" t="n">
+        <v>6.332906666228085</v>
+      </c>
+      <c r="F509" t="n">
+        <v>1128.613143382353</v>
+      </c>
+      <c r="G509" t="n">
+        <v>0.06579928792008011</v>
+      </c>
+      <c r="H509" t="n">
+        <v>0.1339412977364565</v>
+      </c>
+      <c r="I509" t="n">
+        <v>0.5778097354793147</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>117.8557434082031</v>
+      </c>
+      <c r="B510" t="n">
+        <v>65.50155430449918</v>
+      </c>
+      <c r="C510" t="n">
+        <v>-0.3284791254552766</v>
+      </c>
+      <c r="D510" t="n">
+        <v>-1.339068380527428</v>
+      </c>
+      <c r="E510" t="n">
+        <v>7.491783379959942</v>
+      </c>
+      <c r="F510" t="n">
+        <v>443.6928155637256</v>
+      </c>
+      <c r="G510" t="n">
+        <v>0.02376593100919272</v>
+      </c>
+      <c r="H510" t="n">
+        <v>0.1905486905616036</v>
+      </c>
+      <c r="I510" t="n">
+        <v>0.9483553731854134</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>124.0028381347656</v>
+      </c>
+      <c r="B511" t="n">
+        <v>22.96732878259641</v>
+      </c>
+      <c r="C511" t="n">
+        <v>0.3642422394620343</v>
+      </c>
+      <c r="D511" t="n">
+        <v>0.1656158196515216</v>
+      </c>
+      <c r="E511" t="n">
+        <v>6.505819165959024</v>
+      </c>
+      <c r="F511" t="n">
+        <v>114.4941942401961</v>
+      </c>
+      <c r="G511" t="n">
+        <v>0.02343608824083386</v>
+      </c>
+      <c r="H511" t="n">
+        <v>0.1871867144422793</v>
+      </c>
+      <c r="I511" t="n">
+        <v>0.8916551343873942</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>97.22482299804688</v>
+      </c>
+      <c r="B512" t="n">
+        <v>58.89763793586494</v>
+      </c>
+      <c r="C512" t="n">
+        <v>-0.3929179175192815</v>
+      </c>
+      <c r="D512" t="n">
+        <v>-1.008449007649809</v>
+      </c>
+      <c r="E512" t="n">
+        <v>7.069503568913894</v>
+      </c>
+      <c r="F512" t="n">
+        <v>947.9382659313725</v>
+      </c>
+      <c r="G512" t="n">
+        <v>0.120410679375862</v>
+      </c>
+      <c r="H512" t="n">
+        <v>0.1751746545945748</v>
+      </c>
+      <c r="I512" t="n">
+        <v>0.8629201284529516</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>119.9588165283203</v>
+      </c>
+      <c r="B513" t="n">
+        <v>26.74424834286038</v>
+      </c>
+      <c r="C513" t="n">
+        <v>0.6233446989920806</v>
+      </c>
+      <c r="D513" t="n">
+        <v>0.4133321051717389</v>
+      </c>
+      <c r="E513" t="n">
+        <v>6.667928469682095</v>
+      </c>
+      <c r="F513" t="n">
+        <v>179.916099877451</v>
+      </c>
+      <c r="G513" t="n">
+        <v>0.02299170339502503</v>
+      </c>
+      <c r="H513" t="n">
+        <v>0.1928513600466712</v>
+      </c>
+      <c r="I513" t="n">
+        <v>0.8744238995149581</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>112.1708984375</v>
+      </c>
+      <c r="B514" t="n">
+        <v>44.97617606957319</v>
+      </c>
+      <c r="C514" t="n">
+        <v>-0.4553922936138045</v>
+      </c>
+      <c r="D514" t="n">
+        <v>-0.6691735463103972</v>
+      </c>
+      <c r="E514" t="n">
+        <v>7.338998464216453</v>
+      </c>
+      <c r="F514" t="n">
+        <v>623.798774509804</v>
+      </c>
+      <c r="G514" t="n">
+        <v>0.01395117451108007</v>
+      </c>
+      <c r="H514" t="n">
+        <v>0.09201162082571818</v>
+      </c>
+      <c r="I514" t="n">
+        <v>0.8460786977727547</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>126.0409545898438</v>
+      </c>
+      <c r="B515" t="n">
+        <v>51.21803650230315</v>
+      </c>
+      <c r="C515" t="n">
+        <v>-0.4368795772827382</v>
+      </c>
+      <c r="D515" t="n">
+        <v>-0.6091713573951867</v>
+      </c>
+      <c r="E515" t="n">
+        <v>7.549012277513134</v>
+      </c>
+      <c r="F515" t="n">
+        <v>1883.214031862745</v>
+      </c>
+      <c r="G515" t="n">
+        <v>0.009133165581640719</v>
+      </c>
+      <c r="H515" t="n">
+        <v>0.04906724271826203</v>
+      </c>
+      <c r="I515" t="n">
+        <v>0.6418260887034349</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>121.5929870605469</v>
+      </c>
+      <c r="B516" t="n">
+        <v>27.46845762320095</v>
+      </c>
+      <c r="C516" t="n">
+        <v>0.280055090969011</v>
+      </c>
+      <c r="D516" t="n">
+        <v>0.9462518194821339</v>
+      </c>
+      <c r="E516" t="n">
+        <v>6.730678624933319</v>
+      </c>
+      <c r="F516" t="n">
+        <v>127.9858762254902</v>
+      </c>
+      <c r="G516" t="n">
+        <v>0.02661351310633588</v>
+      </c>
+      <c r="H516" t="n">
+        <v>0.2369091936392327</v>
+      </c>
+      <c r="I516" t="n">
+        <v>0.9153465651679477</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>118.8487548828125</v>
+      </c>
+      <c r="B517" t="n">
+        <v>49.03449123052867</v>
+      </c>
+      <c r="C517" t="n">
+        <v>-0.3968581544685085</v>
+      </c>
+      <c r="D517" t="n">
+        <v>-0.5778756635001572</v>
+      </c>
+      <c r="E517" t="n">
+        <v>7.398909822870405</v>
+      </c>
+      <c r="F517" t="n">
+        <v>883.5375153186277</v>
+      </c>
+      <c r="G517" t="n">
+        <v>0.01336750162375857</v>
+      </c>
+      <c r="H517" t="n">
+        <v>0.09158149255416886</v>
+      </c>
+      <c r="I517" t="n">
+        <v>0.8164590048772986</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>82.777099609375</v>
+      </c>
+      <c r="B518" t="n">
+        <v>54.20862289910187</v>
+      </c>
+      <c r="C518" t="n">
+        <v>-0.06712778385122309</v>
+      </c>
+      <c r="D518" t="n">
+        <v>-1.057664553395571</v>
+      </c>
+      <c r="E518" t="n">
+        <v>7.068375649320372</v>
+      </c>
+      <c r="F518" t="n">
+        <v>832.4914828431373</v>
+      </c>
+      <c r="G518" t="n">
+        <v>0.1219071714179147</v>
+      </c>
+      <c r="H518" t="n">
+        <v>0.1742655675836565</v>
+      </c>
+      <c r="I518" t="n">
+        <v>0.8577720439460385</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>134.5715942382812</v>
+      </c>
+      <c r="B519" t="n">
+        <v>58.23715842218967</v>
+      </c>
+      <c r="C519" t="n">
+        <v>0.2969756325955816</v>
+      </c>
+      <c r="D519" t="n">
+        <v>-1.0335489861242</v>
+      </c>
+      <c r="E519" t="n">
+        <v>7.635133369063388</v>
+      </c>
+      <c r="F519" t="n">
+        <v>331.7555606617647</v>
+      </c>
+      <c r="G519" t="n">
+        <v>0.0138755481422132</v>
+      </c>
+      <c r="H519" t="n">
+        <v>0.143819810508158</v>
+      </c>
+      <c r="I519" t="n">
+        <v>0.9510108699589619</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>95.77033996582031</v>
+      </c>
+      <c r="B520" t="n">
+        <v>22.4515063035205</v>
+      </c>
+      <c r="C520" t="n">
+        <v>0.5841360767483657</v>
+      </c>
+      <c r="D520" t="n">
+        <v>0.9864888469685686</v>
+      </c>
+      <c r="E520" t="n">
+        <v>6.485858614652702</v>
+      </c>
+      <c r="F520" t="n">
+        <v>501.9123161764707</v>
+      </c>
+      <c r="G520" t="n">
+        <v>0.01653495229964159</v>
+      </c>
+      <c r="H520" t="n">
+        <v>0.07627975173531572</v>
+      </c>
+      <c r="I520" t="n">
+        <v>0.5022759438491231</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>85.37199401855469</v>
+      </c>
+      <c r="B521" t="n">
+        <v>43.67931688288443</v>
+      </c>
+      <c r="C521" t="n">
+        <v>-0.1333269601463088</v>
+      </c>
+      <c r="D521" t="n">
+        <v>-1.350792987089507</v>
+      </c>
+      <c r="E521" t="n">
+        <v>7.162204045046348</v>
+      </c>
+      <c r="F521" t="n">
+        <v>60.66648284313727</v>
+      </c>
+      <c r="G521" t="n">
+        <v>0.01917281516912098</v>
+      </c>
+      <c r="H521" t="n">
+        <v>0.1894940457002105</v>
+      </c>
+      <c r="I521" t="n">
+        <v>0.9841055830034185</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>128.7670745849609</v>
+      </c>
+      <c r="B522" t="n">
+        <v>47.4711083163154</v>
+      </c>
+      <c r="C522" t="n">
+        <v>-0.452794966312086</v>
+      </c>
+      <c r="D522" t="n">
+        <v>-0.2242152269172393</v>
+      </c>
+      <c r="E522" t="n">
+        <v>7.532562357443174</v>
+      </c>
+      <c r="F522" t="n">
+        <v>1775.382291666667</v>
+      </c>
+      <c r="G522" t="n">
+        <v>0.008227628957115122</v>
+      </c>
+      <c r="H522" t="n">
+        <v>0.0381106193551765</v>
+      </c>
+      <c r="I522" t="n">
+        <v>0.6067172103320077</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>134.0400238037109</v>
+      </c>
+      <c r="B523" t="n">
+        <v>40.37980392128116</v>
+      </c>
+      <c r="C523" t="n">
+        <v>-0.9593746646410427</v>
+      </c>
+      <c r="D523" t="n">
+        <v>1.144474172397171</v>
+      </c>
+      <c r="E523" t="n">
+        <v>7.19700559854357</v>
+      </c>
+      <c r="F523" t="n">
+        <v>467.6836703431372</v>
+      </c>
+      <c r="G523" t="n">
+        <v>0.01435222144975544</v>
+      </c>
+      <c r="H523" t="n">
+        <v>0.1112669957046271</v>
+      </c>
+      <c r="I523" t="n">
+        <v>0.8569309589427707</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>116.5130767822266</v>
+      </c>
+      <c r="B524" t="n">
+        <v>50.28752819377349</v>
+      </c>
+      <c r="C524" t="n">
+        <v>-0.341062401682252</v>
+      </c>
+      <c r="D524" t="n">
+        <v>-0.8598708243733446</v>
+      </c>
+      <c r="E524" t="n">
+        <v>7.56393385543045</v>
+      </c>
+      <c r="F524" t="n">
+        <v>978.2537837009806</v>
+      </c>
+      <c r="G524" t="n">
+        <v>0.008979041934080141</v>
+      </c>
+      <c r="H524" t="n">
+        <v>0.05522553305771558</v>
+      </c>
+      <c r="I524" t="n">
+        <v>0.8068298293392812</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>118.4651641845703</v>
+      </c>
+      <c r="B525" t="n">
+        <v>46.2369905012897</v>
+      </c>
+      <c r="C525" t="n">
+        <v>-0.36559240651512</v>
+      </c>
+      <c r="D525" t="n">
+        <v>-0.6591588153733734</v>
+      </c>
+      <c r="E525" t="n">
+        <v>7.418070169195675</v>
+      </c>
+      <c r="F525" t="n">
+        <v>1126.494025735295</v>
+      </c>
+      <c r="G525" t="n">
+        <v>0.01046738750838627</v>
+      </c>
+      <c r="H525" t="n">
+        <v>0.06567010236682017</v>
+      </c>
+      <c r="I525" t="n">
+        <v>0.7368404326260016</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>105.4507141113281</v>
+      </c>
+      <c r="B526" t="n">
+        <v>33.59315515611155</v>
+      </c>
+      <c r="C526" t="n">
+        <v>-0.05157371128601657</v>
+      </c>
+      <c r="D526" t="n">
+        <v>0.07826305087826224</v>
+      </c>
+      <c r="E526" t="n">
+        <v>7.058889868678477</v>
+      </c>
+      <c r="F526" t="n">
+        <v>49.8718137254902</v>
+      </c>
+      <c r="G526" t="n">
+        <v>0.02282608110701669</v>
+      </c>
+      <c r="H526" t="n">
+        <v>0.2190229052118907</v>
+      </c>
+      <c r="I526" t="n">
+        <v>0.9779601028940496</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>130.4748992919922</v>
+      </c>
+      <c r="B527" t="n">
+        <v>40.26527384321757</v>
+      </c>
+      <c r="C527" t="n">
+        <v>-1.068007913175295</v>
+      </c>
+      <c r="D527" t="n">
+        <v>1.311083531220156</v>
+      </c>
+      <c r="E527" t="n">
+        <v>7.13308570980106</v>
+      </c>
+      <c r="F527" t="n">
+        <v>443.3081801470589</v>
+      </c>
+      <c r="G527" t="n">
+        <v>0.01619250658111849</v>
+      </c>
+      <c r="H527" t="n">
+        <v>0.1380462927782461</v>
+      </c>
+      <c r="I527" t="n">
+        <v>0.8634499165145672</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>118.5730133056641</v>
+      </c>
+      <c r="B528" t="n">
+        <v>55.59285009384926</v>
+      </c>
+      <c r="C528" t="n">
+        <v>-0.06642924596019877</v>
+      </c>
+      <c r="D528" t="n">
+        <v>-1.134887466998901</v>
+      </c>
+      <c r="E528" t="n">
+        <v>7.680531167811636</v>
+      </c>
+      <c r="F528" t="n">
+        <v>635.1699142156863</v>
+      </c>
+      <c r="G528" t="n">
+        <v>0.01146349299265528</v>
+      </c>
+      <c r="H528" t="n">
+        <v>0.1021052179938397</v>
+      </c>
+      <c r="I528" t="n">
+        <v>0.8971172933706482</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>123.7147979736328</v>
+      </c>
+      <c r="B529" t="n">
+        <v>51.66337763008612</v>
+      </c>
+      <c r="C529" t="n">
+        <v>-0.4293274088646164</v>
+      </c>
+      <c r="D529" t="n">
+        <v>-0.5636463382080406</v>
+      </c>
+      <c r="E529" t="n">
+        <v>7.572894659135916</v>
+      </c>
+      <c r="F529" t="n">
+        <v>1177.675750612745</v>
+      </c>
+      <c r="G529" t="n">
+        <v>0.009609652284401603</v>
+      </c>
+      <c r="H529" t="n">
+        <v>0.06136403037780291</v>
+      </c>
+      <c r="I529" t="n">
+        <v>0.7797785636693596</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>169.6780090332031</v>
+      </c>
+      <c r="B530" t="n">
+        <v>38.84556507274939</v>
+      </c>
+      <c r="C530" t="n">
+        <v>-1.35719143476392</v>
+      </c>
+      <c r="D530" t="n">
+        <v>2.343780758905988</v>
+      </c>
+      <c r="E530" t="n">
+        <v>7.081573685425206</v>
+      </c>
+      <c r="F530" t="n">
+        <v>909.2108762254903</v>
+      </c>
+      <c r="G530" t="n">
+        <v>0.01237566873452818</v>
+      </c>
+      <c r="H530" t="n">
+        <v>0.05656534336998491</v>
+      </c>
+      <c r="I530" t="n">
+        <v>0.6994118453475274</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>127.0076599121094</v>
+      </c>
+      <c r="B531" t="n">
+        <v>65.97801468330459</v>
+      </c>
+      <c r="C531" t="n">
+        <v>-0.3663587197915989</v>
+      </c>
+      <c r="D531" t="n">
+        <v>-1.284451549079773</v>
+      </c>
+      <c r="E531" t="n">
+        <v>7.639136486113275</v>
+      </c>
+      <c r="F531" t="n">
+        <v>465.4740962009805</v>
+      </c>
+      <c r="G531" t="n">
+        <v>0.01493801043624769</v>
+      </c>
+      <c r="H531" t="n">
+        <v>0.1423274536293014</v>
+      </c>
+      <c r="I531" t="n">
+        <v>0.9466660338087336</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>104.4098205566406</v>
+      </c>
+      <c r="B532" t="n">
+        <v>35.68400896880792</v>
+      </c>
+      <c r="C532" t="n">
+        <v>-0.4268441913194856</v>
+      </c>
+      <c r="D532" t="n">
+        <v>-1.079217678753782</v>
+      </c>
+      <c r="E532" t="n">
+        <v>6.894728925499249</v>
+      </c>
+      <c r="F532" t="n">
+        <v>141.8774356617647</v>
+      </c>
+      <c r="G532" t="n">
+        <v>0.02008414022778786</v>
+      </c>
+      <c r="H532" t="n">
+        <v>0.1644392869691632</v>
+      </c>
+      <c r="I532" t="n">
+        <v>0.9443523522347994</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>117.3741912841797</v>
+      </c>
+      <c r="B533" t="n">
+        <v>55.53602966204961</v>
+      </c>
+      <c r="C533" t="n">
+        <v>-0.3374179399368835</v>
+      </c>
+      <c r="D533" t="n">
+        <v>-1.204895666275097</v>
+      </c>
+      <c r="E533" t="n">
+        <v>7.426021141257511</v>
+      </c>
+      <c r="F533" t="n">
+        <v>442.323131127451</v>
+      </c>
+      <c r="G533" t="n">
+        <v>0.02037534086563253</v>
+      </c>
+      <c r="H533" t="n">
+        <v>0.1575272671612172</v>
+      </c>
+      <c r="I533" t="n">
+        <v>0.9284178230573352</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>106.6172027587891</v>
+      </c>
+      <c r="B534" t="n">
+        <v>21.63550529100085</v>
+      </c>
+      <c r="C534" t="n">
+        <v>0.3047171741921512</v>
+      </c>
+      <c r="D534" t="n">
+        <v>-0.3784538376370432</v>
+      </c>
+      <c r="E534" t="n">
+        <v>6.441736911566208</v>
+      </c>
+      <c r="F534" t="n">
+        <v>223.4538602941176</v>
+      </c>
+      <c r="G534" t="n">
+        <v>0.01820889361243049</v>
+      </c>
+      <c r="H534" t="n">
+        <v>0.1013094211986531</v>
+      </c>
+      <c r="I534" t="n">
+        <v>0.7614418453243748</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>105.1029968261719</v>
+      </c>
+      <c r="B535" t="n">
+        <v>45.65756856950652</v>
+      </c>
+      <c r="C535" t="n">
+        <v>-0.1753266508070324</v>
+      </c>
+      <c r="D535" t="n">
+        <v>-0.7165371747966303</v>
+      </c>
+      <c r="E535" t="n">
+        <v>7.483374372621596</v>
+      </c>
+      <c r="F535" t="n">
+        <v>748.8240655637255</v>
+      </c>
+      <c r="G535" t="n">
+        <v>0.009672060550184141</v>
+      </c>
+      <c r="H535" t="n">
+        <v>0.05648207424966747</v>
+      </c>
+      <c r="I535" t="n">
+        <v>0.820395353253735</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>106.9674224853516</v>
+      </c>
+      <c r="B536" t="n">
+        <v>25.43843079070002</v>
+      </c>
+      <c r="C536" t="n">
+        <v>-0.5085636619269234</v>
+      </c>
+      <c r="D536" t="n">
+        <v>0.6883241331326686</v>
+      </c>
+      <c r="E536" t="n">
+        <v>6.571627884714039</v>
+      </c>
+      <c r="F536" t="n">
+        <v>18.54111519607843</v>
+      </c>
+      <c r="G536" t="n">
+        <v>0.05002449723228795</v>
+      </c>
+      <c r="H536" t="n">
+        <v>0.4259749153543165</v>
+      </c>
+      <c r="I536" t="n">
+        <v>0.9857126176727689</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>115.7660217285156</v>
+      </c>
+      <c r="B537" t="n">
+        <v>32.04991028895091</v>
+      </c>
+      <c r="C537" t="n">
+        <v>-0.4282622042895426</v>
+      </c>
+      <c r="D537" t="n">
+        <v>-0.3601701577397698</v>
+      </c>
+      <c r="E537" t="n">
+        <v>6.917989165284891</v>
+      </c>
+      <c r="F537" t="n">
+        <v>16.92444852941177</v>
+      </c>
+      <c r="G537" t="n">
+        <v>0.0432944251372336</v>
+      </c>
+      <c r="H537" t="n">
+        <v>0.398264115215052</v>
+      </c>
+      <c r="I537" t="n">
+        <v>0.9917906689151236</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>122.0405426025391</v>
+      </c>
+      <c r="B538" t="n">
+        <v>38.36019985395625</v>
+      </c>
+      <c r="C538" t="n">
+        <v>0.5813990841408538</v>
+      </c>
+      <c r="D538" t="n">
+        <v>0.01447967851576371</v>
+      </c>
+      <c r="E538" t="n">
+        <v>7.208230644288381</v>
+      </c>
+      <c r="F538" t="n">
+        <v>69.7537530637255</v>
+      </c>
+      <c r="G538" t="n">
+        <v>0.01986563172370108</v>
+      </c>
+      <c r="H538" t="n">
+        <v>0.2082167606584419</v>
+      </c>
+      <c r="I538" t="n">
+        <v>0.9763004140469378</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>115.9376220703125</v>
+      </c>
+      <c r="B539" t="n">
+        <v>33.44674252534001</v>
+      </c>
+      <c r="C539" t="n">
+        <v>-0.529552401698668</v>
+      </c>
+      <c r="D539" t="n">
+        <v>-0.7386886385222384</v>
+      </c>
+      <c r="E539" t="n">
+        <v>6.925316126271928</v>
+      </c>
+      <c r="F539" t="n">
+        <v>164.0103860294118</v>
+      </c>
+      <c r="G539" t="n">
+        <v>0.01766376577158506</v>
+      </c>
+      <c r="H539" t="n">
+        <v>0.1427378790496586</v>
+      </c>
+      <c r="I539" t="n">
+        <v>0.9266823977907149</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>98.44174194335938</v>
+      </c>
+      <c r="B540" t="n">
+        <v>28.48838424100073</v>
+      </c>
+      <c r="C540" t="n">
+        <v>-0.5569925906721944</v>
+      </c>
+      <c r="D540" t="n">
+        <v>-0.2638086965171209</v>
+      </c>
+      <c r="E540" t="n">
+        <v>6.761144696018676</v>
+      </c>
+      <c r="F540" t="n">
+        <v>97.21980698529411</v>
+      </c>
+      <c r="G540" t="n">
+        <v>0.02423578247143747</v>
+      </c>
+      <c r="H540" t="n">
+        <v>0.2291293184130044</v>
+      </c>
+      <c r="I540" t="n">
+        <v>0.9402278444166022</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>228.6396484375</v>
+      </c>
+      <c r="B541" t="n">
+        <v>48.74906097877118</v>
+      </c>
+      <c r="C541" t="n">
+        <v>-2.528664680620037</v>
+      </c>
+      <c r="D541" t="n">
+        <v>6.224378089196259</v>
+      </c>
+      <c r="E541" t="n">
+        <v>4.910005479788047</v>
+      </c>
+      <c r="F541" t="n">
+        <v>723.2203431372549</v>
+      </c>
+      <c r="G541" t="n">
+        <v>0.2899593792939536</v>
+      </c>
+      <c r="H541" t="n">
+        <v>0.3755904200276439</v>
+      </c>
+      <c r="I541" t="n">
+        <v>0.8482742892985961</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>121.1468658447266</v>
+      </c>
+      <c r="B542" t="n">
+        <v>47.22046225209557</v>
+      </c>
+      <c r="C542" t="n">
+        <v>-0.5015806328020079</v>
+      </c>
+      <c r="D542" t="n">
+        <v>-0.3711459785721059</v>
+      </c>
+      <c r="E542" t="n">
+        <v>7.41219946828824</v>
+      </c>
+      <c r="F542" t="n">
+        <v>511.128324142157</v>
+      </c>
+      <c r="G542" t="n">
+        <v>0.01500733024967622</v>
+      </c>
+      <c r="H542" t="n">
+        <v>0.1275853539105876</v>
+      </c>
+      <c r="I542" t="n">
+        <v>0.8854745282573347</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>114.7351379394531</v>
+      </c>
+      <c r="B543" t="n">
+        <v>16.43984308374565</v>
+      </c>
+      <c r="C543" t="n">
+        <v>0.5166066156598546</v>
+      </c>
+      <c r="D543" t="n">
+        <v>1.503782885040839</v>
+      </c>
+      <c r="E543" t="n">
+        <v>6.033951298097367</v>
+      </c>
+      <c r="F543" t="n">
+        <v>37.06530330882354</v>
+      </c>
+      <c r="G543" t="n">
+        <v>0.0373552889034822</v>
+      </c>
+      <c r="H543" t="n">
+        <v>0.283075466361563</v>
+      </c>
+      <c r="I543" t="n">
+        <v>0.9314438172695028</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>113.9803161621094</v>
+      </c>
+      <c r="B544" t="n">
+        <v>19.98473485425722</v>
+      </c>
+      <c r="C544" t="n">
+        <v>0.2251623486990911</v>
+      </c>
+      <c r="D544" t="n">
+        <v>0.363137842373586</v>
+      </c>
+      <c r="E544" t="n">
+        <v>6.34320764237526</v>
+      </c>
+      <c r="F544" t="n">
+        <v>166.4476102941177</v>
+      </c>
+      <c r="G544" t="n">
+        <v>0.02221697459726844</v>
+      </c>
+      <c r="H544" t="n">
+        <v>0.1604031924986405</v>
+      </c>
+      <c r="I544" t="n">
+        <v>0.791799046975399</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>97.27890014648438</v>
+      </c>
+      <c r="B545" t="n">
+        <v>46.88015926410887</v>
+      </c>
+      <c r="C545" t="n">
+        <v>0.1020758517661527</v>
+      </c>
+      <c r="D545" t="n">
+        <v>-0.8699310809967113</v>
+      </c>
+      <c r="E545" t="n">
+        <v>7.467486445248403</v>
+      </c>
+      <c r="F545" t="n">
+        <v>1551.751608455882</v>
+      </c>
+      <c r="G545" t="n">
+        <v>0.009228376516304589</v>
+      </c>
+      <c r="H545" t="n">
+        <v>0.05233270003342838</v>
+      </c>
+      <c r="I545" t="n">
+        <v>0.6470666482391582</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>128.8579254150391</v>
+      </c>
+      <c r="B546" t="n">
+        <v>43.57815373724854</v>
+      </c>
+      <c r="C546" t="n">
+        <v>-0.5251042615628809</v>
+      </c>
+      <c r="D546" t="n">
+        <v>0.2148302828278097</v>
+      </c>
+      <c r="E546" t="n">
+        <v>7.341187546238217</v>
+      </c>
+      <c r="F546" t="n">
+        <v>686.8716299019608</v>
+      </c>
+      <c r="G546" t="n">
+        <v>0.01195118041858173</v>
+      </c>
+      <c r="H546" t="n">
+        <v>0.07685241299979181</v>
+      </c>
+      <c r="I546" t="n">
+        <v>0.8193082513793442</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>109.6230316162109</v>
+      </c>
+      <c r="B547" t="n">
+        <v>59.61162527443858</v>
+      </c>
+      <c r="C547" t="n">
+        <v>-0.287727092755968</v>
+      </c>
+      <c r="D547" t="n">
+        <v>-1.148867033245909</v>
+      </c>
+      <c r="E547" t="n">
+        <v>7.570078314994777</v>
+      </c>
+      <c r="F547" t="n">
+        <v>805.9640318627454</v>
+      </c>
+      <c r="G547" t="n">
+        <v>0.01980997652488813</v>
+      </c>
+      <c r="H547" t="n">
+        <v>0.1345797896262636</v>
+      </c>
+      <c r="I547" t="n">
+        <v>0.8865246203413987</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>110.7553558349609</v>
+      </c>
+      <c r="B548" t="n">
+        <v>40.4784097688042</v>
+      </c>
+      <c r="C548" t="n">
+        <v>-0.1297900238200182</v>
+      </c>
+      <c r="D548" t="n">
+        <v>-1.073112065862729</v>
+      </c>
+      <c r="E548" t="n">
+        <v>7.178259955265472</v>
+      </c>
+      <c r="F548" t="n">
+        <v>248.9091911764706</v>
+      </c>
+      <c r="G548" t="n">
+        <v>0.01561936713633954</v>
+      </c>
+      <c r="H548" t="n">
+        <v>0.1151356829677289</v>
+      </c>
+      <c r="I548" t="n">
+        <v>0.9241900880194416</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>105.7565307617188</v>
+      </c>
+      <c r="B549" t="n">
+        <v>53.42968281707403</v>
+      </c>
+      <c r="C549" t="n">
+        <v>-0.1012113628524497</v>
+      </c>
+      <c r="D549" t="n">
+        <v>-1.190200487804201</v>
+      </c>
+      <c r="E549" t="n">
+        <v>7.572649576094733</v>
+      </c>
+      <c r="F549" t="n">
+        <v>998.5116421568628</v>
+      </c>
+      <c r="G549" t="n">
+        <v>0.01092361001505479</v>
+      </c>
+      <c r="H549" t="n">
+        <v>0.08682424905663431</v>
+      </c>
+      <c r="I549" t="n">
+        <v>0.8251184118613296</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>112.7283477783203</v>
+      </c>
+      <c r="B550" t="n">
+        <v>51.57966877628658</v>
+      </c>
+      <c r="C550" t="n">
+        <v>-0.4848663703372488</v>
+      </c>
+      <c r="D550" t="n">
+        <v>-0.7302951982925783</v>
+      </c>
+      <c r="E550" t="n">
+        <v>7.45420913107787</v>
+      </c>
+      <c r="F550" t="n">
+        <v>1129.164767156863</v>
+      </c>
+      <c r="G550" t="n">
+        <v>0.01174436318882896</v>
+      </c>
+      <c r="H550" t="n">
+        <v>0.08584513143708615</v>
+      </c>
+      <c r="I550" t="n">
+        <v>0.7878787264227862</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>120.7281341552734</v>
+      </c>
+      <c r="B551" t="n">
+        <v>48.8879657012122</v>
+      </c>
+      <c r="C551" t="n">
+        <v>-0.3337609555817202</v>
+      </c>
+      <c r="D551" t="n">
+        <v>-0.9418478730185971</v>
+      </c>
+      <c r="E551" t="n">
+        <v>7.451123766123152</v>
+      </c>
+      <c r="F551" t="n">
+        <v>1022.073988970588</v>
+      </c>
+      <c r="G551" t="n">
+        <v>0.01154215630584603</v>
+      </c>
+      <c r="H551" t="n">
+        <v>0.08298570036936607</v>
+      </c>
+      <c r="I551" t="n">
+        <v>0.7863909732157098</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>124.7920227050781</v>
+      </c>
+      <c r="B552" t="n">
+        <v>41.62633968536084</v>
+      </c>
+      <c r="C552" t="n">
+        <v>-0.5989178941201787</v>
+      </c>
+      <c r="D552" t="n">
+        <v>-0.06694298434465384</v>
+      </c>
+      <c r="E552" t="n">
+        <v>7.320164745520674</v>
+      </c>
+      <c r="F552" t="n">
+        <v>905.1463848039218</v>
+      </c>
+      <c r="G552" t="n">
+        <v>0.01031044912062806</v>
+      </c>
+      <c r="H552" t="n">
+        <v>0.05090211180173207</v>
+      </c>
+      <c r="I552" t="n">
+        <v>0.7391500804313804</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>109.9269561767578</v>
+      </c>
+      <c r="B553" t="n">
+        <v>34.2561838933761</v>
+      </c>
+      <c r="C553" t="n">
+        <v>0.2617980741732401</v>
+      </c>
+      <c r="D553" t="n">
+        <v>0.2180103179793584</v>
+      </c>
+      <c r="E553" t="n">
+        <v>6.990705459177326</v>
+      </c>
+      <c r="F553" t="n">
+        <v>47.99673713235295</v>
+      </c>
+      <c r="G553" t="n">
+        <v>0.03218250042591059</v>
+      </c>
+      <c r="H553" t="n">
+        <v>0.3112398651434212</v>
+      </c>
+      <c r="I553" t="n">
+        <v>0.9795979677554066</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>125.4380950927734</v>
+      </c>
+      <c r="B554" t="n">
+        <v>52.21693226058277</v>
+      </c>
+      <c r="C554" t="n">
+        <v>-0.4656702678811029</v>
+      </c>
+      <c r="D554" t="n">
+        <v>-0.7976104643351194</v>
+      </c>
+      <c r="E554" t="n">
+        <v>7.538211337956437</v>
+      </c>
+      <c r="F554" t="n">
+        <v>818.4115655637256</v>
+      </c>
+      <c r="G554" t="n">
+        <v>0.0114088299691045</v>
+      </c>
+      <c r="H554" t="n">
+        <v>0.08776008690621016</v>
+      </c>
+      <c r="I554" t="n">
+        <v>0.8501994396581948</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>130.7971954345703</v>
+      </c>
+      <c r="B555" t="n">
+        <v>53.47445061864093</v>
+      </c>
+      <c r="C555" t="n">
+        <v>-0.5901372950220964</v>
+      </c>
+      <c r="D555" t="n">
+        <v>-0.5088230528670326</v>
+      </c>
+      <c r="E555" t="n">
+        <v>7.543435541106071</v>
+      </c>
+      <c r="F555" t="n">
+        <v>766.7660845588236</v>
+      </c>
+      <c r="G555" t="n">
+        <v>0.01102426180147647</v>
+      </c>
+      <c r="H555" t="n">
+        <v>0.0847327441043073</v>
+      </c>
+      <c r="I555" t="n">
+        <v>0.8658413365607974</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>117.8520202636719</v>
+      </c>
+      <c r="B556" t="n">
+        <v>65.50645227378473</v>
+      </c>
+      <c r="C556" t="n">
+        <v>-0.3284999173823177</v>
+      </c>
+      <c r="D556" t="n">
+        <v>-1.339114497387553</v>
+      </c>
+      <c r="E556" t="n">
+        <v>7.491617701657968</v>
+      </c>
+      <c r="F556" t="n">
+        <v>443.6507046568627</v>
+      </c>
+      <c r="G556" t="n">
+        <v>0.02373026966448533</v>
+      </c>
+      <c r="H556" t="n">
+        <v>0.190629169408575</v>
+      </c>
+      <c r="I556" t="n">
+        <v>0.948367940387091</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>151.0763092041016</v>
+      </c>
+      <c r="B557" t="n">
+        <v>46.07729701354361</v>
+      </c>
+      <c r="C557" t="n">
+        <v>-1.024609566726225</v>
+      </c>
+      <c r="D557" t="n">
+        <v>0.609629610140451</v>
+      </c>
+      <c r="E557" t="n">
+        <v>7.303901099421818</v>
+      </c>
+      <c r="F557" t="n">
+        <v>604.3264093137254</v>
+      </c>
+      <c r="G557" t="n">
+        <v>0.01786624857520996</v>
+      </c>
+      <c r="H557" t="n">
+        <v>0.1515665557290983</v>
+      </c>
+      <c r="I557" t="n">
+        <v>0.8580421683289473</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>128.2571411132812</v>
+      </c>
+      <c r="B558" t="n">
+        <v>35.16992326507549</v>
+      </c>
+      <c r="C558" t="n">
+        <v>-0.7206797640707494</v>
+      </c>
+      <c r="D558" t="n">
+        <v>0.4459945408769217</v>
+      </c>
+      <c r="E558" t="n">
+        <v>7.049767366053512</v>
+      </c>
+      <c r="F558" t="n">
+        <v>51.0676930147059</v>
+      </c>
+      <c r="G558" t="n">
+        <v>0.02335625054044846</v>
+      </c>
+      <c r="H558" t="n">
+        <v>0.2167570345346669</v>
+      </c>
+      <c r="I558" t="n">
+        <v>0.979416362456788</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>124.8997192382812</v>
+      </c>
+      <c r="B559" t="n">
+        <v>42.99908250314859</v>
+      </c>
+      <c r="C559" t="n">
+        <v>-0.5316977766911073</v>
+      </c>
+      <c r="D559" t="n">
+        <v>0.6505890140899298</v>
+      </c>
+      <c r="E559" t="n">
+        <v>7.306515202219347</v>
+      </c>
+      <c r="F559" t="n">
+        <v>696.4655484068628</v>
+      </c>
+      <c r="G559" t="n">
+        <v>0.01302409489139464</v>
+      </c>
+      <c r="H559" t="n">
+        <v>0.09407387436291334</v>
+      </c>
+      <c r="I559" t="n">
+        <v>0.8121259859936322</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>102.1298065185547</v>
+      </c>
+      <c r="B560" t="n">
+        <v>59.79202117458285</v>
+      </c>
+      <c r="C560" t="n">
+        <v>-0.4520320530669068</v>
+      </c>
+      <c r="D560" t="n">
+        <v>-0.8913333310102134</v>
+      </c>
+      <c r="E560" t="n">
+        <v>7.057812659740368</v>
+      </c>
+      <c r="F560" t="n">
+        <v>1200.166605392157</v>
+      </c>
+      <c r="G560" t="n">
+        <v>0.1241669904408269</v>
+      </c>
+      <c r="H560" t="n">
+        <v>0.1707456711045688</v>
+      </c>
+      <c r="I560" t="n">
+        <v>0.8315008664873149</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>98.53312683105469</v>
+      </c>
+      <c r="B561" t="n">
+        <v>25.80174495552157</v>
+      </c>
+      <c r="C561" t="n">
+        <v>-0.4489055156374065</v>
+      </c>
+      <c r="D561" t="n">
+        <v>-0.312955235154512</v>
+      </c>
+      <c r="E561" t="n">
+        <v>6.654599027402714</v>
+      </c>
+      <c r="F561" t="n">
+        <v>90.28203124999999</v>
+      </c>
+      <c r="G561" t="n">
+        <v>0.02696393489278672</v>
+      </c>
+      <c r="H561" t="n">
+        <v>0.2412221606952709</v>
+      </c>
+      <c r="I561" t="n">
+        <v>0.9323523548994535</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>106.8658447265625</v>
+      </c>
+      <c r="B562" t="n">
+        <v>45.38269625156517</v>
+      </c>
+      <c r="C562" t="n">
+        <v>-0.5650054839985854</v>
+      </c>
+      <c r="D562" t="n">
+        <v>-0.8657320696919095</v>
+      </c>
+      <c r="E562" t="n">
+        <v>7.210876111461367</v>
+      </c>
+      <c r="F562" t="n">
+        <v>334.9482230392157</v>
+      </c>
+      <c r="G562" t="n">
+        <v>0.01540485839919848</v>
+      </c>
+      <c r="H562" t="n">
+        <v>0.1179874540931971</v>
+      </c>
+      <c r="I562" t="n">
+        <v>0.9187652824573896</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>112.6558380126953</v>
+      </c>
+      <c r="B563" t="n">
+        <v>57.60333525569683</v>
+      </c>
+      <c r="C563" t="n">
+        <v>-0.2602347541454076</v>
+      </c>
+      <c r="D563" t="n">
+        <v>-1.130545661948664</v>
+      </c>
+      <c r="E563" t="n">
+        <v>7.44510790495232</v>
+      </c>
+      <c r="F563" t="n">
+        <v>417.6920955882353</v>
+      </c>
+      <c r="G563" t="n">
+        <v>0.02538901568444095</v>
+      </c>
+      <c r="H563" t="n">
+        <v>0.1888006264813372</v>
+      </c>
+      <c r="I563" t="n">
+        <v>0.9369256391171129</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>158.558349609375</v>
+      </c>
+      <c r="B564" t="n">
+        <v>63.60552271143876</v>
+      </c>
+      <c r="C564" t="n">
+        <v>-0.4484222523136958</v>
+      </c>
+      <c r="D564" t="n">
+        <v>-0.97014660464581</v>
+      </c>
+      <c r="E564" t="n">
+        <v>7.666202639362318</v>
+      </c>
+      <c r="F564" t="n">
+        <v>469.9730238970588</v>
+      </c>
+      <c r="G564" t="n">
+        <v>0.01886578373776145</v>
+      </c>
+      <c r="H564" t="n">
+        <v>0.176787389855454</v>
+      </c>
+      <c r="I564" t="n">
+        <v>0.9419489952178322</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>133.1098480224609</v>
+      </c>
+      <c r="B565" t="n">
+        <v>26.62238372817072</v>
+      </c>
+      <c r="C565" t="n">
+        <v>-0.003973823501143512</v>
+      </c>
+      <c r="D565" t="n">
+        <v>-0.1787314303370722</v>
+      </c>
+      <c r="E565" t="n">
+        <v>6.603350247079122</v>
+      </c>
+      <c r="F565" t="n">
+        <v>110.0711397058823</v>
+      </c>
+      <c r="G565" t="n">
+        <v>0.02916140443652521</v>
+      </c>
+      <c r="H565" t="n">
+        <v>0.251891366983162</v>
+      </c>
+      <c r="I565" t="n">
+        <v>0.9226249291570083</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>132.1496124267578</v>
+      </c>
+      <c r="B566" t="n">
+        <v>40.79277368954946</v>
+      </c>
+      <c r="C566" t="n">
+        <v>-0.9350001287106727</v>
+      </c>
+      <c r="D566" t="n">
+        <v>1.122284264534818</v>
+      </c>
+      <c r="E566" t="n">
+        <v>7.175989085352792</v>
+      </c>
+      <c r="F566" t="n">
+        <v>610.2429381127452</v>
+      </c>
+      <c r="G566" t="n">
+        <v>0.01415996450692311</v>
+      </c>
+      <c r="H566" t="n">
+        <v>0.1013282247472362</v>
+      </c>
+      <c r="I566" t="n">
+        <v>0.8168768802690207</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>107.2553558349609</v>
+      </c>
+      <c r="B567" t="n">
+        <v>58.42929598841032</v>
+      </c>
+      <c r="C567" t="n">
+        <v>-0.3981069229652301</v>
+      </c>
+      <c r="D567" t="n">
+        <v>-1.059541507130995</v>
+      </c>
+      <c r="E567" t="n">
+        <v>7.23910071753086</v>
+      </c>
+      <c r="F567" t="n">
+        <v>450.8149356617647</v>
+      </c>
+      <c r="G567" t="n">
+        <v>0.05171327226384281</v>
+      </c>
+      <c r="H567" t="n">
+        <v>0.2547568972810292</v>
+      </c>
+      <c r="I567" t="n">
+        <v>0.9340090295551111</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>140.0380859375</v>
+      </c>
+      <c r="B568" t="n">
+        <v>44.27097921310026</v>
+      </c>
+      <c r="C568" t="n">
+        <v>-1.441334006369204</v>
+      </c>
+      <c r="D568" t="n">
+        <v>1.228061691896608</v>
+      </c>
+      <c r="E568" t="n">
+        <v>6.797159308446767</v>
+      </c>
+      <c r="F568" t="n">
+        <v>244.9059589460784</v>
+      </c>
+      <c r="G568" t="n">
+        <v>0.02182445879773897</v>
+      </c>
+      <c r="H568" t="n">
+        <v>0.1409150986257614</v>
+      </c>
+      <c r="I568" t="n">
+        <v>0.9376680911300852</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>108.1548309326172</v>
+      </c>
+      <c r="B569" t="n">
+        <v>54.94481622273815</v>
+      </c>
+      <c r="C569" t="n">
+        <v>-0.1432588777157631</v>
+      </c>
+      <c r="D569" t="n">
+        <v>-1.172772617437879</v>
+      </c>
+      <c r="E569" t="n">
+        <v>7.61660838661983</v>
+      </c>
+      <c r="F569" t="n">
+        <v>712.40631127451</v>
+      </c>
+      <c r="G569" t="n">
+        <v>0.01112672382795145</v>
+      </c>
+      <c r="H569" t="n">
+        <v>0.1004927361708926</v>
+      </c>
+      <c r="I569" t="n">
+        <v>0.8819835427597768</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>120.8464508056641</v>
+      </c>
+      <c r="B570" t="n">
+        <v>30.84006314105619</v>
+      </c>
+      <c r="C570" t="n">
+        <v>-1.053844424095532</v>
+      </c>
+      <c r="D570" t="n">
+        <v>1.70605732332359</v>
+      </c>
+      <c r="E570" t="n">
+        <v>6.782175160695251</v>
+      </c>
+      <c r="F570" t="n">
+        <v>659.6300551470589</v>
+      </c>
+      <c r="G570" t="n">
+        <v>0.0165782797935392</v>
+      </c>
+      <c r="H570" t="n">
+        <v>0.08019146876343902</v>
+      </c>
+      <c r="I570" t="n">
+        <v>0.6539171520734728</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>129.6529388427734</v>
+      </c>
+      <c r="B571" t="n">
+        <v>32.67055539828849</v>
+      </c>
+      <c r="C571" t="n">
+        <v>0.01595182104809231</v>
+      </c>
+      <c r="D571" t="n">
+        <v>-0.01682707845672349</v>
+      </c>
+      <c r="E571" t="n">
+        <v>7.025093909411297</v>
+      </c>
+      <c r="F571" t="n">
+        <v>73.41956188725491</v>
+      </c>
+      <c r="G571" t="n">
+        <v>0.02135354028605613</v>
+      </c>
+      <c r="H571" t="n">
+        <v>0.1995310818732948</v>
+      </c>
+      <c r="I571" t="n">
+        <v>0.9656777498222675</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>109.4454956054688</v>
+      </c>
+      <c r="B572" t="n">
+        <v>27.0318283983184</v>
+      </c>
+      <c r="C572" t="n">
+        <v>-0.7356938402214716</v>
+      </c>
+      <c r="D572" t="n">
+        <v>0.2146343337274872</v>
+      </c>
+      <c r="E572" t="n">
+        <v>6.559390101121969</v>
+      </c>
+      <c r="F572" t="n">
+        <v>42.69667585784313</v>
+      </c>
+      <c r="G572" t="n">
+        <v>0.0368782331119346</v>
+      </c>
+      <c r="H572" t="n">
+        <v>0.3080932782201399</v>
+      </c>
+      <c r="I572" t="n">
+        <v>0.9708280184834759</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>153.230224609375</v>
+      </c>
+      <c r="B573" t="n">
+        <v>61.54755905741602</v>
+      </c>
+      <c r="C573" t="n">
+        <v>-0.4634760356383564</v>
+      </c>
+      <c r="D573" t="n">
+        <v>-0.8491889658794376</v>
+      </c>
+      <c r="E573" t="n">
+        <v>7.727534786205895</v>
+      </c>
+      <c r="F573" t="n">
+        <v>720.8218903186275</v>
+      </c>
+      <c r="G573" t="n">
+        <v>0.01335248405607919</v>
+      </c>
+      <c r="H573" t="n">
+        <v>0.1296580751802485</v>
+      </c>
+      <c r="I573" t="n">
+        <v>0.9048736754677843</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>122.1450653076172</v>
+      </c>
+      <c r="B574" t="n">
+        <v>21.85670337781487</v>
+      </c>
+      <c r="C574" t="n">
+        <v>0.005951980334269565</v>
+      </c>
+      <c r="D574" t="n">
+        <v>0.5403827023825816</v>
+      </c>
+      <c r="E574" t="n">
+        <v>6.419752616658069</v>
+      </c>
+      <c r="F574" t="n">
+        <v>55.27101715686275</v>
+      </c>
+      <c r="G574" t="n">
+        <v>0.03214045904813924</v>
+      </c>
+      <c r="H574" t="n">
+        <v>0.284254438583924</v>
+      </c>
+      <c r="I574" t="n">
+        <v>0.9421587043847801</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>128.2423248291016</v>
+      </c>
+      <c r="B575" t="n">
+        <v>45.13589010344352</v>
+      </c>
+      <c r="C575" t="n">
+        <v>-0.4786180755890371</v>
+      </c>
+      <c r="D575" t="n">
+        <v>0.2870308734616165</v>
+      </c>
+      <c r="E575" t="n">
+        <v>7.465232991360731</v>
+      </c>
+      <c r="F575" t="n">
+        <v>1022.93762254902</v>
+      </c>
+      <c r="G575" t="n">
+        <v>0.009940762413363903</v>
+      </c>
+      <c r="H575" t="n">
+        <v>0.05900416511651803</v>
+      </c>
+      <c r="I575" t="n">
+        <v>0.7459462120219518</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>117.111572265625</v>
+      </c>
+      <c r="B576" t="n">
+        <v>33.56764569519607</v>
+      </c>
+      <c r="C576" t="n">
+        <v>-0.3085076021425752</v>
+      </c>
+      <c r="D576" t="n">
+        <v>-0.8013555913873538</v>
+      </c>
+      <c r="E576" t="n">
+        <v>6.922803494750073</v>
+      </c>
+      <c r="F576" t="n">
+        <v>175.6189950980393</v>
+      </c>
+      <c r="G576" t="n">
+        <v>0.01856299113618669</v>
+      </c>
+      <c r="H576" t="n">
+        <v>0.1363059844444973</v>
+      </c>
+      <c r="I576" t="n">
+        <v>0.9221556306075923</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>124.4960632324219</v>
+      </c>
+      <c r="B577" t="n">
+        <v>58.94937949132304</v>
+      </c>
+      <c r="C577" t="n">
+        <v>-0.5335221067606035</v>
+      </c>
+      <c r="D577" t="n">
+        <v>-1.159482456417339</v>
+      </c>
+      <c r="E577" t="n">
+        <v>7.441717158297877</v>
+      </c>
+      <c r="F577" t="n">
+        <v>525.0949754901961</v>
+      </c>
+      <c r="G577" t="n">
+        <v>0.01425806297361137</v>
+      </c>
+      <c r="H577" t="n">
+        <v>0.1121746623723504</v>
+      </c>
+      <c r="I577" t="n">
+        <v>0.9245212803232892</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>128.1162414550781</v>
+      </c>
+      <c r="B578" t="n">
+        <v>43.26849330996801</v>
+      </c>
+      <c r="C578" t="n">
+        <v>-0.1288991327093036</v>
+      </c>
+      <c r="D578" t="n">
+        <v>-1.035569086455424</v>
+      </c>
+      <c r="E578" t="n">
+        <v>7.346828472994693</v>
+      </c>
+      <c r="F578" t="n">
+        <v>377.2607383578431</v>
+      </c>
+      <c r="G578" t="n">
+        <v>0.01381441263694365</v>
+      </c>
+      <c r="H578" t="n">
+        <v>0.1236097518223858</v>
+      </c>
+      <c r="I578" t="n">
+        <v>0.8993856723104502</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>104.2222137451172</v>
+      </c>
+      <c r="B579" t="n">
+        <v>26.12706252757925</v>
+      </c>
+      <c r="C579" t="n">
+        <v>-0.2603626902503421</v>
+      </c>
+      <c r="D579" t="n">
+        <v>-0.4965915523808415</v>
+      </c>
+      <c r="E579" t="n">
+        <v>6.680220865066639</v>
+      </c>
+      <c r="F579" t="n">
+        <v>30.01086090686274</v>
+      </c>
+      <c r="G579" t="n">
+        <v>0.03100228315201536</v>
+      </c>
+      <c r="H579" t="n">
+        <v>0.3084042461118834</v>
+      </c>
+      <c r="I579" t="n">
+        <v>0.9780402190043038</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>114.9340057373047</v>
+      </c>
+      <c r="B580" t="n">
+        <v>44.55108686032252</v>
+      </c>
+      <c r="C580" t="n">
+        <v>-0.1305908783216864</v>
+      </c>
+      <c r="D580" t="n">
+        <v>-1.137699194487457</v>
+      </c>
+      <c r="E580" t="n">
+        <v>7.340430849955721</v>
+      </c>
+      <c r="F580" t="n">
+        <v>563.0618566176471</v>
+      </c>
+      <c r="G580" t="n">
+        <v>0.01263280684469888</v>
+      </c>
+      <c r="H580" t="n">
+        <v>0.1064544679651144</v>
+      </c>
+      <c r="I580" t="n">
+        <v>0.8581092130517903</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>120.2874908447266</v>
+      </c>
+      <c r="B581" t="n">
+        <v>65.5309198662072</v>
+      </c>
+      <c r="C581" t="n">
+        <v>-0.2080510344066333</v>
+      </c>
+      <c r="D581" t="n">
+        <v>-1.302734168421163</v>
+      </c>
+      <c r="E581" t="n">
+        <v>7.709638976830608</v>
+      </c>
+      <c r="F581" t="n">
+        <v>685.9695772058824</v>
+      </c>
+      <c r="G581" t="n">
+        <v>0.01487907991494246</v>
+      </c>
+      <c r="H581" t="n">
+        <v>0.1588480260267202</v>
+      </c>
+      <c r="I581" t="n">
+        <v>0.9201532499095724</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>102.3310546875</v>
+      </c>
+      <c r="B582" t="n">
+        <v>69.52298707019877</v>
+      </c>
+      <c r="C582" t="n">
+        <v>0.1643502701633783</v>
+      </c>
+      <c r="D582" t="n">
+        <v>-1.425249503355203</v>
+      </c>
+      <c r="E582" t="n">
+        <v>7.65611147980778</v>
+      </c>
+      <c r="F582" t="n">
+        <v>588.2014246323529</v>
+      </c>
+      <c r="G582" t="n">
+        <v>0.01827758132507086</v>
+      </c>
+      <c r="H582" t="n">
+        <v>0.1781810747318086</v>
+      </c>
+      <c r="I582" t="n">
+        <v>0.9390886236530308</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>113.4447479248047</v>
+      </c>
+      <c r="B583" t="n">
+        <v>37.26751828184799</v>
+      </c>
+      <c r="C583" t="n">
+        <v>-0.3701559318396627</v>
+      </c>
+      <c r="D583" t="n">
+        <v>-0.1104930056379478</v>
+      </c>
+      <c r="E583" t="n">
+        <v>7.23315163367324</v>
+      </c>
+      <c r="F583" t="n">
+        <v>928.5529105392156</v>
+      </c>
+      <c r="G583" t="n">
+        <v>0.009967448439019666</v>
+      </c>
+      <c r="H583" t="n">
+        <v>0.0477133603359126</v>
+      </c>
+      <c r="I583" t="n">
+        <v>0.6661581835433743</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>123.4238586425781</v>
+      </c>
+      <c r="B584" t="n">
+        <v>34.96166594357784</v>
+      </c>
+      <c r="C584" t="n">
+        <v>0.009043148886247795</v>
+      </c>
+      <c r="D584" t="n">
+        <v>-0.8046174391518206</v>
+      </c>
+      <c r="E584" t="n">
+        <v>7.066453576506881</v>
+      </c>
+      <c r="F584" t="n">
+        <v>56.95229779411763</v>
+      </c>
+      <c r="G584" t="n">
+        <v>0.02306643498623783</v>
+      </c>
+      <c r="H584" t="n">
+        <v>0.2526721034809229</v>
+      </c>
+      <c r="I584" t="n">
+        <v>0.9767380052652043</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>140.9125823974609</v>
+      </c>
+      <c r="B585" t="n">
+        <v>35.2207364697885</v>
+      </c>
+      <c r="C585" t="n">
+        <v>-0.7297923456836403</v>
+      </c>
+      <c r="D585" t="n">
+        <v>0.4361970244172433</v>
+      </c>
+      <c r="E585" t="n">
+        <v>7.041777885138548</v>
+      </c>
+      <c r="F585" t="n">
+        <v>48.60033700980391</v>
+      </c>
+      <c r="G585" t="n">
+        <v>0.02688112291161012</v>
+      </c>
+      <c r="H585" t="n">
+        <v>0.2900119464856801</v>
+      </c>
+      <c r="I585" t="n">
+        <v>0.9804532845476472</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>115.2358245849609</v>
+      </c>
+      <c r="B586" t="n">
+        <v>48.91358464041947</v>
+      </c>
+      <c r="C586" t="n">
+        <v>-0.3553288807800326</v>
+      </c>
+      <c r="D586" t="n">
+        <v>-0.7370006210632467</v>
+      </c>
+      <c r="E586" t="n">
+        <v>7.5172259106883</v>
+      </c>
+      <c r="F586" t="n">
+        <v>1394.492555147059</v>
+      </c>
+      <c r="G586" t="n">
+        <v>0.009039573847629193</v>
+      </c>
+      <c r="H586" t="n">
+        <v>0.05106910309389218</v>
+      </c>
+      <c r="I586" t="n">
+        <v>0.7088934327751453</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>121.8067169189453</v>
+      </c>
+      <c r="B587" t="n">
+        <v>50.20717556240631</v>
+      </c>
+      <c r="C587" t="n">
+        <v>-0.3881715065948573</v>
+      </c>
+      <c r="D587" t="n">
+        <v>-0.6880136786523803</v>
+      </c>
+      <c r="E587" t="n">
+        <v>7.482115657910065</v>
+      </c>
+      <c r="F587" t="n">
+        <v>1183.484574142157</v>
+      </c>
+      <c r="G587" t="n">
+        <v>0.01053765698973151</v>
+      </c>
+      <c r="H587" t="n">
+        <v>0.06903836994987099</v>
+      </c>
+      <c r="I587" t="n">
+        <v>0.7655153374440641</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>156.4334259033203</v>
+      </c>
+      <c r="B588" t="n">
+        <v>28.32124447206181</v>
+      </c>
+      <c r="C588" t="n">
+        <v>0.4542087008387835</v>
+      </c>
+      <c r="D588" t="n">
+        <v>0.214887176032994</v>
+      </c>
+      <c r="E588" t="n">
+        <v>6.785419982373559</v>
+      </c>
+      <c r="F588" t="n">
+        <v>113.8285845588236</v>
+      </c>
+      <c r="G588" t="n">
+        <v>0.02149464913062222</v>
+      </c>
+      <c r="H588" t="n">
+        <v>0.1729775993567522</v>
+      </c>
+      <c r="I588" t="n">
+        <v>0.9292274508931405</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>86.76570129394531</v>
+      </c>
+      <c r="B589" t="n">
+        <v>38.39697895551532</v>
+      </c>
+      <c r="C589" t="n">
+        <v>-0.2555227834351146</v>
+      </c>
+      <c r="D589" t="n">
+        <v>-1.263884725589851</v>
+      </c>
+      <c r="E589" t="n">
+        <v>7.030062784811781</v>
+      </c>
+      <c r="F589" t="n">
+        <v>84.33383884803922</v>
+      </c>
+      <c r="G589" t="n">
+        <v>0.02330653528772424</v>
+      </c>
+      <c r="H589" t="n">
+        <v>0.2601204889324946</v>
+      </c>
+      <c r="I589" t="n">
+        <v>0.9714220762555268</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>130.4558868408203</v>
+      </c>
+      <c r="B590" t="n">
+        <v>56.25696632058641</v>
+      </c>
+      <c r="C590" t="n">
+        <v>-0.4190208916350827</v>
+      </c>
+      <c r="D590" t="n">
+        <v>-1.075808253747344</v>
+      </c>
+      <c r="E590" t="n">
+        <v>7.567842067575349</v>
+      </c>
+      <c r="F590" t="n">
+        <v>502.3449448529412</v>
+      </c>
+      <c r="G590" t="n">
+        <v>0.01240491063161111</v>
+      </c>
+      <c r="H590" t="n">
+        <v>0.1099737081063168</v>
+      </c>
+      <c r="I590" t="n">
+        <v>0.9207605346462188</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>98.09284973144531</v>
+      </c>
+      <c r="B591" t="n">
+        <v>41.32374814543959</v>
+      </c>
+      <c r="C591" t="n">
+        <v>0.1755535962703001</v>
+      </c>
+      <c r="D591" t="n">
+        <v>-0.9203141789245546</v>
+      </c>
+      <c r="E591" t="n">
+        <v>7.305093508126457</v>
+      </c>
+      <c r="F591" t="n">
+        <v>192.958425245098</v>
+      </c>
+      <c r="G591" t="n">
+        <v>0.01442806539666514</v>
+      </c>
+      <c r="H591" t="n">
+        <v>0.1359217515525036</v>
+      </c>
+      <c r="I591" t="n">
+        <v>0.9433554191209714</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>132.4799957275391</v>
+      </c>
+      <c r="B592" t="n">
+        <v>48.23804476367229</v>
+      </c>
+      <c r="C592" t="n">
+        <v>-1.280787758817558</v>
+      </c>
+      <c r="D592" t="n">
+        <v>0.4069875583414473</v>
+      </c>
+      <c r="E592" t="n">
+        <v>6.898072052025681</v>
+      </c>
+      <c r="F592" t="n">
+        <v>280.9700980392158</v>
+      </c>
+      <c r="G592" t="n">
+        <v>0.01967009591513844</v>
+      </c>
+      <c r="H592" t="n">
+        <v>0.1308286480706597</v>
+      </c>
+      <c r="I592" t="n">
+        <v>0.9397688060205796</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>101.4463348388672</v>
+      </c>
+      <c r="B593" t="n">
+        <v>30.72690000182829</v>
+      </c>
+      <c r="C593" t="n">
+        <v>-0.4668117683846953</v>
+      </c>
+      <c r="D593" t="n">
+        <v>0.2555211543394527</v>
+      </c>
+      <c r="E593" t="n">
+        <v>6.772164883146528</v>
+      </c>
+      <c r="F593" t="n">
+        <v>32.75050551470589</v>
+      </c>
+      <c r="G593" t="n">
+        <v>0.03669036729635788</v>
+      </c>
+      <c r="H593" t="n">
+        <v>0.3451981768605552</v>
+      </c>
+      <c r="I593" t="n">
+        <v>0.9827045818250938</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>134.7593688964844</v>
+      </c>
+      <c r="B594" t="n">
+        <v>43.92537798689001</v>
+      </c>
+      <c r="C594" t="n">
+        <v>-1.267292213940245</v>
+      </c>
+      <c r="D594" t="n">
+        <v>0.9621692250286924</v>
+      </c>
+      <c r="E594" t="n">
+        <v>7.055097098650196</v>
+      </c>
+      <c r="F594" t="n">
+        <v>608.8699142156863</v>
+      </c>
+      <c r="G594" t="n">
+        <v>0.01832673878886357</v>
+      </c>
+      <c r="H594" t="n">
+        <v>0.1144477593852979</v>
+      </c>
+      <c r="I594" t="n">
+        <v>0.8425077362859076</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>103.6181335449219</v>
+      </c>
+      <c r="B595" t="n">
+        <v>53.36767004779953</v>
+      </c>
+      <c r="C595" t="n">
+        <v>-0.0846622776561561</v>
+      </c>
+      <c r="D595" t="n">
+        <v>-1.330480621991262</v>
+      </c>
+      <c r="E595" t="n">
+        <v>7.505482119149585</v>
+      </c>
+      <c r="F595" t="n">
+        <v>502.8741268382353</v>
+      </c>
+      <c r="G595" t="n">
+        <v>0.01291764548115362</v>
+      </c>
+      <c r="H595" t="n">
+        <v>0.1214311001082096</v>
+      </c>
+      <c r="I595" t="n">
+        <v>0.911641873987584</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>121.7288513183594</v>
+      </c>
+      <c r="B596" t="n">
+        <v>57.33803851302685</v>
+      </c>
+      <c r="C596" t="n">
+        <v>-0.5530422046979501</v>
+      </c>
+      <c r="D596" t="n">
+        <v>-1.055806341892825</v>
+      </c>
+      <c r="E596" t="n">
+        <v>7.453169783692196</v>
+      </c>
+      <c r="F596" t="n">
+        <v>449.2287990196078</v>
+      </c>
+      <c r="G596" t="n">
+        <v>0.01727260667260678</v>
+      </c>
+      <c r="H596" t="n">
+        <v>0.1532151705254824</v>
+      </c>
+      <c r="I596" t="n">
+        <v>0.9318379625966311</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>230.8104400634766</v>
+      </c>
+      <c r="B597" t="n">
+        <v>53.57287854584344</v>
+      </c>
+      <c r="C597" t="n">
+        <v>-2.495875653246538</v>
+      </c>
+      <c r="D597" t="n">
+        <v>5.186251256308669</v>
+      </c>
+      <c r="E597" t="n">
+        <v>3.87976026717288</v>
+      </c>
+      <c r="F597" t="n">
+        <v>413.958149509804</v>
+      </c>
+      <c r="G597" t="n">
+        <v>0.4915683557889179</v>
+      </c>
+      <c r="H597" t="n">
+        <v>0.5823387859961237</v>
+      </c>
+      <c r="I597" t="n">
+        <v>0.9281108786804826</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>125.3229675292969</v>
+      </c>
+      <c r="B598" t="n">
+        <v>41.85576277845185</v>
+      </c>
+      <c r="C598" t="n">
+        <v>-0.6587092352999092</v>
+      </c>
+      <c r="D598" t="n">
+        <v>0.554460164177133</v>
+      </c>
+      <c r="E598" t="n">
+        <v>7.312964938624249</v>
+      </c>
+      <c r="F598" t="n">
+        <v>669.0186121323532</v>
+      </c>
+      <c r="G598" t="n">
+        <v>0.01335144713306034</v>
+      </c>
+      <c r="H598" t="n">
+        <v>0.1113046425071997</v>
+      </c>
+      <c r="I598" t="n">
+        <v>0.8095481139047578</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>125.57763671875</v>
+      </c>
+      <c r="B599" t="n">
+        <v>37.07299058925929</v>
+      </c>
+      <c r="C599" t="n">
+        <v>-0.4086746802733936</v>
+      </c>
+      <c r="D599" t="n">
+        <v>-0.06840106418985004</v>
+      </c>
+      <c r="E599" t="n">
+        <v>7.142972466560392</v>
+      </c>
+      <c r="F599" t="n">
+        <v>43.55853247549019</v>
+      </c>
+      <c r="G599" t="n">
+        <v>0.02424796953884048</v>
+      </c>
+      <c r="H599" t="n">
+        <v>0.243986688734357</v>
+      </c>
+      <c r="I599" t="n">
+        <v>0.9841872791107724</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>138.4267730712891</v>
+      </c>
+      <c r="B600" t="n">
+        <v>50.15314172489555</v>
+      </c>
+      <c r="C600" t="n">
+        <v>-0.4789161085404089</v>
+      </c>
+      <c r="D600" t="n">
+        <v>-0.4109569899927838</v>
+      </c>
+      <c r="E600" t="n">
+        <v>7.578197759456824</v>
+      </c>
+      <c r="F600" t="n">
+        <v>552.558226102941</v>
+      </c>
+      <c r="G600" t="n">
+        <v>0.01106212808387866</v>
+      </c>
+      <c r="H600" t="n">
+        <v>0.09658809355705963</v>
+      </c>
+      <c r="I600" t="n">
+        <v>0.8903209691253389</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>112.7863311767578</v>
+      </c>
+      <c r="B601" t="n">
+        <v>32.54162443852245</v>
+      </c>
+      <c r="C601" t="n">
+        <v>0.1183210455605499</v>
+      </c>
+      <c r="D601" t="n">
+        <v>-0.3290011755700397</v>
+      </c>
+      <c r="E601" t="n">
+        <v>7.031835270944632</v>
+      </c>
+      <c r="F601" t="n">
+        <v>255.7535386029412</v>
+      </c>
+      <c r="G601" t="n">
+        <v>0.01434790437240274</v>
+      </c>
+      <c r="H601" t="n">
+        <v>0.1018384703442359</v>
+      </c>
+      <c r="I601" t="n">
+        <v>0.8793031145426107</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>93.201416015625</v>
+      </c>
+      <c r="B602" t="n">
+        <v>61.12545698917534</v>
+      </c>
+      <c r="C602" t="n">
+        <v>-0.1470236580314717</v>
+      </c>
+      <c r="D602" t="n">
+        <v>-1.209908836316782</v>
+      </c>
+      <c r="E602" t="n">
+        <v>7.169648615434653</v>
+      </c>
+      <c r="F602" t="n">
+        <v>798.3077205882353</v>
+      </c>
+      <c r="G602" t="n">
+        <v>0.1207382711221595</v>
+      </c>
+      <c r="H602" t="n">
+        <v>0.1954128064462358</v>
+      </c>
+      <c r="I602" t="n">
+        <v>0.8928622151724604</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RedChannel.xlsx
+++ b/RedChannel.xlsx
@@ -423,47 +423,47 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>MeanR</t>
+          <t>Mean_R</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>VarianceR</t>
+          <t>Variance_R</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>SkewnessR</t>
+          <t>Skewness_R</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>KurtosisR</t>
+          <t>Kurtosis_R</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>ContrastR</t>
+          <t>Contrast_R</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>EntropyR</t>
+          <t>Entropy_R</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>EnergyR</t>
+          <t>Energy_R</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>HomoR</t>
+          <t>Homogeneity_R</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>CorreR</t>
+          <t>Correlation_R</t>
         </is>
       </c>
     </row>

--- a/RedChannel.xlsx
+++ b/RedChannel.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I301"/>
+  <dimension ref="A1:K301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,13 +466,23 @@
           <t>Correlation_R</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Std_R</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>std_R</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>129.1439666748047</v>
       </c>
       <c r="B2" t="n">
-        <v>46.8255352088534</v>
+        <v>2192.630747595569</v>
       </c>
       <c r="C2" t="n">
         <v>-0.471316296379561</v>
@@ -494,6 +504,12 @@
       </c>
       <c r="I2" t="n">
         <v>0.8085263267147845</v>
+      </c>
+      <c r="J2" t="n">
+        <v>46.8255352088534</v>
+      </c>
+      <c r="K2" t="n">
+        <v>46.8255352088534</v>
       </c>
     </row>
     <row r="3">
@@ -501,7 +517,7 @@
         <v>142.8321228027344</v>
       </c>
       <c r="B3" t="n">
-        <v>35.86916163240343</v>
+        <v>1286.596756211482</v>
       </c>
       <c r="C3" t="n">
         <v>-1.394636372066214</v>
@@ -523,6 +539,12 @@
       </c>
       <c r="I3" t="n">
         <v>0.6723772500089913</v>
+      </c>
+      <c r="J3" t="n">
+        <v>35.86916163240343</v>
+      </c>
+      <c r="K3" t="n">
+        <v>35.86916163240343</v>
       </c>
     </row>
     <row r="4">
@@ -530,7 +552,7 @@
         <v>129.5636901855469</v>
       </c>
       <c r="B4" t="n">
-        <v>42.77420557193629</v>
+        <v>1829.632662310265</v>
       </c>
       <c r="C4" t="n">
         <v>-0.6844910852995457</v>
@@ -552,6 +574,12 @@
       </c>
       <c r="I4" t="n">
         <v>0.6992516412613111</v>
+      </c>
+      <c r="J4" t="n">
+        <v>42.77420557193629</v>
+      </c>
+      <c r="K4" t="n">
+        <v>42.77420557193629</v>
       </c>
     </row>
     <row r="5">
@@ -559,7 +587,7 @@
         <v>138.0785217285156</v>
       </c>
       <c r="B5" t="n">
-        <v>42.29866609516129</v>
+        <v>1789.177153429948</v>
       </c>
       <c r="C5" t="n">
         <v>-1.141965882796733</v>
@@ -581,6 +609,12 @@
       </c>
       <c r="I5" t="n">
         <v>0.8399378214567922</v>
+      </c>
+      <c r="J5" t="n">
+        <v>42.29866609516129</v>
+      </c>
+      <c r="K5" t="n">
+        <v>42.29866609516129</v>
       </c>
     </row>
     <row r="6">
@@ -588,7 +622,7 @@
         <v>151.0762786865234</v>
       </c>
       <c r="B6" t="n">
-        <v>46.08057936881114</v>
+        <v>2123.419794965303</v>
       </c>
       <c r="C6" t="n">
         <v>-1.024812827810947</v>
@@ -610,6 +644,12 @@
       </c>
       <c r="I6" t="n">
         <v>0.8580817701735522</v>
+      </c>
+      <c r="J6" t="n">
+        <v>46.08057936881114</v>
+      </c>
+      <c r="K6" t="n">
+        <v>46.08057936881114</v>
       </c>
     </row>
     <row r="7">
@@ -617,7 +657,7 @@
         <v>140.4519805908203</v>
       </c>
       <c r="B7" t="n">
-        <v>45.91125467364846</v>
+        <v>2107.843305708608</v>
       </c>
       <c r="C7" t="n">
         <v>-0.8218064538134181</v>
@@ -639,6 +679,12 @@
       </c>
       <c r="I7" t="n">
         <v>0.859669169597819</v>
+      </c>
+      <c r="J7" t="n">
+        <v>45.91125467364846</v>
+      </c>
+      <c r="K7" t="n">
+        <v>45.91125467364846</v>
       </c>
     </row>
     <row r="8">
@@ -646,7 +692,7 @@
         <v>126.7587890625</v>
       </c>
       <c r="B8" t="n">
-        <v>42.04830206664625</v>
+        <v>1768.059706687927</v>
       </c>
       <c r="C8" t="n">
         <v>-1.034161948946674</v>
@@ -668,6 +714,12 @@
       </c>
       <c r="I8" t="n">
         <v>0.858692914624816</v>
+      </c>
+      <c r="J8" t="n">
+        <v>42.04830206664625</v>
+      </c>
+      <c r="K8" t="n">
+        <v>42.04830206664625</v>
       </c>
     </row>
     <row r="9">
@@ -675,7 +727,7 @@
         <v>124.0037841796875</v>
       </c>
       <c r="B9" t="n">
-        <v>22.9677531742941</v>
+        <v>527.5176858752966</v>
       </c>
       <c r="C9" t="n">
         <v>0.3641192548369109</v>
@@ -697,6 +749,12 @@
       </c>
       <c r="I9" t="n">
         <v>0.8916523340773271</v>
+      </c>
+      <c r="J9" t="n">
+        <v>22.9677531742941</v>
+      </c>
+      <c r="K9" t="n">
+        <v>22.9677531742941</v>
       </c>
     </row>
     <row r="10">
@@ -704,7 +762,7 @@
         <v>103.551513671875</v>
       </c>
       <c r="B10" t="n">
-        <v>40.56958135779426</v>
+        <v>1645.890931546688</v>
       </c>
       <c r="C10" t="n">
         <v>-0.1483174910190533</v>
@@ -726,6 +784,12 @@
       </c>
       <c r="I10" t="n">
         <v>0.8062022214853349</v>
+      </c>
+      <c r="J10" t="n">
+        <v>40.56958135779426</v>
+      </c>
+      <c r="K10" t="n">
+        <v>40.56958135779426</v>
       </c>
     </row>
     <row r="11">
@@ -733,7 +797,7 @@
         <v>123.1365203857422</v>
       </c>
       <c r="B11" t="n">
-        <v>40.09932461064869</v>
+        <v>1607.955834230175</v>
       </c>
       <c r="C11" t="n">
         <v>-0.2689630639334594</v>
@@ -755,6 +819,12 @@
       </c>
       <c r="I11" t="n">
         <v>0.5708238662215863</v>
+      </c>
+      <c r="J11" t="n">
+        <v>40.09932461064869</v>
+      </c>
+      <c r="K11" t="n">
+        <v>40.09932461064869</v>
       </c>
     </row>
     <row r="12">
@@ -762,7 +832,7 @@
         <v>101.8009185791016</v>
       </c>
       <c r="B12" t="n">
-        <v>51.05840466585715</v>
+        <v>2606.960687022423</v>
       </c>
       <c r="C12" t="n">
         <v>-0.08091392590243691</v>
@@ -784,6 +854,12 @@
       </c>
       <c r="I12" t="n">
         <v>0.8872168180194873</v>
+      </c>
+      <c r="J12" t="n">
+        <v>51.05840466585715</v>
+      </c>
+      <c r="K12" t="n">
+        <v>51.05840466585715</v>
       </c>
     </row>
     <row r="13">
@@ -791,7 +867,7 @@
         <v>123.5727844238281</v>
       </c>
       <c r="B13" t="n">
-        <v>44.63416643957601</v>
+        <v>1992.208813755773</v>
       </c>
       <c r="C13" t="n">
         <v>-0.2788810518021962</v>
@@ -813,6 +889,12 @@
       </c>
       <c r="I13" t="n">
         <v>0.445719036133878</v>
+      </c>
+      <c r="J13" t="n">
+        <v>44.63416643957601</v>
+      </c>
+      <c r="K13" t="n">
+        <v>44.63416643957601</v>
       </c>
     </row>
     <row r="14">
@@ -820,7 +902,7 @@
         <v>135.7341156005859</v>
       </c>
       <c r="B14" t="n">
-        <v>54.46728036907599</v>
+        <v>2966.684630803531</v>
       </c>
       <c r="C14" t="n">
         <v>-0.3924608034067638</v>
@@ -842,6 +924,12 @@
       </c>
       <c r="I14" t="n">
         <v>0.8070273922917492</v>
+      </c>
+      <c r="J14" t="n">
+        <v>54.46728036907599</v>
+      </c>
+      <c r="K14" t="n">
+        <v>54.46728036907599</v>
       </c>
     </row>
     <row r="15">
@@ -849,7 +937,7 @@
         <v>131.6432952880859</v>
       </c>
       <c r="B15" t="n">
-        <v>40.14724263528284</v>
+        <v>1611.801091216272</v>
       </c>
       <c r="C15" t="n">
         <v>-0.4695929563347707</v>
@@ -871,6 +959,12 @@
       </c>
       <c r="I15" t="n">
         <v>0.6091626102111605</v>
+      </c>
+      <c r="J15" t="n">
+        <v>40.14724263528284</v>
+      </c>
+      <c r="K15" t="n">
+        <v>40.14724263528284</v>
       </c>
     </row>
     <row r="16">
@@ -878,7 +972,7 @@
         <v>144.7758636474609</v>
       </c>
       <c r="B16" t="n">
-        <v>55.88669931855539</v>
+        <v>3123.323160722619</v>
       </c>
       <c r="C16" t="n">
         <v>-0.215045520333925</v>
@@ -900,6 +994,12 @@
       </c>
       <c r="I16" t="n">
         <v>0.8568176576500592</v>
+      </c>
+      <c r="J16" t="n">
+        <v>55.88669931855539</v>
+      </c>
+      <c r="K16" t="n">
+        <v>55.88669931855539</v>
       </c>
     </row>
     <row r="17">
@@ -907,7 +1007,7 @@
         <v>112.4647979736328</v>
       </c>
       <c r="B17" t="n">
-        <v>31.69044033490343</v>
+        <v>1004.284008620074</v>
       </c>
       <c r="C17" t="n">
         <v>-0.06330814206546596</v>
@@ -929,6 +1029,12 @@
       </c>
       <c r="I17" t="n">
         <v>0.9760174732418367</v>
+      </c>
+      <c r="J17" t="n">
+        <v>31.69044033490343</v>
+      </c>
+      <c r="K17" t="n">
+        <v>31.69044033490343</v>
       </c>
     </row>
     <row r="18">
@@ -936,7 +1042,7 @@
         <v>118.349853515625</v>
       </c>
       <c r="B18" t="n">
-        <v>47.02533291762748</v>
+        <v>2211.381936013699</v>
       </c>
       <c r="C18" t="n">
         <v>-0.3645846700251617</v>
@@ -958,6 +1064,12 @@
       </c>
       <c r="I18" t="n">
         <v>0.6207876557684456</v>
+      </c>
+      <c r="J18" t="n">
+        <v>47.02533291762748</v>
+      </c>
+      <c r="K18" t="n">
+        <v>47.02533291762748</v>
       </c>
     </row>
     <row r="19">
@@ -965,7 +1077,7 @@
         <v>126.4881439208984</v>
       </c>
       <c r="B19" t="n">
-        <v>35.47566286997676</v>
+        <v>1258.522656064248</v>
       </c>
       <c r="C19" t="n">
         <v>0.1010163294175087</v>
@@ -987,6 +1099,12 @@
       </c>
       <c r="I19" t="n">
         <v>0.9870953713613636</v>
+      </c>
+      <c r="J19" t="n">
+        <v>35.47566286997676</v>
+      </c>
+      <c r="K19" t="n">
+        <v>35.47566286997676</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +1112,7 @@
         <v>220.3784942626953</v>
       </c>
       <c r="B20" t="n">
-        <v>54.97403318377293</v>
+        <v>3022.144324490568</v>
       </c>
       <c r="C20" t="n">
         <v>-1.748436939742359</v>
@@ -1016,6 +1134,12 @@
       </c>
       <c r="I20" t="n">
         <v>0.7483373568360809</v>
+      </c>
+      <c r="J20" t="n">
+        <v>54.97403318377293</v>
+      </c>
+      <c r="K20" t="n">
+        <v>54.97403318377293</v>
       </c>
     </row>
     <row r="21">
@@ -1023,7 +1147,7 @@
         <v>100.1164398193359</v>
       </c>
       <c r="B21" t="n">
-        <v>27.61433873206623</v>
+        <v>762.5517036092933</v>
       </c>
       <c r="C21" t="n">
         <v>-0.7686822495287118</v>
@@ -1045,6 +1169,12 @@
       </c>
       <c r="I21" t="n">
         <v>0.9406414533783584</v>
+      </c>
+      <c r="J21" t="n">
+        <v>27.61433873206623</v>
+      </c>
+      <c r="K21" t="n">
+        <v>27.61433873206623</v>
       </c>
     </row>
     <row r="22">
@@ -1052,7 +1182,7 @@
         <v>127.5047760009766</v>
       </c>
       <c r="B22" t="n">
-        <v>50.01049030961578</v>
+        <v>2501.049141008174</v>
       </c>
       <c r="C22" t="n">
         <v>-0.7509572885438878</v>
@@ -1074,6 +1204,12 @@
       </c>
       <c r="I22" t="n">
         <v>0.8510247420865938</v>
+      </c>
+      <c r="J22" t="n">
+        <v>50.01049030961578</v>
+      </c>
+      <c r="K22" t="n">
+        <v>50.01049030961578</v>
       </c>
     </row>
     <row r="23">
@@ -1081,7 +1217,7 @@
         <v>117.3607788085938</v>
       </c>
       <c r="B23" t="n">
-        <v>46.59746579100045</v>
+        <v>2171.323818143457</v>
       </c>
       <c r="C23" t="n">
         <v>-0.2055445101133949</v>
@@ -1103,6 +1239,12 @@
       </c>
       <c r="I23" t="n">
         <v>0.5911562631116936</v>
+      </c>
+      <c r="J23" t="n">
+        <v>46.59746579100045</v>
+      </c>
+      <c r="K23" t="n">
+        <v>46.59746579100045</v>
       </c>
     </row>
     <row r="24">
@@ -1110,7 +1252,7 @@
         <v>126.1203765869141</v>
       </c>
       <c r="B24" t="n">
-        <v>45.31985482961224</v>
+        <v>2053.889241777128</v>
       </c>
       <c r="C24" t="n">
         <v>-0.8366589613879698</v>
@@ -1132,6 +1274,12 @@
       </c>
       <c r="I24" t="n">
         <v>0.8582279205475914</v>
+      </c>
+      <c r="J24" t="n">
+        <v>45.31985482961224</v>
+      </c>
+      <c r="K24" t="n">
+        <v>45.31985482961224</v>
       </c>
     </row>
     <row r="25">
@@ -1139,7 +1287,7 @@
         <v>87.6082763671875</v>
       </c>
       <c r="B25" t="n">
-        <v>52.63482728960392</v>
+        <v>2770.425043806434</v>
       </c>
       <c r="C25" t="n">
         <v>-0.2046290096183393</v>
@@ -1161,6 +1309,12 @@
       </c>
       <c r="I25" t="n">
         <v>0.8994216436466359</v>
+      </c>
+      <c r="J25" t="n">
+        <v>52.63482728960392</v>
+      </c>
+      <c r="K25" t="n">
+        <v>52.63482728960392</v>
       </c>
     </row>
     <row r="26">
@@ -1168,7 +1322,7 @@
         <v>131.9781036376953</v>
       </c>
       <c r="B26" t="n">
-        <v>42.81327760376735</v>
+        <v>1832.976739177248</v>
       </c>
       <c r="C26" t="n">
         <v>-1.12066663491781</v>
@@ -1190,6 +1344,12 @@
       </c>
       <c r="I26" t="n">
         <v>0.9095889939832086</v>
+      </c>
+      <c r="J26" t="n">
+        <v>42.81327760376735</v>
+      </c>
+      <c r="K26" t="n">
+        <v>42.81327760376735</v>
       </c>
     </row>
     <row r="27">
@@ -1197,7 +1357,7 @@
         <v>115.4158172607422</v>
       </c>
       <c r="B27" t="n">
-        <v>36.86644944475798</v>
+        <v>1359.135094662895</v>
       </c>
       <c r="C27" t="n">
         <v>-0.4016964137217162</v>
@@ -1219,6 +1379,12 @@
       </c>
       <c r="I27" t="n">
         <v>0.8136984480749836</v>
+      </c>
+      <c r="J27" t="n">
+        <v>36.86644944475798</v>
+      </c>
+      <c r="K27" t="n">
+        <v>36.86644944475798</v>
       </c>
     </row>
     <row r="28">
@@ -1226,7 +1392,7 @@
         <v>94.47294616699219</v>
       </c>
       <c r="B28" t="n">
-        <v>50.02802895309705</v>
+        <v>2502.803680931916</v>
       </c>
       <c r="C28" t="n">
         <v>-0.1210198896039366</v>
@@ -1248,6 +1414,12 @@
       </c>
       <c r="I28" t="n">
         <v>0.9781133573377349</v>
+      </c>
+      <c r="J28" t="n">
+        <v>50.02802895309705</v>
+      </c>
+      <c r="K28" t="n">
+        <v>50.02802895309705</v>
       </c>
     </row>
     <row r="29">
@@ -1255,7 +1427,7 @@
         <v>129.3142395019531</v>
       </c>
       <c r="B29" t="n">
-        <v>43.1389870871414</v>
+        <v>1860.972206904553</v>
       </c>
       <c r="C29" t="n">
         <v>-0.8519877114248273</v>
@@ -1277,6 +1449,12 @@
       </c>
       <c r="I29" t="n">
         <v>0.7439724232998985</v>
+      </c>
+      <c r="J29" t="n">
+        <v>43.1389870871414</v>
+      </c>
+      <c r="K29" t="n">
+        <v>43.1389870871414</v>
       </c>
     </row>
     <row r="30">
@@ -1284,7 +1462,7 @@
         <v>121.6123962402344</v>
       </c>
       <c r="B30" t="n">
-        <v>49.37403302203064</v>
+        <v>2437.795136860572</v>
       </c>
       <c r="C30" t="n">
         <v>-0.4588397635454532</v>
@@ -1306,6 +1484,12 @@
       </c>
       <c r="I30" t="n">
         <v>0.8097107817226971</v>
+      </c>
+      <c r="J30" t="n">
+        <v>49.37403302203064</v>
+      </c>
+      <c r="K30" t="n">
+        <v>49.37403302203064</v>
       </c>
     </row>
     <row r="31">
@@ -1313,7 +1497,7 @@
         <v>109.7732696533203</v>
       </c>
       <c r="B31" t="n">
-        <v>50.04172971975501</v>
+        <v>2504.174713345012</v>
       </c>
       <c r="C31" t="n">
         <v>-0.04766912203782352</v>
@@ -1335,6 +1519,12 @@
       </c>
       <c r="I31" t="n">
         <v>0.5646134187727062</v>
+      </c>
+      <c r="J31" t="n">
+        <v>50.04172971975501</v>
+      </c>
+      <c r="K31" t="n">
+        <v>50.04172971975501</v>
       </c>
     </row>
     <row r="32">
@@ -1342,7 +1532,7 @@
         <v>124.5575714111328</v>
       </c>
       <c r="B32" t="n">
-        <v>52.72123603435006</v>
+        <v>2779.528728989651</v>
       </c>
       <c r="C32" t="n">
         <v>-0.2431197092068479</v>
@@ -1364,6 +1554,12 @@
       </c>
       <c r="I32" t="n">
         <v>0.8954890187774449</v>
+      </c>
+      <c r="J32" t="n">
+        <v>52.72123603435006</v>
+      </c>
+      <c r="K32" t="n">
+        <v>52.72123603435006</v>
       </c>
     </row>
     <row r="33">
@@ -1371,7 +1567,7 @@
         <v>135.2522125244141</v>
       </c>
       <c r="B33" t="n">
-        <v>20.52626631746022</v>
+        <v>421.3276089353021</v>
       </c>
       <c r="C33" t="n">
         <v>0.6847863563740547</v>
@@ -1393,6 +1589,12 @@
       </c>
       <c r="I33" t="n">
         <v>0.9855990099493849</v>
+      </c>
+      <c r="J33" t="n">
+        <v>20.52626631746022</v>
+      </c>
+      <c r="K33" t="n">
+        <v>20.52626631746022</v>
       </c>
     </row>
     <row r="34">
@@ -1400,7 +1602,7 @@
         <v>117.7625732421875</v>
       </c>
       <c r="B34" t="n">
-        <v>50.10902414877081</v>
+        <v>2510.914301142097</v>
       </c>
       <c r="C34" t="n">
         <v>-0.216917739332687</v>
@@ -1422,6 +1624,12 @@
       </c>
       <c r="I34" t="n">
         <v>0.6388575044740455</v>
+      </c>
+      <c r="J34" t="n">
+        <v>50.10902414877081</v>
+      </c>
+      <c r="K34" t="n">
+        <v>50.10902414877081</v>
       </c>
     </row>
     <row r="35">
@@ -1429,7 +1637,7 @@
         <v>129.2060394287109</v>
       </c>
       <c r="B35" t="n">
-        <v>37.57303858215101</v>
+        <v>1411.733228295809</v>
       </c>
       <c r="C35" t="n">
         <v>-0.7688884837205596</v>
@@ -1451,6 +1659,12 @@
       </c>
       <c r="I35" t="n">
         <v>0.7792290180632931</v>
+      </c>
+      <c r="J35" t="n">
+        <v>37.57303858215101</v>
+      </c>
+      <c r="K35" t="n">
+        <v>37.57303858215101</v>
       </c>
     </row>
     <row r="36">
@@ -1458,7 +1672,7 @@
         <v>109.0341491699219</v>
       </c>
       <c r="B36" t="n">
-        <v>23.46083655065307</v>
+        <v>550.4108516564593</v>
       </c>
       <c r="C36" t="n">
         <v>0.2713798189515417</v>
@@ -1480,6 +1694,12 @@
       </c>
       <c r="I36" t="n">
         <v>0.8346580115008005</v>
+      </c>
+      <c r="J36" t="n">
+        <v>23.46083655065307</v>
+      </c>
+      <c r="K36" t="n">
+        <v>23.46083655065307</v>
       </c>
     </row>
     <row r="37">
@@ -1487,7 +1707,7 @@
         <v>133.0325012207031</v>
       </c>
       <c r="B37" t="n">
-        <v>31.23335513074744</v>
+        <v>975.5224727233872</v>
       </c>
       <c r="C37" t="n">
         <v>-1.159591304251218</v>
@@ -1509,6 +1729,12 @@
       </c>
       <c r="I37" t="n">
         <v>0.6256768414040769</v>
+      </c>
+      <c r="J37" t="n">
+        <v>31.23335513074744</v>
+      </c>
+      <c r="K37" t="n">
+        <v>31.23335513074744</v>
       </c>
     </row>
     <row r="38">
@@ -1516,7 +1742,7 @@
         <v>111.3174591064453</v>
       </c>
       <c r="B38" t="n">
-        <v>65.40006072053691</v>
+        <v>4277.167942249915</v>
       </c>
       <c r="C38" t="n">
         <v>-0.1615125185129625</v>
@@ -1538,6 +1764,12 @@
       </c>
       <c r="I38" t="n">
         <v>0.9261082671963679</v>
+      </c>
+      <c r="J38" t="n">
+        <v>65.40006072053691</v>
+      </c>
+      <c r="K38" t="n">
+        <v>65.40006072053691</v>
       </c>
     </row>
     <row r="39">
@@ -1545,7 +1777,7 @@
         <v>208.7980804443359</v>
       </c>
       <c r="B39" t="n">
-        <v>62.98579428211956</v>
+        <v>3967.210281349486</v>
       </c>
       <c r="C39" t="n">
         <v>-1.383522767074412</v>
@@ -1567,6 +1799,12 @@
       </c>
       <c r="I39" t="n">
         <v>0.8197116818025175</v>
+      </c>
+      <c r="J39" t="n">
+        <v>62.98579428211956</v>
+      </c>
+      <c r="K39" t="n">
+        <v>62.98579428211956</v>
       </c>
     </row>
     <row r="40">
@@ -1574,7 +1812,7 @@
         <v>125.9695587158203</v>
       </c>
       <c r="B40" t="n">
-        <v>38.28461486121261</v>
+        <v>1465.711735071382</v>
       </c>
       <c r="C40" t="n">
         <v>-1.102555585422026</v>
@@ -1596,6 +1834,12 @@
       </c>
       <c r="I40" t="n">
         <v>0.8406089091170892</v>
+      </c>
+      <c r="J40" t="n">
+        <v>38.28461486121261</v>
+      </c>
+      <c r="K40" t="n">
+        <v>38.28461486121261</v>
       </c>
     </row>
     <row r="41">
@@ -1603,7 +1847,7 @@
         <v>157.2730407714844</v>
       </c>
       <c r="B41" t="n">
-        <v>40.89340835252457</v>
+        <v>1672.270846686326</v>
       </c>
       <c r="C41" t="n">
         <v>-1.13379014127267</v>
@@ -1625,6 +1869,12 @@
       </c>
       <c r="I41" t="n">
         <v>0.7551923001499935</v>
+      </c>
+      <c r="J41" t="n">
+        <v>40.89340835252457</v>
+      </c>
+      <c r="K41" t="n">
+        <v>40.89340835252457</v>
       </c>
     </row>
     <row r="42">
@@ -1632,7 +1882,7 @@
         <v>119.6426086425781</v>
       </c>
       <c r="B42" t="n">
-        <v>52.78252014903111</v>
+        <v>2785.994433282875</v>
       </c>
       <c r="C42" t="n">
         <v>-0.05849149645311248</v>
@@ -1654,6 +1904,12 @@
       </c>
       <c r="I42" t="n">
         <v>0.8324656491134316</v>
+      </c>
+      <c r="J42" t="n">
+        <v>52.78252014903111</v>
+      </c>
+      <c r="K42" t="n">
+        <v>52.78252014903111</v>
       </c>
     </row>
     <row r="43">
@@ -1661,7 +1917,7 @@
         <v>92.27583312988281</v>
       </c>
       <c r="B43" t="n">
-        <v>45.39482734629883</v>
+        <v>2060.690349800279</v>
       </c>
       <c r="C43" t="n">
         <v>-0.9098592141273139</v>
@@ -1683,6 +1939,12 @@
       </c>
       <c r="I43" t="n">
         <v>0.8478058862050077</v>
+      </c>
+      <c r="J43" t="n">
+        <v>45.39482734629883</v>
+      </c>
+      <c r="K43" t="n">
+        <v>45.39482734629883</v>
       </c>
     </row>
     <row r="44">
@@ -1690,7 +1952,7 @@
         <v>102.9644165039062</v>
       </c>
       <c r="B44" t="n">
-        <v>63.40691961070125</v>
+        <v>4020.437454517931</v>
       </c>
       <c r="C44" t="n">
         <v>-0.5186516276569951</v>
@@ -1712,6 +1974,12 @@
       </c>
       <c r="I44" t="n">
         <v>0.9144360472172527</v>
+      </c>
+      <c r="J44" t="n">
+        <v>63.40691961070125</v>
+      </c>
+      <c r="K44" t="n">
+        <v>63.40691961070125</v>
       </c>
     </row>
     <row r="45">
@@ -1719,7 +1987,7 @@
         <v>91.64501953125</v>
       </c>
       <c r="B45" t="n">
-        <v>42.01524216948137</v>
+        <v>1765.280574560165</v>
       </c>
       <c r="C45" t="n">
         <v>0.1142723680397991</v>
@@ -1741,6 +2009,12 @@
       </c>
       <c r="I45" t="n">
         <v>0.9453557731469913</v>
+      </c>
+      <c r="J45" t="n">
+        <v>42.01524216948137</v>
+      </c>
+      <c r="K45" t="n">
+        <v>42.01524216948137</v>
       </c>
     </row>
     <row r="46">
@@ -1748,7 +2022,7 @@
         <v>166.0337982177734</v>
       </c>
       <c r="B46" t="n">
-        <v>41.24632702503887</v>
+        <v>1701.259493056452</v>
       </c>
       <c r="C46" t="n">
         <v>-0.7973534274407263</v>
@@ -1770,6 +2044,12 @@
       </c>
       <c r="I46" t="n">
         <v>0.718139920211562</v>
+      </c>
+      <c r="J46" t="n">
+        <v>41.24632702503887</v>
+      </c>
+      <c r="K46" t="n">
+        <v>41.24632702503887</v>
       </c>
     </row>
     <row r="47">
@@ -1777,7 +2057,7 @@
         <v>116.9037933349609</v>
       </c>
       <c r="B47" t="n">
-        <v>32.60084321434633</v>
+        <v>1062.814978286391</v>
       </c>
       <c r="C47" t="n">
         <v>-0.2994598791979585</v>
@@ -1799,6 +2079,12 @@
       </c>
       <c r="I47" t="n">
         <v>0.9243844951007673</v>
+      </c>
+      <c r="J47" t="n">
+        <v>32.60084321434633</v>
+      </c>
+      <c r="K47" t="n">
+        <v>32.60084321434633</v>
       </c>
     </row>
     <row r="48">
@@ -1806,7 +2092,7 @@
         <v>126.4569091796875</v>
       </c>
       <c r="B48" t="n">
-        <v>43.54960983426098</v>
+        <v>1896.568516716361</v>
       </c>
       <c r="C48" t="n">
         <v>-0.6606029305255346</v>
@@ -1828,6 +2114,12 @@
       </c>
       <c r="I48" t="n">
         <v>0.6431763131763909</v>
+      </c>
+      <c r="J48" t="n">
+        <v>43.54960983426098</v>
+      </c>
+      <c r="K48" t="n">
+        <v>43.54960983426098</v>
       </c>
     </row>
     <row r="49">
@@ -1835,7 +2127,7 @@
         <v>102.8190612792969</v>
       </c>
       <c r="B49" t="n">
-        <v>24.2117310987968</v>
+        <v>586.2079228004441</v>
       </c>
       <c r="C49" t="n">
         <v>-0.3102397889952139</v>
@@ -1857,6 +2149,12 @@
       </c>
       <c r="I49" t="n">
         <v>0.5885439375280297</v>
+      </c>
+      <c r="J49" t="n">
+        <v>24.2117310987968</v>
+      </c>
+      <c r="K49" t="n">
+        <v>24.2117310987968</v>
       </c>
     </row>
     <row r="50">
@@ -1864,7 +2162,7 @@
         <v>146.685546875</v>
       </c>
       <c r="B50" t="n">
-        <v>50.5688589881078</v>
+        <v>2557.209499359131</v>
       </c>
       <c r="C50" t="n">
         <v>-0.6730361963633084</v>
@@ -1886,6 +2184,12 @@
       </c>
       <c r="I50" t="n">
         <v>0.828580091784834</v>
+      </c>
+      <c r="J50" t="n">
+        <v>50.5688589881078</v>
+      </c>
+      <c r="K50" t="n">
+        <v>50.5688589881078</v>
       </c>
     </row>
     <row r="51">
@@ -1893,7 +2197,7 @@
         <v>100.4255523681641</v>
       </c>
       <c r="B51" t="n">
-        <v>50.43137928786289</v>
+        <v>2543.324016876286</v>
       </c>
       <c r="C51" t="n">
         <v>0.01992135127549035</v>
@@ -1915,6 +2219,12 @@
       </c>
       <c r="I51" t="n">
         <v>0.9571079109820505</v>
+      </c>
+      <c r="J51" t="n">
+        <v>50.43137928786289</v>
+      </c>
+      <c r="K51" t="n">
+        <v>50.43137928786289</v>
       </c>
     </row>
     <row r="52">
@@ -1922,7 +2232,7 @@
         <v>113.7342071533203</v>
       </c>
       <c r="B52" t="n">
-        <v>52.66698894144007</v>
+        <v>2773.811724157771</v>
       </c>
       <c r="C52" t="n">
         <v>-0.1884620550159101</v>
@@ -1944,6 +2254,12 @@
       </c>
       <c r="I52" t="n">
         <v>0.6959464247325262</v>
+      </c>
+      <c r="J52" t="n">
+        <v>52.66698894144007</v>
+      </c>
+      <c r="K52" t="n">
+        <v>52.66698894144007</v>
       </c>
     </row>
     <row r="53">
@@ -1951,7 +2267,7 @@
         <v>113.9782104492188</v>
       </c>
       <c r="B53" t="n">
-        <v>19.98567483362322</v>
+        <v>399.4271985553205</v>
       </c>
       <c r="C53" t="n">
         <v>0.225359446994082</v>
@@ -1973,6 +2289,12 @@
       </c>
       <c r="I53" t="n">
         <v>0.7918013333373128</v>
+      </c>
+      <c r="J53" t="n">
+        <v>19.98567483362322</v>
+      </c>
+      <c r="K53" t="n">
+        <v>19.98567483362322</v>
       </c>
     </row>
     <row r="54">
@@ -1980,7 +2302,7 @@
         <v>122.7744903564453</v>
       </c>
       <c r="B54" t="n">
-        <v>50.23473011407608</v>
+        <v>2523.528109634062</v>
       </c>
       <c r="C54" t="n">
         <v>-0.2305876022239354</v>
@@ -2002,6 +2324,12 @@
       </c>
       <c r="I54" t="n">
         <v>0.9028336617807371</v>
+      </c>
+      <c r="J54" t="n">
+        <v>50.23473011407608</v>
+      </c>
+      <c r="K54" t="n">
+        <v>50.23473011407608</v>
       </c>
     </row>
     <row r="55">
@@ -2009,7 +2337,7 @@
         <v>127.29443359375</v>
       </c>
       <c r="B55" t="n">
-        <v>52.40163669059405</v>
+        <v>2745.931527853012</v>
       </c>
       <c r="C55" t="n">
         <v>-0.593097486735255</v>
@@ -2031,6 +2359,12 @@
       </c>
       <c r="I55" t="n">
         <v>0.8714126687457967</v>
+      </c>
+      <c r="J55" t="n">
+        <v>52.40163669059405</v>
+      </c>
+      <c r="K55" t="n">
+        <v>52.40163669059405</v>
       </c>
     </row>
     <row r="56">
@@ -2038,7 +2372,7 @@
         <v>107.0819854736328</v>
       </c>
       <c r="B56" t="n">
-        <v>59.66026155881234</v>
+        <v>3559.346809265902</v>
       </c>
       <c r="C56" t="n">
         <v>0.0005970277736406834</v>
@@ -2060,6 +2394,12 @@
       </c>
       <c r="I56" t="n">
         <v>0.8978669266220802</v>
+      </c>
+      <c r="J56" t="n">
+        <v>59.66026155881234</v>
+      </c>
+      <c r="K56" t="n">
+        <v>59.66026155881234</v>
       </c>
     </row>
     <row r="57">
@@ -2067,7 +2407,7 @@
         <v>130.2566070556641</v>
       </c>
       <c r="B57" t="n">
-        <v>47.30346877932197</v>
+        <v>2237.618158556288</v>
       </c>
       <c r="C57" t="n">
         <v>-0.8802598908035264</v>
@@ -2089,6 +2429,12 @@
       </c>
       <c r="I57" t="n">
         <v>0.8447005852389633</v>
+      </c>
+      <c r="J57" t="n">
+        <v>47.30346877932197</v>
+      </c>
+      <c r="K57" t="n">
+        <v>47.30346877932197</v>
       </c>
     </row>
     <row r="58">
@@ -2096,7 +2442,7 @@
         <v>124.3483123779297</v>
       </c>
       <c r="B58" t="n">
-        <v>34.2809598060028</v>
+        <v>1175.184205220779</v>
       </c>
       <c r="C58" t="n">
         <v>0.05585376307178107</v>
@@ -2118,6 +2464,12 @@
       </c>
       <c r="I58" t="n">
         <v>0.9774775386613802</v>
+      </c>
+      <c r="J58" t="n">
+        <v>34.2809598060028</v>
+      </c>
+      <c r="K58" t="n">
+        <v>34.2809598060028</v>
       </c>
     </row>
     <row r="59">
@@ -2125,7 +2477,7 @@
         <v>133.5459289550781</v>
       </c>
       <c r="B59" t="n">
-        <v>26.24444049021367</v>
+        <v>688.7706566443667</v>
       </c>
       <c r="C59" t="n">
         <v>-0.2826370069400098</v>
@@ -2147,6 +2499,12 @@
       </c>
       <c r="I59" t="n">
         <v>0.9608438398870265</v>
+      </c>
+      <c r="J59" t="n">
+        <v>26.24444049021367</v>
+      </c>
+      <c r="K59" t="n">
+        <v>26.24444049021367</v>
       </c>
     </row>
     <row r="60">
@@ -2154,7 +2512,7 @@
         <v>107.9943084716797</v>
       </c>
       <c r="B60" t="n">
-        <v>45.11405712845946</v>
+        <v>2035.278150589904</v>
       </c>
       <c r="C60" t="n">
         <v>-0.2770381858428577</v>
@@ -2176,6 +2534,12 @@
       </c>
       <c r="I60" t="n">
         <v>0.6510966136533963</v>
+      </c>
+      <c r="J60" t="n">
+        <v>45.11405712845946</v>
+      </c>
+      <c r="K60" t="n">
+        <v>45.11405712845946</v>
       </c>
     </row>
     <row r="61">
@@ -2183,7 +2547,7 @@
         <v>116.244140625</v>
       </c>
       <c r="B61" t="n">
-        <v>40.9338809211793</v>
+        <v>1675.582607269287</v>
       </c>
       <c r="C61" t="n">
         <v>-0.5469377666731462</v>
@@ -2205,6 +2569,12 @@
       </c>
       <c r="I61" t="n">
         <v>0.9061609523642529</v>
+      </c>
+      <c r="J61" t="n">
+        <v>40.9338809211793</v>
+      </c>
+      <c r="K61" t="n">
+        <v>40.9338809211793</v>
       </c>
     </row>
     <row r="62">
@@ -2212,7 +2582,7 @@
         <v>121.2342224121094</v>
       </c>
       <c r="B62" t="n">
-        <v>31.7766253198343</v>
+        <v>1009.753916717134</v>
       </c>
       <c r="C62" t="n">
         <v>-0.4062699713764737</v>
@@ -2234,6 +2604,12 @@
       </c>
       <c r="I62" t="n">
         <v>0.9784921781953746</v>
+      </c>
+      <c r="J62" t="n">
+        <v>31.7766253198343</v>
+      </c>
+      <c r="K62" t="n">
+        <v>31.7766253198343</v>
       </c>
     </row>
     <row r="63">
@@ -2241,7 +2617,7 @@
         <v>113.1397094726562</v>
       </c>
       <c r="B63" t="n">
-        <v>25.44838466953533</v>
+        <v>647.6202822886407</v>
       </c>
       <c r="C63" t="n">
         <v>-0.6261100425326102</v>
@@ -2263,6 +2639,12 @@
       </c>
       <c r="I63" t="n">
         <v>0.7495752909146409</v>
+      </c>
+      <c r="J63" t="n">
+        <v>25.44838466953533</v>
+      </c>
+      <c r="K63" t="n">
+        <v>25.44838466953533</v>
       </c>
     </row>
     <row r="64">
@@ -2270,7 +2652,7 @@
         <v>102.3589172363281</v>
       </c>
       <c r="B64" t="n">
-        <v>51.5709506493569</v>
+        <v>2659.562950878404</v>
       </c>
       <c r="C64" t="n">
         <v>-0.1535248343860142</v>
@@ -2292,6 +2674,12 @@
       </c>
       <c r="I64" t="n">
         <v>0.839189971532244</v>
+      </c>
+      <c r="J64" t="n">
+        <v>51.5709506493569</v>
+      </c>
+      <c r="K64" t="n">
+        <v>51.5709506493569</v>
       </c>
     </row>
     <row r="65">
@@ -2299,7 +2687,7 @@
         <v>121.8058319091797</v>
       </c>
       <c r="B65" t="n">
-        <v>50.48805869315132</v>
+        <v>2549.044070603093</v>
       </c>
       <c r="C65" t="n">
         <v>-0.3989735033610131</v>
@@ -2321,6 +2709,12 @@
       </c>
       <c r="I65" t="n">
         <v>0.7734419785068609</v>
+      </c>
+      <c r="J65" t="n">
+        <v>50.48805869315132</v>
+      </c>
+      <c r="K65" t="n">
+        <v>50.48805869315132</v>
       </c>
     </row>
     <row r="66">
@@ -2328,7 +2722,7 @@
         <v>136.0865173339844</v>
       </c>
       <c r="B66" t="n">
-        <v>28.19369579399547</v>
+        <v>794.8844825243577</v>
       </c>
       <c r="C66" t="n">
         <v>-0.1849506965817166</v>
@@ -2350,6 +2744,12 @@
       </c>
       <c r="I66" t="n">
         <v>0.9816028013193419</v>
+      </c>
+      <c r="J66" t="n">
+        <v>28.19369579399547</v>
+      </c>
+      <c r="K66" t="n">
+        <v>28.19369579399547</v>
       </c>
     </row>
     <row r="67">
@@ -2357,7 +2757,7 @@
         <v>115.6952209472656</v>
       </c>
       <c r="B67" t="n">
-        <v>51.24991460180109</v>
+        <v>2626.553746691905</v>
       </c>
       <c r="C67" t="n">
         <v>-0.5599917616888566</v>
@@ -2379,6 +2779,12 @@
       </c>
       <c r="I67" t="n">
         <v>0.7783752232299541</v>
+      </c>
+      <c r="J67" t="n">
+        <v>51.24991460180109</v>
+      </c>
+      <c r="K67" t="n">
+        <v>51.24991460180109</v>
       </c>
     </row>
     <row r="68">
@@ -2386,7 +2792,7 @@
         <v>139.8591461181641</v>
       </c>
       <c r="B68" t="n">
-        <v>38.84710630302522</v>
+        <v>1509.097668118542</v>
       </c>
       <c r="C68" t="n">
         <v>-0.4975169647427421</v>
@@ -2408,6 +2814,12 @@
       </c>
       <c r="I68" t="n">
         <v>0.6492555128012663</v>
+      </c>
+      <c r="J68" t="n">
+        <v>38.84710630302522</v>
+      </c>
+      <c r="K68" t="n">
+        <v>38.84710630302522</v>
       </c>
     </row>
     <row r="69">
@@ -2415,7 +2827,7 @@
         <v>112.3527221679688</v>
       </c>
       <c r="B69" t="n">
-        <v>44.51777319274824</v>
+        <v>1981.832130040973</v>
       </c>
       <c r="C69" t="n">
         <v>-0.3952766790306091</v>
@@ -2437,6 +2849,12 @@
       </c>
       <c r="I69" t="n">
         <v>0.8950530588017431</v>
+      </c>
+      <c r="J69" t="n">
+        <v>44.51777319274824</v>
+      </c>
+      <c r="K69" t="n">
+        <v>44.51777319274824</v>
       </c>
     </row>
     <row r="70">
@@ -2444,7 +2862,7 @@
         <v>116.827880859375</v>
       </c>
       <c r="B70" t="n">
-        <v>30.66323607965132</v>
+        <v>940.2340468764305</v>
       </c>
       <c r="C70" t="n">
         <v>-0.4900915715309537</v>
@@ -2466,6 +2884,12 @@
       </c>
       <c r="I70" t="n">
         <v>0.8943743112853733</v>
+      </c>
+      <c r="J70" t="n">
+        <v>30.66323607965132</v>
+      </c>
+      <c r="K70" t="n">
+        <v>30.66323607965132</v>
       </c>
     </row>
     <row r="71">
@@ -2473,7 +2897,7 @@
         <v>115.6762084960938</v>
       </c>
       <c r="B71" t="n">
-        <v>42.97220070382219</v>
+        <v>1846.610033329576</v>
       </c>
       <c r="C71" t="n">
         <v>-0.9225019048881609</v>
@@ -2495,6 +2919,12 @@
       </c>
       <c r="I71" t="n">
         <v>0.8817207361762919</v>
+      </c>
+      <c r="J71" t="n">
+        <v>42.97220070382219</v>
+      </c>
+      <c r="K71" t="n">
+        <v>42.97220070382219</v>
       </c>
     </row>
     <row r="72">
@@ -2502,7 +2932,7 @@
         <v>83.9984130859375</v>
       </c>
       <c r="B72" t="n">
-        <v>48.739039958091</v>
+        <v>2375.494016036391</v>
       </c>
       <c r="C72" t="n">
         <v>-0.2978003003332501</v>
@@ -2524,6 +2954,12 @@
       </c>
       <c r="I72" t="n">
         <v>0.7764059166583408</v>
+      </c>
+      <c r="J72" t="n">
+        <v>48.739039958091</v>
+      </c>
+      <c r="K72" t="n">
+        <v>48.739039958091</v>
       </c>
     </row>
     <row r="73">
@@ -2531,7 +2967,7 @@
         <v>98.20474243164062</v>
       </c>
       <c r="B73" t="n">
-        <v>39.95333672789966</v>
+        <v>1596.269115692936</v>
       </c>
       <c r="C73" t="n">
         <v>0.35993048276276</v>
@@ -2553,6 +2989,12 @@
       </c>
       <c r="I73" t="n">
         <v>0.9938481803444955</v>
+      </c>
+      <c r="J73" t="n">
+        <v>39.95333672789966</v>
+      </c>
+      <c r="K73" t="n">
+        <v>39.95333672789966</v>
       </c>
     </row>
     <row r="74">
@@ -2560,7 +3002,7 @@
         <v>220.1932067871094</v>
       </c>
       <c r="B74" t="n">
-        <v>66.47518545292444</v>
+        <v>4418.950281000696</v>
       </c>
       <c r="C74" t="n">
         <v>-1.961664589543977</v>
@@ -2582,6 +3024,12 @@
       </c>
       <c r="I74" t="n">
         <v>0.8707961511271125</v>
+      </c>
+      <c r="J74" t="n">
+        <v>66.47518545292444</v>
+      </c>
+      <c r="K74" t="n">
+        <v>66.47518545292444</v>
       </c>
     </row>
     <row r="75">
@@ -2589,7 +3037,7 @@
         <v>104.6942443847656</v>
       </c>
       <c r="B75" t="n">
-        <v>22.83825108721118</v>
+        <v>521.5857127225026</v>
       </c>
       <c r="C75" t="n">
         <v>0.052671598692349</v>
@@ -2611,6 +3059,12 @@
       </c>
       <c r="I75" t="n">
         <v>0.966414380641167</v>
+      </c>
+      <c r="J75" t="n">
+        <v>22.83825108721118</v>
+      </c>
+      <c r="K75" t="n">
+        <v>22.83825108721118</v>
       </c>
     </row>
     <row r="76">
@@ -2618,7 +3072,7 @@
         <v>102.1612243652344</v>
       </c>
       <c r="B76" t="n">
-        <v>59.00995131843819</v>
+        <v>3482.174354604445</v>
       </c>
       <c r="C76" t="n">
         <v>-0.4590807912103817</v>
@@ -2640,6 +3094,12 @@
       </c>
       <c r="I76" t="n">
         <v>0.8582473469241548</v>
+      </c>
+      <c r="J76" t="n">
+        <v>59.00995131843819</v>
+      </c>
+      <c r="K76" t="n">
+        <v>59.00995131843819</v>
       </c>
     </row>
     <row r="77">
@@ -2647,7 +3107,7 @@
         <v>112.0736846923828</v>
       </c>
       <c r="B77" t="n">
-        <v>22.05001319543024</v>
+        <v>486.2030819186475</v>
       </c>
       <c r="C77" t="n">
         <v>-0.329886472878449</v>
@@ -2669,6 +3129,12 @@
       </c>
       <c r="I77" t="n">
         <v>0.9761009307913119</v>
+      </c>
+      <c r="J77" t="n">
+        <v>22.05001319543024</v>
+      </c>
+      <c r="K77" t="n">
+        <v>22.05001319543024</v>
       </c>
     </row>
     <row r="78">
@@ -2676,7 +3142,7 @@
         <v>121.8524780273438</v>
       </c>
       <c r="B78" t="n">
-        <v>41.38035705692024</v>
+        <v>1712.333950158209</v>
       </c>
       <c r="C78" t="n">
         <v>-0.447090302391476</v>
@@ -2698,6 +3164,12 @@
       </c>
       <c r="I78" t="n">
         <v>0.9867160277369534</v>
+      </c>
+      <c r="J78" t="n">
+        <v>41.38035705692024</v>
+      </c>
+      <c r="K78" t="n">
+        <v>41.38035705692024</v>
       </c>
     </row>
     <row r="79">
@@ -2705,7 +3177,7 @@
         <v>195.8793029785156</v>
       </c>
       <c r="B79" t="n">
-        <v>53.11012189505425</v>
+        <v>2820.68504770752</v>
       </c>
       <c r="C79" t="n">
         <v>-1.213317103321943</v>
@@ -2727,6 +3199,12 @@
       </c>
       <c r="I79" t="n">
         <v>0.6799057284996137</v>
+      </c>
+      <c r="J79" t="n">
+        <v>53.11012189505425</v>
+      </c>
+      <c r="K79" t="n">
+        <v>53.11012189505425</v>
       </c>
     </row>
     <row r="80">
@@ -2734,7 +3212,7 @@
         <v>98.1715087890625</v>
       </c>
       <c r="B80" t="n">
-        <v>49.12293753392438</v>
+        <v>2413.062991961837</v>
       </c>
       <c r="C80" t="n">
         <v>-0.3005134343130714</v>
@@ -2756,6 +3234,12 @@
       </c>
       <c r="I80" t="n">
         <v>0.9617976102966782</v>
+      </c>
+      <c r="J80" t="n">
+        <v>49.12293753392438</v>
+      </c>
+      <c r="K80" t="n">
+        <v>49.12293753392438</v>
       </c>
     </row>
     <row r="81">
@@ -2763,7 +3247,7 @@
         <v>132.2242736816406</v>
       </c>
       <c r="B81" t="n">
-        <v>49.19349234511301</v>
+        <v>2419.999689108692</v>
       </c>
       <c r="C81" t="n">
         <v>-0.9787109201096253</v>
@@ -2785,6 +3269,12 @@
       </c>
       <c r="I81" t="n">
         <v>0.8628021723809502</v>
+      </c>
+      <c r="J81" t="n">
+        <v>49.19349234511301</v>
+      </c>
+      <c r="K81" t="n">
+        <v>49.19349234511301</v>
       </c>
     </row>
     <row r="82">
@@ -2792,7 +3282,7 @@
         <v>118.9954986572266</v>
       </c>
       <c r="B82" t="n">
-        <v>17.82215578823341</v>
+        <v>317.6292369400617</v>
       </c>
       <c r="C82" t="n">
         <v>0.02602423701861677</v>
@@ -2814,6 +3304,12 @@
       </c>
       <c r="I82" t="n">
         <v>0.8451338184707499</v>
+      </c>
+      <c r="J82" t="n">
+        <v>17.82215578823341</v>
+      </c>
+      <c r="K82" t="n">
+        <v>17.82215578823341</v>
       </c>
     </row>
     <row r="83">
@@ -2821,7 +3317,7 @@
         <v>115.0517425537109</v>
       </c>
       <c r="B83" t="n">
-        <v>45.80815714545421</v>
+        <v>2098.387261062628</v>
       </c>
       <c r="C83" t="n">
         <v>-0.5106627009247924</v>
@@ -2843,6 +3339,12 @@
       </c>
       <c r="I83" t="n">
         <v>0.8304873178486244</v>
+      </c>
+      <c r="J83" t="n">
+        <v>45.80815714545421</v>
+      </c>
+      <c r="K83" t="n">
+        <v>45.80815714545421</v>
       </c>
     </row>
     <row r="84">
@@ -2850,7 +3352,7 @@
         <v>170.125732421875</v>
       </c>
       <c r="B84" t="n">
-        <v>30.67286447239765</v>
+        <v>940.8246149420738</v>
       </c>
       <c r="C84" t="n">
         <v>0.08679860114586983</v>
@@ -2872,6 +3374,12 @@
       </c>
       <c r="I84" t="n">
         <v>0.9479249504309935</v>
+      </c>
+      <c r="J84" t="n">
+        <v>30.67286447239765</v>
+      </c>
+      <c r="K84" t="n">
+        <v>30.67286447239765</v>
       </c>
     </row>
     <row r="85">
@@ -2879,7 +3387,7 @@
         <v>102.4308166503906</v>
       </c>
       <c r="B85" t="n">
-        <v>30.33852386512118</v>
+        <v>920.4260303145275</v>
       </c>
       <c r="C85" t="n">
         <v>0.001861682252157162</v>
@@ -2901,6 +3409,12 @@
       </c>
       <c r="I85" t="n">
         <v>0.9865873663145373</v>
+      </c>
+      <c r="J85" t="n">
+        <v>30.33852386512118</v>
+      </c>
+      <c r="K85" t="n">
+        <v>30.33852386512118</v>
       </c>
     </row>
     <row r="86">
@@ -2908,7 +3422,7 @@
         <v>116.2507629394531</v>
       </c>
       <c r="B86" t="n">
-        <v>33.72035938045478</v>
+        <v>1137.062636747025</v>
       </c>
       <c r="C86" t="n">
         <v>-0.2478315799611037</v>
@@ -2930,6 +3444,12 @@
       </c>
       <c r="I86" t="n">
         <v>0.9723322543870379</v>
+      </c>
+      <c r="J86" t="n">
+        <v>33.72035938045478</v>
+      </c>
+      <c r="K86" t="n">
+        <v>33.72035938045478</v>
       </c>
     </row>
     <row r="87">
@@ -2937,7 +3457,7 @@
         <v>105.89990234375</v>
       </c>
       <c r="B87" t="n">
-        <v>29.25322825802058</v>
+        <v>855.7513635158539</v>
       </c>
       <c r="C87" t="n">
         <v>0.3415258959960867</v>
@@ -2959,6 +3479,12 @@
       </c>
       <c r="I87" t="n">
         <v>0.6569289283863274</v>
+      </c>
+      <c r="J87" t="n">
+        <v>29.25322825802058</v>
+      </c>
+      <c r="K87" t="n">
+        <v>29.25322825802058</v>
       </c>
     </row>
     <row r="88">
@@ -2966,7 +3492,7 @@
         <v>106.3912200927734</v>
       </c>
       <c r="B88" t="n">
-        <v>26.54816895919718</v>
+        <v>704.8052750860807</v>
       </c>
       <c r="C88" t="n">
         <v>0.3985808961596169</v>
@@ -2988,6 +3514,12 @@
       </c>
       <c r="I88" t="n">
         <v>0.618921684370193</v>
+      </c>
+      <c r="J88" t="n">
+        <v>26.54816895919718</v>
+      </c>
+      <c r="K88" t="n">
+        <v>26.54816895919718</v>
       </c>
     </row>
     <row r="89">
@@ -2995,7 +3527,7 @@
         <v>120.0692596435547</v>
       </c>
       <c r="B89" t="n">
-        <v>23.42410640432272</v>
+        <v>548.6887608410325</v>
       </c>
       <c r="C89" t="n">
         <v>-0.7374593413075267</v>
@@ -3017,6 +3549,12 @@
       </c>
       <c r="I89" t="n">
         <v>0.6777289730052094</v>
+      </c>
+      <c r="J89" t="n">
+        <v>23.42410640432272</v>
+      </c>
+      <c r="K89" t="n">
+        <v>23.42410640432272</v>
       </c>
     </row>
     <row r="90">
@@ -3024,7 +3562,7 @@
         <v>108.8179931640625</v>
       </c>
       <c r="B90" t="n">
-        <v>29.16630409239589</v>
+        <v>850.6732944101095</v>
       </c>
       <c r="C90" t="n">
         <v>0.1116251161326203</v>
@@ -3046,6 +3584,12 @@
       </c>
       <c r="I90" t="n">
         <v>0.9819622628884348</v>
+      </c>
+      <c r="J90" t="n">
+        <v>29.16630409239589</v>
+      </c>
+      <c r="K90" t="n">
+        <v>29.16630409239589</v>
       </c>
     </row>
     <row r="91">
@@ -3053,7 +3597,7 @@
         <v>95.13081359863281</v>
       </c>
       <c r="B91" t="n">
-        <v>48.77990361625576</v>
+        <v>2379.478996811202</v>
       </c>
       <c r="C91" t="n">
         <v>0.1370076598377546</v>
@@ -3075,6 +3619,12 @@
       </c>
       <c r="I91" t="n">
         <v>0.9732750901125315</v>
+      </c>
+      <c r="J91" t="n">
+        <v>48.77990361625576</v>
+      </c>
+      <c r="K91" t="n">
+        <v>48.77990361625576</v>
       </c>
     </row>
     <row r="92">
@@ -3082,7 +3632,7 @@
         <v>103.2991180419922</v>
       </c>
       <c r="B92" t="n">
-        <v>36.87175348795928</v>
+        <v>1359.526205276838</v>
       </c>
       <c r="C92" t="n">
         <v>-0.03898475939340221</v>
@@ -3104,6 +3654,12 @@
       </c>
       <c r="I92" t="n">
         <v>0.9921898115161758</v>
+      </c>
+      <c r="J92" t="n">
+        <v>36.87175348795928</v>
+      </c>
+      <c r="K92" t="n">
+        <v>36.87175348795928</v>
       </c>
     </row>
     <row r="93">
@@ -3111,7 +3667,7 @@
         <v>113.2013549804688</v>
       </c>
       <c r="B93" t="n">
-        <v>43.40511574539411</v>
+        <v>1884.004072871059</v>
       </c>
       <c r="C93" t="n">
         <v>-0.4280200858606514</v>
@@ -3133,6 +3689,12 @@
       </c>
       <c r="I93" t="n">
         <v>0.9644517842598895</v>
+      </c>
+      <c r="J93" t="n">
+        <v>43.40511574539411</v>
+      </c>
+      <c r="K93" t="n">
+        <v>43.40511574539411</v>
       </c>
     </row>
     <row r="94">
@@ -3140,7 +3702,7 @@
         <v>138.0802459716797</v>
       </c>
       <c r="B94" t="n">
-        <v>42.29527628366054</v>
+        <v>1788.890395911178</v>
       </c>
       <c r="C94" t="n">
         <v>-1.14185108583675</v>
@@ -3162,6 +3724,12 @@
       </c>
       <c r="I94" t="n">
         <v>0.8399171581791223</v>
+      </c>
+      <c r="J94" t="n">
+        <v>42.29527628366054</v>
+      </c>
+      <c r="K94" t="n">
+        <v>42.29527628366054</v>
       </c>
     </row>
     <row r="95">
@@ -3169,7 +3737,7 @@
         <v>141.7884826660156</v>
       </c>
       <c r="B95" t="n">
-        <v>37.76045010595787</v>
+        <v>1425.851592204534</v>
       </c>
       <c r="C95" t="n">
         <v>-0.4000983125536727</v>
@@ -3191,6 +3759,12 @@
       </c>
       <c r="I95" t="n">
         <v>0.9889352227224198</v>
+      </c>
+      <c r="J95" t="n">
+        <v>37.76045010595787</v>
+      </c>
+      <c r="K95" t="n">
+        <v>37.76045010595787</v>
       </c>
     </row>
     <row r="96">
@@ -3198,7 +3772,7 @@
         <v>130.5202484130859</v>
       </c>
       <c r="B96" t="n">
-        <v>63.08857375615455</v>
+        <v>3980.168138585752</v>
       </c>
       <c r="C96" t="n">
         <v>-0.5180400216695563</v>
@@ -3220,6 +3794,12 @@
       </c>
       <c r="I96" t="n">
         <v>0.9387952900383882</v>
+      </c>
+      <c r="J96" t="n">
+        <v>63.08857375615455</v>
+      </c>
+      <c r="K96" t="n">
+        <v>63.08857375615455</v>
       </c>
     </row>
     <row r="97">
@@ -3227,7 +3807,7 @@
         <v>91.07853698730469</v>
       </c>
       <c r="B97" t="n">
-        <v>44.42451586013566</v>
+        <v>1973.537609407445</v>
       </c>
       <c r="C97" t="n">
         <v>-0.9465041387814508</v>
@@ -3249,6 +3829,12 @@
       </c>
       <c r="I97" t="n">
         <v>0.8660022164926983</v>
+      </c>
+      <c r="J97" t="n">
+        <v>44.42451586013566</v>
+      </c>
+      <c r="K97" t="n">
+        <v>44.42451586013566</v>
       </c>
     </row>
     <row r="98">
@@ -3256,7 +3842,7 @@
         <v>167.6863098144531</v>
       </c>
       <c r="B98" t="n">
-        <v>32.53579270532048</v>
+        <v>1058.577806963585</v>
       </c>
       <c r="C98" t="n">
         <v>-0.256619646270307</v>
@@ -3278,6 +3864,12 @@
       </c>
       <c r="I98" t="n">
         <v>0.8766473701933931</v>
+      </c>
+      <c r="J98" t="n">
+        <v>32.53579270532048</v>
+      </c>
+      <c r="K98" t="n">
+        <v>32.53579270532048</v>
       </c>
     </row>
     <row r="99">
@@ -3285,7 +3877,7 @@
         <v>123.9774475097656</v>
       </c>
       <c r="B99" t="n">
-        <v>49.0486278450763</v>
+        <v>2405.767893484794</v>
       </c>
       <c r="C99" t="n">
         <v>-0.3597550438046418</v>
@@ -3307,6 +3899,12 @@
       </c>
       <c r="I99" t="n">
         <v>0.8474023816361154</v>
+      </c>
+      <c r="J99" t="n">
+        <v>49.0486278450763</v>
+      </c>
+      <c r="K99" t="n">
+        <v>49.0486278450763</v>
       </c>
     </row>
     <row r="100">
@@ -3314,7 +3912,7 @@
         <v>98.58662414550781</v>
       </c>
       <c r="B100" t="n">
-        <v>44.41795247276319</v>
+        <v>1972.954501872649</v>
       </c>
       <c r="C100" t="n">
         <v>-0.2035485558080768</v>
@@ -3336,6 +3934,12 @@
       </c>
       <c r="I100" t="n">
         <v>0.5234980522035733</v>
+      </c>
+      <c r="J100" t="n">
+        <v>44.41795247276319</v>
+      </c>
+      <c r="K100" t="n">
+        <v>44.41795247276319</v>
       </c>
     </row>
     <row r="101">
@@ -3343,7 +3947,7 @@
         <v>140.4510650634766</v>
       </c>
       <c r="B101" t="n">
-        <v>45.91259639750162</v>
+        <v>2107.966507959878</v>
       </c>
       <c r="C101" t="n">
         <v>-0.8218708489699635</v>
@@ -3365,6 +3969,12 @@
       </c>
       <c r="I101" t="n">
         <v>0.8596882966792763</v>
+      </c>
+      <c r="J101" t="n">
+        <v>45.91259639750162</v>
+      </c>
+      <c r="K101" t="n">
+        <v>45.91259639750162</v>
       </c>
     </row>
     <row r="102">
@@ -3372,7 +3982,7 @@
         <v>111.3467712402344</v>
       </c>
       <c r="B102" t="n">
-        <v>26.48230232394586</v>
+        <v>701.3123363768682</v>
       </c>
       <c r="C102" t="n">
         <v>-0.2015332206643463</v>
@@ -3394,6 +4004,12 @@
       </c>
       <c r="I102" t="n">
         <v>0.8453636653055561</v>
+      </c>
+      <c r="J102" t="n">
+        <v>26.48230232394586</v>
+      </c>
+      <c r="K102" t="n">
+        <v>26.48230232394586</v>
       </c>
     </row>
     <row r="103">
@@ -3401,7 +4017,7 @@
         <v>101.0385894775391</v>
       </c>
       <c r="B103" t="n">
-        <v>61.37522368004107</v>
+        <v>3766.918081775075</v>
       </c>
       <c r="C103" t="n">
         <v>-0.3831783427034167</v>
@@ -3423,6 +4039,12 @@
       </c>
       <c r="I103" t="n">
         <v>0.8801838056521475</v>
+      </c>
+      <c r="J103" t="n">
+        <v>61.37522368004107</v>
+      </c>
+      <c r="K103" t="n">
+        <v>61.37522368004107</v>
       </c>
     </row>
     <row r="104">
@@ -3430,7 +4052,7 @@
         <v>105.9582366943359</v>
       </c>
       <c r="B104" t="n">
-        <v>32.40649548019263</v>
+        <v>1050.180949307745</v>
       </c>
       <c r="C104" t="n">
         <v>-0.6039938637673533</v>
@@ -3452,6 +4074,12 @@
       </c>
       <c r="I104" t="n">
         <v>0.881207471148329</v>
+      </c>
+      <c r="J104" t="n">
+        <v>32.40649548019263</v>
+      </c>
+      <c r="K104" t="n">
+        <v>32.40649548019263</v>
       </c>
     </row>
     <row r="105">
@@ -3459,7 +4087,7 @@
         <v>89.17205810546875</v>
       </c>
       <c r="B105" t="n">
-        <v>52.38624351890498</v>
+        <v>2744.318510022014</v>
       </c>
       <c r="C105" t="n">
         <v>-0.322420627464116</v>
@@ -3481,6 +4109,12 @@
       </c>
       <c r="I105" t="n">
         <v>0.8436400456082918</v>
+      </c>
+      <c r="J105" t="n">
+        <v>52.38624351890498</v>
+      </c>
+      <c r="K105" t="n">
+        <v>52.38624351890498</v>
       </c>
     </row>
     <row r="106">
@@ -3488,7 +4122,7 @@
         <v>94.6419677734375</v>
       </c>
       <c r="B106" t="n">
-        <v>48.02687038003741</v>
+        <v>2306.580278500915</v>
       </c>
       <c r="C106" t="n">
         <v>-0.1377202301816988</v>
@@ -3510,6 +4144,12 @@
       </c>
       <c r="I106" t="n">
         <v>0.9712468423058589</v>
+      </c>
+      <c r="J106" t="n">
+        <v>48.02687038003741</v>
+      </c>
+      <c r="K106" t="n">
+        <v>48.02687038003741</v>
       </c>
     </row>
     <row r="107">
@@ -3517,7 +4157,7 @@
         <v>110.6662292480469</v>
       </c>
       <c r="B107" t="n">
-        <v>60.76355219863367</v>
+        <v>3692.209275796078</v>
       </c>
       <c r="C107" t="n">
         <v>0.3984278076529921</v>
@@ -3539,6 +4179,12 @@
       </c>
       <c r="I107" t="n">
         <v>0.9197428473430539</v>
+      </c>
+      <c r="J107" t="n">
+        <v>60.76355219863367</v>
+      </c>
+      <c r="K107" t="n">
+        <v>60.76355219863367</v>
       </c>
     </row>
     <row r="108">
@@ -3546,7 +4192,7 @@
         <v>109.1371612548828</v>
       </c>
       <c r="B108" t="n">
-        <v>21.45079480011779</v>
+        <v>460.1365975567605</v>
       </c>
       <c r="C108" t="n">
         <v>0.43669222510128</v>
@@ -3568,6 +4214,12 @@
       </c>
       <c r="I108" t="n">
         <v>0.6872099321079154</v>
+      </c>
+      <c r="J108" t="n">
+        <v>21.45079480011779</v>
+      </c>
+      <c r="K108" t="n">
+        <v>21.45079480011779</v>
       </c>
     </row>
     <row r="109">
@@ -3575,7 +4227,7 @@
         <v>101.8777313232422</v>
       </c>
       <c r="B109" t="n">
-        <v>39.5902484911425</v>
+        <v>1567.38777559041</v>
       </c>
       <c r="C109" t="n">
         <v>0.6055297730148341</v>
@@ -3597,6 +4249,12 @@
       </c>
       <c r="I109" t="n">
         <v>0.9215559915082702</v>
+      </c>
+      <c r="J109" t="n">
+        <v>39.5902484911425</v>
+      </c>
+      <c r="K109" t="n">
+        <v>39.5902484911425</v>
       </c>
     </row>
     <row r="110">
@@ -3604,7 +4262,7 @@
         <v>133.2641448974609</v>
       </c>
       <c r="B110" t="n">
-        <v>66.90723412552366</v>
+        <v>4476.577978327638</v>
       </c>
       <c r="C110" t="n">
         <v>-0.3901795739664332</v>
@@ -3626,6 +4284,12 @@
       </c>
       <c r="I110" t="n">
         <v>0.9507631077120522</v>
+      </c>
+      <c r="J110" t="n">
+        <v>66.90723412552366</v>
+      </c>
+      <c r="K110" t="n">
+        <v>66.90723412552366</v>
       </c>
     </row>
     <row r="111">
@@ -3633,7 +4297,7 @@
         <v>114.6777191162109</v>
       </c>
       <c r="B111" t="n">
-        <v>24.38355972797102</v>
+        <v>594.5579850075301</v>
       </c>
       <c r="C111" t="n">
         <v>0.2733635681562834</v>
@@ -3655,6 +4319,12 @@
       </c>
       <c r="I111" t="n">
         <v>0.5049273285314759</v>
+      </c>
+      <c r="J111" t="n">
+        <v>24.38355972797102</v>
+      </c>
+      <c r="K111" t="n">
+        <v>24.38355972797102</v>
       </c>
     </row>
     <row r="112">
@@ -3662,7 +4332,7 @@
         <v>132.2039947509766</v>
       </c>
       <c r="B112" t="n">
-        <v>35.96095994505561</v>
+        <v>1293.190640169894</v>
       </c>
       <c r="C112" t="n">
         <v>-1.150647829090763</v>
@@ -3684,6 +4354,12 @@
       </c>
       <c r="I112" t="n">
         <v>0.8857663149764384</v>
+      </c>
+      <c r="J112" t="n">
+        <v>35.96095994505561</v>
+      </c>
+      <c r="K112" t="n">
+        <v>35.96095994505561</v>
       </c>
     </row>
     <row r="113">
@@ -3691,7 +4367,7 @@
         <v>136.16552734375</v>
       </c>
       <c r="B113" t="n">
-        <v>65.44383479974357</v>
+        <v>4282.895513296127</v>
       </c>
       <c r="C113" t="n">
         <v>-0.3885514584772206</v>
@@ -3713,6 +4389,12 @@
       </c>
       <c r="I113" t="n">
         <v>0.9543175257623567</v>
+      </c>
+      <c r="J113" t="n">
+        <v>65.44383479974357</v>
+      </c>
+      <c r="K113" t="n">
+        <v>65.44383479974357</v>
       </c>
     </row>
     <row r="114">
@@ -3720,7 +4402,7 @@
         <v>118.937744140625</v>
       </c>
       <c r="B114" t="n">
-        <v>36.59662453268729</v>
+        <v>1339.312927186489</v>
       </c>
       <c r="C114" t="n">
         <v>-0.6455868719900479</v>
@@ -3742,6 +4424,12 @@
       </c>
       <c r="I114" t="n">
         <v>0.7868892131827329</v>
+      </c>
+      <c r="J114" t="n">
+        <v>36.59662453268729</v>
+      </c>
+      <c r="K114" t="n">
+        <v>36.59662453268729</v>
       </c>
     </row>
     <row r="115">
@@ -3749,7 +4437,7 @@
         <v>108.3446807861328</v>
       </c>
       <c r="B115" t="n">
-        <v>47.88444676924734</v>
+        <v>2292.920242396882</v>
       </c>
       <c r="C115" t="n">
         <v>-0.3228578804660027</v>
@@ -3771,6 +4459,12 @@
       </c>
       <c r="I115" t="n">
         <v>0.881461434924163</v>
+      </c>
+      <c r="J115" t="n">
+        <v>47.88444676924734</v>
+      </c>
+      <c r="K115" t="n">
+        <v>47.88444676924734</v>
       </c>
     </row>
     <row r="116">
@@ -3778,7 +4472,7 @@
         <v>128.2145538330078</v>
       </c>
       <c r="B116" t="n">
-        <v>40.38875232877592</v>
+        <v>1631.251314675203</v>
       </c>
       <c r="C116" t="n">
         <v>-1.047902180500202</v>
@@ -3800,6 +4494,12 @@
       </c>
       <c r="I116" t="n">
         <v>0.8673873127724371</v>
+      </c>
+      <c r="J116" t="n">
+        <v>40.38875232877592</v>
+      </c>
+      <c r="K116" t="n">
+        <v>40.38875232877592</v>
       </c>
     </row>
     <row r="117">
@@ -3807,7 +4507,7 @@
         <v>120.7558898925781</v>
       </c>
       <c r="B117" t="n">
-        <v>27.61030863944861</v>
+        <v>762.3291431656107</v>
       </c>
       <c r="C117" t="n">
         <v>-0.2311514362640472</v>
@@ -3829,6 +4529,12 @@
       </c>
       <c r="I117" t="n">
         <v>0.9875601277748174</v>
+      </c>
+      <c r="J117" t="n">
+        <v>27.61030863944861</v>
+      </c>
+      <c r="K117" t="n">
+        <v>27.61030863944861</v>
       </c>
     </row>
     <row r="118">
@@ -3836,7 +4542,7 @@
         <v>226.4340057373047</v>
       </c>
       <c r="B118" t="n">
-        <v>46.17674244892976</v>
+        <v>2132.291543194791</v>
       </c>
       <c r="C118" t="n">
         <v>-2.116111107616641</v>
@@ -3858,6 +4564,12 @@
       </c>
       <c r="I118" t="n">
         <v>0.7728266584966035</v>
+      </c>
+      <c r="J118" t="n">
+        <v>46.17674244892976</v>
+      </c>
+      <c r="K118" t="n">
+        <v>46.17674244892976</v>
       </c>
     </row>
     <row r="119">
@@ -3865,7 +4577,7 @@
         <v>121.9555816650391</v>
       </c>
       <c r="B119" t="n">
-        <v>23.39539437190968</v>
+        <v>547.3444778171834</v>
       </c>
       <c r="C119" t="n">
         <v>1.236736197377535</v>
@@ -3887,6 +4599,12 @@
       </c>
       <c r="I119" t="n">
         <v>0.964569922146053</v>
+      </c>
+      <c r="J119" t="n">
+        <v>23.39539437190968</v>
+      </c>
+      <c r="K119" t="n">
+        <v>23.39539437190968</v>
       </c>
     </row>
     <row r="120">
@@ -3894,7 +4612,7 @@
         <v>128.3351135253906</v>
       </c>
       <c r="B120" t="n">
-        <v>51.658276967938</v>
+        <v>2668.577579296194</v>
       </c>
       <c r="C120" t="n">
         <v>-0.8873126902874048</v>
@@ -3916,6 +4634,12 @@
       </c>
       <c r="I120" t="n">
         <v>0.8950577192950027</v>
+      </c>
+      <c r="J120" t="n">
+        <v>51.658276967938</v>
+      </c>
+      <c r="K120" t="n">
+        <v>51.658276967938</v>
       </c>
     </row>
     <row r="121">
@@ -3923,7 +4647,7 @@
         <v>160.0970458984375</v>
       </c>
       <c r="B121" t="n">
-        <v>55.03803821406584</v>
+        <v>3029.185650452971</v>
       </c>
       <c r="C121" t="n">
         <v>-0.3692122701344188</v>
@@ -3945,6 +4669,12 @@
       </c>
       <c r="I121" t="n">
         <v>0.9159116120793153</v>
+      </c>
+      <c r="J121" t="n">
+        <v>55.03803821406584</v>
+      </c>
+      <c r="K121" t="n">
+        <v>55.03803821406584</v>
       </c>
     </row>
     <row r="122">
@@ -3952,7 +4682,7 @@
         <v>115.7464294433594</v>
       </c>
       <c r="B122" t="n">
-        <v>35.90378092128332</v>
+        <v>1289.081484443508</v>
       </c>
       <c r="C122" t="n">
         <v>-0.465217003061385</v>
@@ -3974,6 +4704,12 @@
       </c>
       <c r="I122" t="n">
         <v>0.9165073598734768</v>
+      </c>
+      <c r="J122" t="n">
+        <v>35.90378092128332</v>
+      </c>
+      <c r="K122" t="n">
+        <v>35.90378092128332</v>
       </c>
     </row>
     <row r="123">
@@ -3981,7 +4717,7 @@
         <v>119.9598083496094</v>
       </c>
       <c r="B123" t="n">
-        <v>26.74377772189767</v>
+        <v>715.2296468382701</v>
       </c>
       <c r="C123" t="n">
         <v>0.623747551946413</v>
@@ -4003,6 +4739,12 @@
       </c>
       <c r="I123" t="n">
         <v>0.8744157343456619</v>
+      </c>
+      <c r="J123" t="n">
+        <v>26.74377772189767</v>
+      </c>
+      <c r="K123" t="n">
+        <v>26.74377772189767</v>
       </c>
     </row>
     <row r="124">
@@ -4010,7 +4752,7 @@
         <v>119.8134002685547</v>
       </c>
       <c r="B124" t="n">
-        <v>52.502291249278</v>
+        <v>2756.490586424014</v>
       </c>
       <c r="C124" t="n">
         <v>-0.4829433344926963</v>
@@ -4032,6 +4774,12 @@
       </c>
       <c r="I124" t="n">
         <v>0.8299711867068517</v>
+      </c>
+      <c r="J124" t="n">
+        <v>52.502291249278</v>
+      </c>
+      <c r="K124" t="n">
+        <v>52.502291249278</v>
       </c>
     </row>
     <row r="125">
@@ -4039,7 +4787,7 @@
         <v>109.8677978515625</v>
       </c>
       <c r="B125" t="n">
-        <v>51.38487317342507</v>
+        <v>2640.40519104898</v>
       </c>
       <c r="C125" t="n">
         <v>-0.3709698057661027</v>
@@ -4061,6 +4809,12 @@
       </c>
       <c r="I125" t="n">
         <v>0.7943498425868261</v>
+      </c>
+      <c r="J125" t="n">
+        <v>51.38487317342507</v>
+      </c>
+      <c r="K125" t="n">
+        <v>51.38487317342507</v>
       </c>
     </row>
     <row r="126">
@@ -4068,7 +4822,7 @@
         <v>220.9768829345703</v>
       </c>
       <c r="B126" t="n">
-        <v>65.94523868539818</v>
+        <v>4348.774505274137</v>
       </c>
       <c r="C126" t="n">
         <v>-1.982119597582422</v>
@@ -4090,6 +4844,12 @@
       </c>
       <c r="I126" t="n">
         <v>0.9064652072772563</v>
+      </c>
+      <c r="J126" t="n">
+        <v>65.94523868539818</v>
+      </c>
+      <c r="K126" t="n">
+        <v>65.94523868539818</v>
       </c>
     </row>
     <row r="127">
@@ -4097,7 +4857,7 @@
         <v>118.9337158203125</v>
       </c>
       <c r="B127" t="n">
-        <v>53.04277530145798</v>
+        <v>2813.536011680961</v>
       </c>
       <c r="C127" t="n">
         <v>-0.211757716044606</v>
@@ -4119,6 +4879,12 @@
       </c>
       <c r="I127" t="n">
         <v>0.8594427705343055</v>
+      </c>
+      <c r="J127" t="n">
+        <v>53.04277530145798</v>
+      </c>
+      <c r="K127" t="n">
+        <v>53.04277530145798</v>
       </c>
     </row>
     <row r="128">
@@ -4126,7 +4892,7 @@
         <v>122.6451110839844</v>
       </c>
       <c r="B128" t="n">
-        <v>44.02604077983749</v>
+        <v>1938.292266747914</v>
       </c>
       <c r="C128" t="n">
         <v>-0.9218632418786711</v>
@@ -4148,6 +4914,12 @@
       </c>
       <c r="I128" t="n">
         <v>0.8162529821935369</v>
+      </c>
+      <c r="J128" t="n">
+        <v>44.02604077983749</v>
+      </c>
+      <c r="K128" t="n">
+        <v>44.02604077983749</v>
       </c>
     </row>
     <row r="129">
@@ -4155,7 +4927,7 @@
         <v>122.0368804931641</v>
       </c>
       <c r="B129" t="n">
-        <v>63.19984152325522</v>
+        <v>3994.219968564576</v>
       </c>
       <c r="C129" t="n">
         <v>-0.4574636451790323</v>
@@ -4177,6 +4949,12 @@
       </c>
       <c r="I129" t="n">
         <v>0.9298175714916211</v>
+      </c>
+      <c r="J129" t="n">
+        <v>63.19984152325522</v>
+      </c>
+      <c r="K129" t="n">
+        <v>63.19984152325522</v>
       </c>
     </row>
     <row r="130">
@@ -4184,7 +4962,7 @@
         <v>125.6588897705078</v>
       </c>
       <c r="B130" t="n">
-        <v>54.9623130659223</v>
+        <v>3020.855857556453</v>
       </c>
       <c r="C130" t="n">
         <v>-0.2767431160156676</v>
@@ -4206,6 +4984,12 @@
       </c>
       <c r="I130" t="n">
         <v>0.9196562043687418</v>
+      </c>
+      <c r="J130" t="n">
+        <v>54.9623130659223</v>
+      </c>
+      <c r="K130" t="n">
+        <v>54.9623130659223</v>
       </c>
     </row>
     <row r="131">
@@ -4213,7 +4997,7 @@
         <v>120.5548095703125</v>
       </c>
       <c r="B131" t="n">
-        <v>38.65509482930504</v>
+        <v>1494.216356262565</v>
       </c>
       <c r="C131" t="n">
         <v>-1.045509613522721</v>
@@ -4235,6 +5019,12 @@
       </c>
       <c r="I131" t="n">
         <v>0.8376238262865011</v>
+      </c>
+      <c r="J131" t="n">
+        <v>38.65509482930504</v>
+      </c>
+      <c r="K131" t="n">
+        <v>38.65509482930504</v>
       </c>
     </row>
     <row r="132">
@@ -4242,7 +5032,7 @@
         <v>117.8211364746094</v>
       </c>
       <c r="B132" t="n">
-        <v>50.5822988800205</v>
+        <v>2558.568959987722</v>
       </c>
       <c r="C132" t="n">
         <v>-0.4548736017831207</v>
@@ -4264,6 +5054,12 @@
       </c>
       <c r="I132" t="n">
         <v>0.7978873064926527</v>
+      </c>
+      <c r="J132" t="n">
+        <v>50.5822988800205</v>
+      </c>
+      <c r="K132" t="n">
+        <v>50.5822988800205</v>
       </c>
     </row>
     <row r="133">
@@ -4271,7 +5067,7 @@
         <v>179.8139495849609</v>
       </c>
       <c r="B133" t="n">
-        <v>33.36025926614761</v>
+        <v>1112.906898304587</v>
       </c>
       <c r="C133" t="n">
         <v>-0.988075985021409</v>
@@ -4293,6 +5089,12 @@
       </c>
       <c r="I133" t="n">
         <v>0.8674261565336333</v>
+      </c>
+      <c r="J133" t="n">
+        <v>33.36025926614761</v>
+      </c>
+      <c r="K133" t="n">
+        <v>33.36025926614761</v>
       </c>
     </row>
     <row r="134">
@@ -4300,7 +5102,7 @@
         <v>122.0315551757812</v>
       </c>
       <c r="B134" t="n">
-        <v>63.21145900031588</v>
+        <v>3995.688548948616</v>
       </c>
       <c r="C134" t="n">
         <v>-0.457801730515104</v>
@@ -4322,6 +5124,12 @@
       </c>
       <c r="I134" t="n">
         <v>0.9298497607070828</v>
+      </c>
+      <c r="J134" t="n">
+        <v>63.21145900031588</v>
+      </c>
+      <c r="K134" t="n">
+        <v>63.21145900031588</v>
       </c>
     </row>
     <row r="135">
@@ -4329,7 +5137,7 @@
         <v>132.1800384521484</v>
       </c>
       <c r="B135" t="n">
-        <v>19.27670406672924</v>
+        <v>371.5913196762558</v>
       </c>
       <c r="C135" t="n">
         <v>0.132859667088802</v>
@@ -4351,6 +5159,12 @@
       </c>
       <c r="I135" t="n">
         <v>0.9671780354285461</v>
+      </c>
+      <c r="J135" t="n">
+        <v>19.27670406672924</v>
+      </c>
+      <c r="K135" t="n">
+        <v>19.27670406672924</v>
       </c>
     </row>
     <row r="136">
@@ -4358,7 +5172,7 @@
         <v>112.9278106689453</v>
       </c>
       <c r="B136" t="n">
-        <v>39.97107670739837</v>
+        <v>1597.686973148724</v>
       </c>
       <c r="C136" t="n">
         <v>-0.8965353546881897</v>
@@ -4380,6 +5194,12 @@
       </c>
       <c r="I136" t="n">
         <v>0.8409357928238133</v>
+      </c>
+      <c r="J136" t="n">
+        <v>39.97107670739837</v>
+      </c>
+      <c r="K136" t="n">
+        <v>39.97107670739837</v>
       </c>
     </row>
     <row r="137">
@@ -4387,7 +5207,7 @@
         <v>102.0725708007812</v>
       </c>
       <c r="B137" t="n">
-        <v>41.93266654724067</v>
+        <v>1758.348523762077</v>
       </c>
       <c r="C137" t="n">
         <v>-0.03500824434617356</v>
@@ -4409,6 +5229,12 @@
       </c>
       <c r="I137" t="n">
         <v>0.8834598726848203</v>
+      </c>
+      <c r="J137" t="n">
+        <v>41.93266654724067</v>
+      </c>
+      <c r="K137" t="n">
+        <v>41.93266654724067</v>
       </c>
     </row>
     <row r="138">
@@ -4416,7 +5242,7 @@
         <v>131.0560607910156</v>
       </c>
       <c r="B138" t="n">
-        <v>45.32297562648422</v>
+        <v>2054.172119638883</v>
       </c>
       <c r="C138" t="n">
         <v>-0.5489088477171932</v>
@@ -4438,6 +5264,12 @@
       </c>
       <c r="I138" t="n">
         <v>0.7897593197110095</v>
+      </c>
+      <c r="J138" t="n">
+        <v>45.32297562648422</v>
+      </c>
+      <c r="K138" t="n">
+        <v>45.32297562648422</v>
       </c>
     </row>
     <row r="139">
@@ -4445,7 +5277,7 @@
         <v>137.7793884277344</v>
       </c>
       <c r="B139" t="n">
-        <v>41.50358113804433</v>
+        <v>1722.547247282229</v>
       </c>
       <c r="C139" t="n">
         <v>-0.543864774015005</v>
@@ -4467,6 +5299,12 @@
       </c>
       <c r="I139" t="n">
         <v>0.7647186348404231</v>
+      </c>
+      <c r="J139" t="n">
+        <v>41.50358113804433</v>
+      </c>
+      <c r="K139" t="n">
+        <v>41.50358113804433</v>
       </c>
     </row>
     <row r="140">
@@ -4474,7 +5312,7 @@
         <v>139.6682434082031</v>
       </c>
       <c r="B140" t="n">
-        <v>46.23819445047959</v>
+        <v>2137.970626040362</v>
       </c>
       <c r="C140" t="n">
         <v>-0.5800720728110837</v>
@@ -4496,6 +5334,12 @@
       </c>
       <c r="I140" t="n">
         <v>0.7407292840887751</v>
+      </c>
+      <c r="J140" t="n">
+        <v>46.23819445047959</v>
+      </c>
+      <c r="K140" t="n">
+        <v>46.23819445047959</v>
       </c>
     </row>
     <row r="141">
@@ -4503,7 +5347,7 @@
         <v>135.0919189453125</v>
       </c>
       <c r="B141" t="n">
-        <v>39.28523651123193</v>
+        <v>1543.32980774343</v>
       </c>
       <c r="C141" t="n">
         <v>-1.054529667158585</v>
@@ -4525,6 +5369,12 @@
       </c>
       <c r="I141" t="n">
         <v>0.8073907173831564</v>
+      </c>
+      <c r="J141" t="n">
+        <v>39.28523651123193</v>
+      </c>
+      <c r="K141" t="n">
+        <v>39.28523651123193</v>
       </c>
     </row>
     <row r="142">
@@ -4532,7 +5382,7 @@
         <v>107.3444213867188</v>
       </c>
       <c r="B142" t="n">
-        <v>51.76426370769111</v>
+        <v>2679.538997199386</v>
       </c>
       <c r="C142" t="n">
         <v>-0.3748175771502336</v>
@@ -4554,6 +5404,12 @@
       </c>
       <c r="I142" t="n">
         <v>0.8283888832958887</v>
+      </c>
+      <c r="J142" t="n">
+        <v>51.76426370769111</v>
+      </c>
+      <c r="K142" t="n">
+        <v>51.76426370769111</v>
       </c>
     </row>
     <row r="143">
@@ -4561,7 +5417,7 @@
         <v>138.0796203613281</v>
       </c>
       <c r="B143" t="n">
-        <v>42.29454744533714</v>
+        <v>1788.828743605874</v>
       </c>
       <c r="C143" t="n">
         <v>-1.141751195711883</v>
@@ -4583,6 +5439,12 @@
       </c>
       <c r="I143" t="n">
         <v>0.8399263102230625</v>
+      </c>
+      <c r="J143" t="n">
+        <v>42.29454744533714</v>
+      </c>
+      <c r="K143" t="n">
+        <v>42.29454744533714</v>
       </c>
     </row>
     <row r="144">
@@ -4590,7 +5452,7 @@
         <v>133.8574371337891</v>
       </c>
       <c r="B144" t="n">
-        <v>43.60367323689687</v>
+        <v>1901.280319750076</v>
       </c>
       <c r="C144" t="n">
         <v>-1.238933677398252</v>
@@ -4612,6 +5474,12 @@
       </c>
       <c r="I144" t="n">
         <v>0.8541166704296844</v>
+      </c>
+      <c r="J144" t="n">
+        <v>43.60367323689687</v>
+      </c>
+      <c r="K144" t="n">
+        <v>43.60367323689687</v>
       </c>
     </row>
     <row r="145">
@@ -4619,7 +5487,7 @@
         <v>175.8133239746094</v>
       </c>
       <c r="B145" t="n">
-        <v>43.52682338192968</v>
+        <v>1894.584353721701</v>
       </c>
       <c r="C145" t="n">
         <v>-0.01446901651492189</v>
@@ -4641,6 +5509,12 @@
       </c>
       <c r="I145" t="n">
         <v>0.7613842556952373</v>
+      </c>
+      <c r="J145" t="n">
+        <v>43.52682338192968</v>
+      </c>
+      <c r="K145" t="n">
+        <v>43.52682338192968</v>
       </c>
     </row>
     <row r="146">
@@ -4648,7 +5522,7 @@
         <v>124.4934234619141</v>
       </c>
       <c r="B146" t="n">
-        <v>58.95150874044308</v>
+        <v>3475.280382774537</v>
       </c>
       <c r="C146" t="n">
         <v>-0.533553174295773</v>
@@ -4670,6 +5544,12 @@
       </c>
       <c r="I146" t="n">
         <v>0.9245527685630123</v>
+      </c>
+      <c r="J146" t="n">
+        <v>58.95150874044308</v>
+      </c>
+      <c r="K146" t="n">
+        <v>58.95150874044308</v>
       </c>
     </row>
     <row r="147">
@@ -4677,7 +5557,7 @@
         <v>118.0326690673828</v>
       </c>
       <c r="B147" t="n">
-        <v>66.78893810845392</v>
+        <v>4460.762253654888</v>
       </c>
       <c r="C147" t="n">
         <v>-0.1826149983551341</v>
@@ -4699,6 +5579,12 @@
       </c>
       <c r="I147" t="n">
         <v>0.9417705487883581</v>
+      </c>
+      <c r="J147" t="n">
+        <v>66.78893810845392</v>
+      </c>
+      <c r="K147" t="n">
+        <v>66.78893810845392</v>
       </c>
     </row>
     <row r="148">
@@ -4706,7 +5592,7 @@
         <v>90.47770690917969</v>
       </c>
       <c r="B148" t="n">
-        <v>36.87128793008959</v>
+        <v>1359.49187362357</v>
       </c>
       <c r="C148" t="n">
         <v>0.1863580725171387</v>
@@ -4728,6 +5614,12 @@
       </c>
       <c r="I148" t="n">
         <v>0.9690186071599444</v>
+      </c>
+      <c r="J148" t="n">
+        <v>36.87128793008959</v>
+      </c>
+      <c r="K148" t="n">
+        <v>36.87128793008959</v>
       </c>
     </row>
     <row r="149">
@@ -4735,7 +5627,7 @@
         <v>96.24334716796875</v>
       </c>
       <c r="B149" t="n">
-        <v>22.44249619965361</v>
+        <v>503.6656356714666</v>
       </c>
       <c r="C149" t="n">
         <v>0.06295826541457827</v>
@@ -4757,6 +5649,12 @@
       </c>
       <c r="I149" t="n">
         <v>0.6304159389638194</v>
+      </c>
+      <c r="J149" t="n">
+        <v>22.44249619965361</v>
+      </c>
+      <c r="K149" t="n">
+        <v>22.44249619965361</v>
       </c>
     </row>
     <row r="150">
@@ -4764,7 +5662,7 @@
         <v>134.5716705322266</v>
       </c>
       <c r="B150" t="n">
-        <v>58.23646478051089</v>
+        <v>3391.485830131685</v>
       </c>
       <c r="C150" t="n">
         <v>0.2969273774556899</v>
@@ -4786,6 +5684,12 @@
       </c>
       <c r="I150" t="n">
         <v>0.9510095397806511</v>
+      </c>
+      <c r="J150" t="n">
+        <v>58.23646478051089</v>
+      </c>
+      <c r="K150" t="n">
+        <v>58.23646478051089</v>
       </c>
     </row>
     <row r="151">
@@ -4793,7 +5697,7 @@
         <v>142.4189605712891</v>
       </c>
       <c r="B151" t="n">
-        <v>32.06249657336815</v>
+        <v>1028.003686517244</v>
       </c>
       <c r="C151" t="n">
         <v>-0.4191047889596213</v>
@@ -4815,6 +5719,12 @@
       </c>
       <c r="I151" t="n">
         <v>0.977268060678941</v>
+      </c>
+      <c r="J151" t="n">
+        <v>32.06249657336815</v>
+      </c>
+      <c r="K151" t="n">
+        <v>32.06249657336815</v>
       </c>
     </row>
     <row r="152">
@@ -4822,7 +5732,7 @@
         <v>154.7189331054688</v>
       </c>
       <c r="B152" t="n">
-        <v>59.3541113476691</v>
+        <v>3522.910533871502</v>
       </c>
       <c r="C152" t="n">
         <v>-0.6299063473240316</v>
@@ -4844,6 +5754,12 @@
       </c>
       <c r="I152" t="n">
         <v>0.9651142401078189</v>
+      </c>
+      <c r="J152" t="n">
+        <v>59.3541113476691</v>
+      </c>
+      <c r="K152" t="n">
+        <v>59.3541113476691</v>
       </c>
     </row>
     <row r="153">
@@ -4851,7 +5767,7 @@
         <v>148.9905090332031</v>
       </c>
       <c r="B153" t="n">
-        <v>37.28159095558238</v>
+        <v>1389.917024179362</v>
       </c>
       <c r="C153" t="n">
         <v>-1.140063691790568</v>
@@ -4873,6 +5789,12 @@
       </c>
       <c r="I153" t="n">
         <v>0.8455245962892918</v>
+      </c>
+      <c r="J153" t="n">
+        <v>37.28159095558238</v>
+      </c>
+      <c r="K153" t="n">
+        <v>37.28159095558238</v>
       </c>
     </row>
     <row r="154">
@@ -4880,7 +5802,7 @@
         <v>137.7925415039062</v>
       </c>
       <c r="B154" t="n">
-        <v>43.46468092683999</v>
+        <v>1889.178488072008</v>
       </c>
       <c r="C154" t="n">
         <v>-1.0141236360706</v>
@@ -4902,6 +5824,12 @@
       </c>
       <c r="I154" t="n">
         <v>0.8805132327353161</v>
+      </c>
+      <c r="J154" t="n">
+        <v>43.46468092683999</v>
+      </c>
+      <c r="K154" t="n">
+        <v>43.46468092683999</v>
       </c>
     </row>
     <row r="155">
@@ -4909,7 +5837,7 @@
         <v>77.57638549804688</v>
       </c>
       <c r="B155" t="n">
-        <v>28.64195785005284</v>
+        <v>820.3617494842038</v>
       </c>
       <c r="C155" t="n">
         <v>0.02448260525379226</v>
@@ -4931,6 +5859,12 @@
       </c>
       <c r="I155" t="n">
         <v>0.9385539522512257</v>
+      </c>
+      <c r="J155" t="n">
+        <v>28.64195785005284</v>
+      </c>
+      <c r="K155" t="n">
+        <v>28.64195785005284</v>
       </c>
     </row>
     <row r="156">
@@ -4938,7 +5872,7 @@
         <v>128.3379821777344</v>
       </c>
       <c r="B156" t="n">
-        <v>68.29455561850861</v>
+        <v>4664.146327129565</v>
       </c>
       <c r="C156" t="n">
         <v>-0.4412047541838953</v>
@@ -4960,6 +5894,12 @@
       </c>
       <c r="I156" t="n">
         <v>0.9251171556108848</v>
+      </c>
+      <c r="J156" t="n">
+        <v>68.29455561850861</v>
+      </c>
+      <c r="K156" t="n">
+        <v>68.29455561850861</v>
       </c>
     </row>
     <row r="157">
@@ -4967,7 +5907,7 @@
         <v>121.6170959472656</v>
       </c>
       <c r="B157" t="n">
-        <v>30.04864307093364</v>
+        <v>902.9209504043683</v>
       </c>
       <c r="C157" t="n">
         <v>-1.167267427732817</v>
@@ -4989,6 +5929,12 @@
       </c>
       <c r="I157" t="n">
         <v>0.895909912651321</v>
+      </c>
+      <c r="J157" t="n">
+        <v>30.04864307093364</v>
+      </c>
+      <c r="K157" t="n">
+        <v>30.04864307093364</v>
       </c>
     </row>
     <row r="158">
@@ -4996,7 +5942,7 @@
         <v>125.7086334228516</v>
       </c>
       <c r="B158" t="n">
-        <v>40.08557080780374</v>
+        <v>1606.852986987447</v>
       </c>
       <c r="C158" t="n">
         <v>-1.015705482569884</v>
@@ -5018,6 +5964,12 @@
       </c>
       <c r="I158" t="n">
         <v>0.7903923360008809</v>
+      </c>
+      <c r="J158" t="n">
+        <v>40.08557080780374</v>
+      </c>
+      <c r="K158" t="n">
+        <v>40.08557080780374</v>
       </c>
     </row>
     <row r="159">
@@ -5025,7 +5977,7 @@
         <v>117.3896636962891</v>
       </c>
       <c r="B159" t="n">
-        <v>39.70713830343028</v>
+        <v>1576.65683224774</v>
       </c>
       <c r="C159" t="n">
         <v>-0.4041078460473885</v>
@@ -5047,6 +5999,12 @@
       </c>
       <c r="I159" t="n">
         <v>0.7527807753481809</v>
+      </c>
+      <c r="J159" t="n">
+        <v>39.70713830343028</v>
+      </c>
+      <c r="K159" t="n">
+        <v>39.70713830343028</v>
       </c>
     </row>
     <row r="160">
@@ -5054,7 +6012,7 @@
         <v>103.5484466552734</v>
       </c>
       <c r="B160" t="n">
-        <v>43.23966515725841</v>
+        <v>1869.668642911827</v>
       </c>
       <c r="C160" t="n">
         <v>-0.0225888438395882</v>
@@ -5076,6 +6034,12 @@
       </c>
       <c r="I160" t="n">
         <v>0.9301615873187888</v>
+      </c>
+      <c r="J160" t="n">
+        <v>43.23966515725841</v>
+      </c>
+      <c r="K160" t="n">
+        <v>43.23966515725841</v>
       </c>
     </row>
     <row r="161">
@@ -5083,7 +6047,7 @@
         <v>135.7333984375</v>
       </c>
       <c r="B161" t="n">
-        <v>54.46696295900816</v>
+        <v>2966.650053977966</v>
       </c>
       <c r="C161" t="n">
         <v>-0.3924348680889754</v>
@@ -5105,6 +6069,12 @@
       </c>
       <c r="I161" t="n">
         <v>0.8070104251645169</v>
+      </c>
+      <c r="J161" t="n">
+        <v>54.46696295900816</v>
+      </c>
+      <c r="K161" t="n">
+        <v>54.46696295900816</v>
       </c>
     </row>
     <row r="162">
@@ -5112,7 +6082,7 @@
         <v>130.1034698486328</v>
       </c>
       <c r="B162" t="n">
-        <v>50.35780928978156</v>
+        <v>2535.90895646601</v>
       </c>
       <c r="C162" t="n">
         <v>-0.7763690737108283</v>
@@ -5134,6 +6104,12 @@
       </c>
       <c r="I162" t="n">
         <v>0.8386316049873398</v>
+      </c>
+      <c r="J162" t="n">
+        <v>50.35780928978156</v>
+      </c>
+      <c r="K162" t="n">
+        <v>50.35780928978156</v>
       </c>
     </row>
     <row r="163">
@@ -5141,7 +6117,7 @@
         <v>117.5079193115234</v>
       </c>
       <c r="B163" t="n">
-        <v>45.13803899415248</v>
+        <v>2037.44256423763</v>
       </c>
       <c r="C163" t="n">
         <v>-0.5604978202385528</v>
@@ -5163,6 +6139,12 @@
       </c>
       <c r="I163" t="n">
         <v>0.7960596944699758</v>
+      </c>
+      <c r="J163" t="n">
+        <v>45.13803899415248</v>
+      </c>
+      <c r="K163" t="n">
+        <v>45.13803899415248</v>
       </c>
     </row>
     <row r="164">
@@ -5170,7 +6152,7 @@
         <v>104.8334197998047</v>
       </c>
       <c r="B164" t="n">
-        <v>53.62028378733522</v>
+        <v>2875.134833434364</v>
       </c>
       <c r="C164" t="n">
         <v>-0.07658298371753432</v>
@@ -5192,6 +6174,12 @@
       </c>
       <c r="I164" t="n">
         <v>0.8686805331084819</v>
+      </c>
+      <c r="J164" t="n">
+        <v>53.62028378733522</v>
+      </c>
+      <c r="K164" t="n">
+        <v>53.62028378733522</v>
       </c>
     </row>
     <row r="165">
@@ -5199,7 +6187,7 @@
         <v>106.2456207275391</v>
       </c>
       <c r="B165" t="n">
-        <v>64.61835936946835</v>
+        <v>4175.532367601758</v>
       </c>
       <c r="C165" t="n">
         <v>-0.07788745006336141</v>
@@ -5221,6 +6209,12 @@
       </c>
       <c r="I165" t="n">
         <v>0.9464986142752507</v>
+      </c>
+      <c r="J165" t="n">
+        <v>64.61835936946835</v>
+      </c>
+      <c r="K165" t="n">
+        <v>64.61835936946835</v>
       </c>
     </row>
     <row r="166">
@@ -5228,7 +6222,7 @@
         <v>108.4017028808594</v>
       </c>
       <c r="B166" t="n">
-        <v>28.43387381637728</v>
+        <v>808.4851802056655</v>
       </c>
       <c r="C166" t="n">
         <v>-0.6127820009642529</v>
@@ -5250,6 +6244,12 @@
       </c>
       <c r="I166" t="n">
         <v>0.9808880749675</v>
+      </c>
+      <c r="J166" t="n">
+        <v>28.43387381637728</v>
+      </c>
+      <c r="K166" t="n">
+        <v>28.43387381637728</v>
       </c>
     </row>
     <row r="167">
@@ -5257,7 +6257,7 @@
         <v>116.2437133789062</v>
       </c>
       <c r="B167" t="n">
-        <v>49.88231869645833</v>
+        <v>2488.245718535036</v>
       </c>
       <c r="C167" t="n">
         <v>-0.2573460808988861</v>
@@ -5279,6 +6279,12 @@
       </c>
       <c r="I167" t="n">
         <v>0.8595363394076055</v>
+      </c>
+      <c r="J167" t="n">
+        <v>49.88231869645833</v>
+      </c>
+      <c r="K167" t="n">
+        <v>49.88231869645833</v>
       </c>
     </row>
     <row r="168">
@@ -5286,7 +6292,7 @@
         <v>108.7491149902344</v>
       </c>
       <c r="B168" t="n">
-        <v>56.30135906044961</v>
+        <v>3169.843032053672</v>
       </c>
       <c r="C168" t="n">
         <v>-0.269400985997773</v>
@@ -5308,6 +6314,12 @@
       </c>
       <c r="I168" t="n">
         <v>0.968426983021671</v>
+      </c>
+      <c r="J168" t="n">
+        <v>56.30135906044961</v>
+      </c>
+      <c r="K168" t="n">
+        <v>56.30135906044961</v>
       </c>
     </row>
     <row r="169">
@@ -5315,7 +6327,7 @@
         <v>132.2042388916016</v>
       </c>
       <c r="B169" t="n">
-        <v>35.96147876623345</v>
+        <v>1293.227955054259</v>
       </c>
       <c r="C169" t="n">
         <v>-1.150799245067483</v>
@@ -5337,6 +6349,12 @@
       </c>
       <c r="I169" t="n">
         <v>0.8857646078701272</v>
+      </c>
+      <c r="J169" t="n">
+        <v>35.96147876623345</v>
+      </c>
+      <c r="K169" t="n">
+        <v>35.96147876623345</v>
       </c>
     </row>
     <row r="170">
@@ -5344,7 +6362,7 @@
         <v>95.12582397460938</v>
       </c>
       <c r="B170" t="n">
-        <v>32.70474271660679</v>
+        <v>1069.600196159445</v>
       </c>
       <c r="C170" t="n">
         <v>0.09818963315539744</v>
@@ -5366,6 +6384,12 @@
       </c>
       <c r="I170" t="n">
         <v>0.9865270197940014</v>
+      </c>
+      <c r="J170" t="n">
+        <v>32.70474271660679</v>
+      </c>
+      <c r="K170" t="n">
+        <v>32.70474271660679</v>
       </c>
     </row>
     <row r="171">
@@ -5373,7 +6397,7 @@
         <v>133.2543792724609</v>
       </c>
       <c r="B171" t="n">
-        <v>36.8966402841374</v>
+        <v>1361.362064257031</v>
       </c>
       <c r="C171" t="n">
         <v>-0.5716246542332398</v>
@@ -5395,6 +6419,12 @@
       </c>
       <c r="I171" t="n">
         <v>0.9399546549353691</v>
+      </c>
+      <c r="J171" t="n">
+        <v>36.8966402841374</v>
+      </c>
+      <c r="K171" t="n">
+        <v>36.8966402841374</v>
       </c>
     </row>
     <row r="172">
@@ -5402,7 +6432,7 @@
         <v>158.5552062988281</v>
       </c>
       <c r="B172" t="n">
-        <v>63.60885688286071</v>
+        <v>4046.086673944257</v>
       </c>
       <c r="C172" t="n">
         <v>-0.4483756225054471</v>
@@ -5424,6 +6454,12 @@
       </c>
       <c r="I172" t="n">
         <v>0.9419826219930351</v>
+      </c>
+      <c r="J172" t="n">
+        <v>63.60885688286071</v>
+      </c>
+      <c r="K172" t="n">
+        <v>63.60885688286071</v>
       </c>
     </row>
     <row r="173">
@@ -5431,7 +6467,7 @@
         <v>122.8860626220703</v>
       </c>
       <c r="B173" t="n">
-        <v>22.60480360094702</v>
+        <v>510.9771458373871</v>
       </c>
       <c r="C173" t="n">
         <v>-0.3275127419394537</v>
@@ -5453,6 +6489,12 @@
       </c>
       <c r="I173" t="n">
         <v>0.8931939007163684</v>
+      </c>
+      <c r="J173" t="n">
+        <v>22.60480360094702</v>
+      </c>
+      <c r="K173" t="n">
+        <v>22.60480360094702</v>
       </c>
     </row>
     <row r="174">
@@ -5460,7 +6502,7 @@
         <v>92.32801818847656</v>
       </c>
       <c r="B174" t="n">
-        <v>37.50726605895773</v>
+        <v>1406.795007217443</v>
       </c>
       <c r="C174" t="n">
         <v>-0.4820428367089151</v>
@@ -5482,6 +6524,12 @@
       </c>
       <c r="I174" t="n">
         <v>0.9524962706002934</v>
+      </c>
+      <c r="J174" t="n">
+        <v>37.50726605895773</v>
+      </c>
+      <c r="K174" t="n">
+        <v>37.50726605895773</v>
       </c>
     </row>
     <row r="175">
@@ -5489,7 +6537,7 @@
         <v>114.7153625488281</v>
       </c>
       <c r="B175" t="n">
-        <v>34.32944788398784</v>
+        <v>1178.510992019437</v>
       </c>
       <c r="C175" t="n">
         <v>0.2263218134934591</v>
@@ -5511,6 +6559,12 @@
       </c>
       <c r="I175" t="n">
         <v>0.9654818603826966</v>
+      </c>
+      <c r="J175" t="n">
+        <v>34.32944788398784</v>
+      </c>
+      <c r="K175" t="n">
+        <v>34.32944788398784</v>
       </c>
     </row>
     <row r="176">
@@ -5518,7 +6572,7 @@
         <v>233.4015502929688</v>
       </c>
       <c r="B176" t="n">
-        <v>47.65777674336088</v>
+        <v>2271.263684120029</v>
       </c>
       <c r="C176" t="n">
         <v>-2.903568219360297</v>
@@ -5540,6 +6594,12 @@
       </c>
       <c r="I176" t="n">
         <v>0.8145434026626244</v>
+      </c>
+      <c r="J176" t="n">
+        <v>47.65777674336088</v>
+      </c>
+      <c r="K176" t="n">
+        <v>47.65777674336088</v>
       </c>
     </row>
     <row r="177">
@@ -5547,7 +6607,7 @@
         <v>124.8999633789062</v>
       </c>
       <c r="B177" t="n">
-        <v>43.00059369762548</v>
+        <v>1849.051058348268</v>
       </c>
       <c r="C177" t="n">
         <v>-0.5317144333607934</v>
@@ -5569,6 +6629,12 @@
       </c>
       <c r="I177" t="n">
         <v>0.812089703281196</v>
+      </c>
+      <c r="J177" t="n">
+        <v>43.00059369762548</v>
+      </c>
+      <c r="K177" t="n">
+        <v>43.00059369762548</v>
       </c>
     </row>
     <row r="178">
@@ -5576,7 +6642,7 @@
         <v>119.2275848388672</v>
       </c>
       <c r="B178" t="n">
-        <v>39.72737573146862</v>
+        <v>1578.264382509282</v>
       </c>
       <c r="C178" t="n">
         <v>-0.8715409499669419</v>
@@ -5598,6 +6664,12 @@
       </c>
       <c r="I178" t="n">
         <v>0.7883370762377734</v>
+      </c>
+      <c r="J178" t="n">
+        <v>39.72737573146862</v>
+      </c>
+      <c r="K178" t="n">
+        <v>39.72737573146862</v>
       </c>
     </row>
     <row r="179">
@@ -5605,7 +6677,7 @@
         <v>211.5799560546875</v>
       </c>
       <c r="B179" t="n">
-        <v>67.31617051344888</v>
+        <v>4531.466812595725</v>
       </c>
       <c r="C179" t="n">
         <v>-1.518547129511024</v>
@@ -5627,6 +6699,12 @@
       </c>
       <c r="I179" t="n">
         <v>0.813196703183088</v>
+      </c>
+      <c r="J179" t="n">
+        <v>67.31617051344888</v>
+      </c>
+      <c r="K179" t="n">
+        <v>67.31617051344888</v>
       </c>
     </row>
     <row r="180">
@@ -5634,7 +6712,7 @@
         <v>108.1464385986328</v>
       </c>
       <c r="B180" t="n">
-        <v>39.46734846271358</v>
+        <v>1557.67159467726</v>
       </c>
       <c r="C180" t="n">
         <v>-0.2073344238031593</v>
@@ -5656,6 +6734,12 @@
       </c>
       <c r="I180" t="n">
         <v>0.6775401681911242</v>
+      </c>
+      <c r="J180" t="n">
+        <v>39.46734846271358</v>
+      </c>
+      <c r="K180" t="n">
+        <v>39.46734846271358</v>
       </c>
     </row>
     <row r="181">
@@ -5663,7 +6747,7 @@
         <v>75.87503051757812</v>
       </c>
       <c r="B181" t="n">
-        <v>51.82455786273074</v>
+        <v>2685.784797667526</v>
       </c>
       <c r="C181" t="n">
         <v>-0.05778387717204655</v>
@@ -5685,6 +6769,12 @@
       </c>
       <c r="I181" t="n">
         <v>0.902429459303293</v>
+      </c>
+      <c r="J181" t="n">
+        <v>51.82455786273074</v>
+      </c>
+      <c r="K181" t="n">
+        <v>51.82455786273074</v>
       </c>
     </row>
     <row r="182">
@@ -5692,7 +6782,7 @@
         <v>119.1020660400391</v>
       </c>
       <c r="B182" t="n">
-        <v>54.63252318651976</v>
+        <v>2984.712589725619</v>
       </c>
       <c r="C182" t="n">
         <v>-0.648959649694654</v>
@@ -5714,6 +6804,12 @@
       </c>
       <c r="I182" t="n">
         <v>0.9287691683828966</v>
+      </c>
+      <c r="J182" t="n">
+        <v>54.63252318651976</v>
+      </c>
+      <c r="K182" t="n">
+        <v>54.63252318651976</v>
       </c>
     </row>
     <row r="183">
@@ -5721,7 +6817,7 @@
         <v>124.4173431396484</v>
       </c>
       <c r="B183" t="n">
-        <v>25.72958253363539</v>
+        <v>662.0114173551556</v>
       </c>
       <c r="C183" t="n">
         <v>0.2048265781389823</v>
@@ -5743,6 +6839,12 @@
       </c>
       <c r="I183" t="n">
         <v>0.8943980863534839</v>
+      </c>
+      <c r="J183" t="n">
+        <v>25.72958253363539</v>
+      </c>
+      <c r="K183" t="n">
+        <v>25.72958253363539</v>
       </c>
     </row>
     <row r="184">
@@ -5750,7 +6852,7 @@
         <v>134.6586608886719</v>
       </c>
       <c r="B184" t="n">
-        <v>50.5371232629932</v>
+        <v>2554.000827698968</v>
       </c>
       <c r="C184" t="n">
         <v>-0.6769558713765764</v>
@@ -5772,6 +6874,12 @@
       </c>
       <c r="I184" t="n">
         <v>0.9196574094604529</v>
+      </c>
+      <c r="J184" t="n">
+        <v>50.5371232629932</v>
+      </c>
+      <c r="K184" t="n">
+        <v>50.5371232629932</v>
       </c>
     </row>
     <row r="185">
@@ -5779,7 +6887,7 @@
         <v>114.9010925292969</v>
       </c>
       <c r="B185" t="n">
-        <v>66.70084641610434</v>
+        <v>4449.002912624739</v>
       </c>
       <c r="C185" t="n">
         <v>-0.001933035519877553</v>
@@ -5801,6 +6909,12 @@
       </c>
       <c r="I185" t="n">
         <v>0.9479976902637631</v>
+      </c>
+      <c r="J185" t="n">
+        <v>66.70084641610434</v>
+      </c>
+      <c r="K185" t="n">
+        <v>66.70084641610434</v>
       </c>
     </row>
     <row r="186">
@@ -5808,7 +6922,7 @@
         <v>105.7556915283203</v>
       </c>
       <c r="B186" t="n">
-        <v>53.43024144568231</v>
+        <v>2854.790700943908</v>
       </c>
       <c r="C186" t="n">
         <v>-0.1011656564922896</v>
@@ -5830,6 +6944,12 @@
       </c>
       <c r="I186" t="n">
         <v>0.825108514437532</v>
+      </c>
+      <c r="J186" t="n">
+        <v>53.43024144568231</v>
+      </c>
+      <c r="K186" t="n">
+        <v>53.43024144568231</v>
       </c>
     </row>
     <row r="187">
@@ -5837,7 +6957,7 @@
         <v>130.1602783203125</v>
       </c>
       <c r="B187" t="n">
-        <v>51.97552889182223</v>
+        <v>2701.455603584647</v>
       </c>
       <c r="C187" t="n">
         <v>-0.8642579189841345</v>
@@ -5859,6 +6979,12 @@
       </c>
       <c r="I187" t="n">
         <v>0.9167808020266087</v>
+      </c>
+      <c r="J187" t="n">
+        <v>51.97552889182223</v>
+      </c>
+      <c r="K187" t="n">
+        <v>51.97552889182223</v>
       </c>
     </row>
     <row r="188">
@@ -5866,7 +6992,7 @@
         <v>120.7330932617188</v>
       </c>
       <c r="B188" t="n">
-        <v>47.57733143890846</v>
+        <v>2263.602466847748</v>
       </c>
       <c r="C188" t="n">
         <v>-0.3335419982313471</v>
@@ -5888,6 +7014,12 @@
       </c>
       <c r="I188" t="n">
         <v>0.7276017128007446</v>
+      </c>
+      <c r="J188" t="n">
+        <v>47.57733143890846</v>
+      </c>
+      <c r="K188" t="n">
+        <v>47.57733143890846</v>
       </c>
     </row>
     <row r="189">
@@ -5895,7 +7027,7 @@
         <v>125.9396209716797</v>
       </c>
       <c r="B189" t="n">
-        <v>43.57486256391131</v>
+        <v>1898.768647463759</v>
       </c>
       <c r="C189" t="n">
         <v>-0.6049541010535093</v>
@@ -5917,6 +7049,12 @@
       </c>
       <c r="I189" t="n">
         <v>0.7242567573887182</v>
+      </c>
+      <c r="J189" t="n">
+        <v>43.57486256391131</v>
+      </c>
+      <c r="K189" t="n">
+        <v>43.57486256391131</v>
       </c>
     </row>
     <row r="190">
@@ -5924,7 +7062,7 @@
         <v>71.33538818359375</v>
       </c>
       <c r="B190" t="n">
-        <v>19.93657246129803</v>
+        <v>397.4669215045869</v>
       </c>
       <c r="C190" t="n">
         <v>0.5366750000752547</v>
@@ -5946,6 +7084,12 @@
       </c>
       <c r="I190" t="n">
         <v>0.7028769621716872</v>
+      </c>
+      <c r="J190" t="n">
+        <v>19.93657246129803</v>
+      </c>
+      <c r="K190" t="n">
+        <v>19.93657246129803</v>
       </c>
     </row>
     <row r="191">
@@ -5953,7 +7097,7 @@
         <v>136.1651153564453</v>
       </c>
       <c r="B191" t="n">
-        <v>65.44273730481775</v>
+        <v>4282.751865947386</v>
       </c>
       <c r="C191" t="n">
         <v>-0.388580071109753</v>
@@ -5975,6 +7119,12 @@
       </c>
       <c r="I191" t="n">
         <v>0.9543315967907474</v>
+      </c>
+      <c r="J191" t="n">
+        <v>65.44273730481775</v>
+      </c>
+      <c r="K191" t="n">
+        <v>65.44273730481775</v>
       </c>
     </row>
     <row r="192">
@@ -5982,7 +7132,7 @@
         <v>91.35343933105469</v>
       </c>
       <c r="B192" t="n">
-        <v>43.53842119962844</v>
+        <v>1895.594120556256</v>
       </c>
       <c r="C192" t="n">
         <v>-0.1949823533946681</v>
@@ -6004,6 +7154,12 @@
       </c>
       <c r="I192" t="n">
         <v>0.9650010042283858</v>
+      </c>
+      <c r="J192" t="n">
+        <v>43.53842119962844</v>
+      </c>
+      <c r="K192" t="n">
+        <v>43.53842119962844</v>
       </c>
     </row>
     <row r="193">
@@ -6011,7 +7167,7 @@
         <v>104.1369476318359</v>
       </c>
       <c r="B193" t="n">
-        <v>51.91627686078223</v>
+        <v>2695.299803085392</v>
       </c>
       <c r="C193" t="n">
         <v>-0.1899566606766222</v>
@@ -6033,6 +7189,12 @@
       </c>
       <c r="I193" t="n">
         <v>0.9773077377261363</v>
+      </c>
+      <c r="J193" t="n">
+        <v>51.91627686078223</v>
+      </c>
+      <c r="K193" t="n">
+        <v>51.91627686078223</v>
       </c>
     </row>
     <row r="194">
@@ -6040,7 +7202,7 @@
         <v>120.2759857177734</v>
       </c>
       <c r="B194" t="n">
-        <v>65.54509030439667</v>
+        <v>4296.158863011515</v>
       </c>
       <c r="C194" t="n">
         <v>-0.2082562198667495</v>
@@ -6062,6 +7224,12 @@
       </c>
       <c r="I194" t="n">
         <v>0.9202126576026221</v>
+      </c>
+      <c r="J194" t="n">
+        <v>65.54509030439667</v>
+      </c>
+      <c r="K194" t="n">
+        <v>65.54509030439667</v>
       </c>
     </row>
     <row r="195">
@@ -6069,7 +7237,7 @@
         <v>112.9579620361328</v>
       </c>
       <c r="B195" t="n">
-        <v>49.15689987622724</v>
+        <v>2416.40080544143</v>
       </c>
       <c r="C195" t="n">
         <v>-0.3227957006532843</v>
@@ -6091,6 +7259,12 @@
       </c>
       <c r="I195" t="n">
         <v>0.8327505729371469</v>
+      </c>
+      <c r="J195" t="n">
+        <v>49.15689987622724</v>
+      </c>
+      <c r="K195" t="n">
+        <v>49.15689987622724</v>
       </c>
     </row>
     <row r="196">
@@ -6098,7 +7272,7 @@
         <v>111.6039733886719</v>
       </c>
       <c r="B196" t="n">
-        <v>36.57453509633395</v>
+        <v>1337.696617512964</v>
       </c>
       <c r="C196" t="n">
         <v>-0.1197083075139805</v>
@@ -6120,6 +7294,12 @@
       </c>
       <c r="I196" t="n">
         <v>0.986876481183682</v>
+      </c>
+      <c r="J196" t="n">
+        <v>36.57453509633395</v>
+      </c>
+      <c r="K196" t="n">
+        <v>36.57453509633395</v>
       </c>
     </row>
     <row r="197">
@@ -6127,7 +7307,7 @@
         <v>243.5422973632812</v>
       </c>
       <c r="B197" t="n">
-        <v>31.63632270897395</v>
+        <v>1000.856914546341</v>
       </c>
       <c r="C197" t="n">
         <v>-4.170113747591951</v>
@@ -6149,6 +7329,12 @@
       </c>
       <c r="I197" t="n">
         <v>0.7766960740776753</v>
+      </c>
+      <c r="J197" t="n">
+        <v>31.63632270897395</v>
+      </c>
+      <c r="K197" t="n">
+        <v>31.63632270897395</v>
       </c>
     </row>
     <row r="198">
@@ -6156,7 +7342,7 @@
         <v>120.0046844482422</v>
       </c>
       <c r="B198" t="n">
-        <v>33.06041563837214</v>
+        <v>1092.991082181921</v>
       </c>
       <c r="C198" t="n">
         <v>-0.08294731703474113</v>
@@ -6178,6 +7364,12 @@
       </c>
       <c r="I198" t="n">
         <v>0.9830749777447442</v>
+      </c>
+      <c r="J198" t="n">
+        <v>33.06041563837214</v>
+      </c>
+      <c r="K198" t="n">
+        <v>33.06041563837214</v>
       </c>
     </row>
     <row r="199">
@@ -6185,7 +7377,7 @@
         <v>121.7923278808594</v>
       </c>
       <c r="B199" t="n">
-        <v>25.37438350209211</v>
+        <v>643.8593381112441</v>
       </c>
       <c r="C199" t="n">
         <v>1.023588030921009</v>
@@ -6207,6 +7399,12 @@
       </c>
       <c r="I199" t="n">
         <v>0.907932196242598</v>
+      </c>
+      <c r="J199" t="n">
+        <v>25.37438350209211</v>
+      </c>
+      <c r="K199" t="n">
+        <v>25.37438350209211</v>
       </c>
     </row>
     <row r="200">
@@ -6214,7 +7412,7 @@
         <v>117.3742828369141</v>
       </c>
       <c r="B200" t="n">
-        <v>55.53507151647</v>
+        <v>3084.144168339437</v>
       </c>
       <c r="C200" t="n">
         <v>-0.3374403195833284</v>
@@ -6236,6 +7434,12 @@
       </c>
       <c r="I200" t="n">
         <v>0.9284293960928095</v>
+      </c>
+      <c r="J200" t="n">
+        <v>55.53507151647</v>
+      </c>
+      <c r="K200" t="n">
+        <v>55.53507151647</v>
       </c>
     </row>
     <row r="201">
@@ -6243,7 +7447,7 @@
         <v>131.6409912109375</v>
       </c>
       <c r="B201" t="n">
-        <v>69.35483998953882</v>
+        <v>4810.093829974532</v>
       </c>
       <c r="C201" t="n">
         <v>-0.1646929675112599</v>
@@ -6265,6 +7469,12 @@
       </c>
       <c r="I201" t="n">
         <v>0.9546318914459706</v>
+      </c>
+      <c r="J201" t="n">
+        <v>69.35483998953882</v>
+      </c>
+      <c r="K201" t="n">
+        <v>69.35483998953882</v>
       </c>
     </row>
     <row r="202">
@@ -6272,7 +7482,7 @@
         <v>111.7645111083984</v>
       </c>
       <c r="B202" t="n">
-        <v>20.10919391396949</v>
+        <v>404.3796798696276</v>
       </c>
       <c r="C202" t="n">
         <v>0.3651148117233342</v>
@@ -6294,6 +7504,12 @@
       </c>
       <c r="I202" t="n">
         <v>0.7024685280463625</v>
+      </c>
+      <c r="J202" t="n">
+        <v>20.10919391396949</v>
+      </c>
+      <c r="K202" t="n">
+        <v>20.10919391396949</v>
       </c>
     </row>
     <row r="203">
@@ -6301,7 +7517,7 @@
         <v>118.9954681396484</v>
       </c>
       <c r="B203" t="n">
-        <v>29.50249241894683</v>
+        <v>870.3970589300152</v>
       </c>
       <c r="C203" t="n">
         <v>-1.119587642245583</v>
@@ -6323,6 +7539,12 @@
       </c>
       <c r="I203" t="n">
         <v>0.5999555165404992</v>
+      </c>
+      <c r="J203" t="n">
+        <v>29.50249241894683</v>
+      </c>
+      <c r="K203" t="n">
+        <v>29.50249241894683</v>
       </c>
     </row>
     <row r="204">
@@ -6330,7 +7552,7 @@
         <v>95.02598571777344</v>
       </c>
       <c r="B204" t="n">
-        <v>53.23820411466541</v>
+        <v>2834.306377354776</v>
       </c>
       <c r="C204" t="n">
         <v>-0.5137199709721112</v>
@@ -6352,6 +7574,12 @@
       </c>
       <c r="I204" t="n">
         <v>0.8931607304908182</v>
+      </c>
+      <c r="J204" t="n">
+        <v>53.23820411466541</v>
+      </c>
+      <c r="K204" t="n">
+        <v>53.23820411466541</v>
       </c>
     </row>
     <row r="205">
@@ -6359,7 +7587,7 @@
         <v>117.0988006591797</v>
       </c>
       <c r="B205" t="n">
-        <v>53.39024792975806</v>
+        <v>2850.518574001035</v>
       </c>
       <c r="C205" t="n">
         <v>-0.421587461102145</v>
@@ -6381,6 +7609,12 @@
       </c>
       <c r="I205" t="n">
         <v>0.7480027478008094</v>
+      </c>
+      <c r="J205" t="n">
+        <v>53.39024792975806</v>
+      </c>
+      <c r="K205" t="n">
+        <v>53.39024792975806</v>
       </c>
     </row>
     <row r="206">
@@ -6388,7 +7622,7 @@
         <v>113.3928985595703</v>
       </c>
       <c r="B206" t="n">
-        <v>46.18212995765775</v>
+        <v>2132.789127425989</v>
       </c>
       <c r="C206" t="n">
         <v>-0.3433794163629861</v>
@@ -6410,6 +7644,12 @@
       </c>
       <c r="I206" t="n">
         <v>0.8095417610230896</v>
+      </c>
+      <c r="J206" t="n">
+        <v>46.18212995765775</v>
+      </c>
+      <c r="K206" t="n">
+        <v>46.18212995765775</v>
       </c>
     </row>
     <row r="207">
@@ -6417,7 +7657,7 @@
         <v>153.2262573242188</v>
       </c>
       <c r="B207" t="n">
-        <v>61.54176748971387</v>
+        <v>3787.389145758003</v>
       </c>
       <c r="C207" t="n">
         <v>-0.463665888767409</v>
@@ -6439,6 +7679,12 @@
       </c>
       <c r="I207" t="n">
         <v>0.9048762279116433</v>
+      </c>
+      <c r="J207" t="n">
+        <v>61.54176748971387</v>
+      </c>
+      <c r="K207" t="n">
+        <v>61.54176748971387</v>
       </c>
     </row>
     <row r="208">
@@ -6446,7 +7692,7 @@
         <v>220.1634674072266</v>
       </c>
       <c r="B208" t="n">
-        <v>36.56352699831061</v>
+        <v>1336.891506556189</v>
       </c>
       <c r="C208" t="n">
         <v>-1.297737852406978</v>
@@ -6468,6 +7714,12 @@
       </c>
       <c r="I208" t="n">
         <v>0.5778097354793147</v>
+      </c>
+      <c r="J208" t="n">
+        <v>36.56352699831061</v>
+      </c>
+      <c r="K208" t="n">
+        <v>36.56352699831061</v>
       </c>
     </row>
     <row r="209">
@@ -6475,7 +7727,7 @@
         <v>117.8557434082031</v>
       </c>
       <c r="B209" t="n">
-        <v>65.50155430449918</v>
+        <v>4290.453616305254</v>
       </c>
       <c r="C209" t="n">
         <v>-0.3284791254552766</v>
@@ -6497,6 +7749,12 @@
       </c>
       <c r="I209" t="n">
         <v>0.9483553731854134</v>
+      </c>
+      <c r="J209" t="n">
+        <v>65.50155430449918</v>
+      </c>
+      <c r="K209" t="n">
+        <v>65.50155430449918</v>
       </c>
     </row>
     <row r="210">
@@ -6504,7 +7762,7 @@
         <v>124.0028381347656</v>
       </c>
       <c r="B210" t="n">
-        <v>22.96732878259641</v>
+        <v>527.4981914078817</v>
       </c>
       <c r="C210" t="n">
         <v>0.3642422394620343</v>
@@ -6526,6 +7784,12 @@
       </c>
       <c r="I210" t="n">
         <v>0.8916551343873942</v>
+      </c>
+      <c r="J210" t="n">
+        <v>22.96732878259641</v>
+      </c>
+      <c r="K210" t="n">
+        <v>22.96732878259641</v>
       </c>
     </row>
     <row r="211">
@@ -6533,7 +7797,7 @@
         <v>97.22482299804688</v>
       </c>
       <c r="B211" t="n">
-        <v>58.89763793586494</v>
+        <v>3468.931754424237</v>
       </c>
       <c r="C211" t="n">
         <v>-0.3929179175192815</v>
@@ -6555,6 +7819,12 @@
       </c>
       <c r="I211" t="n">
         <v>0.8629201284529516</v>
+      </c>
+      <c r="J211" t="n">
+        <v>58.89763793586494</v>
+      </c>
+      <c r="K211" t="n">
+        <v>58.89763793586494</v>
       </c>
     </row>
     <row r="212">
@@ -6562,7 +7832,7 @@
         <v>119.9588165283203</v>
       </c>
       <c r="B212" t="n">
-        <v>26.74424834286038</v>
+        <v>715.2548194245901</v>
       </c>
       <c r="C212" t="n">
         <v>0.6233446989920806</v>
@@ -6584,6 +7854,12 @@
       </c>
       <c r="I212" t="n">
         <v>0.8744238995149581</v>
+      </c>
+      <c r="J212" t="n">
+        <v>26.74424834286038</v>
+      </c>
+      <c r="K212" t="n">
+        <v>26.74424834286038</v>
       </c>
     </row>
     <row r="213">
@@ -6591,7 +7867,7 @@
         <v>112.1708984375</v>
       </c>
       <c r="B213" t="n">
-        <v>44.97617606957319</v>
+        <v>2022.856413841248</v>
       </c>
       <c r="C213" t="n">
         <v>-0.4553922936138045</v>
@@ -6613,6 +7889,12 @@
       </c>
       <c r="I213" t="n">
         <v>0.8460786977727547</v>
+      </c>
+      <c r="J213" t="n">
+        <v>44.97617606957319</v>
+      </c>
+      <c r="K213" t="n">
+        <v>44.97617606957319</v>
       </c>
     </row>
     <row r="214">
@@ -6620,7 +7902,7 @@
         <v>126.0409545898438</v>
       </c>
       <c r="B214" t="n">
-        <v>51.21803650230315</v>
+        <v>2623.287263151258</v>
       </c>
       <c r="C214" t="n">
         <v>-0.4368795772827382</v>
@@ -6642,6 +7924,12 @@
       </c>
       <c r="I214" t="n">
         <v>0.6418260887034349</v>
+      </c>
+      <c r="J214" t="n">
+        <v>51.21803650230315</v>
+      </c>
+      <c r="K214" t="n">
+        <v>51.21803650230315</v>
       </c>
     </row>
     <row r="215">
@@ -6649,7 +7937,7 @@
         <v>121.5929870605469</v>
       </c>
       <c r="B215" t="n">
-        <v>27.46845762320095</v>
+        <v>754.5161641975865</v>
       </c>
       <c r="C215" t="n">
         <v>0.280055090969011</v>
@@ -6671,6 +7959,12 @@
       </c>
       <c r="I215" t="n">
         <v>0.9153465651679477</v>
+      </c>
+      <c r="J215" t="n">
+        <v>27.46845762320095</v>
+      </c>
+      <c r="K215" t="n">
+        <v>27.46845762320095</v>
       </c>
     </row>
     <row r="216">
@@ -6678,7 +7972,7 @@
         <v>118.8487548828125</v>
       </c>
       <c r="B216" t="n">
-        <v>49.03449123052867</v>
+        <v>2404.381330236793</v>
       </c>
       <c r="C216" t="n">
         <v>-0.3968581544685085</v>
@@ -6700,6 +7994,12 @@
       </c>
       <c r="I216" t="n">
         <v>0.8164590048772986</v>
+      </c>
+      <c r="J216" t="n">
+        <v>49.03449123052867</v>
+      </c>
+      <c r="K216" t="n">
+        <v>49.03449123052867</v>
       </c>
     </row>
     <row r="217">
@@ -6707,7 +8007,7 @@
         <v>82.777099609375</v>
       </c>
       <c r="B217" t="n">
-        <v>54.20862289910187</v>
+        <v>2938.574796617031</v>
       </c>
       <c r="C217" t="n">
         <v>-0.06712778385122309</v>
@@ -6729,6 +8029,12 @@
       </c>
       <c r="I217" t="n">
         <v>0.8577720439460385</v>
+      </c>
+      <c r="J217" t="n">
+        <v>54.20862289910187</v>
+      </c>
+      <c r="K217" t="n">
+        <v>54.20862289910187</v>
       </c>
     </row>
     <row r="218">
@@ -6736,7 +8042,7 @@
         <v>134.5715942382812</v>
       </c>
       <c r="B218" t="n">
-        <v>58.23715842218967</v>
+        <v>3391.566621091217</v>
       </c>
       <c r="C218" t="n">
         <v>0.2969756325955816</v>
@@ -6758,6 +8064,12 @@
       </c>
       <c r="I218" t="n">
         <v>0.9510108699589619</v>
+      </c>
+      <c r="J218" t="n">
+        <v>58.23715842218967</v>
+      </c>
+      <c r="K218" t="n">
+        <v>58.23715842218967</v>
       </c>
     </row>
     <row r="219">
@@ -6765,7 +8077,7 @@
         <v>95.77033996582031</v>
       </c>
       <c r="B219" t="n">
-        <v>22.4515063035205</v>
+        <v>504.0701352970209</v>
       </c>
       <c r="C219" t="n">
         <v>0.5841360767483657</v>
@@ -6787,6 +8099,12 @@
       </c>
       <c r="I219" t="n">
         <v>0.5022759438491231</v>
+      </c>
+      <c r="J219" t="n">
+        <v>22.4515063035205</v>
+      </c>
+      <c r="K219" t="n">
+        <v>22.4515063035205</v>
       </c>
     </row>
     <row r="220">
@@ -6794,7 +8112,7 @@
         <v>85.37199401855469</v>
       </c>
       <c r="B220" t="n">
-        <v>43.67931688288443</v>
+        <v>1907.882723355433</v>
       </c>
       <c r="C220" t="n">
         <v>-0.1333269601463088</v>
@@ -6816,6 +8134,12 @@
       </c>
       <c r="I220" t="n">
         <v>0.9841055830034185</v>
+      </c>
+      <c r="J220" t="n">
+        <v>43.67931688288443</v>
+      </c>
+      <c r="K220" t="n">
+        <v>43.67931688288443</v>
       </c>
     </row>
     <row r="221">
@@ -6823,7 +8147,7 @@
         <v>128.7670745849609</v>
       </c>
       <c r="B221" t="n">
-        <v>47.4711083163154</v>
+        <v>2253.506124779349</v>
       </c>
       <c r="C221" t="n">
         <v>-0.452794966312086</v>
@@ -6845,6 +8169,12 @@
       </c>
       <c r="I221" t="n">
         <v>0.6067172103320077</v>
+      </c>
+      <c r="J221" t="n">
+        <v>47.4711083163154</v>
+      </c>
+      <c r="K221" t="n">
+        <v>47.4711083163154</v>
       </c>
     </row>
     <row r="222">
@@ -6852,7 +8182,7 @@
         <v>134.0400238037109</v>
       </c>
       <c r="B222" t="n">
-        <v>40.37980392128116</v>
+        <v>1630.528564721113</v>
       </c>
       <c r="C222" t="n">
         <v>-0.9593746646410427</v>
@@ -6874,6 +8204,12 @@
       </c>
       <c r="I222" t="n">
         <v>0.8569309589427707</v>
+      </c>
+      <c r="J222" t="n">
+        <v>40.37980392128116</v>
+      </c>
+      <c r="K222" t="n">
+        <v>40.37980392128116</v>
       </c>
     </row>
     <row r="223">
@@ -6881,7 +8217,7 @@
         <v>116.5130767822266</v>
       </c>
       <c r="B223" t="n">
-        <v>50.28752819377349</v>
+        <v>2528.835491839563</v>
       </c>
       <c r="C223" t="n">
         <v>-0.341062401682252</v>
@@ -6903,6 +8239,12 @@
       </c>
       <c r="I223" t="n">
         <v>0.8068298293392812</v>
+      </c>
+      <c r="J223" t="n">
+        <v>50.28752819377349</v>
+      </c>
+      <c r="K223" t="n">
+        <v>50.28752819377349</v>
       </c>
     </row>
     <row r="224">
@@ -6910,7 +8252,7 @@
         <v>118.4651641845703</v>
       </c>
       <c r="B224" t="n">
-        <v>46.2369905012897</v>
+        <v>2137.859290616354</v>
       </c>
       <c r="C224" t="n">
         <v>-0.36559240651512</v>
@@ -6932,6 +8274,12 @@
       </c>
       <c r="I224" t="n">
         <v>0.7368404326260016</v>
+      </c>
+      <c r="J224" t="n">
+        <v>46.2369905012897</v>
+      </c>
+      <c r="K224" t="n">
+        <v>46.2369905012897</v>
       </c>
     </row>
     <row r="225">
@@ -6939,7 +8287,7 @@
         <v>105.4507141113281</v>
       </c>
       <c r="B225" t="n">
-        <v>33.59315515611155</v>
+        <v>1128.500073342584</v>
       </c>
       <c r="C225" t="n">
         <v>-0.05157371128601657</v>
@@ -6961,6 +8309,12 @@
       </c>
       <c r="I225" t="n">
         <v>0.9779601028940496</v>
+      </c>
+      <c r="J225" t="n">
+        <v>33.59315515611155</v>
+      </c>
+      <c r="K225" t="n">
+        <v>33.59315515611155</v>
       </c>
     </row>
     <row r="226">
@@ -6968,7 +8322,7 @@
         <v>130.4748992919922</v>
       </c>
       <c r="B226" t="n">
-        <v>40.26527384321757</v>
+        <v>1621.292277669301</v>
       </c>
       <c r="C226" t="n">
         <v>-1.068007913175295</v>
@@ -6990,6 +8344,12 @@
       </c>
       <c r="I226" t="n">
         <v>0.8634499165145672</v>
+      </c>
+      <c r="J226" t="n">
+        <v>40.26527384321757</v>
+      </c>
+      <c r="K226" t="n">
+        <v>40.26527384321757</v>
       </c>
     </row>
     <row r="227">
@@ -6997,7 +8357,7 @@
         <v>118.5730133056641</v>
       </c>
       <c r="B227" t="n">
-        <v>55.59285009384926</v>
+        <v>3090.564981557196</v>
       </c>
       <c r="C227" t="n">
         <v>-0.06642924596019877</v>
@@ -7019,6 +8379,12 @@
       </c>
       <c r="I227" t="n">
         <v>0.8971172933706482</v>
+      </c>
+      <c r="J227" t="n">
+        <v>55.59285009384926</v>
+      </c>
+      <c r="K227" t="n">
+        <v>55.59285009384926</v>
       </c>
     </row>
     <row r="228">
@@ -7026,7 +8392,7 @@
         <v>123.7147979736328</v>
       </c>
       <c r="B228" t="n">
-        <v>51.66337763008612</v>
+        <v>2669.104588148883</v>
       </c>
       <c r="C228" t="n">
         <v>-0.4293274088646164</v>
@@ -7048,6 +8414,12 @@
       </c>
       <c r="I228" t="n">
         <v>0.7797785636693596</v>
+      </c>
+      <c r="J228" t="n">
+        <v>51.66337763008612</v>
+      </c>
+      <c r="K228" t="n">
+        <v>51.66337763008612</v>
       </c>
     </row>
     <row r="229">
@@ -7055,7 +8427,7 @@
         <v>169.6780090332031</v>
       </c>
       <c r="B229" t="n">
-        <v>38.84556507274939</v>
+        <v>1508.977925821207</v>
       </c>
       <c r="C229" t="n">
         <v>-1.35719143476392</v>
@@ -7077,6 +8449,12 @@
       </c>
       <c r="I229" t="n">
         <v>0.6994118453475274</v>
+      </c>
+      <c r="J229" t="n">
+        <v>38.84556507274939</v>
+      </c>
+      <c r="K229" t="n">
+        <v>38.84556507274939</v>
       </c>
     </row>
     <row r="230">
@@ -7084,7 +8462,7 @@
         <v>127.0076599121094</v>
       </c>
       <c r="B230" t="n">
-        <v>65.97801468330459</v>
+        <v>4353.098421550356</v>
       </c>
       <c r="C230" t="n">
         <v>-0.3663587197915989</v>
@@ -7106,6 +8484,12 @@
       </c>
       <c r="I230" t="n">
         <v>0.9466660338087336</v>
+      </c>
+      <c r="J230" t="n">
+        <v>65.97801468330459</v>
+      </c>
+      <c r="K230" t="n">
+        <v>65.97801468330459</v>
       </c>
     </row>
     <row r="231">
@@ -7113,7 +8497,7 @@
         <v>104.4098205566406</v>
       </c>
       <c r="B231" t="n">
-        <v>35.68400896880792</v>
+        <v>1273.348496085964</v>
       </c>
       <c r="C231" t="n">
         <v>-0.4268441913194856</v>
@@ -7135,6 +8519,12 @@
       </c>
       <c r="I231" t="n">
         <v>0.9443523522347994</v>
+      </c>
+      <c r="J231" t="n">
+        <v>35.68400896880792</v>
+      </c>
+      <c r="K231" t="n">
+        <v>35.68400896880792</v>
       </c>
     </row>
     <row r="232">
@@ -7142,7 +8532,7 @@
         <v>117.3741912841797</v>
       </c>
       <c r="B232" t="n">
-        <v>55.53602966204961</v>
+        <v>3084.250590624055</v>
       </c>
       <c r="C232" t="n">
         <v>-0.3374179399368835</v>
@@ -7164,6 +8554,12 @@
       </c>
       <c r="I232" t="n">
         <v>0.9284178230573352</v>
+      </c>
+      <c r="J232" t="n">
+        <v>55.53602966204961</v>
+      </c>
+      <c r="K232" t="n">
+        <v>55.53602966204961</v>
       </c>
     </row>
     <row r="233">
@@ -7171,7 +8567,7 @@
         <v>106.6172027587891</v>
       </c>
       <c r="B233" t="n">
-        <v>21.63550529100085</v>
+        <v>468.095089196926</v>
       </c>
       <c r="C233" t="n">
         <v>0.3047171741921512</v>
@@ -7193,6 +8589,12 @@
       </c>
       <c r="I233" t="n">
         <v>0.7614418453243748</v>
+      </c>
+      <c r="J233" t="n">
+        <v>21.63550529100085</v>
+      </c>
+      <c r="K233" t="n">
+        <v>21.63550529100085</v>
       </c>
     </row>
     <row r="234">
@@ -7200,7 +8602,7 @@
         <v>105.1029968261719</v>
       </c>
       <c r="B234" t="n">
-        <v>45.65756856950652</v>
+        <v>2084.613567679189</v>
       </c>
       <c r="C234" t="n">
         <v>-0.1753266508070324</v>
@@ -7222,6 +8624,12 @@
       </c>
       <c r="I234" t="n">
         <v>0.820395353253735</v>
+      </c>
+      <c r="J234" t="n">
+        <v>45.65756856950652</v>
+      </c>
+      <c r="K234" t="n">
+        <v>45.65756856950652</v>
       </c>
     </row>
     <row r="235">
@@ -7229,7 +8637,7 @@
         <v>106.9674224853516</v>
       </c>
       <c r="B235" t="n">
-        <v>25.43843079070002</v>
+        <v>647.1137610932346</v>
       </c>
       <c r="C235" t="n">
         <v>-0.5085636619269234</v>
@@ -7251,6 +8659,12 @@
       </c>
       <c r="I235" t="n">
         <v>0.9857126176727689</v>
+      </c>
+      <c r="J235" t="n">
+        <v>25.43843079070002</v>
+      </c>
+      <c r="K235" t="n">
+        <v>25.43843079070002</v>
       </c>
     </row>
     <row r="236">
@@ -7258,7 +8672,7 @@
         <v>115.7660217285156</v>
       </c>
       <c r="B236" t="n">
-        <v>32.04991028895091</v>
+        <v>1027.196749529801</v>
       </c>
       <c r="C236" t="n">
         <v>-0.4282622042895426</v>
@@ -7280,6 +8694,12 @@
       </c>
       <c r="I236" t="n">
         <v>0.9917906689151236</v>
+      </c>
+      <c r="J236" t="n">
+        <v>32.04991028895091</v>
+      </c>
+      <c r="K236" t="n">
+        <v>32.04991028895091</v>
       </c>
     </row>
     <row r="237">
@@ -7287,7 +8707,7 @@
         <v>122.0405426025391</v>
       </c>
       <c r="B237" t="n">
-        <v>38.36019985395625</v>
+        <v>1471.504932835465</v>
       </c>
       <c r="C237" t="n">
         <v>0.5813990841408538</v>
@@ -7309,6 +8729,12 @@
       </c>
       <c r="I237" t="n">
         <v>0.9763004140469378</v>
+      </c>
+      <c r="J237" t="n">
+        <v>38.36019985395625</v>
+      </c>
+      <c r="K237" t="n">
+        <v>38.36019985395625</v>
       </c>
     </row>
     <row r="238">
@@ -7316,7 +8742,7 @@
         <v>115.9376220703125</v>
       </c>
       <c r="B238" t="n">
-        <v>33.44674252534001</v>
+        <v>1118.684585556388</v>
       </c>
       <c r="C238" t="n">
         <v>-0.529552401698668</v>
@@ -7338,6 +8764,12 @@
       </c>
       <c r="I238" t="n">
         <v>0.9266823977907149</v>
+      </c>
+      <c r="J238" t="n">
+        <v>33.44674252534001</v>
+      </c>
+      <c r="K238" t="n">
+        <v>33.44674252534001</v>
       </c>
     </row>
     <row r="239">
@@ -7345,7 +8777,7 @@
         <v>98.44174194335938</v>
       </c>
       <c r="B239" t="n">
-        <v>28.48838424100073</v>
+        <v>811.588036662899</v>
       </c>
       <c r="C239" t="n">
         <v>-0.5569925906721944</v>
@@ -7367,6 +8799,12 @@
       </c>
       <c r="I239" t="n">
         <v>0.9402278444166022</v>
+      </c>
+      <c r="J239" t="n">
+        <v>28.48838424100073</v>
+      </c>
+      <c r="K239" t="n">
+        <v>28.48838424100073</v>
       </c>
     </row>
     <row r="240">
@@ -7374,7 +8812,7 @@
         <v>228.6396484375</v>
       </c>
       <c r="B240" t="n">
-        <v>48.74906097877118</v>
+        <v>2376.470946311951</v>
       </c>
       <c r="C240" t="n">
         <v>-2.528664680620037</v>
@@ -7396,6 +8834,12 @@
       </c>
       <c r="I240" t="n">
         <v>0.8482742892985961</v>
+      </c>
+      <c r="J240" t="n">
+        <v>48.74906097877118</v>
+      </c>
+      <c r="K240" t="n">
+        <v>48.74906097877118</v>
       </c>
     </row>
     <row r="241">
@@ -7403,7 +8847,7 @@
         <v>121.1468658447266</v>
       </c>
       <c r="B241" t="n">
-        <v>47.22046225209557</v>
+        <v>2229.772055301582</v>
       </c>
       <c r="C241" t="n">
         <v>-0.5015806328020079</v>
@@ -7425,6 +8869,12 @@
       </c>
       <c r="I241" t="n">
         <v>0.8854745282573347</v>
+      </c>
+      <c r="J241" t="n">
+        <v>47.22046225209557</v>
+      </c>
+      <c r="K241" t="n">
+        <v>47.22046225209557</v>
       </c>
     </row>
     <row r="242">
@@ -7432,7 +8882,7 @@
         <v>114.7351379394531</v>
       </c>
       <c r="B242" t="n">
-        <v>16.43984308374565</v>
+        <v>270.2684406181797</v>
       </c>
       <c r="C242" t="n">
         <v>0.5166066156598546</v>
@@ -7454,6 +8904,12 @@
       </c>
       <c r="I242" t="n">
         <v>0.9314438172695028</v>
+      </c>
+      <c r="J242" t="n">
+        <v>16.43984308374565</v>
+      </c>
+      <c r="K242" t="n">
+        <v>16.43984308374565</v>
       </c>
     </row>
     <row r="243">
@@ -7461,7 +8917,7 @@
         <v>113.9803161621094</v>
       </c>
       <c r="B243" t="n">
-        <v>19.98473485425722</v>
+        <v>399.3896271949634</v>
       </c>
       <c r="C243" t="n">
         <v>0.2251623486990911</v>
@@ -7483,6 +8939,12 @@
       </c>
       <c r="I243" t="n">
         <v>0.791799046975399</v>
+      </c>
+      <c r="J243" t="n">
+        <v>19.98473485425722</v>
+      </c>
+      <c r="K243" t="n">
+        <v>19.98473485425722</v>
       </c>
     </row>
     <row r="244">
@@ -7490,7 +8952,7 @@
         <v>97.27890014648438</v>
       </c>
       <c r="B244" t="n">
-        <v>46.88015926410887</v>
+        <v>2197.749332628213</v>
       </c>
       <c r="C244" t="n">
         <v>0.1020758517661527</v>
@@ -7512,6 +8974,12 @@
       </c>
       <c r="I244" t="n">
         <v>0.6470666482391582</v>
+      </c>
+      <c r="J244" t="n">
+        <v>46.88015926410887</v>
+      </c>
+      <c r="K244" t="n">
+        <v>46.88015926410887</v>
       </c>
     </row>
     <row r="245">
@@ -7519,7 +8987,7 @@
         <v>128.8579254150391</v>
       </c>
       <c r="B245" t="n">
-        <v>43.57815373724854</v>
+        <v>1899.055483147269</v>
       </c>
       <c r="C245" t="n">
         <v>-0.5251042615628809</v>
@@ -7541,6 +9009,12 @@
       </c>
       <c r="I245" t="n">
         <v>0.8193082513793442</v>
+      </c>
+      <c r="J245" t="n">
+        <v>43.57815373724854</v>
+      </c>
+      <c r="K245" t="n">
+        <v>43.57815373724854</v>
       </c>
     </row>
     <row r="246">
@@ -7548,7 +9022,7 @@
         <v>109.6230316162109</v>
       </c>
       <c r="B246" t="n">
-        <v>59.61162527443858</v>
+        <v>3553.545867860084</v>
       </c>
       <c r="C246" t="n">
         <v>-0.287727092755968</v>
@@ -7570,6 +9044,12 @@
       </c>
       <c r="I246" t="n">
         <v>0.8865246203413987</v>
+      </c>
+      <c r="J246" t="n">
+        <v>59.61162527443858</v>
+      </c>
+      <c r="K246" t="n">
+        <v>59.61162527443858</v>
       </c>
     </row>
     <row r="247">
@@ -7577,7 +9057,7 @@
         <v>110.7553558349609</v>
       </c>
       <c r="B247" t="n">
-        <v>40.4784097688042</v>
+        <v>1638.501657411223</v>
       </c>
       <c r="C247" t="n">
         <v>-0.1297900238200182</v>
@@ -7599,6 +9079,12 @@
       </c>
       <c r="I247" t="n">
         <v>0.9241900880194416</v>
+      </c>
+      <c r="J247" t="n">
+        <v>40.4784097688042</v>
+      </c>
+      <c r="K247" t="n">
+        <v>40.4784097688042</v>
       </c>
     </row>
     <row r="248">
@@ -7606,7 +9092,7 @@
         <v>105.7565307617188</v>
       </c>
       <c r="B248" t="n">
-        <v>53.42968281707403</v>
+        <v>2854.731005933136</v>
       </c>
       <c r="C248" t="n">
         <v>-0.1012113628524497</v>
@@ -7628,6 +9114,12 @@
       </c>
       <c r="I248" t="n">
         <v>0.8251184118613296</v>
+      </c>
+      <c r="J248" t="n">
+        <v>53.42968281707403</v>
+      </c>
+      <c r="K248" t="n">
+        <v>53.42968281707403</v>
       </c>
     </row>
     <row r="249">
@@ -7635,7 +9127,7 @@
         <v>112.7283477783203</v>
       </c>
       <c r="B249" t="n">
-        <v>51.57966877628658</v>
+        <v>2660.462231071433</v>
       </c>
       <c r="C249" t="n">
         <v>-0.4848663703372488</v>
@@ -7657,6 +9149,12 @@
       </c>
       <c r="I249" t="n">
         <v>0.7878787264227862</v>
+      </c>
+      <c r="J249" t="n">
+        <v>51.57966877628658</v>
+      </c>
+      <c r="K249" t="n">
+        <v>51.57966877628658</v>
       </c>
     </row>
     <row r="250">
@@ -7664,7 +9162,7 @@
         <v>120.7281341552734</v>
       </c>
       <c r="B250" t="n">
-        <v>48.8879657012122</v>
+        <v>2390.033190402901</v>
       </c>
       <c r="C250" t="n">
         <v>-0.3337609555817202</v>
@@ -7686,6 +9184,12 @@
       </c>
       <c r="I250" t="n">
         <v>0.7863909732157098</v>
+      </c>
+      <c r="J250" t="n">
+        <v>48.8879657012122</v>
+      </c>
+      <c r="K250" t="n">
+        <v>48.8879657012122</v>
       </c>
     </row>
     <row r="251">
@@ -7693,7 +9197,7 @@
         <v>124.7920227050781</v>
       </c>
       <c r="B251" t="n">
-        <v>41.62633968536084</v>
+        <v>1732.752155601047</v>
       </c>
       <c r="C251" t="n">
         <v>-0.5989178941201787</v>
@@ -7715,6 +9219,12 @@
       </c>
       <c r="I251" t="n">
         <v>0.7391500804313804</v>
+      </c>
+      <c r="J251" t="n">
+        <v>41.62633968536084</v>
+      </c>
+      <c r="K251" t="n">
+        <v>41.62633968536084</v>
       </c>
     </row>
     <row r="252">
@@ -7722,7 +9232,7 @@
         <v>109.9269561767578</v>
       </c>
       <c r="B252" t="n">
-        <v>34.2561838933761</v>
+        <v>1173.4861349368</v>
       </c>
       <c r="C252" t="n">
         <v>0.2617980741732401</v>
@@ -7744,6 +9254,12 @@
       </c>
       <c r="I252" t="n">
         <v>0.9795979677554066</v>
+      </c>
+      <c r="J252" t="n">
+        <v>34.2561838933761</v>
+      </c>
+      <c r="K252" t="n">
+        <v>34.2561838933761</v>
       </c>
     </row>
     <row r="253">
@@ -7751,7 +9267,7 @@
         <v>125.4380950927734</v>
       </c>
       <c r="B253" t="n">
-        <v>52.21693226058277</v>
+        <v>2726.608014706289</v>
       </c>
       <c r="C253" t="n">
         <v>-0.4656702678811029</v>
@@ -7773,6 +9289,12 @@
       </c>
       <c r="I253" t="n">
         <v>0.8501994396581948</v>
+      </c>
+      <c r="J253" t="n">
+        <v>52.21693226058277</v>
+      </c>
+      <c r="K253" t="n">
+        <v>52.21693226058277</v>
       </c>
     </row>
     <row r="254">
@@ -7780,7 +9302,7 @@
         <v>130.7971954345703</v>
       </c>
       <c r="B254" t="n">
-        <v>53.47445061864093</v>
+        <v>2859.516868965467</v>
       </c>
       <c r="C254" t="n">
         <v>-0.5901372950220964</v>
@@ -7802,6 +9324,12 @@
       </c>
       <c r="I254" t="n">
         <v>0.8658413365607974</v>
+      </c>
+      <c r="J254" t="n">
+        <v>53.47445061864093</v>
+      </c>
+      <c r="K254" t="n">
+        <v>53.47445061864093</v>
       </c>
     </row>
     <row r="255">
@@ -7809,7 +9337,7 @@
         <v>117.8520202636719</v>
       </c>
       <c r="B255" t="n">
-        <v>65.50645227378473</v>
+        <v>4291.095289497636</v>
       </c>
       <c r="C255" t="n">
         <v>-0.3284999173823177</v>
@@ -7831,6 +9359,12 @@
       </c>
       <c r="I255" t="n">
         <v>0.948367940387091</v>
+      </c>
+      <c r="J255" t="n">
+        <v>65.50645227378473</v>
+      </c>
+      <c r="K255" t="n">
+        <v>65.50645227378473</v>
       </c>
     </row>
     <row r="256">
@@ -7838,7 +9372,7 @@
         <v>151.0763092041016</v>
       </c>
       <c r="B256" t="n">
-        <v>46.07729701354361</v>
+        <v>2123.117300074315</v>
       </c>
       <c r="C256" t="n">
         <v>-1.024609566726225</v>
@@ -7860,6 +9394,12 @@
       </c>
       <c r="I256" t="n">
         <v>0.8580421683289473</v>
+      </c>
+      <c r="J256" t="n">
+        <v>46.07729701354361</v>
+      </c>
+      <c r="K256" t="n">
+        <v>46.07729701354361</v>
       </c>
     </row>
     <row r="257">
@@ -7867,7 +9407,7 @@
         <v>128.2571411132812</v>
       </c>
       <c r="B257" t="n">
-        <v>35.16992326507549</v>
+        <v>1236.923502471298</v>
       </c>
       <c r="C257" t="n">
         <v>-0.7206797640707494</v>
@@ -7889,6 +9429,12 @@
       </c>
       <c r="I257" t="n">
         <v>0.979416362456788</v>
+      </c>
+      <c r="J257" t="n">
+        <v>35.16992326507549</v>
+      </c>
+      <c r="K257" t="n">
+        <v>35.16992326507549</v>
       </c>
     </row>
     <row r="258">
@@ -7896,7 +9442,7 @@
         <v>124.8997192382812</v>
       </c>
       <c r="B258" t="n">
-        <v>42.99908250314859</v>
+        <v>1848.921096112579</v>
       </c>
       <c r="C258" t="n">
         <v>-0.5316977766911073</v>
@@ -7918,6 +9464,12 @@
       </c>
       <c r="I258" t="n">
         <v>0.8121259859936322</v>
+      </c>
+      <c r="J258" t="n">
+        <v>42.99908250314859</v>
+      </c>
+      <c r="K258" t="n">
+        <v>42.99908250314859</v>
       </c>
     </row>
     <row r="259">
@@ -7925,7 +9477,7 @@
         <v>102.1298065185547</v>
       </c>
       <c r="B259" t="n">
-        <v>59.79202117458285</v>
+        <v>3575.085796141764</v>
       </c>
       <c r="C259" t="n">
         <v>-0.4520320530669068</v>
@@ -7947,6 +9499,12 @@
       </c>
       <c r="I259" t="n">
         <v>0.8315008664873149</v>
+      </c>
+      <c r="J259" t="n">
+        <v>59.79202117458285</v>
+      </c>
+      <c r="K259" t="n">
+        <v>59.79202117458285</v>
       </c>
     </row>
     <row r="260">
@@ -7954,7 +9512,7 @@
         <v>98.53312683105469</v>
       </c>
       <c r="B260" t="n">
-        <v>25.80174495552157</v>
+        <v>665.730042749783</v>
       </c>
       <c r="C260" t="n">
         <v>-0.4489055156374065</v>
@@ -7976,6 +9534,12 @@
       </c>
       <c r="I260" t="n">
         <v>0.9323523548994535</v>
+      </c>
+      <c r="J260" t="n">
+        <v>25.80174495552157</v>
+      </c>
+      <c r="K260" t="n">
+        <v>25.80174495552157</v>
       </c>
     </row>
     <row r="261">
@@ -7983,7 +9547,7 @@
         <v>106.8658447265625</v>
       </c>
       <c r="B261" t="n">
-        <v>45.38269625156517</v>
+        <v>2059.589119061828</v>
       </c>
       <c r="C261" t="n">
         <v>-0.5650054839985854</v>
@@ -8005,6 +9569,12 @@
       </c>
       <c r="I261" t="n">
         <v>0.9187652824573896</v>
+      </c>
+      <c r="J261" t="n">
+        <v>45.38269625156517</v>
+      </c>
+      <c r="K261" t="n">
+        <v>45.38269625156517</v>
       </c>
     </row>
     <row r="262">
@@ -8012,7 +9582,7 @@
         <v>112.6558380126953</v>
       </c>
       <c r="B262" t="n">
-        <v>57.60333525569683</v>
+        <v>3318.144232580205</v>
       </c>
       <c r="C262" t="n">
         <v>-0.2602347541454076</v>
@@ -8034,6 +9604,12 @@
       </c>
       <c r="I262" t="n">
         <v>0.9369256391171129</v>
+      </c>
+      <c r="J262" t="n">
+        <v>57.60333525569683</v>
+      </c>
+      <c r="K262" t="n">
+        <v>57.60333525569683</v>
       </c>
     </row>
     <row r="263">
@@ -8041,7 +9617,7 @@
         <v>158.558349609375</v>
       </c>
       <c r="B263" t="n">
-        <v>63.60552271143876</v>
+        <v>4045.662519395351</v>
       </c>
       <c r="C263" t="n">
         <v>-0.4484222523136958</v>
@@ -8063,6 +9639,12 @@
       </c>
       <c r="I263" t="n">
         <v>0.9419489952178322</v>
+      </c>
+      <c r="J263" t="n">
+        <v>63.60552271143876</v>
+      </c>
+      <c r="K263" t="n">
+        <v>63.60552271143876</v>
       </c>
     </row>
     <row r="264">
@@ -8070,7 +9652,7 @@
         <v>133.1098480224609</v>
       </c>
       <c r="B264" t="n">
-        <v>26.62238372817072</v>
+        <v>708.7513153699692</v>
       </c>
       <c r="C264" t="n">
         <v>-0.003973823501143512</v>
@@ -8092,6 +9674,12 @@
       </c>
       <c r="I264" t="n">
         <v>0.9226249291570083</v>
+      </c>
+      <c r="J264" t="n">
+        <v>26.62238372817072</v>
+      </c>
+      <c r="K264" t="n">
+        <v>26.62238372817072</v>
       </c>
     </row>
     <row r="265">
@@ -8099,7 +9687,7 @@
         <v>132.1496124267578</v>
       </c>
       <c r="B265" t="n">
-        <v>40.79277368954946</v>
+        <v>1664.050385286799</v>
       </c>
       <c r="C265" t="n">
         <v>-0.9350001287106727</v>
@@ -8121,6 +9709,12 @@
       </c>
       <c r="I265" t="n">
         <v>0.8168768802690207</v>
+      </c>
+      <c r="J265" t="n">
+        <v>40.79277368954946</v>
+      </c>
+      <c r="K265" t="n">
+        <v>40.79277368954946</v>
       </c>
     </row>
     <row r="266">
@@ -8128,7 +9722,7 @@
         <v>107.2553558349609</v>
       </c>
       <c r="B266" t="n">
-        <v>58.42929598841032</v>
+        <v>3413.982629701262</v>
       </c>
       <c r="C266" t="n">
         <v>-0.3981069229652301</v>
@@ -8150,6 +9744,12 @@
       </c>
       <c r="I266" t="n">
         <v>0.9340090295551111</v>
+      </c>
+      <c r="J266" t="n">
+        <v>58.42929598841032</v>
+      </c>
+      <c r="K266" t="n">
+        <v>58.42929598841032</v>
       </c>
     </row>
     <row r="267">
@@ -8157,7 +9757,7 @@
         <v>140.0380859375</v>
       </c>
       <c r="B267" t="n">
-        <v>44.27097921310026</v>
+        <v>1959.919600486755</v>
       </c>
       <c r="C267" t="n">
         <v>-1.441334006369204</v>
@@ -8179,6 +9779,12 @@
       </c>
       <c r="I267" t="n">
         <v>0.9376680911300852</v>
+      </c>
+      <c r="J267" t="n">
+        <v>44.27097921310026</v>
+      </c>
+      <c r="K267" t="n">
+        <v>44.27097921310026</v>
       </c>
     </row>
     <row r="268">
@@ -8186,7 +9792,7 @@
         <v>108.1548309326172</v>
       </c>
       <c r="B268" t="n">
-        <v>54.94481622273815</v>
+        <v>3018.932829750469</v>
       </c>
       <c r="C268" t="n">
         <v>-0.1432588777157631</v>
@@ -8208,6 +9814,12 @@
       </c>
       <c r="I268" t="n">
         <v>0.8819835427597768</v>
+      </c>
+      <c r="J268" t="n">
+        <v>54.94481622273815</v>
+      </c>
+      <c r="K268" t="n">
+        <v>54.94481622273815</v>
       </c>
     </row>
     <row r="269">
@@ -8215,7 +9827,7 @@
         <v>120.8464508056641</v>
       </c>
       <c r="B269" t="n">
-        <v>30.84006314105619</v>
+        <v>951.1094945443328</v>
       </c>
       <c r="C269" t="n">
         <v>-1.053844424095532</v>
@@ -8237,6 +9849,12 @@
       </c>
       <c r="I269" t="n">
         <v>0.6539171520734728</v>
+      </c>
+      <c r="J269" t="n">
+        <v>30.84006314105619</v>
+      </c>
+      <c r="K269" t="n">
+        <v>30.84006314105619</v>
       </c>
     </row>
     <row r="270">
@@ -8244,7 +9862,7 @@
         <v>129.6529388427734</v>
       </c>
       <c r="B270" t="n">
-        <v>32.67055539828849</v>
+        <v>1067.365190032637</v>
       </c>
       <c r="C270" t="n">
         <v>0.01595182104809231</v>
@@ -8266,6 +9884,12 @@
       </c>
       <c r="I270" t="n">
         <v>0.9656777498222675</v>
+      </c>
+      <c r="J270" t="n">
+        <v>32.67055539828849</v>
+      </c>
+      <c r="K270" t="n">
+        <v>32.67055539828849</v>
       </c>
     </row>
     <row r="271">
@@ -8273,7 +9897,7 @@
         <v>109.4454956054688</v>
       </c>
       <c r="B271" t="n">
-        <v>27.0318283983184</v>
+        <v>730.719746556133</v>
       </c>
       <c r="C271" t="n">
         <v>-0.7356938402214716</v>
@@ -8295,6 +9919,12 @@
       </c>
       <c r="I271" t="n">
         <v>0.9708280184834759</v>
+      </c>
+      <c r="J271" t="n">
+        <v>27.0318283983184</v>
+      </c>
+      <c r="K271" t="n">
+        <v>27.0318283983184</v>
       </c>
     </row>
     <row r="272">
@@ -8302,7 +9932,7 @@
         <v>153.230224609375</v>
       </c>
       <c r="B272" t="n">
-        <v>61.54755905741602</v>
+        <v>3788.102025926113</v>
       </c>
       <c r="C272" t="n">
         <v>-0.4634760356383564</v>
@@ -8324,6 +9954,12 @@
       </c>
       <c r="I272" t="n">
         <v>0.9048736754677843</v>
+      </c>
+      <c r="J272" t="n">
+        <v>61.54755905741602</v>
+      </c>
+      <c r="K272" t="n">
+        <v>61.54755905741602</v>
       </c>
     </row>
     <row r="273">
@@ -8331,7 +9967,7 @@
         <v>122.1450653076172</v>
       </c>
       <c r="B273" t="n">
-        <v>21.85670337781487</v>
+        <v>477.7154825457837</v>
       </c>
       <c r="C273" t="n">
         <v>0.005951980334269565</v>
@@ -8353,6 +9989,12 @@
       </c>
       <c r="I273" t="n">
         <v>0.9421587043847801</v>
+      </c>
+      <c r="J273" t="n">
+        <v>21.85670337781487</v>
+      </c>
+      <c r="K273" t="n">
+        <v>21.85670337781487</v>
       </c>
     </row>
     <row r="274">
@@ -8360,7 +10002,7 @@
         <v>128.2423248291016</v>
       </c>
       <c r="B274" t="n">
-        <v>45.13589010344352</v>
+        <v>2037.248575430131</v>
       </c>
       <c r="C274" t="n">
         <v>-0.4786180755890371</v>
@@ -8382,6 +10024,12 @@
       </c>
       <c r="I274" t="n">
         <v>0.7459462120219518</v>
+      </c>
+      <c r="J274" t="n">
+        <v>45.13589010344352</v>
+      </c>
+      <c r="K274" t="n">
+        <v>45.13589010344352</v>
       </c>
     </row>
     <row r="275">
@@ -8389,7 +10037,7 @@
         <v>117.111572265625</v>
       </c>
       <c r="B275" t="n">
-        <v>33.56764569519607</v>
+        <v>1126.786837518215</v>
       </c>
       <c r="C275" t="n">
         <v>-0.3085076021425752</v>
@@ -8411,6 +10059,12 @@
       </c>
       <c r="I275" t="n">
         <v>0.9221556306075923</v>
+      </c>
+      <c r="J275" t="n">
+        <v>33.56764569519607</v>
+      </c>
+      <c r="K275" t="n">
+        <v>33.56764569519607</v>
       </c>
     </row>
     <row r="276">
@@ -8418,7 +10072,7 @@
         <v>124.4960632324219</v>
       </c>
       <c r="B276" t="n">
-        <v>58.94937949132304</v>
+        <v>3475.029342412017</v>
       </c>
       <c r="C276" t="n">
         <v>-0.5335221067606035</v>
@@ -8440,6 +10094,12 @@
       </c>
       <c r="I276" t="n">
         <v>0.9245212803232892</v>
+      </c>
+      <c r="J276" t="n">
+        <v>58.94937949132304</v>
+      </c>
+      <c r="K276" t="n">
+        <v>58.94937949132304</v>
       </c>
     </row>
     <row r="277">
@@ -8447,7 +10107,7 @@
         <v>128.1162414550781</v>
       </c>
       <c r="B277" t="n">
-        <v>43.26849330996801</v>
+        <v>1872.162513314746</v>
       </c>
       <c r="C277" t="n">
         <v>-0.1288991327093036</v>
@@ -8469,6 +10129,12 @@
       </c>
       <c r="I277" t="n">
         <v>0.8993856723104502</v>
+      </c>
+      <c r="J277" t="n">
+        <v>43.26849330996801</v>
+      </c>
+      <c r="K277" t="n">
+        <v>43.26849330996801</v>
       </c>
     </row>
     <row r="278">
@@ -8476,7 +10142,7 @@
         <v>104.2222137451172</v>
       </c>
       <c r="B278" t="n">
-        <v>26.12706252757925</v>
+        <v>682.6233963200357</v>
       </c>
       <c r="C278" t="n">
         <v>-0.2603626902503421</v>
@@ -8498,6 +10164,12 @@
       </c>
       <c r="I278" t="n">
         <v>0.9780402190043038</v>
+      </c>
+      <c r="J278" t="n">
+        <v>26.12706252757925</v>
+      </c>
+      <c r="K278" t="n">
+        <v>26.12706252757925</v>
       </c>
     </row>
     <row r="279">
@@ -8505,7 +10177,7 @@
         <v>114.9340057373047</v>
       </c>
       <c r="B279" t="n">
-        <v>44.55108686032252</v>
+        <v>1984.799340436002</v>
       </c>
       <c r="C279" t="n">
         <v>-0.1305908783216864</v>
@@ -8527,6 +10199,12 @@
       </c>
       <c r="I279" t="n">
         <v>0.8581092130517903</v>
+      </c>
+      <c r="J279" t="n">
+        <v>44.55108686032252</v>
+      </c>
+      <c r="K279" t="n">
+        <v>44.55108686032252</v>
       </c>
     </row>
     <row r="280">
@@ -8534,7 +10212,7 @@
         <v>120.2874908447266</v>
       </c>
       <c r="B280" t="n">
-        <v>65.5309198662072</v>
+        <v>4294.301458511269</v>
       </c>
       <c r="C280" t="n">
         <v>-0.2080510344066333</v>
@@ -8556,6 +10234,12 @@
       </c>
       <c r="I280" t="n">
         <v>0.9201532499095724</v>
+      </c>
+      <c r="J280" t="n">
+        <v>65.5309198662072</v>
+      </c>
+      <c r="K280" t="n">
+        <v>65.5309198662072</v>
       </c>
     </row>
     <row r="281">
@@ -8563,7 +10247,7 @@
         <v>102.3310546875</v>
       </c>
       <c r="B281" t="n">
-        <v>69.52298707019877</v>
+        <v>4833.445731163025</v>
       </c>
       <c r="C281" t="n">
         <v>0.1643502701633783</v>
@@ -8585,6 +10269,12 @@
       </c>
       <c r="I281" t="n">
         <v>0.9390886236530308</v>
+      </c>
+      <c r="J281" t="n">
+        <v>69.52298707019877</v>
+      </c>
+      <c r="K281" t="n">
+        <v>69.52298707019877</v>
       </c>
     </row>
     <row r="282">
@@ -8592,7 +10282,7 @@
         <v>113.4447479248047</v>
       </c>
       <c r="B282" t="n">
-        <v>37.26751828184799</v>
+        <v>1388.867918887874</v>
       </c>
       <c r="C282" t="n">
         <v>-0.3701559318396627</v>
@@ -8614,6 +10304,12 @@
       </c>
       <c r="I282" t="n">
         <v>0.6661581835433743</v>
+      </c>
+      <c r="J282" t="n">
+        <v>37.26751828184799</v>
+      </c>
+      <c r="K282" t="n">
+        <v>37.26751828184799</v>
       </c>
     </row>
     <row r="283">
@@ -8621,7 +10317,7 @@
         <v>123.4238586425781</v>
       </c>
       <c r="B283" t="n">
-        <v>34.96166594357784</v>
+        <v>1222.318085550331</v>
       </c>
       <c r="C283" t="n">
         <v>0.009043148886247795</v>
@@ -8643,6 +10339,12 @@
       </c>
       <c r="I283" t="n">
         <v>0.9767380052652043</v>
+      </c>
+      <c r="J283" t="n">
+        <v>34.96166594357784</v>
+      </c>
+      <c r="K283" t="n">
+        <v>34.96166594357784</v>
       </c>
     </row>
     <row r="284">
@@ -8650,7 +10352,7 @@
         <v>140.9125823974609</v>
       </c>
       <c r="B284" t="n">
-        <v>35.2207364697885</v>
+        <v>1240.50027747429</v>
       </c>
       <c r="C284" t="n">
         <v>-0.7297923456836403</v>
@@ -8672,6 +10374,12 @@
       </c>
       <c r="I284" t="n">
         <v>0.9804532845476472</v>
+      </c>
+      <c r="J284" t="n">
+        <v>35.2207364697885</v>
+      </c>
+      <c r="K284" t="n">
+        <v>35.2207364697885</v>
       </c>
     </row>
     <row r="285">
@@ -8679,7 +10387,7 @@
         <v>115.2358245849609</v>
       </c>
       <c r="B285" t="n">
-        <v>48.91358464041947</v>
+        <v>2392.53876237548</v>
       </c>
       <c r="C285" t="n">
         <v>-0.3553288807800326</v>
@@ -8701,6 +10409,12 @@
       </c>
       <c r="I285" t="n">
         <v>0.7088934327751453</v>
+      </c>
+      <c r="J285" t="n">
+        <v>48.91358464041947</v>
+      </c>
+      <c r="K285" t="n">
+        <v>48.91358464041947</v>
       </c>
     </row>
     <row r="286">
@@ -8708,7 +10422,7 @@
         <v>121.8067169189453</v>
       </c>
       <c r="B286" t="n">
-        <v>50.20717556240631</v>
+        <v>2520.760477954289</v>
       </c>
       <c r="C286" t="n">
         <v>-0.3881715065948573</v>
@@ -8730,6 +10444,12 @@
       </c>
       <c r="I286" t="n">
         <v>0.7655153374440641</v>
+      </c>
+      <c r="J286" t="n">
+        <v>50.20717556240631</v>
+      </c>
+      <c r="K286" t="n">
+        <v>50.20717556240631</v>
       </c>
     </row>
     <row r="287">
@@ -8737,7 +10457,7 @@
         <v>156.4334259033203</v>
       </c>
       <c r="B287" t="n">
-        <v>28.32124447206181</v>
+        <v>802.0928884462919</v>
       </c>
       <c r="C287" t="n">
         <v>0.4542087008387835</v>
@@ -8759,6 +10479,12 @@
       </c>
       <c r="I287" t="n">
         <v>0.9292274508931405</v>
+      </c>
+      <c r="J287" t="n">
+        <v>28.32124447206181</v>
+      </c>
+      <c r="K287" t="n">
+        <v>28.32124447206181</v>
       </c>
     </row>
     <row r="288">
@@ -8766,7 +10492,7 @@
         <v>86.76570129394531</v>
       </c>
       <c r="B288" t="n">
-        <v>38.39697895551532</v>
+        <v>1474.327992910286</v>
       </c>
       <c r="C288" t="n">
         <v>-0.2555227834351146</v>
@@ -8788,6 +10514,12 @@
       </c>
       <c r="I288" t="n">
         <v>0.9714220762555268</v>
+      </c>
+      <c r="J288" t="n">
+        <v>38.39697895551532</v>
+      </c>
+      <c r="K288" t="n">
+        <v>38.39697895551532</v>
       </c>
     </row>
     <row r="289">
@@ -8795,7 +10527,7 @@
         <v>130.4558868408203</v>
       </c>
       <c r="B289" t="n">
-        <v>56.25696632058641</v>
+        <v>3164.846259595593</v>
       </c>
       <c r="C289" t="n">
         <v>-0.4190208916350827</v>
@@ -8817,6 +10549,12 @@
       </c>
       <c r="I289" t="n">
         <v>0.9207605346462188</v>
+      </c>
+      <c r="J289" t="n">
+        <v>56.25696632058641</v>
+      </c>
+      <c r="K289" t="n">
+        <v>56.25696632058641</v>
       </c>
     </row>
     <row r="290">
@@ -8824,7 +10562,7 @@
         <v>98.09284973144531</v>
       </c>
       <c r="B290" t="n">
-        <v>41.32374814543959</v>
+        <v>1707.652160787722</v>
       </c>
       <c r="C290" t="n">
         <v>0.1755535962703001</v>
@@ -8846,6 +10584,12 @@
       </c>
       <c r="I290" t="n">
         <v>0.9433554191209714</v>
+      </c>
+      <c r="J290" t="n">
+        <v>41.32374814543959</v>
+      </c>
+      <c r="K290" t="n">
+        <v>41.32374814543959</v>
       </c>
     </row>
     <row r="291">
@@ -8853,7 +10597,7 @@
         <v>132.4799957275391</v>
       </c>
       <c r="B291" t="n">
-        <v>48.23804476367229</v>
+        <v>2326.908962622052</v>
       </c>
       <c r="C291" t="n">
         <v>-1.280787758817558</v>
@@ -8875,6 +10619,12 @@
       </c>
       <c r="I291" t="n">
         <v>0.9397688060205796</v>
+      </c>
+      <c r="J291" t="n">
+        <v>48.23804476367229</v>
+      </c>
+      <c r="K291" t="n">
+        <v>48.23804476367229</v>
       </c>
     </row>
     <row r="292">
@@ -8882,7 +10632,7 @@
         <v>101.4463348388672</v>
       </c>
       <c r="B292" t="n">
-        <v>30.72690000182829</v>
+        <v>944.1423837223556</v>
       </c>
       <c r="C292" t="n">
         <v>-0.4668117683846953</v>
@@ -8904,6 +10654,12 @@
       </c>
       <c r="I292" t="n">
         <v>0.9827045818250938</v>
+      </c>
+      <c r="J292" t="n">
+        <v>30.72690000182829</v>
+      </c>
+      <c r="K292" t="n">
+        <v>30.72690000182829</v>
       </c>
     </row>
     <row r="293">
@@ -8911,7 +10667,7 @@
         <v>134.7593688964844</v>
       </c>
       <c r="B293" t="n">
-        <v>43.92537798689001</v>
+        <v>1929.438831291161</v>
       </c>
       <c r="C293" t="n">
         <v>-1.267292213940245</v>
@@ -8933,6 +10689,12 @@
       </c>
       <c r="I293" t="n">
         <v>0.8425077362859076</v>
+      </c>
+      <c r="J293" t="n">
+        <v>43.92537798689001</v>
+      </c>
+      <c r="K293" t="n">
+        <v>43.92537798689001</v>
       </c>
     </row>
     <row r="294">
@@ -8940,7 +10702,7 @@
         <v>103.6181335449219</v>
       </c>
       <c r="B294" t="n">
-        <v>53.36767004779953</v>
+        <v>2848.108206330799</v>
       </c>
       <c r="C294" t="n">
         <v>-0.0846622776561561</v>
@@ -8962,6 +10724,12 @@
       </c>
       <c r="I294" t="n">
         <v>0.911641873987584</v>
+      </c>
+      <c r="J294" t="n">
+        <v>53.36767004779953</v>
+      </c>
+      <c r="K294" t="n">
+        <v>53.36767004779953</v>
       </c>
     </row>
     <row r="295">
@@ -8969,7 +10737,7 @@
         <v>121.7288513183594</v>
       </c>
       <c r="B295" t="n">
-        <v>57.33803851302685</v>
+        <v>3287.650660521351</v>
       </c>
       <c r="C295" t="n">
         <v>-0.5530422046979501</v>
@@ -8991,6 +10759,12 @@
       </c>
       <c r="I295" t="n">
         <v>0.9318379625966311</v>
+      </c>
+      <c r="J295" t="n">
+        <v>57.33803851302685</v>
+      </c>
+      <c r="K295" t="n">
+        <v>57.33803851302685</v>
       </c>
     </row>
     <row r="296">
@@ -8998,7 +10772,7 @@
         <v>230.8104400634766</v>
       </c>
       <c r="B296" t="n">
-        <v>53.57287854584344</v>
+        <v>2870.053315687692</v>
       </c>
       <c r="C296" t="n">
         <v>-2.495875653246538</v>
@@ -9020,6 +10794,12 @@
       </c>
       <c r="I296" t="n">
         <v>0.9281108786804826</v>
+      </c>
+      <c r="J296" t="n">
+        <v>53.57287854584344</v>
+      </c>
+      <c r="K296" t="n">
+        <v>53.57287854584344</v>
       </c>
     </row>
     <row r="297">
@@ -9027,7 +10807,7 @@
         <v>125.3229675292969</v>
       </c>
       <c r="B297" t="n">
-        <v>41.85576277845185</v>
+        <v>1751.904877766035</v>
       </c>
       <c r="C297" t="n">
         <v>-0.6587092352999092</v>
@@ -9049,6 +10829,12 @@
       </c>
       <c r="I297" t="n">
         <v>0.8095481139047578</v>
+      </c>
+      <c r="J297" t="n">
+        <v>41.85576277845185</v>
+      </c>
+      <c r="K297" t="n">
+        <v>41.85576277845185</v>
       </c>
     </row>
     <row r="298">
@@ -9056,7 +10842,7 @@
         <v>125.57763671875</v>
       </c>
       <c r="B298" t="n">
-        <v>37.07299058925929</v>
+        <v>1374.406631231308</v>
       </c>
       <c r="C298" t="n">
         <v>-0.4086746802733936</v>
@@ -9078,6 +10864,12 @@
       </c>
       <c r="I298" t="n">
         <v>0.9841872791107724</v>
+      </c>
+      <c r="J298" t="n">
+        <v>37.07299058925929</v>
+      </c>
+      <c r="K298" t="n">
+        <v>37.07299058925929</v>
       </c>
     </row>
     <row r="299">
@@ -9085,7 +10877,7 @@
         <v>138.4267730712891</v>
       </c>
       <c r="B299" t="n">
-        <v>50.15314172489555</v>
+        <v>2515.337624877458</v>
       </c>
       <c r="C299" t="n">
         <v>-0.4789161085404089</v>
@@ -9107,6 +10899,12 @@
       </c>
       <c r="I299" t="n">
         <v>0.8903209691253389</v>
+      </c>
+      <c r="J299" t="n">
+        <v>50.15314172489555</v>
+      </c>
+      <c r="K299" t="n">
+        <v>50.15314172489555</v>
       </c>
     </row>
     <row r="300">
@@ -9114,7 +10912,7 @@
         <v>112.7863311767578</v>
       </c>
       <c r="B300" t="n">
-        <v>32.54162443852245</v>
+        <v>1058.957321097841</v>
       </c>
       <c r="C300" t="n">
         <v>0.1183210455605499</v>
@@ -9136,6 +10934,12 @@
       </c>
       <c r="I300" t="n">
         <v>0.8793031145426107</v>
+      </c>
+      <c r="J300" t="n">
+        <v>32.54162443852245</v>
+      </c>
+      <c r="K300" t="n">
+        <v>32.54162443852245</v>
       </c>
     </row>
     <row r="301">
@@ -9143,7 +10947,7 @@
         <v>93.201416015625</v>
       </c>
       <c r="B301" t="n">
-        <v>61.12545698917534</v>
+        <v>3736.321492135525</v>
       </c>
       <c r="C301" t="n">
         <v>-0.1470236580314717</v>
@@ -9165,6 +10969,12 @@
       </c>
       <c r="I301" t="n">
         <v>0.8928622151724604</v>
+      </c>
+      <c r="J301" t="n">
+        <v>61.12545698917534</v>
+      </c>
+      <c r="K301" t="n">
+        <v>61.12545698917534</v>
       </c>
     </row>
   </sheetData>

--- a/RedChannel.xlsx
+++ b/RedChannel.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L301"/>
+  <dimension ref="A1:N301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +481,16 @@
           <t>Correlation_R</t>
         </is>
       </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>IDM_R</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Smoothness_R</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -519,6 +529,12 @@
       <c r="L2" t="n">
         <v>0.8085263267147845</v>
       </c>
+      <c r="M2" t="n">
+        <v>0.001188115845792494</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.01282730767905128</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -557,6 +573,12 @@
       <c r="L3" t="n">
         <v>0.6723772500089913</v>
       </c>
+      <c r="M3" t="n">
+        <v>0.001182274157896359</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.01289116935779422</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -595,6 +617,12 @@
       <c r="L4" t="n">
         <v>0.6992516412613111</v>
       </c>
+      <c r="M4" t="n">
+        <v>0.0009058519737523287</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.01682954772772616</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -633,6 +661,12 @@
       <c r="L5" t="n">
         <v>0.8399378214567922</v>
       </c>
+      <c r="M5" t="n">
+        <v>0.001743884025440872</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.008734349006402383</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -671,6 +705,12 @@
       <c r="L6" t="n">
         <v>0.8580817701735522</v>
       </c>
+      <c r="M6" t="n">
+        <v>0.001652277076884339</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.009219879040584793</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -709,6 +749,12 @@
       <c r="L7" t="n">
         <v>0.859669169597819</v>
       </c>
+      <c r="M7" t="n">
+        <v>0.001684269554342991</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.009044350511786521</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -747,6 +793,12 @@
       <c r="L8" t="n">
         <v>0.858692914624816</v>
       </c>
+      <c r="M8" t="n">
+        <v>0.001993834079827273</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.007637783708229879</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -785,6 +837,12 @@
       <c r="L9" t="n">
         <v>0.8916523340773271</v>
       </c>
+      <c r="M9" t="n">
+        <v>0.008659651013442083</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.001747068961447062</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -823,6 +881,12 @@
       <c r="L10" t="n">
         <v>0.8062022214853349</v>
       </c>
+      <c r="M10" t="n">
+        <v>0.001563107270988938</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.009746511528284211</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -861,6 +925,12 @@
       <c r="L11" t="n">
         <v>0.5708238662215863</v>
       </c>
+      <c r="M11" t="n">
+        <v>0.0007236619691265191</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.02107040283611773</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -899,6 +969,12 @@
       <c r="L12" t="n">
         <v>0.8872168180194873</v>
       </c>
+      <c r="M12" t="n">
+        <v>0.001698093895530594</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.008970091815451386</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -937,6 +1013,12 @@
       <c r="L13" t="n">
         <v>0.445719036133878</v>
       </c>
+      <c r="M13" t="n">
+        <v>0.0004520901106139709</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.03373643443658691</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -975,6 +1057,12 @@
       <c r="L14" t="n">
         <v>0.8070273922917492</v>
       </c>
+      <c r="M14" t="n">
+        <v>0.0008716125218552242</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.01749107309920024</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1013,6 +1101,12 @@
       <c r="L15" t="n">
         <v>0.6091626102111605</v>
       </c>
+      <c r="M15" t="n">
+        <v>0.0007915731340137524</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.0192614040993833</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1051,6 +1145,12 @@
       <c r="L16" t="n">
         <v>0.8568176576500592</v>
       </c>
+      <c r="M16" t="n">
+        <v>0.001117536860849125</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.01363700778967629</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1089,6 +1189,12 @@
       <c r="L17" t="n">
         <v>0.9760174732418367</v>
       </c>
+      <c r="M17" t="n">
+        <v>0.02032627209395584</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0007358433327987441</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1127,6 +1233,12 @@
       <c r="L18" t="n">
         <v>0.6207876557684456</v>
       </c>
+      <c r="M18" t="n">
+        <v>0.0005954229771365416</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.02561132348154022</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1165,6 +1277,12 @@
       <c r="L19" t="n">
         <v>0.9870953713613636</v>
       </c>
+      <c r="M19" t="n">
+        <v>0.02984710360932288</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.0004960978586263941</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1203,6 +1321,12 @@
       <c r="L20" t="n">
         <v>0.7483373568360809</v>
       </c>
+      <c r="M20" t="n">
+        <v>0.0006554093784685813</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.02326837529477716</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1241,6 +1365,12 @@
       <c r="L21" t="n">
         <v>0.9406414533783584</v>
       </c>
+      <c r="M21" t="n">
+        <v>0.01090088929184877</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.001384926883690703</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1279,6 +1409,12 @@
       <c r="L22" t="n">
         <v>0.8510247420865938</v>
       </c>
+      <c r="M22" t="n">
+        <v>0.001337987175839958</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.01138880670207787</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1317,6 +1453,12 @@
       <c r="L23" t="n">
         <v>0.5911562631116936</v>
       </c>
+      <c r="M23" t="n">
+        <v>0.0005620409894528611</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.02713373531184243</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1355,6 +1497,12 @@
       <c r="L24" t="n">
         <v>0.8582279205475914</v>
       </c>
+      <c r="M24" t="n">
+        <v>0.001713304205705301</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.008890650688206167</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1393,6 +1541,12 @@
       <c r="L25" t="n">
         <v>0.8994216436466359</v>
       </c>
+      <c r="M25" t="n">
+        <v>0.001798505549860991</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.008470681632801989</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1431,6 +1585,12 @@
       <c r="L26" t="n">
         <v>0.9095889939832086</v>
       </c>
+      <c r="M26" t="n">
+        <v>0.003001969637582065</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.005068079372982522</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1469,6 +1629,12 @@
       <c r="L27" t="n">
         <v>0.8136984480749836</v>
       </c>
+      <c r="M27" t="n">
+        <v>0.001968202102674703</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.00773754084550463</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1507,6 +1673,12 @@
       <c r="L28" t="n">
         <v>0.9781133573377349</v>
       </c>
+      <c r="M28" t="n">
+        <v>0.009033841777432506</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.001673205259933879</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1545,6 +1717,12 @@
       <c r="L29" t="n">
         <v>0.7439724232998985</v>
       </c>
+      <c r="M29" t="n">
+        <v>0.001046041983453997</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.01457207220733976</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1583,6 +1761,12 @@
       <c r="L30" t="n">
         <v>0.8097107817226971</v>
       </c>
+      <c r="M30" t="n">
+        <v>0.001075804912994275</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.01416792774328769</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1621,6 +1805,12 @@
       <c r="L31" t="n">
         <v>0.5646134187727062</v>
       </c>
+      <c r="M31" t="n">
+        <v>0.0004578966645400953</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.03330834167034096</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1659,6 +1849,12 @@
       <c r="L32" t="n">
         <v>0.8954890187774449</v>
       </c>
+      <c r="M32" t="n">
+        <v>0.00171652491969976</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.00887417729578408</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1697,6 +1893,12 @@
       <c r="L33" t="n">
         <v>0.9855990099493849</v>
       </c>
+      <c r="M33" t="n">
+        <v>0.07621907414748634</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.0001857336169564921</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1735,6 +1937,12 @@
       <c r="L34" t="n">
         <v>0.6388575044740455</v>
       </c>
+      <c r="M34" t="n">
+        <v>0.0005504183231383108</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.02770703601760103</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1773,6 +1981,12 @@
       <c r="L35" t="n">
         <v>0.7792290180632931</v>
       </c>
+      <c r="M35" t="n">
+        <v>0.001600153609594448</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.009520194394351401</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1811,6 +2025,12 @@
       <c r="L36" t="n">
         <v>0.8346580115008005</v>
       </c>
+      <c r="M36" t="n">
+        <v>0.005463410330408507</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.002777917743418816</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1849,6 +2069,12 @@
       <c r="L37" t="n">
         <v>0.6256768414040769</v>
       </c>
+      <c r="M37" t="n">
+        <v>0.001364181702596614</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.01117026654425514</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1887,6 +2113,12 @@
       <c r="L38" t="n">
         <v>0.9261082671963679</v>
       </c>
+      <c r="M38" t="n">
+        <v>0.001578487229564032</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.009651422087892299</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1925,6 +2157,12 @@
       <c r="L39" t="n">
         <v>0.8197116818025175</v>
       </c>
+      <c r="M39" t="n">
+        <v>0.0006973277984742207</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.02187003275032217</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1963,6 +2201,12 @@
       <c r="L40" t="n">
         <v>0.8406089091170892</v>
       </c>
+      <c r="M40" t="n">
+        <v>0.002131609056023795</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.007143298946435591</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2001,6 +2245,12 @@
       <c r="L41" t="n">
         <v>0.7551923001499935</v>
       </c>
+      <c r="M41" t="n">
+        <v>0.00121789796451351</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.01251359864157044</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2039,6 +2289,12 @@
       <c r="L42" t="n">
         <v>0.8324656491134316</v>
       </c>
+      <c r="M42" t="n">
+        <v>0.001069521550486401</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.01425180400897896</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2077,6 +2333,12 @@
       <c r="L43" t="n">
         <v>0.8478058862050077</v>
       </c>
+      <c r="M43" t="n">
+        <v>0.001601910222682684</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.009512042601813764</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2115,6 +2377,12 @@
       <c r="L44" t="n">
         <v>0.9144360472172527</v>
       </c>
+      <c r="M44" t="n">
+        <v>0.001456022837884316</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.01046630687570154</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2153,6 +2421,12 @@
       <c r="L45" t="n">
         <v>0.9453557731469913</v>
       </c>
+      <c r="M45" t="n">
+        <v>0.005158482742223607</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.002942440485719968</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2191,6 +2465,12 @@
       <c r="L46" t="n">
         <v>0.718139920211562</v>
       </c>
+      <c r="M46" t="n">
+        <v>0.001040158827693408</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.01465455941259732</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2229,6 +2509,12 @@
       <c r="L47" t="n">
         <v>0.9243844951007673</v>
       </c>
+      <c r="M47" t="n">
+        <v>0.006185358197742452</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.002451380970914694</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2267,6 +2553,12 @@
       <c r="L48" t="n">
         <v>0.6431763131763909</v>
       </c>
+      <c r="M48" t="n">
+        <v>0.000736668597715364</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.02069812179482565</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2305,6 +2597,12 @@
       <c r="L49" t="n">
         <v>0.5885439375280297</v>
       </c>
+      <c r="M49" t="n">
+        <v>0.002068275243326946</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.007362517162782214</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2343,6 +2641,12 @@
       <c r="L50" t="n">
         <v>0.828580091784834</v>
       </c>
+      <c r="M50" t="n">
+        <v>0.001137539392114394</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.01339834890527789</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2381,6 +2685,12 @@
       <c r="L51" t="n">
         <v>0.9571079109820505</v>
       </c>
+      <c r="M51" t="n">
+        <v>0.004564277452306119</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.003328107678682695</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2419,6 +2729,12 @@
       <c r="L52" t="n">
         <v>0.6959464247325262</v>
       </c>
+      <c r="M52" t="n">
+        <v>0.0005917893474414581</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.02576907810694561</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2457,6 +2773,12 @@
       <c r="L53" t="n">
         <v>0.7918013333373128</v>
       </c>
+      <c r="M53" t="n">
+        <v>0.005972315637861429</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.0025398703436813</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2495,6 +2817,12 @@
       <c r="L54" t="n">
         <v>0.9028336617807371</v>
       </c>
+      <c r="M54" t="n">
+        <v>0.002038943612552559</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.007466567531944194</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2533,6 +2861,12 @@
       <c r="L55" t="n">
         <v>0.8714126687457967</v>
       </c>
+      <c r="M55" t="n">
+        <v>0.001411324298492798</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.01079648280409564</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2571,6 +2905,12 @@
       <c r="L56" t="n">
         <v>0.8978669266220802</v>
       </c>
+      <c r="M56" t="n">
+        <v>0.001374385244094661</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.01108690213433172</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2609,6 +2949,12 @@
       <c r="L57" t="n">
         <v>0.8447005852389633</v>
       </c>
+      <c r="M57" t="n">
+        <v>0.001434823304123404</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.01061950123914715</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2647,6 +2993,12 @@
       <c r="L58" t="n">
         <v>0.9774775386613802</v>
       </c>
+      <c r="M58" t="n">
+        <v>0.01852399702541434</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.0008083453839619725</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2685,6 +3037,12 @@
       <c r="L59" t="n">
         <v>0.9608438398870265</v>
       </c>
+      <c r="M59" t="n">
+        <v>0.0181590245934449</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.0008255152525763382</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2723,6 +3081,12 @@
       <c r="L60" t="n">
         <v>0.6510966136533963</v>
       </c>
+      <c r="M60" t="n">
+        <v>0.000703548834273672</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.0216727167402166</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2761,6 +3125,12 @@
       <c r="L61" t="n">
         <v>0.9061609523642529</v>
       </c>
+      <c r="M61" t="n">
+        <v>0.003164254393098475</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.004806979456010552</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2799,6 +3169,12 @@
       <c r="L62" t="n">
         <v>0.9784921781953746</v>
       </c>
+      <c r="M62" t="n">
+        <v>0.02246248916087812</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.00066455391690748</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2837,6 +3213,12 @@
       <c r="L63" t="n">
         <v>0.7495752909146409</v>
       </c>
+      <c r="M63" t="n">
+        <v>0.00307177232426276</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.004952028784908065</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2875,6 +3257,12 @@
       <c r="L64" t="n">
         <v>0.839189971532244</v>
       </c>
+      <c r="M64" t="n">
+        <v>0.001167586275608007</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.01305350883128046</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2913,6 +3301,12 @@
       <c r="L65" t="n">
         <v>0.7734419785068609</v>
       </c>
+      <c r="M65" t="n">
+        <v>0.0008639425663084544</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.01764636600529363</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2951,6 +3345,12 @@
       <c r="L66" t="n">
         <v>0.9816028013193419</v>
       </c>
+      <c r="M66" t="n">
+        <v>0.03308662536062625</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.0004453661708681859</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2989,6 +3389,12 @@
       <c r="L67" t="n">
         <v>0.7783752232299541</v>
       </c>
+      <c r="M67" t="n">
+        <v>0.0008568071931986058</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.01779380713985865</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -3027,6 +3433,12 @@
       <c r="L68" t="n">
         <v>0.6492555128012663</v>
       </c>
+      <c r="M68" t="n">
+        <v>0.0009424475420956365</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.01617542497266581</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -3065,6 +3477,12 @@
       <c r="L69" t="n">
         <v>0.8950530588017431</v>
       </c>
+      <c r="M69" t="n">
+        <v>0.002396184827603484</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.006352349605317479</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -3103,6 +3521,12 @@
       <c r="L70" t="n">
         <v>0.8943743112853733</v>
       </c>
+      <c r="M70" t="n">
+        <v>0.004998448501040382</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.003037467429619204</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3141,6 +3565,12 @@
       <c r="L71" t="n">
         <v>0.8817207361762919</v>
       </c>
+      <c r="M71" t="n">
+        <v>0.002279839755127288</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.006677908252968365</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3179,6 +3609,12 @@
       <c r="L72" t="n">
         <v>0.7764059166583408</v>
       </c>
+      <c r="M72" t="n">
+        <v>0.0009450209115456623</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.0161329826945063</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3217,6 +3653,12 @@
       <c r="L73" t="n">
         <v>0.9938481803444955</v>
       </c>
+      <c r="M73" t="n">
+        <v>0.04842024584424864</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.0002999667130533845</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3255,6 +3697,12 @@
       <c r="L74" t="n">
         <v>0.8707961511271125</v>
       </c>
+      <c r="M74" t="n">
+        <v>0.0008727009544755086</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.0174747092316306</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3293,6 +3741,12 @@
       <c r="L75" t="n">
         <v>0.966414380641167</v>
       </c>
+      <c r="M75" t="n">
+        <v>0.02774325337098182</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.0005351875021714274</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3331,6 +3785,12 @@
       <c r="L76" t="n">
         <v>0.8582473469241548</v>
       </c>
+      <c r="M76" t="n">
+        <v>0.001016118036831666</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.01500332587403959</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3369,6 +3829,12 @@
       <c r="L77" t="n">
         <v>0.9761009307913119</v>
       </c>
+      <c r="M77" t="n">
+        <v>0.04122284670698016</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.0003556827775402133</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3407,6 +3873,12 @@
       <c r="L78" t="n">
         <v>0.9867160277369534</v>
       </c>
+      <c r="M78" t="n">
+        <v>0.02144973970987024</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.0006965664147139053</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3445,6 +3917,12 @@
       <c r="L79" t="n">
         <v>0.6799057284996137</v>
       </c>
+      <c r="M79" t="n">
+        <v>0.0005522539835456305</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.02761524959527506</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3483,6 +3961,12 @@
       <c r="L80" t="n">
         <v>0.9617976102966782</v>
       </c>
+      <c r="M80" t="n">
+        <v>0.005394143576236233</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.002813217618693524</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3521,6 +4005,12 @@
       <c r="L81" t="n">
         <v>0.8628021723809502</v>
       </c>
+      <c r="M81" t="n">
+        <v>0.001499960155263155</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.01015761110733984</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3559,6 +4049,12 @@
       <c r="L82" t="n">
         <v>0.8451338184707499</v>
       </c>
+      <c r="M82" t="n">
+        <v>0.01006529018731007</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.001501093357511406</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3597,6 +4093,12 @@
       <c r="L83" t="n">
         <v>0.8304873178486244</v>
       </c>
+      <c r="M83" t="n">
+        <v>0.001404013161060255</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.0108519192627441</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3635,6 +4137,12 @@
       <c r="L84" t="n">
         <v>0.9479249504309935</v>
       </c>
+      <c r="M84" t="n">
+        <v>0.01009780477995846</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.001495945984977471</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3673,6 +4181,12 @@
       <c r="L85" t="n">
         <v>0.9865873663145373</v>
       </c>
+      <c r="M85" t="n">
+        <v>0.03895525266878479</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.0003767714634256975</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3711,6 +4225,12 @@
       <c r="L86" t="n">
         <v>0.9723322543870379</v>
       </c>
+      <c r="M86" t="n">
+        <v>0.01563719258280969</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.0009603470583940093</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3749,6 +4269,12 @@
       <c r="L87" t="n">
         <v>0.6569289283863274</v>
       </c>
+      <c r="M87" t="n">
+        <v>0.001701044973532671</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.008955182305027639</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3787,6 +4313,12 @@
       <c r="L88" t="n">
         <v>0.618921684370193</v>
       </c>
+      <c r="M88" t="n">
+        <v>0.001861062520608586</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.008183764941469036</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3825,6 +4357,12 @@
       <c r="L89" t="n">
         <v>0.6777289730052094</v>
       </c>
+      <c r="M89" t="n">
+        <v>0.00281286476642818</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.005409680435685344</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3863,6 +4401,12 @@
       <c r="L90" t="n">
         <v>0.9819622628884348</v>
       </c>
+      <c r="M90" t="n">
+        <v>0.03153297972395053</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.0004691908907994588</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3901,6 +4445,12 @@
       <c r="L91" t="n">
         <v>0.9732750901125315</v>
       </c>
+      <c r="M91" t="n">
+        <v>0.00780776810907447</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.00193932037288878</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3939,6 +4489,12 @@
       <c r="L92" t="n">
         <v>0.9921898115161758</v>
       </c>
+      <c r="M92" t="n">
+        <v>0.04496783329102824</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.0003242863152535638</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3977,6 +4533,12 @@
       <c r="L93" t="n">
         <v>0.9644517842598895</v>
       </c>
+      <c r="M93" t="n">
+        <v>0.007405375827139311</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.002045198051639901</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -4015,6 +4577,12 @@
       <c r="L94" t="n">
         <v>0.8399171581791223</v>
       </c>
+      <c r="M94" t="n">
+        <v>0.001743939746971963</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.0087340694489312</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -4053,6 +4621,12 @@
       <c r="L95" t="n">
         <v>0.9889352227224198</v>
       </c>
+      <c r="M95" t="n">
+        <v>0.03070330065248605</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.0004812023479610349</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -4091,6 +4665,12 @@
       <c r="L96" t="n">
         <v>0.9387952900383882</v>
       </c>
+      <c r="M96" t="n">
+        <v>0.002047608730712767</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.007435854473668668</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -4129,6 +4709,12 @@
       <c r="L97" t="n">
         <v>0.8660022164926983</v>
       </c>
+      <c r="M97" t="n">
+        <v>0.001899684455805422</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.008018976846897471</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -4167,6 +4753,12 @@
       <c r="L98" t="n">
         <v>0.8766473701933931</v>
       </c>
+      <c r="M98" t="n">
+        <v>0.003811770919812026</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.003988018650321668</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -4205,6 +4797,12 @@
       <c r="L99" t="n">
         <v>0.8474023816361154</v>
       </c>
+      <c r="M99" t="n">
+        <v>0.001357508321162522</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.01122490338611272</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -4243,6 +4841,12 @@
       <c r="L100" t="n">
         <v>0.5234980522035733</v>
       </c>
+      <c r="M100" t="n">
+        <v>0.0005306209824552445</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.02874132162392904</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -4281,6 +4885,12 @@
       <c r="L101" t="n">
         <v>0.8596882966792763</v>
       </c>
+      <c r="M101" t="n">
+        <v>0.001684398340660971</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.009043657990374453</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -4319,6 +4929,12 @@
       <c r="L102" t="n">
         <v>0.8453636653055561</v>
       </c>
+      <c r="M102" t="n">
+        <v>0.004587741544735799</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.00331060233719286</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -4357,6 +4973,12 @@
       <c r="L103" t="n">
         <v>0.8801838056521475</v>
       </c>
+      <c r="M103" t="n">
+        <v>0.001110532786254821</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.01372669286656049</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -4395,6 +5017,12 @@
       <c r="L104" t="n">
         <v>0.881207471148329</v>
       </c>
+      <c r="M104" t="n">
+        <v>0.00398458426023626</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.003814431672607166</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -4433,6 +5061,12 @@
       <c r="L105" t="n">
         <v>0.8436400456082918</v>
       </c>
+      <c r="M105" t="n">
+        <v>0.001168983807859767</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.01303953769993465</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -4471,6 +5105,12 @@
       <c r="L106" t="n">
         <v>0.9712468423058589</v>
       </c>
+      <c r="M106" t="n">
+        <v>0.007479918342710491</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.002024686434880896</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -4509,6 +5149,12 @@
       <c r="L107" t="n">
         <v>0.9197428473430539</v>
       </c>
+      <c r="M107" t="n">
+        <v>0.001687793702899644</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.009025490974756056</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -4547,6 +5193,12 @@
       <c r="L108" t="n">
         <v>0.6872099321079154</v>
       </c>
+      <c r="M108" t="n">
+        <v>0.003460795654886768</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.00439402251455665</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -4585,6 +5237,12 @@
       <c r="L109" t="n">
         <v>0.9215559915082702</v>
       </c>
+      <c r="M109" t="n">
+        <v>0.004062607990096083</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.00373911335058539</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -4623,6 +5281,12 @@
       <c r="L110" t="n">
         <v>0.9507631077120522</v>
       </c>
+      <c r="M110" t="n">
+        <v>0.00226404161927444</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.006723769997926526</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -4661,6 +5325,12 @@
       <c r="L111" t="n">
         <v>0.5049273285314759</v>
       </c>
+      <c r="M111" t="n">
+        <v>0.001696361151324746</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.008979964225776049</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -4699,6 +5369,12 @@
       <c r="L112" t="n">
         <v>0.8857663149764384</v>
       </c>
+      <c r="M112" t="n">
+        <v>0.003365420348648839</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.004518866798812176</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -4737,6 +5413,12 @@
       <c r="L113" t="n">
         <v>0.9543175257623567</v>
       </c>
+      <c r="M113" t="n">
+        <v>0.002550559716589971</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.005966160896061268</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -4775,6 +5457,12 @@
       <c r="L114" t="n">
         <v>0.7868892131827329</v>
       </c>
+      <c r="M114" t="n">
+        <v>0.001745630270336803</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.00872597457616533</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -4813,6 +5501,12 @@
       <c r="L115" t="n">
         <v>0.881461434924163</v>
       </c>
+      <c r="M115" t="n">
+        <v>0.001834552406547329</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.008302222865890397</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -4851,6 +5545,12 @@
       <c r="L116" t="n">
         <v>0.8673873127724371</v>
       </c>
+      <c r="M116" t="n">
+        <v>0.002304327139337033</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.006606798139080314</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -4889,6 +5589,12 @@
       <c r="L117" t="n">
         <v>0.9875601277748174</v>
       </c>
+      <c r="M117" t="n">
+        <v>0.05002498188162408</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.0002902600543859234</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -4927,6 +5633,12 @@
       <c r="L118" t="n">
         <v>0.7728266584966035</v>
       </c>
+      <c r="M118" t="n">
+        <v>0.001028695778608974</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.01482104095551932</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -4965,6 +5677,12 @@
       <c r="L119" t="n">
         <v>0.964569922146053</v>
       </c>
+      <c r="M119" t="n">
+        <v>0.02510724536952537</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.000592968021241983</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -5003,6 +5721,12 @@
       <c r="L120" t="n">
         <v>0.8950577192950027</v>
       </c>
+      <c r="M120" t="n">
+        <v>0.001778547309793732</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.008564203952631411</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -5041,6 +5765,12 @@
       <c r="L121" t="n">
         <v>0.9159116120793153</v>
       </c>
+      <c r="M121" t="n">
+        <v>0.001958821408598206</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.007774577289304105</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -5079,6 +5809,12 @@
       <c r="L122" t="n">
         <v>0.9165073598734768</v>
       </c>
+      <c r="M122" t="n">
+        <v>0.004620650855887194</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.003286761717035828</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -5117,6 +5853,12 @@
       <c r="L123" t="n">
         <v>0.8744157343456619</v>
       </c>
+      <c r="M123" t="n">
+        <v>0.00552796366925083</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.002745141986809794</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -5155,6 +5897,12 @@
       <c r="L124" t="n">
         <v>0.8299711867068517</v>
       </c>
+      <c r="M124" t="n">
+        <v>0.001063881838108848</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.01432740553969683</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -5193,6 +5941,12 @@
       <c r="L125" t="n">
         <v>0.7943498425868261</v>
       </c>
+      <c r="M125" t="n">
+        <v>0.0009193234900111888</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.01658217819684365</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -5231,6 +5985,12 @@
       <c r="L126" t="n">
         <v>0.9064652072772563</v>
       </c>
+      <c r="M126" t="n">
+        <v>0.001224906065836712</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.01244936585768639</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -5269,6 +6029,12 @@
       <c r="L127" t="n">
         <v>0.8594427705343055</v>
       </c>
+      <c r="M127" t="n">
+        <v>0.001261661282866059</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.01207882238575607</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -5307,6 +6073,12 @@
       <c r="L128" t="n">
         <v>0.8162529821935369</v>
       </c>
+      <c r="M128" t="n">
+        <v>0.001399280377360266</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.01088941667856264</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -5345,6 +6117,12 @@
       <c r="L129" t="n">
         <v>0.9298175714916211</v>
       </c>
+      <c r="M129" t="n">
+        <v>0.001780200812222843</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.0085541334366143</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -5383,6 +6161,12 @@
       <c r="L130" t="n">
         <v>0.9196562043687418</v>
       </c>
+      <c r="M130" t="n">
+        <v>0.002056663116855716</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.007403625527547901</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -5421,6 +6205,12 @@
       <c r="L131" t="n">
         <v>0.8376238262865011</v>
       </c>
+      <c r="M131" t="n">
+        <v>0.002052230466200327</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0.007420148404858653</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -5459,6 +6249,12 @@
       <c r="L132" t="n">
         <v>0.7978873064926527</v>
       </c>
+      <c r="M132" t="n">
+        <v>0.0009646482879979596</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0.01580261513633422</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -5497,6 +6293,12 @@
       <c r="L133" t="n">
         <v>0.8674261565336333</v>
       </c>
+      <c r="M133" t="n">
+        <v>0.003371532561210749</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.004510471511776144</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -5535,6 +6337,12 @@
       <c r="L134" t="n">
         <v>0.9298497607070828</v>
       </c>
+      <c r="M134" t="n">
+        <v>0.001780352717343763</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0.008553406958128456</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -5573,6 +6381,12 @@
       <c r="L135" t="n">
         <v>0.9671780354285461</v>
       </c>
+      <c r="M135" t="n">
+        <v>0.03935666170150062</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0.0003730028950219336</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -5611,6 +6425,12 @@
       <c r="L136" t="n">
         <v>0.8409357928238133</v>
       </c>
+      <c r="M136" t="n">
+        <v>0.001958896916096351</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0.007774119253987529</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -5649,6 +6469,12 @@
       <c r="L137" t="n">
         <v>0.8834598726848203</v>
       </c>
+      <c r="M137" t="n">
+        <v>0.002432945178046788</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0.006256651272456584</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -5687,6 +6513,12 @@
       <c r="L138" t="n">
         <v>0.7897593197110095</v>
       </c>
+      <c r="M138" t="n">
+        <v>0.001154644102477533</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0.01319946452261653</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -5725,6 +6557,12 @@
       <c r="L139" t="n">
         <v>0.7647186348404231</v>
       </c>
+      <c r="M139" t="n">
+        <v>0.001230231415145559</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0.01238801929424776</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -5763,6 +6601,12 @@
       <c r="L140" t="n">
         <v>0.7407292840887751</v>
       </c>
+      <c r="M140" t="n">
+        <v>0.0008995651352224902</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0.01694720324201553</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -5801,6 +6645,12 @@
       <c r="L141" t="n">
         <v>0.8073907173831564</v>
       </c>
+      <c r="M141" t="n">
+        <v>0.00167661941394059</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0.009085488602693054</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -5839,6 +6689,12 @@
       <c r="L142" t="n">
         <v>0.8283888832958887</v>
       </c>
+      <c r="M142" t="n">
+        <v>0.001085740145959685</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0.01403856948992006</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -5877,6 +6733,12 @@
       <c r="L143" t="n">
         <v>0.8399263102230625</v>
       </c>
+      <c r="M143" t="n">
+        <v>0.001744077832747995</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0.008733379092355362</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -5915,6 +6777,12 @@
       <c r="L144" t="n">
         <v>0.8541166704296844</v>
       </c>
+      <c r="M144" t="n">
+        <v>0.001795122717291248</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0.008485038229237464</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -5953,6 +6821,12 @@
       <c r="L145" t="n">
         <v>0.7613842556952373</v>
       </c>
+      <c r="M145" t="n">
+        <v>0.001105082656575091</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0.01379262155048286</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -5991,6 +6865,12 @@
       <c r="L146" t="n">
         <v>0.9245527685630123</v>
       </c>
+      <c r="M146" t="n">
+        <v>0.001901502747594832</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0.008008808803149156</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -6029,6 +6909,12 @@
       <c r="L147" t="n">
         <v>0.9417705487883581</v>
       </c>
+      <c r="M147" t="n">
+        <v>0.001923645719687614</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0.007914458631721541</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -6067,6 +6953,12 @@
       <c r="L148" t="n">
         <v>0.9690186071599444</v>
       </c>
+      <c r="M148" t="n">
+        <v>0.01175261737772283</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0.001283402280167307</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -6105,6 +6997,12 @@
       <c r="L149" t="n">
         <v>0.6304159389638194</v>
       </c>
+      <c r="M149" t="n">
+        <v>0.002676841960109554</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0.005685281706959588</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -6143,6 +7041,12 @@
       <c r="L150" t="n">
         <v>0.9510095397806511</v>
       </c>
+      <c r="M150" t="n">
+        <v>0.003005303715404075</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0.005058353691548396</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -6181,6 +7085,12 @@
       <c r="L151" t="n">
         <v>0.977268060678941</v>
       </c>
+      <c r="M151" t="n">
+        <v>0.02092335588089339</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0.0007141632083960964</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -6219,6 +7129,12 @@
       <c r="L152" t="n">
         <v>0.9651142401078189</v>
       </c>
+      <c r="M152" t="n">
+        <v>0.004047057158742901</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0.003754500650991612</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -6257,6 +7173,12 @@
       <c r="L153" t="n">
         <v>0.8455245962892918</v>
       </c>
+      <c r="M153" t="n">
+        <v>0.002317921993404745</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0.006567852176677168</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -6295,6 +7217,12 @@
       <c r="L154" t="n">
         <v>0.8805132327353161</v>
       </c>
+      <c r="M154" t="n">
+        <v>0.002207178168595139</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0.00689796903072536</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -6333,6 +7261,12 @@
       <c r="L155" t="n">
         <v>0.9385539522512257</v>
       </c>
+      <c r="M155" t="n">
+        <v>0.009843485468006116</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0.001535193877594</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -6371,6 +7305,12 @@
       <c r="L156" t="n">
         <v>0.9251171556108848</v>
       </c>
+      <c r="M156" t="n">
+        <v>0.001428644381013321</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0.01066484541833825</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -6409,6 +7349,12 @@
       <c r="L157" t="n">
         <v>0.895909912651321</v>
       </c>
+      <c r="M157" t="n">
+        <v>0.005282430354184975</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0.002873537208554104</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -6447,6 +7393,12 @@
       <c r="L158" t="n">
         <v>0.7903923360008809</v>
       </c>
+      <c r="M158" t="n">
+        <v>0.001480574706866842</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0.01029066143039312</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -6485,6 +7437,12 @@
       <c r="L159" t="n">
         <v>0.7527807753481809</v>
       </c>
+      <c r="M159" t="n">
+        <v>0.001279974026498972</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0.01190594041153577</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -6523,6 +7481,12 @@
       <c r="L160" t="n">
         <v>0.9301615873187888</v>
       </c>
+      <c r="M160" t="n">
+        <v>0.003817188061984528</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0.00398190973045126</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -6561,6 +7525,12 @@
       <c r="L161" t="n">
         <v>0.8070104251645169</v>
       </c>
+      <c r="M161" t="n">
+        <v>0.0008715437721687703</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0.01749245468889081</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -6599,6 +7569,12 @@
       <c r="L162" t="n">
         <v>0.8386316049873398</v>
       </c>
+      <c r="M162" t="n">
+        <v>0.001219021157482112</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0.01250150540484469</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -6637,6 +7613,12 @@
       <c r="L163" t="n">
         <v>0.7960596944699758</v>
       </c>
+      <c r="M163" t="n">
+        <v>0.001199768109258794</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0.01270302973074286</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -6675,6 +7657,12 @@
       <c r="L164" t="n">
         <v>0.8686805331084819</v>
       </c>
+      <c r="M164" t="n">
+        <v>0.001325835346854834</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0.01149242683917124</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -6713,6 +7701,12 @@
       <c r="L165" t="n">
         <v>0.9464986142752507</v>
       </c>
+      <c r="M165" t="n">
+        <v>0.002233568447832029</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0.006816753682002614</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -6751,6 +7745,12 @@
       <c r="L166" t="n">
         <v>0.9808880749675</v>
       </c>
+      <c r="M166" t="n">
+        <v>0.03135641817888272</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0.0004713660368559075</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -6789,6 +7789,12 @@
       <c r="L167" t="n">
         <v>0.8595363394076055</v>
       </c>
+      <c r="M167" t="n">
+        <v>0.001428362261008354</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0.01066753745912254</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -6827,6 +7833,12 @@
       <c r="L168" t="n">
         <v>0.968426983021671</v>
       </c>
+      <c r="M168" t="n">
+        <v>0.004967023781370468</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0.00305646262865303</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -6865,6 +7877,12 @@
       <c r="L169" t="n">
         <v>0.8857646078701272</v>
       </c>
+      <c r="M169" t="n">
+        <v>0.003365286162263193</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0.004519047040269581</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -6903,6 +7921,12 @@
       <c r="L170" t="n">
         <v>0.9865270197940014</v>
       </c>
+      <c r="M170" t="n">
+        <v>0.03349393701359133</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0.0004406705850993829</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -6941,6 +7965,12 @@
       <c r="L171" t="n">
         <v>0.9399546549353691</v>
       </c>
+      <c r="M171" t="n">
+        <v>0.006077485030015289</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0.002495200531908105</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -6979,6 +8009,12 @@
       <c r="L172" t="n">
         <v>0.9419826219930351</v>
       </c>
+      <c r="M172" t="n">
+        <v>0.002124352433949936</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0.007167227701890909</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -7017,6 +8053,12 @@
       <c r="L173" t="n">
         <v>0.8931939007163684</v>
       </c>
+      <c r="M173" t="n">
+        <v>0.009070213020022184</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0.001667389070546424</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -7055,6 +8097,12 @@
       <c r="L174" t="n">
         <v>0.9524962706002934</v>
       </c>
+      <c r="M174" t="n">
+        <v>0.007420186138693007</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0.002041375442321732</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -7093,6 +8141,12 @@
       <c r="L175" t="n">
         <v>0.9654818603826966</v>
       </c>
+      <c r="M175" t="n">
+        <v>0.01215192908394692</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0.001240770725794036</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -7131,6 +8185,12 @@
       <c r="L176" t="n">
         <v>0.8145434026626244</v>
       </c>
+      <c r="M176" t="n">
+        <v>0.001182607646500804</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0.01289445806900523</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -7169,6 +8229,12 @@
       <c r="L177" t="n">
         <v>0.812089703281196</v>
       </c>
+      <c r="M177" t="n">
+        <v>0.001433413143121229</v>
+      </c>
+      <c r="N177" t="n">
+        <v>0.01062969373034221</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -7207,6 +8273,12 @@
       <c r="L178" t="n">
         <v>0.7883370762377734</v>
       </c>
+      <c r="M178" t="n">
+        <v>0.00149236678243947</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0.01020909818759426</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -7245,6 +8317,12 @@
       <c r="L179" t="n">
         <v>0.813196703183088</v>
       </c>
+      <c r="M179" t="n">
+        <v>0.0005889984227802278</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0.02589522433780515</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -7283,6 +8361,12 @@
       <c r="L180" t="n">
         <v>0.6775401681911242</v>
       </c>
+      <c r="M180" t="n">
+        <v>0.000994328520150866</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0.0153302533688974</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -7321,6 +8405,12 @@
       <c r="L181" t="n">
         <v>0.902429459303293</v>
       </c>
+      <c r="M181" t="n">
+        <v>0.001909405740420966</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0.007977966917610683</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -7359,6 +8449,12 @@
       <c r="L182" t="n">
         <v>0.9287691683828966</v>
       </c>
+      <c r="M182" t="n">
+        <v>0.002343387931484869</v>
+      </c>
+      <c r="N182" t="n">
+        <v>0.006496301214255446</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -7397,6 +8493,12 @@
       <c r="L183" t="n">
         <v>0.8943980863534839</v>
       </c>
+      <c r="M183" t="n">
+        <v>0.007088588868960984</v>
+      </c>
+      <c r="N183" t="n">
+        <v>0.00213758815937847</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -7435,6 +8537,12 @@
       <c r="L184" t="n">
         <v>0.9196574094604529</v>
       </c>
+      <c r="M184" t="n">
+        <v>0.002426010276640179</v>
+      </c>
+      <c r="N184" t="n">
+        <v>0.006274657025156267</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -7473,6 +8581,12 @@
       <c r="L185" t="n">
         <v>0.9479976902637631</v>
       </c>
+      <c r="M185" t="n">
+        <v>0.002156315154004546</v>
+      </c>
+      <c r="N185" t="n">
+        <v>0.007061358241762526</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -7511,6 +8625,12 @@
       <c r="L186" t="n">
         <v>0.825108514437532</v>
       </c>
+      <c r="M186" t="n">
+        <v>0.001000422353027765</v>
+      </c>
+      <c r="N186" t="n">
+        <v>0.01523693010104646</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -7549,6 +8669,12 @@
       <c r="L187" t="n">
         <v>0.9167808020266087</v>
       </c>
+      <c r="M187" t="n">
+        <v>0.002216400490814455</v>
+      </c>
+      <c r="N187" t="n">
+        <v>0.006869451239252493</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -7587,6 +8713,12 @@
       <c r="L188" t="n">
         <v>0.7276017128007446</v>
       </c>
+      <c r="M188" t="n">
+        <v>0.0008090609114342726</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0.0188442331897965</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -7625,6 +8757,12 @@
       <c r="L189" t="n">
         <v>0.7242567573887182</v>
       </c>
+      <c r="M189" t="n">
+        <v>0.000953606960038009</v>
+      </c>
+      <c r="N189" t="n">
+        <v>0.0159860200193123</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -7663,6 +8801,12 @@
       <c r="L190" t="n">
         <v>0.7028769621716872</v>
       </c>
+      <c r="M190" t="n">
+        <v>0.004216087261217176</v>
+      </c>
+      <c r="N190" t="n">
+        <v>0.003604212440675649</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -7701,6 +8845,12 @@
       <c r="L191" t="n">
         <v>0.9543315967907474</v>
       </c>
+      <c r="M191" t="n">
+        <v>0.002551433020891963</v>
+      </c>
+      <c r="N191" t="n">
+        <v>0.005964110250921719</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -7739,6 +8889,12 @@
       <c r="L192" t="n">
         <v>0.9650010042283858</v>
       </c>
+      <c r="M192" t="n">
+        <v>0.007476197614254753</v>
+      </c>
+      <c r="N192" t="n">
+        <v>0.002025975824785961</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -7777,6 +8933,12 @@
       <c r="L193" t="n">
         <v>0.9773077377261363</v>
       </c>
+      <c r="M193" t="n">
+        <v>0.008104647058282182</v>
+      </c>
+      <c r="N193" t="n">
+        <v>0.001867471044361791</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -7815,6 +8977,12 @@
       <c r="L194" t="n">
         <v>0.9202126576026221</v>
       </c>
+      <c r="M194" t="n">
+        <v>0.001456149063817719</v>
+      </c>
+      <c r="N194" t="n">
+        <v>0.01046157211132608</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -7853,6 +9021,12 @@
       <c r="L195" t="n">
         <v>0.8327505729371469</v>
       </c>
+      <c r="M195" t="n">
+        <v>0.001234406532835707</v>
+      </c>
+      <c r="N195" t="n">
+        <v>0.01234601282239281</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -7891,6 +9065,12 @@
       <c r="L196" t="n">
         <v>0.986876481183682</v>
       </c>
+      <c r="M196" t="n">
+        <v>0.02768430969476423</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0.0005365513118470187</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -7929,6 +9109,12 @@
       <c r="L197" t="n">
         <v>0.7766960740776753</v>
       </c>
+      <c r="M197" t="n">
+        <v>0.002227155931723404</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0.006844036600773425</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -7967,6 +9153,12 @@
       <c r="L198" t="n">
         <v>0.9830749777447442</v>
       </c>
+      <c r="M198" t="n">
+        <v>0.02625990449369162</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0.0005662458904426988</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -8005,6 +9197,12 @@
       <c r="L199" t="n">
         <v>0.907932196242598</v>
       </c>
+      <c r="M199" t="n">
+        <v>0.008341784576896204</v>
+      </c>
+      <c r="N199" t="n">
+        <v>0.001814338044320354</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -8043,6 +9241,12 @@
       <c r="L200" t="n">
         <v>0.9284293960928095</v>
       </c>
+      <c r="M200" t="n">
+        <v>0.002256232820761923</v>
+      </c>
+      <c r="N200" t="n">
+        <v>0.006747990310613189</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -8081,6 +9285,12 @@
       <c r="L201" t="n">
         <v>0.9546318914459706</v>
       </c>
+      <c r="M201" t="n">
+        <v>0.002285735689200272</v>
+      </c>
+      <c r="N201" t="n">
+        <v>0.006660012197650336</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -8119,6 +9329,12 @@
       <c r="L202" t="n">
         <v>0.7024685280463625</v>
       </c>
+      <c r="M202" t="n">
+        <v>0.004144921915922039</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0.003666387373769154</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -8157,6 +9373,12 @@
       <c r="L203" t="n">
         <v>0.5999555165404992</v>
       </c>
+      <c r="M203" t="n">
+        <v>0.001430637389866902</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0.01065069155559167</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -8195,6 +9417,12 @@
       <c r="L204" t="n">
         <v>0.8931607304908182</v>
       </c>
+      <c r="M204" t="n">
+        <v>0.001655585119905706</v>
+      </c>
+      <c r="N204" t="n">
+        <v>0.009203144993184736</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -8233,6 +9461,12 @@
       <c r="L205" t="n">
         <v>0.7480027478008094</v>
       </c>
+      <c r="M205" t="n">
+        <v>0.0006949968589450651</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0.021939829732995</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -8271,6 +9505,12 @@
       <c r="L206" t="n">
         <v>0.8095417610230896</v>
       </c>
+      <c r="M206" t="n">
+        <v>0.001228973491480768</v>
+      </c>
+      <c r="N206" t="n">
+        <v>0.01240077672526956</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -8309,6 +9549,12 @@
       <c r="L207" t="n">
         <v>0.9048762279116433</v>
       </c>
+      <c r="M207" t="n">
+        <v>0.001385709014042367</v>
+      </c>
+      <c r="N207" t="n">
+        <v>0.01099642080261298</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -8347,6 +9593,12 @@
       <c r="L208" t="n">
         <v>0.5778097354793147</v>
       </c>
+      <c r="M208" t="n">
+        <v>0.0008853103902446054</v>
+      </c>
+      <c r="N208" t="n">
+        <v>0.01722121475425558</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -8385,6 +9637,12 @@
       <c r="L209" t="n">
         <v>0.9483553731854134</v>
       </c>
+      <c r="M209" t="n">
+        <v>0.002248863510572572</v>
+      </c>
+      <c r="N209" t="n">
+        <v>0.006770205556174044</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -8423,6 +9681,12 @@
       <c r="L210" t="n">
         <v>0.8916551343873942</v>
       </c>
+      <c r="M210" t="n">
+        <v>0.008660201214614327</v>
+      </c>
+      <c r="N210" t="n">
+        <v>0.001746956682497236</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -8461,6 +9725,12 @@
       <c r="L211" t="n">
         <v>0.8629201284529516</v>
       </c>
+      <c r="M211" t="n">
+        <v>0.001053943066590383</v>
+      </c>
+      <c r="N211" t="n">
+        <v>0.01446433246718639</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -8499,6 +9769,12 @@
       <c r="L212" t="n">
         <v>0.8744238995149581</v>
       </c>
+      <c r="M212" t="n">
+        <v>0.005528126583118893</v>
+      </c>
+      <c r="N212" t="n">
+        <v>0.002745060644000454</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -8537,6 +9813,12 @@
       <c r="L213" t="n">
         <v>0.8460786977727547</v>
       </c>
+      <c r="M213" t="n">
+        <v>0.001600551041975849</v>
+      </c>
+      <c r="N213" t="n">
+        <v>0.009518407772967263</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -8575,6 +9857,12 @@
       <c r="L214" t="n">
         <v>0.6418260887034349</v>
       </c>
+      <c r="M214" t="n">
+        <v>0.0005307278421213381</v>
+      </c>
+      <c r="N214" t="n">
+        <v>0.02873555396713233</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -8613,6 +9901,12 @@
       <c r="L215" t="n">
         <v>0.9153465651679477</v>
       </c>
+      <c r="M215" t="n">
+        <v>0.00775438676499172</v>
+      </c>
+      <c r="N215" t="n">
+        <v>0.001952655272417254</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -8651,6 +9945,12 @@
       <c r="L216" t="n">
         <v>0.8164590048772986</v>
       </c>
+      <c r="M216" t="n">
+        <v>0.001130551384569872</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0.0134812585145818</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -8689,6 +9989,12 @@
       <c r="L217" t="n">
         <v>0.8577720439460385</v>
       </c>
+      <c r="M217" t="n">
+        <v>0.001199947813302366</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0.01270268087292155</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -8727,6 +10033,12 @@
       <c r="L218" t="n">
         <v>0.9510108699589619</v>
       </c>
+      <c r="M218" t="n">
+        <v>0.003005334302068364</v>
+      </c>
+      <c r="N218" t="n">
+        <v>0.005058290465476736</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -8765,6 +10077,12 @@
       <c r="L219" t="n">
         <v>0.5022759438491231</v>
       </c>
+      <c r="M219" t="n">
+        <v>0.001988483573208262</v>
+      </c>
+      <c r="N219" t="n">
+        <v>0.007658566486051752</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -8803,6 +10121,12 @@
       <c r="L220" t="n">
         <v>0.9841055830034185</v>
       </c>
+      <c r="M220" t="n">
+        <v>0.01622130794589935</v>
+      </c>
+      <c r="N220" t="n">
+        <v>0.000925693640049285</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -8841,6 +10165,12 @@
       <c r="L221" t="n">
         <v>0.6067172103320077</v>
       </c>
+      <c r="M221" t="n">
+        <v>0.0005629444947687389</v>
+      </c>
+      <c r="N221" t="n">
+        <v>0.02709018257020849</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -8879,6 +10209,12 @@
       <c r="L222" t="n">
         <v>0.8569309589427707</v>
       </c>
+      <c r="M222" t="n">
+        <v>0.002133700588738679</v>
+      </c>
+      <c r="N222" t="n">
+        <v>0.007136135192008625</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -8917,6 +10253,12 @@
       <c r="L223" t="n">
         <v>0.8068298293392812</v>
       </c>
+      <c r="M223" t="n">
+        <v>0.001021195103861878</v>
+      </c>
+      <c r="N223" t="n">
+        <v>0.01492696732038797</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -8955,6 +10297,12 @@
       <c r="L224" t="n">
         <v>0.7368404326260016</v>
       </c>
+      <c r="M224" t="n">
+        <v>0.0008869308936667773</v>
+      </c>
+      <c r="N224" t="n">
+        <v>0.01718857894352609</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -8993,6 +10341,12 @@
       <c r="L225" t="n">
         <v>0.9779601028940496</v>
       </c>
+      <c r="M225" t="n">
+        <v>0.01966607490779535</v>
+      </c>
+      <c r="N225" t="n">
+        <v>0.0007607941348384957</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -9031,6 +10385,12 @@
       <c r="L226" t="n">
         <v>0.8634499165145672</v>
       </c>
+      <c r="M226" t="n">
+        <v>0.002250772077414104</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0.006764070739291439</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -9069,6 +10429,12 @@
       <c r="L227" t="n">
         <v>0.8971172933706482</v>
       </c>
+      <c r="M227" t="n">
+        <v>0.001571935417762622</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0.009690533003260293</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -9107,6 +10473,12 @@
       <c r="L228" t="n">
         <v>0.7797785636693596</v>
       </c>
+      <c r="M228" t="n">
+        <v>0.0008484166680016186</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0.01796939033743886</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -9145,6 +10517,12 @@
       <c r="L229" t="n">
         <v>0.6994118453475274</v>
       </c>
+      <c r="M229" t="n">
+        <v>0.00109866144515544</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0.01387338453027972</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -9183,6 +10561,12 @@
       <c r="L230" t="n">
         <v>0.9466660338087336</v>
       </c>
+      <c r="M230" t="n">
+        <v>0.002143810411782095</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0.007102564551256331</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -9221,6 +10605,12 @@
       <c r="L231" t="n">
         <v>0.9443523522347994</v>
       </c>
+      <c r="M231" t="n">
+        <v>0.006999989775459624</v>
+      </c>
+      <c r="N231" t="n">
+        <v>0.002164750032664714</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -9259,6 +10649,12 @@
       <c r="L232" t="n">
         <v>0.9284178230573352</v>
       </c>
+      <c r="M232" t="n">
+        <v>0.002255794684212204</v>
+      </c>
+      <c r="N232" t="n">
+        <v>0.006749304811606633</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -9297,6 +10693,12 @@
       <c r="L233" t="n">
         <v>0.7614418453243748</v>
       </c>
+      <c r="M233" t="n">
+        <v>0.00445562010206436</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0.00340962460295357</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -9335,6 +10737,12 @@
       <c r="L234" t="n">
         <v>0.820395353253735</v>
       </c>
+      <c r="M234" t="n">
+        <v>0.001333663382117731</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0.01142599347997092</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -9373,6 +10781,12 @@
       <c r="L235" t="n">
         <v>0.9857126176727689</v>
       </c>
+      <c r="M235" t="n">
+        <v>0.05130549210666795</v>
+      </c>
+      <c r="N235" t="n">
+        <v>0.0002828500468694948</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -9411,6 +10825,12 @@
       <c r="L236" t="n">
         <v>0.9917906689151236</v>
       </c>
+      <c r="M236" t="n">
+        <v>0.05592480184268126</v>
+      </c>
+      <c r="N236" t="n">
+        <v>0.0002577791260594773</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -9449,6 +10869,12 @@
       <c r="L237" t="n">
         <v>0.9763004140469378</v>
       </c>
+      <c r="M237" t="n">
+        <v>0.01413749528415675</v>
+      </c>
+      <c r="N237" t="n">
+        <v>0.001064356124194705</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -9487,6 +10913,12 @@
       <c r="L238" t="n">
         <v>0.9266823977907149</v>
       </c>
+      <c r="M238" t="n">
+        <v>0.00606087339053725</v>
+      </c>
+      <c r="N238" t="n">
+        <v>0.00250216157172378</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -9525,6 +10957,12 @@
       <c r="L239" t="n">
         <v>0.9402278444166022</v>
       </c>
+      <c r="M239" t="n">
+        <v>0.01018375867415143</v>
+      </c>
+      <c r="N239" t="n">
+        <v>0.001483431967349149</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -9563,6 +11001,12 @@
       <c r="L240" t="n">
         <v>0.8482742892985961</v>
       </c>
+      <c r="M240" t="n">
+        <v>0.001381348293200441</v>
+      </c>
+      <c r="N240" t="n">
+        <v>0.01103546520416517</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -9601,6 +11045,12 @@
       <c r="L241" t="n">
         <v>0.8854745282573347</v>
       </c>
+      <c r="M241" t="n">
+        <v>0.001952692826316968</v>
+      </c>
+      <c r="N241" t="n">
+        <v>0.007799195961386497</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -9639,6 +11089,12 @@
       <c r="L242" t="n">
         <v>0.9314438172695028</v>
       </c>
+      <c r="M242" t="n">
+        <v>0.02629644911358807</v>
+      </c>
+      <c r="N242" t="n">
+        <v>0.0005654269461697259</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -9677,6 +11133,12 @@
       <c r="L243" t="n">
         <v>0.791799046975399</v>
       </c>
+      <c r="M243" t="n">
+        <v>0.005972809620889261</v>
+      </c>
+      <c r="N243" t="n">
+        <v>0.002539659039371979</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -9715,6 +11177,12 @@
       <c r="L244" t="n">
         <v>0.6470666482391582</v>
       </c>
+      <c r="M244" t="n">
+        <v>0.0006440218369958362</v>
+      </c>
+      <c r="N244" t="n">
+        <v>0.02367784145275279</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -9753,6 +11221,12 @@
       <c r="L245" t="n">
         <v>0.8193082513793442</v>
       </c>
+      <c r="M245" t="n">
+        <v>0.001453784879291955</v>
+      </c>
+      <c r="N245" t="n">
+        <v>0.01048009670041974</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -9791,6 +11265,12 @@
       <c r="L246" t="n">
         <v>0.8865246203413987</v>
       </c>
+      <c r="M246" t="n">
+        <v>0.001239243026813569</v>
+      </c>
+      <c r="N246" t="n">
+        <v>0.01229778979028053</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -9829,6 +11309,12 @@
       <c r="L247" t="n">
         <v>0.9241900880194416</v>
       </c>
+      <c r="M247" t="n">
+        <v>0.004001703576284819</v>
+      </c>
+      <c r="N247" t="n">
+        <v>0.003798052836302632</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -9867,6 +11353,12 @@
       <c r="L248" t="n">
         <v>0.8251184118613296</v>
       </c>
+      <c r="M248" t="n">
+        <v>0.001000499530859646</v>
+      </c>
+      <c r="N248" t="n">
+        <v>0.0152357534643138</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -9905,6 +11397,12 @@
       <c r="L249" t="n">
         <v>0.7878787264227862</v>
       </c>
+      <c r="M249" t="n">
+        <v>0.000884835929145291</v>
+      </c>
+      <c r="N249" t="n">
+        <v>0.01722874636926911</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -9943,6 +11441,12 @@
       <c r="L250" t="n">
         <v>0.7863909732157098</v>
       </c>
+      <c r="M250" t="n">
+        <v>0.0009774574397818075</v>
+      </c>
+      <c r="N250" t="n">
+        <v>0.01559530873438834</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -9981,6 +11485,12 @@
       <c r="L251" t="n">
         <v>0.7391500804313804</v>
       </c>
+      <c r="M251" t="n">
+        <v>0.001103587008951203</v>
+      </c>
+      <c r="N251" t="n">
+        <v>0.01381129690153422</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -10019,6 +11529,12 @@
       <c r="L252" t="n">
         <v>0.9795979677554066</v>
       </c>
+      <c r="M252" t="n">
+        <v>0.02042293670425741</v>
+      </c>
+      <c r="N252" t="n">
+        <v>0.0007317739227512383</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -10057,6 +11573,12 @@
       <c r="L253" t="n">
         <v>0.8501994396581948</v>
       </c>
+      <c r="M253" t="n">
+        <v>0.001220404941080485</v>
+      </c>
+      <c r="N253" t="n">
+        <v>0.01248783291348316</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -10095,6 +11617,12 @@
       <c r="L254" t="n">
         <v>0.8658413365607974</v>
       </c>
+      <c r="M254" t="n">
+        <v>0.001302498741738191</v>
+      </c>
+      <c r="N254" t="n">
+        <v>0.01169913997274266</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -10133,6 +11661,12 @@
       <c r="L255" t="n">
         <v>0.948367940387091</v>
       </c>
+      <c r="M255" t="n">
+        <v>0.002249076321512517</v>
+      </c>
+      <c r="N255" t="n">
+        <v>0.006769562912793377</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -10171,6 +11705,12 @@
       <c r="L256" t="n">
         <v>0.8580421683289473</v>
       </c>
+      <c r="M256" t="n">
+        <v>0.001652050035402141</v>
+      </c>
+      <c r="N256" t="n">
+        <v>0.009221147089302882</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -10209,6 +11749,12 @@
       <c r="L257" t="n">
         <v>0.979416362456788</v>
       </c>
+      <c r="M257" t="n">
+        <v>0.0192143864668968</v>
+      </c>
+      <c r="N257" t="n">
+        <v>0.0007790185841067519</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -10247,6 +11793,12 @@
       <c r="L258" t="n">
         <v>0.8121259859936322</v>
       </c>
+      <c r="M258" t="n">
+        <v>0.001433789347864915</v>
+      </c>
+      <c r="N258" t="n">
+        <v>0.01062690133597345</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -10285,6 +11837,12 @@
       <c r="L259" t="n">
         <v>0.8315008664873149</v>
       </c>
+      <c r="M259" t="n">
+        <v>0.0008326100460952464</v>
+      </c>
+      <c r="N259" t="n">
+        <v>0.01831307366952982</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -10323,6 +11881,12 @@
       <c r="L260" t="n">
         <v>0.9323523548994535</v>
       </c>
+      <c r="M260" t="n">
+        <v>0.01095829557110469</v>
+      </c>
+      <c r="N260" t="n">
+        <v>0.001377555217500096</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -10361,6 +11925,12 @@
       <c r="L261" t="n">
         <v>0.9187652824573896</v>
       </c>
+      <c r="M261" t="n">
+        <v>0.002976785672252325</v>
+      </c>
+      <c r="N261" t="n">
+        <v>0.005110845085919499</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -10399,6 +11969,12 @@
       <c r="L262" t="n">
         <v>0.9369256391171129</v>
       </c>
+      <c r="M262" t="n">
+        <v>0.002388534804180111</v>
+      </c>
+      <c r="N262" t="n">
+        <v>0.006370864911667318</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -10437,6 +12013,12 @@
       <c r="L263" t="n">
         <v>0.9419489952178322</v>
       </c>
+      <c r="M263" t="n">
+        <v>0.002123348913631165</v>
+      </c>
+      <c r="N263" t="n">
+        <v>0.007170620701576182</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -10475,6 +12057,12 @@
       <c r="L264" t="n">
         <v>0.9226249291570083</v>
       </c>
+      <c r="M264" t="n">
+        <v>0.009005603243894832</v>
+      </c>
+      <c r="N264" t="n">
+        <v>0.001679538992770311</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -10513,6 +12101,12 @@
       <c r="L265" t="n">
         <v>0.8168768802690207</v>
       </c>
+      <c r="M265" t="n">
+        <v>0.001636048621646337</v>
+      </c>
+      <c r="N265" t="n">
+        <v>0.009311048439007447</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -10551,6 +12145,12 @@
       <c r="L266" t="n">
         <v>0.9340090295551111</v>
       </c>
+      <c r="M266" t="n">
+        <v>0.002213548935459427</v>
+      </c>
+      <c r="N266" t="n">
+        <v>0.006878257488276164</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -10589,6 +12189,12 @@
       <c r="L267" t="n">
         <v>0.9376680911300852</v>
       </c>
+      <c r="M267" t="n">
+        <v>0.004066956178710786</v>
+      </c>
+      <c r="N267" t="n">
+        <v>0.003736918417075187</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -10627,6 +12233,12 @@
       <c r="L268" t="n">
         <v>0.8819835427597768</v>
       </c>
+      <c r="M268" t="n">
+        <v>0.001401747617107663</v>
+      </c>
+      <c r="N268" t="n">
+        <v>0.01087028268045792</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -10665,6 +12277,12 @@
       <c r="L269" t="n">
         <v>0.6539171520734728</v>
       </c>
+      <c r="M269" t="n">
+        <v>0.001513744473912582</v>
+      </c>
+      <c r="N269" t="n">
+        <v>0.01006513897883851</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -10703,6 +12321,12 @@
       <c r="L270" t="n">
         <v>0.9656777498222675</v>
       </c>
+      <c r="M270" t="n">
+        <v>0.0134411838970144</v>
+      </c>
+      <c r="N270" t="n">
+        <v>0.001119805380285949</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -10741,6 +12365,12 @@
       <c r="L271" t="n">
         <v>0.9708280184834759</v>
       </c>
+      <c r="M271" t="n">
+        <v>0.0229043663599931</v>
+      </c>
+      <c r="N271" t="n">
+        <v>0.0006514250183415695</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -10779,6 +12409,12 @@
       <c r="L272" t="n">
         <v>0.9048736754677843</v>
       </c>
+      <c r="M272" t="n">
+        <v>0.001385408938220659</v>
+      </c>
+      <c r="N272" t="n">
+        <v>0.01099880664368754</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -10817,6 +12453,12 @@
       <c r="L273" t="n">
         <v>0.9421587043847801</v>
       </c>
+      <c r="M273" t="n">
+        <v>0.01778129398588893</v>
+      </c>
+      <c r="N273" t="n">
+        <v>0.0008429807656999967</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -10855,6 +12497,12 @@
       <c r="L274" t="n">
         <v>0.7459462120219518</v>
       </c>
+      <c r="M274" t="n">
+        <v>0.0009766314728938122</v>
+      </c>
+      <c r="N274" t="n">
+        <v>0.01560245029098343</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -10893,6 +12541,12 @@
       <c r="L275" t="n">
         <v>0.9221556306075923</v>
       </c>
+      <c r="M275" t="n">
+        <v>0.005662500301214785</v>
+      </c>
+      <c r="N275" t="n">
+        <v>0.002679547065598995</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -10931,6 +12585,12 @@
       <c r="L276" t="n">
         <v>0.9245212803232892</v>
       </c>
+      <c r="M276" t="n">
+        <v>0.001900848989277656</v>
+      </c>
+      <c r="N276" t="n">
+        <v>0.008011570782520619</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -10969,6 +12629,12 @@
       <c r="L277" t="n">
         <v>0.8993856723104502</v>
       </c>
+      <c r="M277" t="n">
+        <v>0.002643775630928495</v>
+      </c>
+      <c r="N277" t="n">
+        <v>0.005756534858932951</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -11007,6 +12673,12 @@
       <c r="L278" t="n">
         <v>0.9780402190043038</v>
       </c>
+      <c r="M278" t="n">
+        <v>0.03227903691060232</v>
+      </c>
+      <c r="N278" t="n">
+        <v>0.000457431589096057</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -11045,6 +12717,12 @@
       <c r="L279" t="n">
         <v>0.8581092130517903</v>
       </c>
+      <c r="M279" t="n">
+        <v>0.001772894913752115</v>
+      </c>
+      <c r="N279" t="n">
+        <v>0.008590425091986469</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -11083,6 +12761,12 @@
       <c r="L280" t="n">
         <v>0.9201532499095724</v>
       </c>
+      <c r="M280" t="n">
+        <v>0.001455700066871992</v>
+      </c>
+      <c r="N280" t="n">
+        <v>0.01046480133161321</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -11121,6 +12805,12 @@
       <c r="L281" t="n">
         <v>0.9390886236530308</v>
       </c>
+      <c r="M281" t="n">
+        <v>0.001697265111884458</v>
+      </c>
+      <c r="N281" t="n">
+        <v>0.008972575005050068</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -11159,6 +12849,12 @@
       <c r="L282" t="n">
         <v>0.6661581835433743</v>
       </c>
+      <c r="M282" t="n">
+        <v>0.001075797527626803</v>
+      </c>
+      <c r="N282" t="n">
+        <v>0.01416853472709323</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -11197,6 +12893,12 @@
       <c r="L283" t="n">
         <v>0.9767380052652043</v>
       </c>
+      <c r="M283" t="n">
+        <v>0.0172624420614269</v>
+      </c>
+      <c r="N283" t="n">
+        <v>0.0008685302610055432</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -11235,6 +12937,12 @@
       <c r="L284" t="n">
         <v>0.9804532845476472</v>
       </c>
+      <c r="M284" t="n">
+        <v>0.02017208568798629</v>
+      </c>
+      <c r="N284" t="n">
+        <v>0.0007415811356009543</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -11273,6 +12981,12 @@
       <c r="L285" t="n">
         <v>0.7088934327751453</v>
       </c>
+      <c r="M285" t="n">
+        <v>0.0007165975010383682</v>
+      </c>
+      <c r="N285" t="n">
+        <v>0.02127808541345945</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -11311,6 +13025,12 @@
       <c r="L286" t="n">
         <v>0.7655153374440641</v>
       </c>
+      <c r="M286" t="n">
+        <v>0.0008442565807245724</v>
+      </c>
+      <c r="N286" t="n">
+        <v>0.01805821306375813</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -11349,6 +13069,12 @@
       <c r="L287" t="n">
         <v>0.9292274508931405</v>
       </c>
+      <c r="M287" t="n">
+        <v>0.008710263458350858</v>
+      </c>
+      <c r="N287" t="n">
+        <v>0.001736825876659794</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -11387,6 +13113,12 @@
       <c r="L288" t="n">
         <v>0.9714220762555268</v>
       </c>
+      <c r="M288" t="n">
+        <v>0.01172188208056145</v>
+      </c>
+      <c r="N288" t="n">
+        <v>0.001286823843007492</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -11425,6 +13157,12 @@
       <c r="L289" t="n">
         <v>0.9207605346462188</v>
       </c>
+      <c r="M289" t="n">
+        <v>0.001986758098561672</v>
+      </c>
+      <c r="N289" t="n">
+        <v>0.007665148707395308</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -11463,6 +13201,12 @@
       <c r="L290" t="n">
         <v>0.9433554191209714</v>
       </c>
+      <c r="M290" t="n">
+        <v>0.005156127616950355</v>
+      </c>
+      <c r="N290" t="n">
+        <v>0.002942043474328627</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -11501,6 +13245,12 @@
       <c r="L291" t="n">
         <v>0.9397688060205796</v>
       </c>
+      <c r="M291" t="n">
+        <v>0.003546722760077161</v>
+      </c>
+      <c r="N291" t="n">
+        <v>0.004287199753937081</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -11539,6 +13289,12 @@
       <c r="L292" t="n">
         <v>0.9827045818250938</v>
       </c>
+      <c r="M292" t="n">
+        <v>0.02966143094834038</v>
+      </c>
+      <c r="N292" t="n">
+        <v>0.0004997244861366507</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -11577,6 +13333,12 @@
       <c r="L293" t="n">
         <v>0.8425077362859076</v>
       </c>
+      <c r="M293" t="n">
+        <v>0.001639743210536256</v>
+      </c>
+      <c r="N293" t="n">
+        <v>0.009290454541603359</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -11615,6 +13377,12 @@
       <c r="L294" t="n">
         <v>0.911641873987584</v>
       </c>
+      <c r="M294" t="n">
+        <v>0.001984673520714404</v>
+      </c>
+      <c r="N294" t="n">
+        <v>0.007672535429566509</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -11653,6 +13421,12 @@
       <c r="L295" t="n">
         <v>0.9318379625966311</v>
       </c>
+      <c r="M295" t="n">
+        <v>0.002221178138124339</v>
+      </c>
+      <c r="N295" t="n">
+        <v>0.006854677282586</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -11691,6 +13465,12 @@
       <c r="L296" t="n">
         <v>0.9281108786804826</v>
       </c>
+      <c r="M296" t="n">
+        <v>0.002412739761106099</v>
+      </c>
+      <c r="N296" t="n">
+        <v>0.006316499703537612</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -11729,6 +13509,12 @@
       <c r="L297" t="n">
         <v>0.8095481139047578</v>
       </c>
+      <c r="M297" t="n">
+        <v>0.001492525594466663</v>
+      </c>
+      <c r="N297" t="n">
+        <v>0.01020839521883758</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -11767,6 +13553,12 @@
       <c r="L298" t="n">
         <v>0.9841872791107724</v>
       </c>
+      <c r="M298" t="n">
+        <v>0.02245461021982659</v>
+      </c>
+      <c r="N298" t="n">
+        <v>0.0006641349337331919</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -11805,6 +13597,12 @@
       <c r="L299" t="n">
         <v>0.8903209691253389</v>
       </c>
+      <c r="M299" t="n">
+        <v>0.00180653079824183</v>
+      </c>
+      <c r="N299" t="n">
+        <v>0.008431238400066318</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -11843,6 +13641,12 @@
       <c r="L300" t="n">
         <v>0.8793031145426107</v>
       </c>
+      <c r="M300" t="n">
+        <v>0.003895003319435074</v>
+      </c>
+      <c r="N300" t="n">
+        <v>0.003902387842704262</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -11880,6 +13684,12 @@
       </c>
       <c r="L301" t="n">
         <v>0.8928622151724604</v>
+      </c>
+      <c r="M301" t="n">
+        <v>0.0012512716324541</v>
+      </c>
+      <c r="N301" t="n">
+        <v>0.01218120707977407</v>
       </c>
     </row>
   </sheetData>
